--- a/logs.xlsx
+++ b/logs.xlsx
@@ -1,361 +1,487 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="logs" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="logs" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="112">
-  <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Network</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validation size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rand seed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shuffler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">optimizer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lr_init</t>
-  </si>
-  <si>
-    <t xml:space="preserve">momentum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lr scheduler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lr decay period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pretrained</t>
-  </si>
-  <si>
-    <t xml:space="preserve">batch_size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of iter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">loss_tr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">loss_test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCR_tr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCR_test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rmse_tr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rmse_test</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="156">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Network</t>
+  </si>
+  <si>
+    <t>Validation size</t>
+  </si>
+  <si>
+    <t>rand seed</t>
+  </si>
+  <si>
+    <t>shuffler</t>
+  </si>
+  <si>
+    <t>optimizer</t>
+  </si>
+  <si>
+    <t>Loss function</t>
+  </si>
+  <si>
+    <t>lr_init</t>
+  </si>
+  <si>
+    <t>momentum</t>
+  </si>
+  <si>
+    <t>lr scheduler</t>
+  </si>
+  <si>
+    <t>lr decay period</t>
+  </si>
+  <si>
+    <t>pretrained</t>
+  </si>
+  <si>
+    <t>batch_size</t>
+  </si>
+  <si>
+    <t>Number of iter</t>
+  </si>
+  <si>
+    <t>loss_tr</t>
+  </si>
+  <si>
+    <t>loss_test</t>
+  </si>
+  <si>
+    <t>CCR_tr</t>
+  </si>
+  <si>
+    <t>CCR_test</t>
+  </si>
+  <si>
+    <t>rmse_tr</t>
+  </si>
+  <si>
+    <t>rmse_test</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">September04  23:43:02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resnet34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">True</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sgd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crossentropy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;function exp_lr_scheduler at 0x7f21bae489d8&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September04  23:50:13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;function exp_lr_scheduler at 0x7f0fe21de950&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September04  23:50:54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September04  23:51:36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;function exp_lr_scheduler at 0x7f9d2a29f950&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September04  23:55:12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;function exp_lr_scheduler at 0x7f9bcf3a7950&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September05  00:47:46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resnet18_real_sgd_multisoft_August29  19:06:27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;function exp_lr_scheduler at 0x7f9bcf3a78c8&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September05  01:37:16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resnet18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;function exp_lr_scheduler at 0x7f03de734950&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September05  13:43:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;function exp_lr_scheduler at 0x7f41d161f9d8&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September05  13:44:42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September05  14:10:59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September05  14:37:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September05  15:07:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September05  15:33:27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September05  16:00:39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September05  16:27:07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September05  16:53:37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September05  17:20:06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September05  17:45:51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September05  18:13:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September05  18:42:09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September05  19:10:48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September05  19:38:54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September05  20:06:39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September05  20:34:09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September05  21:38:53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September05  22:07:23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September05  22:35:24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September05  23:03:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September05  23:30:51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September05  23:58:24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September06  00:25:51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September07  18:28:27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">multisoft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;function exp_lr_scheduler at 0x7f42d652c9d8&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September07  18:29:26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September07  18:30:03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September07  18:32:20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September07  18:43:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September07  18:49:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September07  18:59:28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September07  21:14:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September07  21:42:06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September07  22:10:09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September07  22:38:05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September07  23:05:54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September07  23:33:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September08  00:02:13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September08  00:30:31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September08  00:58:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September08  01:26:34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September08  01:54:36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September08  02:22:39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September08  02:50:38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September08  03:18:37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September08  03:46:14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September08  04:13:36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September08  04:40:54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September08  05:08:18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September08  05:36:37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September08  06:04:39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September08  06:32:26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September08  06:59:49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September08  07:27:10</t>
+    <t>September04  23:43:02</t>
+  </si>
+  <si>
+    <t>resnet34</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>sgd</t>
+  </si>
+  <si>
+    <t>crossentropy</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>&lt;function exp_lr_scheduler at 0x7f21bae489d8&gt;</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>September04  23:50:13</t>
+  </si>
+  <si>
+    <t>&lt;function exp_lr_scheduler at 0x7f0fe21de950&gt;</t>
+  </si>
+  <si>
+    <t>September04  23:50:54</t>
+  </si>
+  <si>
+    <t>September04  23:51:36</t>
+  </si>
+  <si>
+    <t>&lt;function exp_lr_scheduler at 0x7f9d2a29f950&gt;</t>
+  </si>
+  <si>
+    <t>September04  23:55:12</t>
+  </si>
+  <si>
+    <t>&lt;function exp_lr_scheduler at 0x7f9bcf3a7950&gt;</t>
+  </si>
+  <si>
+    <t>September05  00:47:46</t>
+  </si>
+  <si>
+    <t>resnet18_real_sgd_multisoft_August29  19:06:27</t>
+  </si>
+  <si>
+    <t>&lt;function exp_lr_scheduler at 0x7f9bcf3a78c8&gt;</t>
+  </si>
+  <si>
+    <t>September05  01:37:16</t>
+  </si>
+  <si>
+    <t>resnet18</t>
+  </si>
+  <si>
+    <t>&lt;function exp_lr_scheduler at 0x7f03de734950&gt;</t>
+  </si>
+  <si>
+    <t>September05  13:43:58</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>&lt;function exp_lr_scheduler at 0x7f41d161f9d8&gt;</t>
+  </si>
+  <si>
+    <t>September05  13:44:42</t>
+  </si>
+  <si>
+    <t>September05  14:10:59</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>September05  14:37:45</t>
+  </si>
+  <si>
+    <t>0.99</t>
+  </si>
+  <si>
+    <t>September05  15:07:00</t>
+  </si>
+  <si>
+    <t>September05  15:33:27</t>
+  </si>
+  <si>
+    <t>adam</t>
+  </si>
+  <si>
+    <t>September05  16:00:39</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>September05  16:27:07</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>September05  16:53:37</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>September05  17:20:06</t>
+  </si>
+  <si>
+    <t>September05  17:45:51</t>
+  </si>
+  <si>
+    <t>0.001</t>
+  </si>
+  <si>
+    <t>September05  18:13:45</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
+    <t>September05  18:42:09</t>
+  </si>
+  <si>
+    <t>September05  19:10:48</t>
+  </si>
+  <si>
+    <t>September05  19:38:54</t>
+  </si>
+  <si>
+    <t>September05  20:06:39</t>
+  </si>
+  <si>
+    <t>September05  20:34:09</t>
+  </si>
+  <si>
+    <t>September05  21:38:53</t>
+  </si>
+  <si>
+    <t>September05  22:07:23</t>
+  </si>
+  <si>
+    <t>September05  22:35:24</t>
+  </si>
+  <si>
+    <t>September05  23:03:10</t>
+  </si>
+  <si>
+    <t>September05  23:30:51</t>
+  </si>
+  <si>
+    <t>September05  23:58:24</t>
+  </si>
+  <si>
+    <t>September06  00:25:51</t>
+  </si>
+  <si>
+    <t>September07  18:28:27</t>
+  </si>
+  <si>
+    <t>multisoft</t>
+  </si>
+  <si>
+    <t>&lt;function exp_lr_scheduler at 0x7f42d652c9d8&gt;</t>
+  </si>
+  <si>
+    <t>September07  18:29:26</t>
+  </si>
+  <si>
+    <t>September07  18:30:03</t>
+  </si>
+  <si>
+    <t>September07  18:32:20</t>
+  </si>
+  <si>
+    <t>September07  18:43:30</t>
+  </si>
+  <si>
+    <t>September07  18:49:22</t>
+  </si>
+  <si>
+    <t>September07  18:59:28</t>
+  </si>
+  <si>
+    <t>September07  21:14:30</t>
+  </si>
+  <si>
+    <t>September07  21:42:06</t>
+  </si>
+  <si>
+    <t>September07  22:10:09</t>
+  </si>
+  <si>
+    <t>September07  22:38:05</t>
+  </si>
+  <si>
+    <t>September07  23:05:54</t>
+  </si>
+  <si>
+    <t>September07  23:33:58</t>
+  </si>
+  <si>
+    <t>September08  00:02:13</t>
+  </si>
+  <si>
+    <t>September08  00:30:31</t>
+  </si>
+  <si>
+    <t>September08  00:58:30</t>
+  </si>
+  <si>
+    <t>September08  01:26:34</t>
+  </si>
+  <si>
+    <t>September08  01:54:36</t>
+  </si>
+  <si>
+    <t>September08  02:22:39</t>
+  </si>
+  <si>
+    <t>September08  02:50:38</t>
+  </si>
+  <si>
+    <t>September08  03:18:37</t>
+  </si>
+  <si>
+    <t>September08  03:46:14</t>
+  </si>
+  <si>
+    <t>September08  04:13:36</t>
+  </si>
+  <si>
+    <t>September08  04:40:54</t>
+  </si>
+  <si>
+    <t>September08  05:08:18</t>
+  </si>
+  <si>
+    <t>September08  05:36:37</t>
+  </si>
+  <si>
+    <t>September08  06:04:39</t>
+  </si>
+  <si>
+    <t>September08  06:32:26</t>
+  </si>
+  <si>
+    <t>September08  06:59:49</t>
+  </si>
+  <si>
+    <t>September08  07:27:10</t>
+  </si>
+  <si>
+    <t>September08  19:25:15</t>
+  </si>
+  <si>
+    <t>MSE</t>
+  </si>
+  <si>
+    <t>&lt;function exp_lr_scheduler at 0x7f07136878c8&gt;</t>
+  </si>
+  <si>
+    <t>September08  19:39:30</t>
+  </si>
+  <si>
+    <t>&lt;function exp_lr_scheduler at 0x7fbfef9a18c8&gt;</t>
+  </si>
+  <si>
+    <t>September08  20:05:57</t>
+  </si>
+  <si>
+    <t>September08  20:31:33</t>
+  </si>
+  <si>
+    <t>September08  20:57:15</t>
+  </si>
+  <si>
+    <t>September08  21:23:26</t>
+  </si>
+  <si>
+    <t>September08  21:49:10</t>
+  </si>
+  <si>
+    <t>September08  22:14:54</t>
+  </si>
+  <si>
+    <t>September08  22:40:37</t>
+  </si>
+  <si>
+    <t>September08  23:06:17</t>
+  </si>
+  <si>
+    <t>1.0xcross + 0.3Xmulti</t>
+  </si>
+  <si>
+    <t>September08  23:34:14</t>
+  </si>
+  <si>
+    <t>1.0xcross + 0.6Xmulti</t>
+  </si>
+  <si>
+    <t>September09  00:02:21</t>
+  </si>
+  <si>
+    <t>1.0xcross + 1.0Xmulti</t>
+  </si>
+  <si>
+    <t>September09  00:30:24</t>
+  </si>
+  <si>
+    <t>1.0xcross + 1.5Xmulti</t>
+  </si>
+  <si>
+    <t>September09  00:58:26</t>
+  </si>
+  <si>
+    <t>1.0xcross + 2.0Xmulti</t>
+  </si>
+  <si>
+    <t>September09  01:26:33</t>
+  </si>
+  <si>
+    <t>1.0xcross + 5.0Xmulti</t>
+  </si>
+  <si>
+    <t>September09  01:54:42</t>
+  </si>
+  <si>
+    <t>1.0xcross + 10.0Xmulti</t>
+  </si>
+  <si>
+    <t>September09  02:22:47</t>
+  </si>
+  <si>
+    <t>September09  02:50:49</t>
+  </si>
+  <si>
+    <t>September09  03:18:55</t>
+  </si>
+  <si>
+    <t>September09  03:46:53</t>
+  </si>
+  <si>
+    <t>September09  04:14:49</t>
+  </si>
+  <si>
+    <t>September09  04:42:52</t>
+  </si>
+  <si>
+    <t>September09  05:10:44</t>
+  </si>
+  <si>
+    <t>September09  05:38:27</t>
+  </si>
+  <si>
+    <t>September09  06:05:48</t>
+  </si>
+  <si>
+    <t>September09  06:33:03</t>
+  </si>
+  <si>
+    <t>September09  07:00:11</t>
+  </si>
+  <si>
+    <t>September09  07:27:46</t>
+  </si>
+  <si>
+    <t>September09  07:55:06</t>
+  </si>
+  <si>
+    <t>September09  08:22:15</t>
+  </si>
+  <si>
+    <t>September11  09:15:15</t>
+  </si>
+  <si>
+    <t>1.0xcross + 0.0Xmulti</t>
+  </si>
+  <si>
+    <t>&lt;function exp_lr_scheduler at 0x7ff8b6f8e8c8&gt;</t>
+  </si>
+  <si>
+    <t>64</t>
   </si>
 </sst>
 </file>
@@ -363,48 +489,48 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt formatCode="General" numFmtId="164"/>
   </numFmts>
   <fonts count="5">
     <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -412,78 +538,344 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="6">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="4">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" name="Comma" xfId="1"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="2"/>
+    <cellStyle builtinId="4" name="Currency" xfId="3"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
+    <cellStyle builtinId="5" name="Percent" xfId="5"/>
   </cellStyles>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:T64"/>
+  <dimension ref="A1:T95"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A65" activeCellId="0" sqref="65:65"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A41" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A72" activeCellId="0" pane="topLeft" sqref="66:72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="10.1224489795918"/>
+    <col customWidth="1" max="1" min="1" style="1" width="9.719387755102041"/>
+    <col customWidth="1" max="2" min="2" style="1" width="15.6581632653061"/>
+    <col customWidth="1" max="4" min="3" style="1" width="9.719387755102041"/>
+    <col customWidth="1" max="5" min="5" style="1" width="13.7704081632653"/>
+    <col customWidth="1" max="6" min="6" style="1" width="10.6632653061225"/>
+    <col customWidth="1" max="1025" min="7" style="1" width="9.719387755102041"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="13.8" r="1" s="3" spans="1:20">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -545,54 +937,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0"/>
-      <c r="B2" s="0"/>
-      <c r="C2" s="0"/>
-      <c r="D2" s="0"/>
-      <c r="E2" s="0"/>
-      <c r="F2" s="0"/>
-      <c r="G2" s="0"/>
-      <c r="H2" s="0"/>
-      <c r="I2" s="0"/>
-      <c r="J2" s="0"/>
-      <c r="K2" s="0"/>
-      <c r="L2" s="0"/>
-      <c r="M2" s="0"/>
-      <c r="N2" s="0"/>
-      <c r="O2" s="0"/>
-      <c r="P2" s="0"/>
+    <row customHeight="1" ht="12.8" r="2" s="3" spans="1:20">
       <c r="Q2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="0"/>
-      <c r="T2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0"/>
-      <c r="B3" s="0"/>
-      <c r="C3" s="0"/>
-      <c r="D3" s="0"/>
-      <c r="E3" s="0"/>
-      <c r="F3" s="0"/>
-      <c r="G3" s="0"/>
-      <c r="H3" s="0"/>
-      <c r="I3" s="0"/>
-      <c r="J3" s="0"/>
-      <c r="K3" s="0"/>
-      <c r="L3" s="0"/>
-      <c r="M3" s="0"/>
-      <c r="N3" s="0"/>
-      <c r="O3" s="0"/>
-      <c r="P3" s="0"/>
-      <c r="Q3" s="0"/>
+      <c r="R2" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12.8" r="3" s="3" spans="1:20">
       <c r="R3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="0"/>
-      <c r="T3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row customHeight="1" ht="12.8" r="4" s="3" spans="1:20">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -647,10 +1003,8 @@
       <c r="R4" s="1" t="n">
         <v>0.732</v>
       </c>
-      <c r="S4" s="0"/>
-      <c r="T4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row customHeight="1" ht="12.8" r="5" s="3" spans="1:20">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -690,12 +1044,16 @@
       <c r="M5" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="N5" s="1" t="n"/>
+      <c r="O5" s="1" t="n"/>
+      <c r="P5" s="1" t="n"/>
+      <c r="Q5" s="1" t="n"/>
+      <c r="R5" s="1" t="n"/>
       <c r="S5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row customHeight="1" ht="12.8" r="6" s="3" spans="1:20">
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
@@ -735,12 +1093,16 @@
       <c r="M6" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="N6" s="1" t="n"/>
+      <c r="O6" s="1" t="n"/>
+      <c r="P6" s="1" t="n"/>
+      <c r="Q6" s="1" t="n"/>
+      <c r="R6" s="1" t="n"/>
       <c r="S6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T6" s="0"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row customHeight="1" ht="12.8" r="7" s="3" spans="1:20">
       <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
@@ -780,12 +1142,16 @@
       <c r="M7" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="N7" s="1" t="n"/>
+      <c r="O7" s="1" t="n"/>
+      <c r="P7" s="1" t="n"/>
+      <c r="Q7" s="1" t="n"/>
+      <c r="R7" s="1" t="n"/>
       <c r="S7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T7" s="0"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row customHeight="1" ht="12.8" r="8" s="3" spans="1:20">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
@@ -835,7 +1201,7 @@
         <v>0.0426815513372421</v>
       </c>
       <c r="Q8" s="1" t="n">
-        <v>0.53052776819593</v>
+        <v>0.5305277681959299</v>
       </c>
       <c r="R8" s="1" t="n">
         <v>0.419</v>
@@ -843,9 +1209,8 @@
       <c r="S8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T8" s="0"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row customHeight="1" ht="12.8" r="9" s="3" spans="1:20">
       <c r="A9" s="1" t="s">
         <v>40</v>
       </c>
@@ -903,9 +1268,8 @@
       <c r="S9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T9" s="0"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row customHeight="1" ht="12.8" r="10" s="3" spans="1:20">
       <c r="A10" s="1" t="s">
         <v>43</v>
       </c>
@@ -963,9 +1327,8 @@
       <c r="S10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T10" s="0"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row customHeight="1" ht="12.8" r="11" s="3" spans="1:20">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -1005,17 +1368,11 @@
       <c r="M11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N11" s="0"/>
-      <c r="O11" s="0"/>
-      <c r="P11" s="0"/>
-      <c r="Q11" s="0"/>
-      <c r="R11" s="0"/>
       <c r="S11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T11" s="0"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row customHeight="1" ht="12.8" r="12" s="3" spans="1:20">
       <c r="A12" s="1" t="s">
         <v>49</v>
       </c>
@@ -1073,9 +1430,8 @@
       <c r="S12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T12" s="0"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row customHeight="1" ht="12.8" r="13" s="3" spans="1:20">
       <c r="A13" s="1" t="s">
         <v>50</v>
       </c>
@@ -1133,9 +1489,8 @@
       <c r="S13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T13" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row customHeight="1" ht="12.8" r="14" s="3" spans="1:20">
       <c r="A14" s="1" t="s">
         <v>52</v>
       </c>
@@ -1193,9 +1548,8 @@
       <c r="S14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T14" s="0"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row customHeight="1" ht="12.8" r="15" s="3" spans="1:20">
       <c r="A15" s="1" t="s">
         <v>54</v>
       </c>
@@ -1253,9 +1607,8 @@
       <c r="S15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T15" s="0"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row customHeight="1" ht="12.8" r="16" s="3" spans="1:20">
       <c r="A16" s="1" t="s">
         <v>55</v>
       </c>
@@ -1313,9 +1666,8 @@
       <c r="S16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T16" s="0"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row customHeight="1" ht="12.8" r="17" s="3" spans="1:20">
       <c r="A17" s="1" t="s">
         <v>57</v>
       </c>
@@ -1373,9 +1725,8 @@
       <c r="S17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T17" s="0"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row customHeight="1" ht="12.8" r="18" s="3" spans="1:20">
       <c r="A18" s="1" t="s">
         <v>59</v>
       </c>
@@ -1433,9 +1784,8 @@
       <c r="S18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T18" s="0"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row customHeight="1" ht="12.8" r="19" s="3" spans="1:20">
       <c r="A19" s="1" t="s">
         <v>61</v>
       </c>
@@ -1493,9 +1843,8 @@
       <c r="S19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T19" s="0"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row customHeight="1" ht="12.8" r="20" s="3" spans="1:20">
       <c r="A20" s="1" t="s">
         <v>63</v>
       </c>
@@ -1553,9 +1902,8 @@
       <c r="S20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T20" s="0"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row customHeight="1" ht="12.8" r="21" s="3" spans="1:20">
       <c r="A21" s="1" t="s">
         <v>64</v>
       </c>
@@ -1613,9 +1961,8 @@
       <c r="S21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T21" s="0"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row customHeight="1" ht="12.8" r="22" s="3" spans="1:20">
       <c r="A22" s="1" t="s">
         <v>66</v>
       </c>
@@ -1673,9 +2020,8 @@
       <c r="S22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T22" s="0"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row customHeight="1" ht="12.8" r="23" s="3" spans="1:20">
       <c r="A23" s="1" t="s">
         <v>68</v>
       </c>
@@ -1733,9 +2079,8 @@
       <c r="S23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T23" s="0"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row customHeight="1" ht="12.8" r="24" s="3" spans="1:20">
       <c r="A24" s="1" t="s">
         <v>69</v>
       </c>
@@ -1793,9 +2138,8 @@
       <c r="S24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T24" s="0"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row customHeight="1" ht="12.8" r="25" s="3" spans="1:20">
       <c r="A25" s="1" t="s">
         <v>70</v>
       </c>
@@ -1853,9 +2197,8 @@
       <c r="S25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T25" s="0"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row customHeight="1" ht="12.8" r="26" s="3" spans="1:20">
       <c r="A26" s="1" t="s">
         <v>71</v>
       </c>
@@ -1913,9 +2256,8 @@
       <c r="S26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T26" s="0"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row customHeight="1" ht="12.8" r="27" s="3" spans="1:20">
       <c r="A27" s="1" t="s">
         <v>72</v>
       </c>
@@ -1973,9 +2315,8 @@
       <c r="S27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T27" s="0"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row customHeight="1" ht="12.8" r="28" s="3" spans="1:20">
       <c r="A28" s="1" t="s">
         <v>73</v>
       </c>
@@ -2033,9 +2374,8 @@
       <c r="S28" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T28" s="0"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row customHeight="1" ht="12.8" r="29" s="3" spans="1:20">
       <c r="A29" s="1" t="s">
         <v>74</v>
       </c>
@@ -2093,9 +2433,8 @@
       <c r="S29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T29" s="0"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row customHeight="1" ht="12.8" r="30" s="3" spans="1:20">
       <c r="A30" s="1" t="s">
         <v>75</v>
       </c>
@@ -2153,9 +2492,8 @@
       <c r="S30" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T30" s="0"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row customHeight="1" ht="12.8" r="31" s="3" spans="1:20">
       <c r="A31" s="1" t="s">
         <v>76</v>
       </c>
@@ -2213,9 +2551,8 @@
       <c r="S31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T31" s="0"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row customHeight="1" ht="12.8" r="32" s="3" spans="1:20">
       <c r="A32" s="1" t="s">
         <v>77</v>
       </c>
@@ -2273,9 +2610,8 @@
       <c r="S32" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T32" s="0"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row customHeight="1" ht="12.8" r="33" s="3" spans="1:20">
       <c r="A33" s="1" t="s">
         <v>78</v>
       </c>
@@ -2333,9 +2669,8 @@
       <c r="S33" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T33" s="0"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row customHeight="1" ht="12.8" r="34" s="3" spans="1:20">
       <c r="A34" s="1" t="s">
         <v>79</v>
       </c>
@@ -2393,9 +2728,8 @@
       <c r="S34" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T34" s="0"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row customHeight="1" ht="12.8" r="35" s="3" spans="1:20">
       <c r="A35" s="1" t="s">
         <v>80</v>
       </c>
@@ -2435,17 +2769,11 @@
       <c r="M35" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N35" s="0"/>
-      <c r="O35" s="0"/>
-      <c r="P35" s="0"/>
-      <c r="Q35" s="0"/>
-      <c r="R35" s="0"/>
       <c r="S35" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T35" s="0"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row customHeight="1" ht="12.8" r="36" s="3" spans="1:20">
       <c r="A36" s="1" t="s">
         <v>83</v>
       </c>
@@ -2485,17 +2813,11 @@
       <c r="M36" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N36" s="0"/>
-      <c r="O36" s="0"/>
-      <c r="P36" s="0"/>
-      <c r="Q36" s="0"/>
-      <c r="R36" s="0"/>
       <c r="S36" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T36" s="0"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row customHeight="1" ht="12.8" r="37" s="3" spans="1:20">
       <c r="A37" s="1" t="s">
         <v>84</v>
       </c>
@@ -2535,17 +2857,11 @@
       <c r="M37" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N37" s="0"/>
-      <c r="O37" s="0"/>
-      <c r="P37" s="0"/>
-      <c r="Q37" s="0"/>
-      <c r="R37" s="0"/>
       <c r="S37" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T37" s="0"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row customHeight="1" ht="12.8" r="38" s="3" spans="1:20">
       <c r="A38" s="1" t="s">
         <v>85</v>
       </c>
@@ -2607,7 +2923,7 @@
         <v>1.20457461371224</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="39" s="3" spans="1:20">
       <c r="A39" s="1" t="s">
         <v>86</v>
       </c>
@@ -2647,17 +2963,11 @@
       <c r="M39" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N39" s="0"/>
-      <c r="O39" s="0"/>
-      <c r="P39" s="0"/>
-      <c r="Q39" s="0"/>
-      <c r="R39" s="0"/>
       <c r="S39" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T39" s="0"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row customHeight="1" ht="12.8" r="40" s="3" spans="1:20">
       <c r="A40" s="1" t="s">
         <v>87</v>
       </c>
@@ -2719,7 +3029,7 @@
         <v>1.05830052442584</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="41" s="3" spans="1:20">
       <c r="A41" s="1" t="s">
         <v>88</v>
       </c>
@@ -2781,7 +3091,7 @@
         <v>1.06723942955646</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="42" s="3" spans="1:20">
       <c r="A42" s="1" t="s">
         <v>89</v>
       </c>
@@ -2825,7 +3135,7 @@
         <v>12</v>
       </c>
       <c r="O42" s="1" t="n">
-        <v>0.00809854276480861</v>
+        <v>0.008098542764808611</v>
       </c>
       <c r="P42" s="1" t="n">
         <v>0.0160511491298676</v>
@@ -2843,7 +3153,7 @@
         <v>1.03440804327886</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="43" s="3" spans="1:20">
       <c r="A43" s="1" t="s">
         <v>90</v>
       </c>
@@ -2905,7 +3215,7 @@
         <v>1.04737767782209</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="44" s="3" spans="1:20">
       <c r="A44" s="1" t="s">
         <v>91</v>
       </c>
@@ -2967,7 +3277,7 @@
         <v>1.04928547116597</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="45" s="3" spans="1:20">
       <c r="A45" s="1" t="s">
         <v>92</v>
       </c>
@@ -3029,7 +3339,7 @@
         <v>1.06677082824757</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="46" s="3" spans="1:20">
       <c r="A46" s="1" t="s">
         <v>93</v>
       </c>
@@ -3091,7 +3401,7 @@
         <v>1.09954536059228</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="47" s="3" spans="1:20">
       <c r="A47" s="1" t="s">
         <v>94</v>
       </c>
@@ -3153,7 +3463,7 @@
         <v>1.06395488626163</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="48" s="3" spans="1:20">
       <c r="A48" s="1" t="s">
         <v>95</v>
       </c>
@@ -3215,7 +3525,7 @@
         <v>1.04355162785557</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="49" s="3" spans="1:20">
       <c r="A49" s="1" t="s">
         <v>96</v>
       </c>
@@ -3277,7 +3587,7 @@
         <v>1.0397114984456</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="50" s="3" spans="1:20">
       <c r="A50" s="1" t="s">
         <v>97</v>
       </c>
@@ -3339,7 +3649,7 @@
         <v>1.03537432844358</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="51" s="3" spans="1:20">
       <c r="A51" s="1" t="s">
         <v>98</v>
       </c>
@@ -3401,7 +3711,7 @@
         <v>1.08949529599719</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="52" s="3" spans="1:20">
       <c r="A52" s="1" t="s">
         <v>99</v>
       </c>
@@ -3463,7 +3773,7 @@
         <v>1.06630202100531</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="53" s="3" spans="1:20">
       <c r="A53" s="1" t="s">
         <v>100</v>
       </c>
@@ -3513,7 +3823,7 @@
         <v>0.0564729008674622</v>
       </c>
       <c r="Q53" s="1" t="n">
-        <v>0.695929630907209</v>
+        <v>0.6959296309072091</v>
       </c>
       <c r="R53" s="1" t="n">
         <v>0.355</v>
@@ -3525,7 +3835,7 @@
         <v>1.15628716156498</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="54" s="3" spans="1:20">
       <c r="A54" s="1" t="s">
         <v>101</v>
       </c>
@@ -3587,7 +3897,7 @@
         <v>1.09453186340097</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="55" s="3" spans="1:20">
       <c r="A55" s="1" t="s">
         <v>102</v>
       </c>
@@ -3649,7 +3959,7 @@
         <v>1.17430830704717</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="56" s="3" spans="1:20">
       <c r="A56" s="1" t="s">
         <v>103</v>
       </c>
@@ -3711,7 +4021,7 @@
         <v>1.21119775429118</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="57" s="3" spans="1:20">
       <c r="A57" s="1" t="s">
         <v>104</v>
       </c>
@@ -3773,7 +4083,7 @@
         <v>1.1933147112141</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="58" s="3" spans="1:20">
       <c r="A58" s="1" t="s">
         <v>105</v>
       </c>
@@ -3835,7 +4145,7 @@
         <v>1.20249740124459</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="59" s="3" spans="1:20">
       <c r="A59" s="1" t="s">
         <v>106</v>
       </c>
@@ -3897,7 +4207,7 @@
         <v>1.10589330407594</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="60" s="3" spans="1:20">
       <c r="A60" s="1" t="s">
         <v>107</v>
       </c>
@@ -3959,7 +4269,7 @@
         <v>1.09635760589326</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="61" s="3" spans="1:20">
       <c r="A61" s="1" t="s">
         <v>108</v>
       </c>
@@ -4021,7 +4331,7 @@
         <v>1.16318528188763</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="62" s="3" spans="1:20">
       <c r="A62" s="1" t="s">
         <v>109</v>
       </c>
@@ -4083,7 +4393,7 @@
         <v>1.18490505948789</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="63" s="3" spans="1:20">
       <c r="A63" s="1" t="s">
         <v>110</v>
       </c>
@@ -4145,7 +4455,7 @@
         <v>1.18827606220104</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="64" s="3" spans="1:20">
       <c r="A64" s="1" t="s">
         <v>111</v>
       </c>
@@ -4207,13 +4517,1939 @@
         <v>1.21614143914267</v>
       </c>
     </row>
+    <row customHeight="1" ht="12.8" r="65" s="3" spans="1:20">
+      <c r="A65" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N65" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="O65" s="1" t="n">
+        <v>0.00664125044038889</v>
+      </c>
+      <c r="P65" s="1" t="n">
+        <v>0.0064219431579113</v>
+      </c>
+      <c r="Q65" s="1" t="n">
+        <v>0.30027595722663</v>
+      </c>
+      <c r="R65" s="1" t="n">
+        <v>0.293</v>
+      </c>
+      <c r="S65" s="1" t="n">
+        <v>1.19386727718926</v>
+      </c>
+      <c r="T65" s="1" t="n">
+        <v>1.17175082675456</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20">
+      <c r="A66" t="s">
+        <v>115</v>
+      </c>
+      <c r="B66" t="s">
+        <v>44</v>
+      </c>
+      <c r="C66" t="s">
+        <v>23</v>
+      </c>
+      <c r="D66" t="s">
+        <v>24</v>
+      </c>
+      <c r="E66" t="s">
+        <v>25</v>
+      </c>
+      <c r="F66" t="s">
+        <v>56</v>
+      </c>
+      <c r="G66" t="s">
+        <v>113</v>
+      </c>
+      <c r="H66" t="s">
+        <v>28</v>
+      </c>
+      <c r="I66" t="s">
+        <v>29</v>
+      </c>
+      <c r="J66" t="s">
+        <v>116</v>
+      </c>
+      <c r="K66" t="s">
+        <v>31</v>
+      </c>
+      <c r="L66" t="s">
+        <v>25</v>
+      </c>
+      <c r="M66" t="s">
+        <v>32</v>
+      </c>
+      <c r="N66" t="n">
+        <v>25</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0.006075148203735641</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0.006006932407617569</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0.3009658502932046</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.341</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1.140976869452849</v>
+      </c>
+      <c r="T66" t="n">
+        <v>1.120714058089752</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20">
+      <c r="A67" t="s">
+        <v>117</v>
+      </c>
+      <c r="B67" t="s">
+        <v>44</v>
+      </c>
+      <c r="C67" t="s">
+        <v>23</v>
+      </c>
+      <c r="D67" t="s">
+        <v>24</v>
+      </c>
+      <c r="E67" t="s">
+        <v>25</v>
+      </c>
+      <c r="F67" t="s">
+        <v>56</v>
+      </c>
+      <c r="G67" t="s">
+        <v>113</v>
+      </c>
+      <c r="H67" t="s">
+        <v>58</v>
+      </c>
+      <c r="I67" t="s">
+        <v>29</v>
+      </c>
+      <c r="J67" t="s">
+        <v>116</v>
+      </c>
+      <c r="K67" t="s">
+        <v>31</v>
+      </c>
+      <c r="L67" t="s">
+        <v>25</v>
+      </c>
+      <c r="M67" t="s">
+        <v>32</v>
+      </c>
+      <c r="N67" t="n">
+        <v>30</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0.006307549459815396</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0.006152551405131817</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0.3044153156260779</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.301</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1.163578593457619</v>
+      </c>
+      <c r="T67" t="n">
+        <v>1.136221809331259</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20">
+      <c r="A68" t="s">
+        <v>118</v>
+      </c>
+      <c r="B68" t="s">
+        <v>44</v>
+      </c>
+      <c r="C68" t="s">
+        <v>23</v>
+      </c>
+      <c r="D68" t="s">
+        <v>24</v>
+      </c>
+      <c r="E68" t="s">
+        <v>25</v>
+      </c>
+      <c r="F68" t="s">
+        <v>56</v>
+      </c>
+      <c r="G68" t="s">
+        <v>113</v>
+      </c>
+      <c r="H68" t="s">
+        <v>60</v>
+      </c>
+      <c r="I68" t="s">
+        <v>29</v>
+      </c>
+      <c r="J68" t="s">
+        <v>116</v>
+      </c>
+      <c r="K68" t="s">
+        <v>31</v>
+      </c>
+      <c r="L68" t="s">
+        <v>25</v>
+      </c>
+      <c r="M68" t="s">
+        <v>32</v>
+      </c>
+      <c r="N68" t="n">
+        <v>28</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0.006355568037984206</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0.006062514111399651</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0.3026905829596412</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.307</v>
+      </c>
+      <c r="S68" t="n">
+        <v>1.164023188236675</v>
+      </c>
+      <c r="T68" t="n">
+        <v>1.127386357909302</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20">
+      <c r="A69" t="s">
+        <v>119</v>
+      </c>
+      <c r="B69" t="s">
+        <v>44</v>
+      </c>
+      <c r="C69" t="s">
+        <v>23</v>
+      </c>
+      <c r="D69" t="s">
+        <v>24</v>
+      </c>
+      <c r="E69" t="s">
+        <v>25</v>
+      </c>
+      <c r="F69" t="s">
+        <v>56</v>
+      </c>
+      <c r="G69" t="s">
+        <v>113</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>29</v>
+      </c>
+      <c r="J69" t="s">
+        <v>116</v>
+      </c>
+      <c r="K69" t="s">
+        <v>31</v>
+      </c>
+      <c r="L69" t="s">
+        <v>25</v>
+      </c>
+      <c r="M69" t="s">
+        <v>32</v>
+      </c>
+      <c r="N69" t="n">
+        <v>25</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0.006403026911524831</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0.006266463056206703</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0.3025181096929976</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="S69" t="n">
+        <v>1.172438456871</v>
+      </c>
+      <c r="T69" t="n">
+        <v>1.132254388377453</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20">
+      <c r="A70" t="s">
+        <v>120</v>
+      </c>
+      <c r="B70" t="s">
+        <v>44</v>
+      </c>
+      <c r="C70" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70" t="s">
+        <v>24</v>
+      </c>
+      <c r="E70" t="s">
+        <v>25</v>
+      </c>
+      <c r="F70" t="s">
+        <v>26</v>
+      </c>
+      <c r="G70" t="s">
+        <v>113</v>
+      </c>
+      <c r="H70" t="s">
+        <v>28</v>
+      </c>
+      <c r="I70" t="s">
+        <v>29</v>
+      </c>
+      <c r="J70" t="s">
+        <v>116</v>
+      </c>
+      <c r="K70" t="s">
+        <v>31</v>
+      </c>
+      <c r="L70" t="s">
+        <v>25</v>
+      </c>
+      <c r="M70" t="s">
+        <v>32</v>
+      </c>
+      <c r="N70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0.02824255854929674</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0.0284850013256073</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0.1710934805105209</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0.178</v>
+      </c>
+      <c r="S70" t="n">
+        <v>2.366184097188303</v>
+      </c>
+      <c r="T70" t="n">
+        <v>2.36093201935168</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20">
+      <c r="A71" t="s">
+        <v>121</v>
+      </c>
+      <c r="B71" t="s">
+        <v>44</v>
+      </c>
+      <c r="C71" t="s">
+        <v>23</v>
+      </c>
+      <c r="D71" t="s">
+        <v>24</v>
+      </c>
+      <c r="E71" t="s">
+        <v>25</v>
+      </c>
+      <c r="F71" t="s">
+        <v>26</v>
+      </c>
+      <c r="G71" t="s">
+        <v>113</v>
+      </c>
+      <c r="H71" t="s">
+        <v>58</v>
+      </c>
+      <c r="I71" t="s">
+        <v>29</v>
+      </c>
+      <c r="J71" t="s">
+        <v>116</v>
+      </c>
+      <c r="K71" t="s">
+        <v>31</v>
+      </c>
+      <c r="L71" t="s">
+        <v>25</v>
+      </c>
+      <c r="M71" t="s">
+        <v>32</v>
+      </c>
+      <c r="N71" t="n">
+        <v>1</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0.02822214595282148</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0.02824500125646591</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0.1657468092445671</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.178</v>
+      </c>
+      <c r="S71" t="n">
+        <v>2.374152233362846</v>
+      </c>
+      <c r="T71" t="n">
+        <v>2.36093201935168</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20">
+      <c r="A72" t="s">
+        <v>122</v>
+      </c>
+      <c r="B72" t="s">
+        <v>44</v>
+      </c>
+      <c r="C72" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72" t="s">
+        <v>24</v>
+      </c>
+      <c r="E72" t="s">
+        <v>25</v>
+      </c>
+      <c r="F72" t="s">
+        <v>26</v>
+      </c>
+      <c r="G72" t="s">
+        <v>113</v>
+      </c>
+      <c r="H72" t="s">
+        <v>60</v>
+      </c>
+      <c r="I72" t="s">
+        <v>29</v>
+      </c>
+      <c r="J72" t="s">
+        <v>116</v>
+      </c>
+      <c r="K72" t="s">
+        <v>31</v>
+      </c>
+      <c r="L72" t="s">
+        <v>25</v>
+      </c>
+      <c r="M72" t="s">
+        <v>32</v>
+      </c>
+      <c r="N72" t="n">
+        <v>1</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0.02793271938308678</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0.02853000104427338</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0.1721283201103829</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.178</v>
+      </c>
+      <c r="S72" t="n">
+        <v>2.362719243045114</v>
+      </c>
+      <c r="T72" t="n">
+        <v>2.36093201935168</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20">
+      <c r="A73" t="s">
+        <v>123</v>
+      </c>
+      <c r="B73" t="s">
+        <v>44</v>
+      </c>
+      <c r="C73" t="s">
+        <v>23</v>
+      </c>
+      <c r="D73" t="s">
+        <v>24</v>
+      </c>
+      <c r="E73" t="s">
+        <v>25</v>
+      </c>
+      <c r="F73" t="s">
+        <v>26</v>
+      </c>
+      <c r="G73" t="s">
+        <v>113</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>29</v>
+      </c>
+      <c r="J73" t="s">
+        <v>116</v>
+      </c>
+      <c r="K73" t="s">
+        <v>31</v>
+      </c>
+      <c r="L73" t="s">
+        <v>25</v>
+      </c>
+      <c r="M73" t="s">
+        <v>32</v>
+      </c>
+      <c r="N73" t="n">
+        <v>1</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0.05550669897482616</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0.05739000225067139</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0.02759572266298724</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="S73" t="n">
+        <v>3.324467916302756</v>
+      </c>
+      <c r="T73" t="n">
+        <v>3.348731102970198</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20">
+      <c r="A74" t="s">
+        <v>124</v>
+      </c>
+      <c r="B74" t="s">
+        <v>44</v>
+      </c>
+      <c r="C74" t="s">
+        <v>23</v>
+      </c>
+      <c r="D74" t="s">
+        <v>24</v>
+      </c>
+      <c r="E74" t="s">
+        <v>25</v>
+      </c>
+      <c r="F74" t="s">
+        <v>26</v>
+      </c>
+      <c r="G74" t="s">
+        <v>125</v>
+      </c>
+      <c r="H74" t="s">
+        <v>67</v>
+      </c>
+      <c r="I74" t="s">
+        <v>29</v>
+      </c>
+      <c r="J74" t="s">
+        <v>116</v>
+      </c>
+      <c r="K74" t="s">
+        <v>31</v>
+      </c>
+      <c r="L74" t="s">
+        <v>25</v>
+      </c>
+      <c r="M74" t="s">
+        <v>32</v>
+      </c>
+      <c r="N74" t="n">
+        <v>9</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0.04140179559830017</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0.0503474736213684</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0.4813728872024836</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0.382</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1.061411973607069</v>
+      </c>
+      <c r="T74" t="n">
+        <v>1.097269337947616</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20">
+      <c r="A75" t="s">
+        <v>126</v>
+      </c>
+      <c r="B75" t="s">
+        <v>44</v>
+      </c>
+      <c r="C75" t="s">
+        <v>23</v>
+      </c>
+      <c r="D75" t="s">
+        <v>24</v>
+      </c>
+      <c r="E75" t="s">
+        <v>25</v>
+      </c>
+      <c r="F75" t="s">
+        <v>26</v>
+      </c>
+      <c r="G75" t="s">
+        <v>127</v>
+      </c>
+      <c r="H75" t="s">
+        <v>67</v>
+      </c>
+      <c r="I75" t="s">
+        <v>29</v>
+      </c>
+      <c r="J75" t="s">
+        <v>116</v>
+      </c>
+      <c r="K75" t="s">
+        <v>31</v>
+      </c>
+      <c r="L75" t="s">
+        <v>25</v>
+      </c>
+      <c r="M75" t="s">
+        <v>32</v>
+      </c>
+      <c r="N75" t="n">
+        <v>5</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0.0512965190159777</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0.05717478501796722</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0.3949637806140048</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="S75" t="n">
+        <v>1.161946957174316</v>
+      </c>
+      <c r="T75" t="n">
+        <v>1.149347641055569</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20">
+      <c r="A76" t="s">
+        <v>128</v>
+      </c>
+      <c r="B76" t="s">
+        <v>44</v>
+      </c>
+      <c r="C76" t="s">
+        <v>23</v>
+      </c>
+      <c r="D76" t="s">
+        <v>24</v>
+      </c>
+      <c r="E76" t="s">
+        <v>25</v>
+      </c>
+      <c r="F76" t="s">
+        <v>26</v>
+      </c>
+      <c r="G76" t="s">
+        <v>129</v>
+      </c>
+      <c r="H76" t="s">
+        <v>67</v>
+      </c>
+      <c r="I76" t="s">
+        <v>29</v>
+      </c>
+      <c r="J76" t="s">
+        <v>116</v>
+      </c>
+      <c r="K76" t="s">
+        <v>31</v>
+      </c>
+      <c r="L76" t="s">
+        <v>25</v>
+      </c>
+      <c r="M76" t="s">
+        <v>32</v>
+      </c>
+      <c r="N76" t="n">
+        <v>4</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0.05819792332588372</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0.06103092718124389</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0.386512590548465</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0.351</v>
+      </c>
+      <c r="S76" t="n">
+        <v>1.181888736957538</v>
+      </c>
+      <c r="T76" t="n">
+        <v>1.089495295997188</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20">
+      <c r="A77" t="s">
+        <v>130</v>
+      </c>
+      <c r="B77" t="s">
+        <v>44</v>
+      </c>
+      <c r="C77" t="s">
+        <v>23</v>
+      </c>
+      <c r="D77" t="s">
+        <v>24</v>
+      </c>
+      <c r="E77" t="s">
+        <v>25</v>
+      </c>
+      <c r="F77" t="s">
+        <v>26</v>
+      </c>
+      <c r="G77" t="s">
+        <v>131</v>
+      </c>
+      <c r="H77" t="s">
+        <v>67</v>
+      </c>
+      <c r="I77" t="s">
+        <v>29</v>
+      </c>
+      <c r="J77" t="s">
+        <v>116</v>
+      </c>
+      <c r="K77" t="s">
+        <v>31</v>
+      </c>
+      <c r="L77" t="s">
+        <v>25</v>
+      </c>
+      <c r="M77" t="s">
+        <v>32</v>
+      </c>
+      <c r="N77" t="n">
+        <v>14</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0.0412511142852924</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0.08157251405715943</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0.6436702311141773</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0.381</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0.7808284046993772</v>
+      </c>
+      <c r="T77" t="n">
+        <v>1.145425685062108</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20">
+      <c r="A78" t="s">
+        <v>132</v>
+      </c>
+      <c r="B78" t="s">
+        <v>44</v>
+      </c>
+      <c r="C78" t="s">
+        <v>23</v>
+      </c>
+      <c r="D78" t="s">
+        <v>24</v>
+      </c>
+      <c r="E78" t="s">
+        <v>25</v>
+      </c>
+      <c r="F78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G78" t="s">
+        <v>133</v>
+      </c>
+      <c r="H78" t="s">
+        <v>67</v>
+      </c>
+      <c r="I78" t="s">
+        <v>29</v>
+      </c>
+      <c r="J78" t="s">
+        <v>116</v>
+      </c>
+      <c r="K78" t="s">
+        <v>31</v>
+      </c>
+      <c r="L78" t="s">
+        <v>25</v>
+      </c>
+      <c r="M78" t="s">
+        <v>32</v>
+      </c>
+      <c r="N78" t="n">
+        <v>10</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0.06305061516658156</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0.08462496173381806</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0.482235253535702</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0.361</v>
+      </c>
+      <c r="S78" t="n">
+        <v>1.019303172888945</v>
+      </c>
+      <c r="T78" t="n">
+        <v>1.068644000591404</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20">
+      <c r="A79" t="s">
+        <v>134</v>
+      </c>
+      <c r="B79" t="s">
+        <v>44</v>
+      </c>
+      <c r="C79" t="s">
+        <v>23</v>
+      </c>
+      <c r="D79" t="s">
+        <v>24</v>
+      </c>
+      <c r="E79" t="s">
+        <v>25</v>
+      </c>
+      <c r="F79" t="s">
+        <v>26</v>
+      </c>
+      <c r="G79" t="s">
+        <v>135</v>
+      </c>
+      <c r="H79" t="s">
+        <v>67</v>
+      </c>
+      <c r="I79" t="s">
+        <v>29</v>
+      </c>
+      <c r="J79" t="s">
+        <v>116</v>
+      </c>
+      <c r="K79" t="s">
+        <v>31</v>
+      </c>
+      <c r="L79" t="s">
+        <v>25</v>
+      </c>
+      <c r="M79" t="s">
+        <v>32</v>
+      </c>
+      <c r="N79" t="n">
+        <v>7</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0.1182613470670313</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0.1243769266605377</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0.3830631252155916</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0.374</v>
+      </c>
+      <c r="S79" t="n">
+        <v>1.125912301127835</v>
+      </c>
+      <c r="T79" t="n">
+        <v>1.050714042925096</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20">
+      <c r="A80" t="s">
+        <v>136</v>
+      </c>
+      <c r="B80" t="s">
+        <v>44</v>
+      </c>
+      <c r="C80" t="s">
+        <v>23</v>
+      </c>
+      <c r="D80" t="s">
+        <v>24</v>
+      </c>
+      <c r="E80" t="s">
+        <v>25</v>
+      </c>
+      <c r="F80" t="s">
+        <v>26</v>
+      </c>
+      <c r="G80" t="s">
+        <v>137</v>
+      </c>
+      <c r="H80" t="s">
+        <v>67</v>
+      </c>
+      <c r="I80" t="s">
+        <v>29</v>
+      </c>
+      <c r="J80" t="s">
+        <v>116</v>
+      </c>
+      <c r="K80" t="s">
+        <v>31</v>
+      </c>
+      <c r="L80" t="s">
+        <v>25</v>
+      </c>
+      <c r="M80" t="s">
+        <v>32</v>
+      </c>
+      <c r="N80" t="n">
+        <v>17</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0.1623369806509423</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0.201347945690155</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0.4617109348051052</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0.393</v>
+      </c>
+      <c r="S80" t="n">
+        <v>0.941273164787212</v>
+      </c>
+      <c r="T80" t="n">
+        <v>1.058772874605314</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20">
+      <c r="A81" t="s">
+        <v>138</v>
+      </c>
+      <c r="B81" t="s">
+        <v>44</v>
+      </c>
+      <c r="C81" t="s">
+        <v>23</v>
+      </c>
+      <c r="D81" t="s">
+        <v>24</v>
+      </c>
+      <c r="E81" t="s">
+        <v>25</v>
+      </c>
+      <c r="F81" t="s">
+        <v>26</v>
+      </c>
+      <c r="G81" t="s">
+        <v>125</v>
+      </c>
+      <c r="H81" t="s">
+        <v>28</v>
+      </c>
+      <c r="I81" t="s">
+        <v>29</v>
+      </c>
+      <c r="J81" t="s">
+        <v>116</v>
+      </c>
+      <c r="K81" t="s">
+        <v>31</v>
+      </c>
+      <c r="L81" t="s">
+        <v>25</v>
+      </c>
+      <c r="M81" t="s">
+        <v>32</v>
+      </c>
+      <c r="N81" t="n">
+        <v>11</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0.03990969696140322</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0.04789634823799133</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0.499482580200069</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0.418</v>
+      </c>
+      <c r="S81" t="n">
+        <v>0.9987056127810362</v>
+      </c>
+      <c r="T81" t="n">
+        <v>1.079814798935447</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20">
+      <c r="A82" t="s">
+        <v>139</v>
+      </c>
+      <c r="B82" t="s">
+        <v>44</v>
+      </c>
+      <c r="C82" t="s">
+        <v>23</v>
+      </c>
+      <c r="D82" t="s">
+        <v>24</v>
+      </c>
+      <c r="E82" t="s">
+        <v>25</v>
+      </c>
+      <c r="F82" t="s">
+        <v>26</v>
+      </c>
+      <c r="G82" t="s">
+        <v>127</v>
+      </c>
+      <c r="H82" t="s">
+        <v>28</v>
+      </c>
+      <c r="I82" t="s">
+        <v>29</v>
+      </c>
+      <c r="J82" t="s">
+        <v>116</v>
+      </c>
+      <c r="K82" t="s">
+        <v>31</v>
+      </c>
+      <c r="L82" t="s">
+        <v>25</v>
+      </c>
+      <c r="M82" t="s">
+        <v>32</v>
+      </c>
+      <c r="N82" t="n">
+        <v>7</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0.0522962340448346</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0.05076391339302063</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0.3673680579510176</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0.427</v>
+      </c>
+      <c r="S82" t="n">
+        <v>1.196032304556445</v>
+      </c>
+      <c r="T82" t="n">
+        <v>1.075639344761989</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20">
+      <c r="A83" t="s">
+        <v>140</v>
+      </c>
+      <c r="B83" t="s">
+        <v>44</v>
+      </c>
+      <c r="C83" t="s">
+        <v>23</v>
+      </c>
+      <c r="D83" t="s">
+        <v>24</v>
+      </c>
+      <c r="E83" t="s">
+        <v>25</v>
+      </c>
+      <c r="F83" t="s">
+        <v>26</v>
+      </c>
+      <c r="G83" t="s">
+        <v>129</v>
+      </c>
+      <c r="H83" t="s">
+        <v>28</v>
+      </c>
+      <c r="I83" t="s">
+        <v>29</v>
+      </c>
+      <c r="J83" t="s">
+        <v>116</v>
+      </c>
+      <c r="K83" t="s">
+        <v>31</v>
+      </c>
+      <c r="L83" t="s">
+        <v>25</v>
+      </c>
+      <c r="M83" t="s">
+        <v>32</v>
+      </c>
+      <c r="N83" t="n">
+        <v>13</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0.05331991700807001</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0.05716223275661469</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0.4379096240082787</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0.407</v>
+      </c>
+      <c r="S83" t="n">
+        <v>1.054237985585708</v>
+      </c>
+      <c r="T83" t="n">
+        <v>1.088577052853862</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20">
+      <c r="A84" t="s">
+        <v>141</v>
+      </c>
+      <c r="B84" t="s">
+        <v>44</v>
+      </c>
+      <c r="C84" t="s">
+        <v>23</v>
+      </c>
+      <c r="D84" t="s">
+        <v>24</v>
+      </c>
+      <c r="E84" t="s">
+        <v>25</v>
+      </c>
+      <c r="F84" t="s">
+        <v>26</v>
+      </c>
+      <c r="G84" t="s">
+        <v>131</v>
+      </c>
+      <c r="H84" t="s">
+        <v>28</v>
+      </c>
+      <c r="I84" t="s">
+        <v>29</v>
+      </c>
+      <c r="J84" t="s">
+        <v>116</v>
+      </c>
+      <c r="K84" t="s">
+        <v>31</v>
+      </c>
+      <c r="L84" t="s">
+        <v>25</v>
+      </c>
+      <c r="M84" t="s">
+        <v>32</v>
+      </c>
+      <c r="N84" t="n">
+        <v>4</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0.07165291357468062</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0.07204147017002106</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0.3258020006898931</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0.346</v>
+      </c>
+      <c r="S84" t="n">
+        <v>1.286890945772998</v>
+      </c>
+      <c r="T84" t="n">
+        <v>1.07144761887831</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20">
+      <c r="A85" t="s">
+        <v>142</v>
+      </c>
+      <c r="B85" t="s">
+        <v>44</v>
+      </c>
+      <c r="C85" t="s">
+        <v>23</v>
+      </c>
+      <c r="D85" t="s">
+        <v>24</v>
+      </c>
+      <c r="E85" t="s">
+        <v>25</v>
+      </c>
+      <c r="F85" t="s">
+        <v>26</v>
+      </c>
+      <c r="G85" t="s">
+        <v>133</v>
+      </c>
+      <c r="H85" t="s">
+        <v>28</v>
+      </c>
+      <c r="I85" t="s">
+        <v>29</v>
+      </c>
+      <c r="J85" t="s">
+        <v>116</v>
+      </c>
+      <c r="K85" t="s">
+        <v>31</v>
+      </c>
+      <c r="L85" t="s">
+        <v>25</v>
+      </c>
+      <c r="M85" t="s">
+        <v>32</v>
+      </c>
+      <c r="N85" t="n">
+        <v>12</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0.06449630806140959</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0.07256469130516052</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0.4596412556053812</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="S85" t="n">
+        <v>0.9812839791169582</v>
+      </c>
+      <c r="T85" t="n">
+        <v>1.056409011699541</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20">
+      <c r="A86" t="s">
+        <v>143</v>
+      </c>
+      <c r="B86" t="s">
+        <v>44</v>
+      </c>
+      <c r="C86" t="s">
+        <v>23</v>
+      </c>
+      <c r="D86" t="s">
+        <v>24</v>
+      </c>
+      <c r="E86" t="s">
+        <v>25</v>
+      </c>
+      <c r="F86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G86" t="s">
+        <v>135</v>
+      </c>
+      <c r="H86" t="s">
+        <v>28</v>
+      </c>
+      <c r="I86" t="s">
+        <v>29</v>
+      </c>
+      <c r="J86" t="s">
+        <v>116</v>
+      </c>
+      <c r="K86" t="s">
+        <v>31</v>
+      </c>
+      <c r="L86" t="s">
+        <v>25</v>
+      </c>
+      <c r="M86" t="s">
+        <v>32</v>
+      </c>
+      <c r="N86" t="n">
+        <v>12</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0.1189251463344978</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0.1241101398468018</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0.3770265608830631</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="S86" t="n">
+        <v>1.101677982611756</v>
+      </c>
+      <c r="T86" t="n">
+        <v>1.087658034494298</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20">
+      <c r="A87" t="s">
+        <v>144</v>
+      </c>
+      <c r="B87" t="s">
+        <v>44</v>
+      </c>
+      <c r="C87" t="s">
+        <v>23</v>
+      </c>
+      <c r="D87" t="s">
+        <v>24</v>
+      </c>
+      <c r="E87" t="s">
+        <v>25</v>
+      </c>
+      <c r="F87" t="s">
+        <v>26</v>
+      </c>
+      <c r="G87" t="s">
+        <v>137</v>
+      </c>
+      <c r="H87" t="s">
+        <v>28</v>
+      </c>
+      <c r="I87" t="s">
+        <v>29</v>
+      </c>
+      <c r="J87" t="s">
+        <v>116</v>
+      </c>
+      <c r="K87" t="s">
+        <v>31</v>
+      </c>
+      <c r="L87" t="s">
+        <v>25</v>
+      </c>
+      <c r="M87" t="s">
+        <v>32</v>
+      </c>
+      <c r="N87" t="n">
+        <v>12</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0.2012024506407386</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0.2039953980445862</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0.3521904104863746</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="S87" t="n">
+        <v>1.121230413682091</v>
+      </c>
+      <c r="T87" t="n">
+        <v>1.083512805646523</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20">
+      <c r="A88" t="s">
+        <v>145</v>
+      </c>
+      <c r="B88" t="s">
+        <v>44</v>
+      </c>
+      <c r="C88" t="s">
+        <v>23</v>
+      </c>
+      <c r="D88" t="s">
+        <v>24</v>
+      </c>
+      <c r="E88" t="s">
+        <v>25</v>
+      </c>
+      <c r="F88" t="s">
+        <v>26</v>
+      </c>
+      <c r="G88" t="s">
+        <v>125</v>
+      </c>
+      <c r="H88" t="s">
+        <v>60</v>
+      </c>
+      <c r="I88" t="s">
+        <v>29</v>
+      </c>
+      <c r="J88" t="s">
+        <v>116</v>
+      </c>
+      <c r="K88" t="s">
+        <v>31</v>
+      </c>
+      <c r="L88" t="s">
+        <v>25</v>
+      </c>
+      <c r="M88" t="s">
+        <v>32</v>
+      </c>
+      <c r="N88" t="n">
+        <v>21</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0.05010886420953599</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0.0505552841424942</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0.3359779234218696</v>
+      </c>
+      <c r="R88" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="S88" t="n">
+        <v>1.207299290319371</v>
+      </c>
+      <c r="T88" t="n">
+        <v>1.172177460967408</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20">
+      <c r="A89" t="s">
+        <v>146</v>
+      </c>
+      <c r="B89" t="s">
+        <v>44</v>
+      </c>
+      <c r="C89" t="s">
+        <v>23</v>
+      </c>
+      <c r="D89" t="s">
+        <v>24</v>
+      </c>
+      <c r="E89" t="s">
+        <v>25</v>
+      </c>
+      <c r="F89" t="s">
+        <v>26</v>
+      </c>
+      <c r="G89" t="s">
+        <v>127</v>
+      </c>
+      <c r="H89" t="s">
+        <v>60</v>
+      </c>
+      <c r="I89" t="s">
+        <v>29</v>
+      </c>
+      <c r="J89" t="s">
+        <v>116</v>
+      </c>
+      <c r="K89" t="s">
+        <v>31</v>
+      </c>
+      <c r="L89" t="s">
+        <v>25</v>
+      </c>
+      <c r="M89" t="s">
+        <v>32</v>
+      </c>
+      <c r="N89" t="n">
+        <v>12</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0.05650973063002129</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0.05652736580371857</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0.3147637116246982</v>
+      </c>
+      <c r="R89" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="S89" t="n">
+        <v>1.255618624579052</v>
+      </c>
+      <c r="T89" t="n">
+        <v>1.211197754291181</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20">
+      <c r="A90" t="s">
+        <v>147</v>
+      </c>
+      <c r="B90" t="s">
+        <v>44</v>
+      </c>
+      <c r="C90" t="s">
+        <v>23</v>
+      </c>
+      <c r="D90" t="s">
+        <v>24</v>
+      </c>
+      <c r="E90" t="s">
+        <v>25</v>
+      </c>
+      <c r="F90" t="s">
+        <v>26</v>
+      </c>
+      <c r="G90" t="s">
+        <v>129</v>
+      </c>
+      <c r="H90" t="s">
+        <v>60</v>
+      </c>
+      <c r="I90" t="s">
+        <v>29</v>
+      </c>
+      <c r="J90" t="s">
+        <v>116</v>
+      </c>
+      <c r="K90" t="s">
+        <v>31</v>
+      </c>
+      <c r="L90" t="s">
+        <v>25</v>
+      </c>
+      <c r="M90" t="s">
+        <v>32</v>
+      </c>
+      <c r="N90" t="n">
+        <v>19</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0.06315722254565273</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0.06361057186126709</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0.3113142462918247</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0.323</v>
+      </c>
+      <c r="S90" t="n">
+        <v>1.231135681906984</v>
+      </c>
+      <c r="T90" t="n">
+        <v>1.180254209905646</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20">
+      <c r="A91" t="s">
+        <v>148</v>
+      </c>
+      <c r="B91" t="s">
+        <v>44</v>
+      </c>
+      <c r="C91" t="s">
+        <v>23</v>
+      </c>
+      <c r="D91" t="s">
+        <v>24</v>
+      </c>
+      <c r="E91" t="s">
+        <v>25</v>
+      </c>
+      <c r="F91" t="s">
+        <v>26</v>
+      </c>
+      <c r="G91" t="s">
+        <v>131</v>
+      </c>
+      <c r="H91" t="s">
+        <v>60</v>
+      </c>
+      <c r="I91" t="s">
+        <v>29</v>
+      </c>
+      <c r="J91" t="s">
+        <v>116</v>
+      </c>
+      <c r="K91" t="s">
+        <v>31</v>
+      </c>
+      <c r="L91" t="s">
+        <v>25</v>
+      </c>
+      <c r="M91" t="s">
+        <v>32</v>
+      </c>
+      <c r="N91" t="n">
+        <v>23</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0.07028833684447552</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0.07072005212306977</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0.3308037254225595</v>
+      </c>
+      <c r="R91" t="n">
+        <v>0.328</v>
+      </c>
+      <c r="S91" t="n">
+        <v>1.194011734480268</v>
+      </c>
+      <c r="T91" t="n">
+        <v>1.166619046647191</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20">
+      <c r="A92" t="s">
+        <v>149</v>
+      </c>
+      <c r="B92" t="s">
+        <v>44</v>
+      </c>
+      <c r="C92" t="s">
+        <v>23</v>
+      </c>
+      <c r="D92" t="s">
+        <v>24</v>
+      </c>
+      <c r="E92" t="s">
+        <v>25</v>
+      </c>
+      <c r="F92" t="s">
+        <v>26</v>
+      </c>
+      <c r="G92" t="s">
+        <v>133</v>
+      </c>
+      <c r="H92" t="s">
+        <v>60</v>
+      </c>
+      <c r="I92" t="s">
+        <v>29</v>
+      </c>
+      <c r="J92" t="s">
+        <v>116</v>
+      </c>
+      <c r="K92" t="s">
+        <v>31</v>
+      </c>
+      <c r="L92" t="s">
+        <v>25</v>
+      </c>
+      <c r="M92" t="s">
+        <v>32</v>
+      </c>
+      <c r="N92" t="n">
+        <v>16</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0.07888493491847501</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0.07932741284370422</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0.3333908244222146</v>
+      </c>
+      <c r="R92" t="n">
+        <v>0.329</v>
+      </c>
+      <c r="S92" t="n">
+        <v>1.202288837068947</v>
+      </c>
+      <c r="T92" t="n">
+        <v>1.136661779070626</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20">
+      <c r="A93" t="s">
+        <v>150</v>
+      </c>
+      <c r="B93" t="s">
+        <v>44</v>
+      </c>
+      <c r="C93" t="s">
+        <v>23</v>
+      </c>
+      <c r="D93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F93" t="s">
+        <v>26</v>
+      </c>
+      <c r="G93" t="s">
+        <v>135</v>
+      </c>
+      <c r="H93" t="s">
+        <v>60</v>
+      </c>
+      <c r="I93" t="s">
+        <v>29</v>
+      </c>
+      <c r="J93" t="s">
+        <v>116</v>
+      </c>
+      <c r="K93" t="s">
+        <v>31</v>
+      </c>
+      <c r="L93" t="s">
+        <v>25</v>
+      </c>
+      <c r="M93" t="s">
+        <v>32</v>
+      </c>
+      <c r="N93" t="n">
+        <v>16</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0.1311076536964819</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0.1309295251369476</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0.3109692997585374</v>
+      </c>
+      <c r="R93" t="n">
+        <v>0.321</v>
+      </c>
+      <c r="S93" t="n">
+        <v>1.218249752501014</v>
+      </c>
+      <c r="T93" t="n">
+        <v>1.158447236605966</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20">
+      <c r="A94" t="s">
+        <v>151</v>
+      </c>
+      <c r="B94" t="s">
+        <v>44</v>
+      </c>
+      <c r="C94" t="s">
+        <v>23</v>
+      </c>
+      <c r="D94" t="s">
+        <v>24</v>
+      </c>
+      <c r="E94" t="s">
+        <v>25</v>
+      </c>
+      <c r="F94" t="s">
+        <v>26</v>
+      </c>
+      <c r="G94" t="s">
+        <v>137</v>
+      </c>
+      <c r="H94" t="s">
+        <v>60</v>
+      </c>
+      <c r="I94" t="s">
+        <v>29</v>
+      </c>
+      <c r="J94" t="s">
+        <v>116</v>
+      </c>
+      <c r="K94" t="s">
+        <v>31</v>
+      </c>
+      <c r="L94" t="s">
+        <v>25</v>
+      </c>
+      <c r="M94" t="s">
+        <v>32</v>
+      </c>
+      <c r="N94" t="n">
+        <v>13</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0.2135896431079771</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0.216498514175415</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0.3121766126250431</v>
+      </c>
+      <c r="R94" t="n">
+        <v>0.321</v>
+      </c>
+      <c r="S94" t="n">
+        <v>1.207584974017246</v>
+      </c>
+      <c r="T94" t="n">
+        <v>1.152388823271035</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20">
+      <c r="A95" t="s">
+        <v>152</v>
+      </c>
+      <c r="B95" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95" t="s">
+        <v>23</v>
+      </c>
+      <c r="D95" t="s">
+        <v>24</v>
+      </c>
+      <c r="E95" t="s">
+        <v>25</v>
+      </c>
+      <c r="F95" t="s">
+        <v>26</v>
+      </c>
+      <c r="G95" t="s">
+        <v>153</v>
+      </c>
+      <c r="H95" t="s">
+        <v>28</v>
+      </c>
+      <c r="I95" t="s">
+        <v>29</v>
+      </c>
+      <c r="J95" t="s">
+        <v>154</v>
+      </c>
+      <c r="K95" t="s">
+        <v>31</v>
+      </c>
+      <c r="L95" t="s">
+        <v>25</v>
+      </c>
+      <c r="M95" t="s">
+        <v>155</v>
+      </c>
+      <c r="N95" t="n">
+        <v>7</v>
+      </c>
+      <c r="O95" t="n">
+        <v>0.01658145507081385</v>
+      </c>
+      <c r="P95" t="n">
+        <v>0.01679799503087998</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0.5228982150722919</v>
+      </c>
+      <c r="R95" t="n">
+        <v>0.524</v>
+      </c>
+      <c r="S95" t="n">
+        <v>0.9655517642023744</v>
+      </c>
+      <c r="T95" t="n">
+        <v>0.9777525249264253</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="1" usePrinterDefaults="0" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
--- a/logs.xlsx
+++ b/logs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="171">
   <si>
     <t>Date</t>
   </si>
@@ -515,6 +515,18 @@
   </si>
   <si>
     <t>&lt;function exp_lr_scheduler at 0x7f3d885ca8c8&gt;</t>
+  </si>
+  <si>
+    <t>September20  12:37:06</t>
+  </si>
+  <si>
+    <t>0.0xsingle + 1.0Xmulti</t>
+  </si>
+  <si>
+    <t>&lt;function exp_lr_scheduler at 0x7fa4522d8730&gt;</t>
+  </si>
+  <si>
+    <t>September20  12:38:30</t>
   </si>
 </sst>
 </file>
@@ -892,7 +904,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:Y98"/>
+  <dimension ref="A1:Y100"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="H1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="X13" activeCellId="0" pane="topLeft" sqref="X13"/>
@@ -6766,6 +6778,94 @@
         <v>0.9011104260855048</v>
       </c>
     </row>
+    <row r="99" spans="1:25">
+      <c r="A99" t="s">
+        <v>167</v>
+      </c>
+      <c r="B99" t="s">
+        <v>27</v>
+      </c>
+      <c r="C99" t="s">
+        <v>28</v>
+      </c>
+      <c r="D99" t="s">
+        <v>29</v>
+      </c>
+      <c r="E99" t="s">
+        <v>30</v>
+      </c>
+      <c r="F99" t="s">
+        <v>31</v>
+      </c>
+      <c r="G99" t="s">
+        <v>168</v>
+      </c>
+      <c r="H99" t="s">
+        <v>33</v>
+      </c>
+      <c r="I99" t="s">
+        <v>34</v>
+      </c>
+      <c r="J99" t="s">
+        <v>169</v>
+      </c>
+      <c r="K99" t="s">
+        <v>36</v>
+      </c>
+      <c r="L99" t="s">
+        <v>30</v>
+      </c>
+      <c r="M99" t="s">
+        <v>160</v>
+      </c>
+      <c r="S99" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25">
+      <c r="A100" t="s">
+        <v>170</v>
+      </c>
+      <c r="B100" t="s">
+        <v>27</v>
+      </c>
+      <c r="C100" t="s">
+        <v>28</v>
+      </c>
+      <c r="D100" t="s">
+        <v>29</v>
+      </c>
+      <c r="E100" t="s">
+        <v>30</v>
+      </c>
+      <c r="F100" t="s">
+        <v>31</v>
+      </c>
+      <c r="G100" t="s">
+        <v>168</v>
+      </c>
+      <c r="H100" t="s">
+        <v>33</v>
+      </c>
+      <c r="I100" t="s">
+        <v>34</v>
+      </c>
+      <c r="J100" t="s">
+        <v>169</v>
+      </c>
+      <c r="K100" t="s">
+        <v>36</v>
+      </c>
+      <c r="L100" t="s">
+        <v>30</v>
+      </c>
+      <c r="M100" t="s">
+        <v>160</v>
+      </c>
+      <c r="S100" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>

--- a/logs.xlsx
+++ b/logs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="204">
   <si>
     <t>Date</t>
   </si>
@@ -527,6 +527,105 @@
   </si>
   <si>
     <t>September20  12:38:30</t>
+  </si>
+  <si>
+    <t>September25  18:01:38</t>
+  </si>
+  <si>
+    <t>&lt;function exp_lr_scheduler at 0x7fb7a2408840&gt;</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>September25  18:02:04</t>
+  </si>
+  <si>
+    <t>&lt;function exp_lr_scheduler at 0x7fb7a24087b8&gt;</t>
+  </si>
+  <si>
+    <t>September25  18:03:52</t>
+  </si>
+  <si>
+    <t>September25  18:08:53</t>
+  </si>
+  <si>
+    <t>1.0xsingle + 0.0Xmulti</t>
+  </si>
+  <si>
+    <t>September25  18:15:52</t>
+  </si>
+  <si>
+    <t>September25  18:17:25</t>
+  </si>
+  <si>
+    <t>September25  18:18:11</t>
+  </si>
+  <si>
+    <t>September25  18:22:37</t>
+  </si>
+  <si>
+    <t>September25  18:27:20</t>
+  </si>
+  <si>
+    <t>September25  18:32:12</t>
+  </si>
+  <si>
+    <t>September25  18:33:18</t>
+  </si>
+  <si>
+    <t>September25  18:33:39</t>
+  </si>
+  <si>
+    <t>September25  18:34:54</t>
+  </si>
+  <si>
+    <t>September25  18:42:46</t>
+  </si>
+  <si>
+    <t>&lt;function exp_lr_scheduler at 0x7f0d4bb63840&gt;</t>
+  </si>
+  <si>
+    <t>September28  18:12:40</t>
+  </si>
+  <si>
+    <t>&lt;function exp_lr_scheduler at 0x7f4b85717ea0&gt;</t>
+  </si>
+  <si>
+    <t>September28  18:13:49</t>
+  </si>
+  <si>
+    <t>September28  18:21:34</t>
+  </si>
+  <si>
+    <t>&lt;function exp_lr_scheduler at 0x7fb8d691f8c8&gt;</t>
+  </si>
+  <si>
+    <t>September28  18:32:14</t>
+  </si>
+  <si>
+    <t>September28  18:46:01</t>
+  </si>
+  <si>
+    <t>&lt;function exp_lr_scheduler at 0x7fde41d558c8&gt;</t>
+  </si>
+  <si>
+    <t>September28  18:47:56</t>
+  </si>
+  <si>
+    <t>September28  18:49:10</t>
+  </si>
+  <si>
+    <t>October04  22:26:39</t>
+  </si>
+  <si>
+    <t>&lt;function exp_lr_scheduler at 0x7fd3688c7a60&gt;</t>
+  </si>
+  <si>
+    <t>October04  22:28:17</t>
+  </si>
+  <si>
+    <t>&lt;function exp_lr_scheduler at 0x7f303bf42a60&gt;</t>
   </si>
 </sst>
 </file>
@@ -904,7 +1003,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:Y100"/>
+  <dimension ref="A1:Y123"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="H1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="X13" activeCellId="0" pane="topLeft" sqref="X13"/>
@@ -6866,6 +6965,1447 @@
         <v>25</v>
       </c>
     </row>
+    <row r="101" spans="1:25">
+      <c r="A101" t="s">
+        <v>171</v>
+      </c>
+      <c r="B101" t="s">
+        <v>49</v>
+      </c>
+      <c r="C101" t="s">
+        <v>28</v>
+      </c>
+      <c r="D101" t="s">
+        <v>29</v>
+      </c>
+      <c r="E101" t="s">
+        <v>30</v>
+      </c>
+      <c r="F101" t="s">
+        <v>31</v>
+      </c>
+      <c r="G101" t="s">
+        <v>168</v>
+      </c>
+      <c r="H101" t="s">
+        <v>33</v>
+      </c>
+      <c r="I101" t="s">
+        <v>34</v>
+      </c>
+      <c r="J101" t="s">
+        <v>172</v>
+      </c>
+      <c r="K101" t="s">
+        <v>36</v>
+      </c>
+      <c r="L101" t="s">
+        <v>30</v>
+      </c>
+      <c r="M101" t="s">
+        <v>173</v>
+      </c>
+      <c r="S101" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25">
+      <c r="A102" t="s">
+        <v>174</v>
+      </c>
+      <c r="B102" t="s">
+        <v>49</v>
+      </c>
+      <c r="C102" t="s">
+        <v>28</v>
+      </c>
+      <c r="D102" t="s">
+        <v>29</v>
+      </c>
+      <c r="E102" t="s">
+        <v>30</v>
+      </c>
+      <c r="F102" t="s">
+        <v>31</v>
+      </c>
+      <c r="G102" t="s">
+        <v>168</v>
+      </c>
+      <c r="H102" t="s">
+        <v>33</v>
+      </c>
+      <c r="I102" t="s">
+        <v>34</v>
+      </c>
+      <c r="J102" t="s">
+        <v>175</v>
+      </c>
+      <c r="K102" t="s">
+        <v>36</v>
+      </c>
+      <c r="L102" t="s">
+        <v>30</v>
+      </c>
+      <c r="M102" t="s">
+        <v>173</v>
+      </c>
+      <c r="S102" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25">
+      <c r="A103" t="s">
+        <v>176</v>
+      </c>
+      <c r="B103" t="s">
+        <v>49</v>
+      </c>
+      <c r="C103" t="s">
+        <v>28</v>
+      </c>
+      <c r="D103" t="s">
+        <v>29</v>
+      </c>
+      <c r="E103" t="s">
+        <v>30</v>
+      </c>
+      <c r="F103" t="s">
+        <v>31</v>
+      </c>
+      <c r="G103" t="s">
+        <v>168</v>
+      </c>
+      <c r="H103" t="s">
+        <v>33</v>
+      </c>
+      <c r="I103" t="s">
+        <v>34</v>
+      </c>
+      <c r="J103" t="s">
+        <v>175</v>
+      </c>
+      <c r="K103" t="s">
+        <v>36</v>
+      </c>
+      <c r="L103" t="s">
+        <v>30</v>
+      </c>
+      <c r="M103" t="s">
+        <v>173</v>
+      </c>
+      <c r="N103" t="n">
+        <v>13</v>
+      </c>
+      <c r="O103" t="n">
+        <v>0.0079049546426783</v>
+      </c>
+      <c r="P103" t="n">
+        <v>0.02518401054897569</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>0.5755208333333334</v>
+      </c>
+      <c r="R103" t="n">
+        <v>0.3829787234042553</v>
+      </c>
+      <c r="S103" t="n">
+        <v>0.733321496116585</v>
+      </c>
+      <c r="T103" t="n">
+        <v>1.26443038342523</v>
+      </c>
+      <c r="U103" t="n">
+        <v>13</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0.5755208333333334</v>
+      </c>
+      <c r="W103" t="n">
+        <v>0.3829787234042553</v>
+      </c>
+      <c r="X103" t="n">
+        <v>0.733321496116585</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>1.26443038342523</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25">
+      <c r="A104" t="s">
+        <v>177</v>
+      </c>
+      <c r="B104" t="s">
+        <v>49</v>
+      </c>
+      <c r="C104" t="s">
+        <v>28</v>
+      </c>
+      <c r="D104" t="s">
+        <v>29</v>
+      </c>
+      <c r="E104" t="s">
+        <v>30</v>
+      </c>
+      <c r="F104" t="s">
+        <v>31</v>
+      </c>
+      <c r="G104" t="s">
+        <v>178</v>
+      </c>
+      <c r="H104" t="s">
+        <v>33</v>
+      </c>
+      <c r="I104" t="s">
+        <v>34</v>
+      </c>
+      <c r="J104" t="s">
+        <v>175</v>
+      </c>
+      <c r="K104" t="s">
+        <v>36</v>
+      </c>
+      <c r="L104" t="s">
+        <v>30</v>
+      </c>
+      <c r="M104" t="s">
+        <v>173</v>
+      </c>
+      <c r="N104" t="n">
+        <v>20</v>
+      </c>
+      <c r="O104" t="n">
+        <v>0.04323956785568347</v>
+      </c>
+      <c r="P104" t="n">
+        <v>0.1327234439574476</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>0.7421875</v>
+      </c>
+      <c r="R104" t="n">
+        <v>0.425531914893617</v>
+      </c>
+      <c r="S104" t="n">
+        <v>0.9319278852643768</v>
+      </c>
+      <c r="T104" t="n">
+        <v>1.439773707312186</v>
+      </c>
+      <c r="U104" t="n">
+        <v>20</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0.7421875</v>
+      </c>
+      <c r="W104" t="n">
+        <v>0.425531914893617</v>
+      </c>
+      <c r="X104" t="n">
+        <v>0.9319278852643768</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>1.439773707312186</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25">
+      <c r="A105" t="s">
+        <v>179</v>
+      </c>
+      <c r="B105" t="s">
+        <v>49</v>
+      </c>
+      <c r="C105" t="s">
+        <v>28</v>
+      </c>
+      <c r="D105" t="s">
+        <v>29</v>
+      </c>
+      <c r="E105" t="s">
+        <v>30</v>
+      </c>
+      <c r="F105" t="s">
+        <v>31</v>
+      </c>
+      <c r="G105" t="s">
+        <v>178</v>
+      </c>
+      <c r="H105" t="s">
+        <v>33</v>
+      </c>
+      <c r="I105" t="s">
+        <v>34</v>
+      </c>
+      <c r="J105" t="s">
+        <v>175</v>
+      </c>
+      <c r="K105" t="s">
+        <v>36</v>
+      </c>
+      <c r="L105" t="s">
+        <v>30</v>
+      </c>
+      <c r="M105" t="s">
+        <v>173</v>
+      </c>
+      <c r="N105" t="n">
+        <v>4</v>
+      </c>
+      <c r="O105" t="n">
+        <v>0</v>
+      </c>
+      <c r="P105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>0.13671875</v>
+      </c>
+      <c r="R105" t="n">
+        <v>0.121580547112462</v>
+      </c>
+      <c r="S105" t="n">
+        <v>3.552801124934146</v>
+      </c>
+      <c r="T105" t="n">
+        <v>3.536608373031219</v>
+      </c>
+      <c r="U105" t="n">
+        <v>4</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0.13671875</v>
+      </c>
+      <c r="W105" t="n">
+        <v>0.121580547112462</v>
+      </c>
+      <c r="X105" t="n">
+        <v>3.552801124934146</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>3.536608373031219</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25">
+      <c r="A106" t="s">
+        <v>180</v>
+      </c>
+      <c r="B106" t="s">
+        <v>49</v>
+      </c>
+      <c r="C106" t="s">
+        <v>28</v>
+      </c>
+      <c r="D106" t="s">
+        <v>29</v>
+      </c>
+      <c r="E106" t="s">
+        <v>30</v>
+      </c>
+      <c r="F106" t="s">
+        <v>31</v>
+      </c>
+      <c r="G106" t="s">
+        <v>178</v>
+      </c>
+      <c r="H106" t="s">
+        <v>33</v>
+      </c>
+      <c r="I106" t="s">
+        <v>34</v>
+      </c>
+      <c r="J106" t="s">
+        <v>175</v>
+      </c>
+      <c r="K106" t="s">
+        <v>36</v>
+      </c>
+      <c r="L106" t="s">
+        <v>30</v>
+      </c>
+      <c r="M106" t="s">
+        <v>173</v>
+      </c>
+      <c r="N106" t="n">
+        <v>2</v>
+      </c>
+      <c r="O106" t="n">
+        <v>0</v>
+      </c>
+      <c r="P106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>0.1041666666666667</v>
+      </c>
+      <c r="R106" t="n">
+        <v>0.1155015197568389</v>
+      </c>
+      <c r="S106" t="n">
+        <v>3.219609513072458</v>
+      </c>
+      <c r="T106" t="n">
+        <v>3.356253519919138</v>
+      </c>
+      <c r="U106" t="n">
+        <v>2</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0.1041666666666667</v>
+      </c>
+      <c r="W106" t="n">
+        <v>0.1155015197568389</v>
+      </c>
+      <c r="X106" t="n">
+        <v>3.219609513072458</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>3.356253519919138</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25">
+      <c r="A107" t="s">
+        <v>181</v>
+      </c>
+      <c r="B107" t="s">
+        <v>49</v>
+      </c>
+      <c r="C107" t="s">
+        <v>28</v>
+      </c>
+      <c r="D107" t="s">
+        <v>29</v>
+      </c>
+      <c r="E107" t="s">
+        <v>30</v>
+      </c>
+      <c r="F107" t="s">
+        <v>31</v>
+      </c>
+      <c r="G107" t="s">
+        <v>178</v>
+      </c>
+      <c r="H107" t="s">
+        <v>33</v>
+      </c>
+      <c r="I107" t="s">
+        <v>34</v>
+      </c>
+      <c r="J107" t="s">
+        <v>175</v>
+      </c>
+      <c r="K107" t="s">
+        <v>36</v>
+      </c>
+      <c r="L107" t="s">
+        <v>30</v>
+      </c>
+      <c r="M107" t="s">
+        <v>173</v>
+      </c>
+      <c r="N107" t="n">
+        <v>12</v>
+      </c>
+      <c r="O107" t="n">
+        <v>0.002769226039769516</v>
+      </c>
+      <c r="P107" t="n">
+        <v>0.01200845931574566</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>0.89453125</v>
+      </c>
+      <c r="R107" t="n">
+        <v>0.4620060790273556</v>
+      </c>
+      <c r="S107" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="T107" t="n">
+        <v>1.241383677454499</v>
+      </c>
+      <c r="U107" t="n">
+        <v>12</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0.89453125</v>
+      </c>
+      <c r="W107" t="n">
+        <v>0.4620060790273556</v>
+      </c>
+      <c r="X107" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>1.241383677454499</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25">
+      <c r="A108" t="s">
+        <v>182</v>
+      </c>
+      <c r="B108" t="s">
+        <v>49</v>
+      </c>
+      <c r="C108" t="s">
+        <v>28</v>
+      </c>
+      <c r="D108" t="s">
+        <v>29</v>
+      </c>
+      <c r="E108" t="s">
+        <v>30</v>
+      </c>
+      <c r="F108" t="s">
+        <v>31</v>
+      </c>
+      <c r="G108" t="s">
+        <v>178</v>
+      </c>
+      <c r="H108" t="s">
+        <v>33</v>
+      </c>
+      <c r="I108" t="s">
+        <v>34</v>
+      </c>
+      <c r="J108" t="s">
+        <v>175</v>
+      </c>
+      <c r="K108" t="s">
+        <v>36</v>
+      </c>
+      <c r="L108" t="s">
+        <v>30</v>
+      </c>
+      <c r="M108" t="s">
+        <v>173</v>
+      </c>
+      <c r="N108" t="n">
+        <v>10</v>
+      </c>
+      <c r="O108" t="n">
+        <v>0.002782941594584069</v>
+      </c>
+      <c r="P108" t="n">
+        <v>0.004269491130978684</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>0.4479166666666667</v>
+      </c>
+      <c r="R108" t="n">
+        <v>0.3860182370820669</v>
+      </c>
+      <c r="S108" t="n">
+        <v>1.001951221367587</v>
+      </c>
+      <c r="T108" t="n">
+        <v>1.214151610688962</v>
+      </c>
+      <c r="U108" t="n">
+        <v>10</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0.4479166666666667</v>
+      </c>
+      <c r="W108" t="n">
+        <v>0.3860182370820669</v>
+      </c>
+      <c r="X108" t="n">
+        <v>1.001951221367587</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>1.214151610688962</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25">
+      <c r="A109" t="s">
+        <v>183</v>
+      </c>
+      <c r="B109" t="s">
+        <v>49</v>
+      </c>
+      <c r="C109" t="s">
+        <v>28</v>
+      </c>
+      <c r="D109" t="s">
+        <v>29</v>
+      </c>
+      <c r="E109" t="s">
+        <v>30</v>
+      </c>
+      <c r="F109" t="s">
+        <v>31</v>
+      </c>
+      <c r="G109" t="s">
+        <v>178</v>
+      </c>
+      <c r="H109" t="s">
+        <v>33</v>
+      </c>
+      <c r="I109" t="s">
+        <v>34</v>
+      </c>
+      <c r="J109" t="s">
+        <v>175</v>
+      </c>
+      <c r="K109" t="s">
+        <v>36</v>
+      </c>
+      <c r="L109" t="s">
+        <v>30</v>
+      </c>
+      <c r="M109" t="s">
+        <v>173</v>
+      </c>
+      <c r="N109" t="n">
+        <v>18</v>
+      </c>
+      <c r="O109" t="n">
+        <v>0.002259189934799603</v>
+      </c>
+      <c r="P109" t="n">
+        <v>0.004330871043596586</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="R109" t="n">
+        <v>0.4316109422492401</v>
+      </c>
+      <c r="S109" t="n">
+        <v>0.7525996611745185</v>
+      </c>
+      <c r="T109" t="n">
+        <v>1.215402668837128</v>
+      </c>
+      <c r="U109" t="n">
+        <v>18</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="W109" t="n">
+        <v>0.4316109422492401</v>
+      </c>
+      <c r="X109" t="n">
+        <v>0.7525996611745185</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>1.215402668837128</v>
+      </c>
+    </row>
+    <row r="110" spans="1:25">
+      <c r="A110" t="s">
+        <v>184</v>
+      </c>
+      <c r="B110" t="s">
+        <v>49</v>
+      </c>
+      <c r="C110" t="s">
+        <v>28</v>
+      </c>
+      <c r="D110" t="s">
+        <v>29</v>
+      </c>
+      <c r="E110" t="s">
+        <v>30</v>
+      </c>
+      <c r="F110" t="s">
+        <v>31</v>
+      </c>
+      <c r="G110" t="s">
+        <v>168</v>
+      </c>
+      <c r="H110" t="s">
+        <v>33</v>
+      </c>
+      <c r="I110" t="s">
+        <v>34</v>
+      </c>
+      <c r="J110" t="s">
+        <v>175</v>
+      </c>
+      <c r="K110" t="s">
+        <v>36</v>
+      </c>
+      <c r="L110" t="s">
+        <v>30</v>
+      </c>
+      <c r="M110" t="s">
+        <v>173</v>
+      </c>
+      <c r="N110" t="n">
+        <v>5</v>
+      </c>
+      <c r="O110" t="n">
+        <v>0.01706836840215449</v>
+      </c>
+      <c r="P110" t="n">
+        <v>0.02383613747213387</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="R110" t="n">
+        <v>0.3586626139817629</v>
+      </c>
+      <c r="S110" t="n">
+        <v>1.012937148428602</v>
+      </c>
+      <c r="T110" t="n">
+        <v>1.372770366901603</v>
+      </c>
+      <c r="U110" t="n">
+        <v>5</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="W110" t="n">
+        <v>0.3586626139817629</v>
+      </c>
+      <c r="X110" t="n">
+        <v>1.012937148428602</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>1.372770366901603</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25">
+      <c r="A111" t="s">
+        <v>185</v>
+      </c>
+      <c r="B111" t="s">
+        <v>49</v>
+      </c>
+      <c r="C111" t="s">
+        <v>28</v>
+      </c>
+      <c r="D111" t="s">
+        <v>29</v>
+      </c>
+      <c r="E111" t="s">
+        <v>30</v>
+      </c>
+      <c r="F111" t="s">
+        <v>31</v>
+      </c>
+      <c r="G111" t="s">
+        <v>178</v>
+      </c>
+      <c r="H111" t="s">
+        <v>33</v>
+      </c>
+      <c r="I111" t="s">
+        <v>34</v>
+      </c>
+      <c r="J111" t="s">
+        <v>175</v>
+      </c>
+      <c r="K111" t="s">
+        <v>36</v>
+      </c>
+      <c r="L111" t="s">
+        <v>30</v>
+      </c>
+      <c r="M111" t="s">
+        <v>173</v>
+      </c>
+      <c r="N111" t="n">
+        <v>1</v>
+      </c>
+      <c r="O111" t="n">
+        <v>0.007602096787498643</v>
+      </c>
+      <c r="P111" t="n">
+        <v>0.006338213635523631</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>0.2057291666666667</v>
+      </c>
+      <c r="R111" t="n">
+        <v>0.2644376899696049</v>
+      </c>
+      <c r="S111" t="n">
+        <v>2.590547722007838</v>
+      </c>
+      <c r="T111" t="n">
+        <v>2.049538460906641</v>
+      </c>
+      <c r="U111" t="n">
+        <v>1</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0.2057291666666667</v>
+      </c>
+      <c r="W111" t="n">
+        <v>0.2644376899696049</v>
+      </c>
+      <c r="X111" t="n">
+        <v>2.590547722007838</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>2.049538460906641</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25">
+      <c r="A112" t="s">
+        <v>186</v>
+      </c>
+      <c r="B112" t="s">
+        <v>49</v>
+      </c>
+      <c r="C112" t="s">
+        <v>28</v>
+      </c>
+      <c r="D112" t="s">
+        <v>29</v>
+      </c>
+      <c r="E112" t="s">
+        <v>30</v>
+      </c>
+      <c r="F112" t="s">
+        <v>31</v>
+      </c>
+      <c r="G112" t="s">
+        <v>178</v>
+      </c>
+      <c r="H112" t="s">
+        <v>33</v>
+      </c>
+      <c r="I112" t="s">
+        <v>34</v>
+      </c>
+      <c r="J112" t="s">
+        <v>175</v>
+      </c>
+      <c r="K112" t="s">
+        <v>36</v>
+      </c>
+      <c r="L112" t="s">
+        <v>30</v>
+      </c>
+      <c r="M112" t="s">
+        <v>173</v>
+      </c>
+      <c r="S112" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="113" spans="1:25">
+      <c r="A113" t="s">
+        <v>187</v>
+      </c>
+      <c r="B113" t="s">
+        <v>49</v>
+      </c>
+      <c r="C113" t="s">
+        <v>28</v>
+      </c>
+      <c r="D113" t="s">
+        <v>29</v>
+      </c>
+      <c r="E113" t="s">
+        <v>30</v>
+      </c>
+      <c r="F113" t="s">
+        <v>31</v>
+      </c>
+      <c r="G113" t="s">
+        <v>178</v>
+      </c>
+      <c r="H113" t="s">
+        <v>33</v>
+      </c>
+      <c r="I113" t="s">
+        <v>34</v>
+      </c>
+      <c r="J113" t="s">
+        <v>175</v>
+      </c>
+      <c r="K113" t="s">
+        <v>36</v>
+      </c>
+      <c r="L113" t="s">
+        <v>30</v>
+      </c>
+      <c r="M113" t="s">
+        <v>173</v>
+      </c>
+      <c r="N113" t="n">
+        <v>15</v>
+      </c>
+      <c r="O113" t="n">
+        <v>0.002433132079507535</v>
+      </c>
+      <c r="P113" t="n">
+        <v>0.003921142020644932</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>0.5442708333333334</v>
+      </c>
+      <c r="R113" t="n">
+        <v>0.4012158054711246</v>
+      </c>
+      <c r="S113" t="n">
+        <v>0.8853553900364908</v>
+      </c>
+      <c r="T113" t="n">
+        <v>1.161698787529852</v>
+      </c>
+      <c r="U113" t="n">
+        <v>15</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0.5442708333333334</v>
+      </c>
+      <c r="W113" t="n">
+        <v>0.4012158054711246</v>
+      </c>
+      <c r="X113" t="n">
+        <v>0.8853553900364908</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>1.161698787529852</v>
+      </c>
+    </row>
+    <row r="114" spans="1:25">
+      <c r="A114" t="s">
+        <v>188</v>
+      </c>
+      <c r="B114" t="s">
+        <v>27</v>
+      </c>
+      <c r="C114" t="s">
+        <v>28</v>
+      </c>
+      <c r="D114" t="s">
+        <v>29</v>
+      </c>
+      <c r="E114" t="s">
+        <v>30</v>
+      </c>
+      <c r="F114" t="s">
+        <v>31</v>
+      </c>
+      <c r="G114" t="s">
+        <v>178</v>
+      </c>
+      <c r="H114" t="s">
+        <v>33</v>
+      </c>
+      <c r="I114" t="s">
+        <v>34</v>
+      </c>
+      <c r="J114" t="s">
+        <v>189</v>
+      </c>
+      <c r="K114" t="s">
+        <v>36</v>
+      </c>
+      <c r="L114" t="s">
+        <v>30</v>
+      </c>
+      <c r="M114" t="s">
+        <v>160</v>
+      </c>
+      <c r="N114" t="n">
+        <v>13</v>
+      </c>
+      <c r="O114" t="n">
+        <v>0.0008734013459980413</v>
+      </c>
+      <c r="P114" t="n">
+        <v>0.0009759009182453155</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>0.517490518523854</v>
+      </c>
+      <c r="R114" t="n">
+        <v>0.523</v>
+      </c>
+      <c r="S114" t="n">
+        <v>0.834661159632885</v>
+      </c>
+      <c r="T114" t="n">
+        <v>0.8689073598491384</v>
+      </c>
+      <c r="U114" t="n">
+        <v>13</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0.517490518523854</v>
+      </c>
+      <c r="W114" t="n">
+        <v>0.523</v>
+      </c>
+      <c r="X114" t="n">
+        <v>0.834661159632885</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>0.8689073598491384</v>
+      </c>
+    </row>
+    <row r="115" spans="1:25">
+      <c r="A115" t="s">
+        <v>190</v>
+      </c>
+      <c r="B115" t="s">
+        <v>27</v>
+      </c>
+      <c r="C115" t="s">
+        <v>28</v>
+      </c>
+      <c r="D115" t="s">
+        <v>29</v>
+      </c>
+      <c r="E115" t="s">
+        <v>30</v>
+      </c>
+      <c r="F115" t="s">
+        <v>31</v>
+      </c>
+      <c r="G115" t="s">
+        <v>168</v>
+      </c>
+      <c r="H115" t="s">
+        <v>33</v>
+      </c>
+      <c r="I115" t="s">
+        <v>34</v>
+      </c>
+      <c r="J115" t="s">
+        <v>191</v>
+      </c>
+      <c r="K115" t="s">
+        <v>36</v>
+      </c>
+      <c r="L115" t="s">
+        <v>30</v>
+      </c>
+      <c r="M115" t="s">
+        <v>160</v>
+      </c>
+      <c r="S115" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="116" spans="1:25">
+      <c r="A116" t="s">
+        <v>192</v>
+      </c>
+      <c r="B116" t="s">
+        <v>27</v>
+      </c>
+      <c r="C116" t="s">
+        <v>28</v>
+      </c>
+      <c r="D116" t="s">
+        <v>29</v>
+      </c>
+      <c r="E116" t="s">
+        <v>30</v>
+      </c>
+      <c r="F116" t="s">
+        <v>31</v>
+      </c>
+      <c r="G116" t="s">
+        <v>168</v>
+      </c>
+      <c r="H116" t="s">
+        <v>33</v>
+      </c>
+      <c r="I116" t="s">
+        <v>34</v>
+      </c>
+      <c r="J116" t="s">
+        <v>191</v>
+      </c>
+      <c r="K116" t="s">
+        <v>36</v>
+      </c>
+      <c r="L116" t="s">
+        <v>30</v>
+      </c>
+      <c r="M116" t="s">
+        <v>173</v>
+      </c>
+      <c r="N116" t="n">
+        <v>5</v>
+      </c>
+      <c r="O116" t="n">
+        <v>0.01609985243218641</v>
+      </c>
+      <c r="P116" t="n">
+        <v>0.02417135745921033</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>0.4557291666666667</v>
+      </c>
+      <c r="R116" t="n">
+        <v>0.4133738601823708</v>
+      </c>
+      <c r="S116" t="n">
+        <v>1.006489360765097</v>
+      </c>
+      <c r="T116" t="n">
+        <v>1.320863676184575</v>
+      </c>
+      <c r="U116" t="n">
+        <v>5</v>
+      </c>
+      <c r="V116" t="n">
+        <v>0.4557291666666667</v>
+      </c>
+      <c r="W116" t="n">
+        <v>0.4133738601823708</v>
+      </c>
+      <c r="X116" t="n">
+        <v>1.006489360765097</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>1.320863676184575</v>
+      </c>
+    </row>
+    <row r="117" spans="1:25">
+      <c r="A117" t="s">
+        <v>193</v>
+      </c>
+      <c r="B117" t="s">
+        <v>27</v>
+      </c>
+      <c r="C117" t="s">
+        <v>28</v>
+      </c>
+      <c r="D117" t="s">
+        <v>29</v>
+      </c>
+      <c r="E117" t="s">
+        <v>30</v>
+      </c>
+      <c r="F117" t="s">
+        <v>31</v>
+      </c>
+      <c r="G117" t="s">
+        <v>178</v>
+      </c>
+      <c r="H117" t="s">
+        <v>33</v>
+      </c>
+      <c r="I117" t="s">
+        <v>34</v>
+      </c>
+      <c r="J117" t="s">
+        <v>194</v>
+      </c>
+      <c r="K117" t="s">
+        <v>36</v>
+      </c>
+      <c r="L117" t="s">
+        <v>30</v>
+      </c>
+      <c r="M117" t="s">
+        <v>160</v>
+      </c>
+      <c r="S117" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:25">
+      <c r="A118" t="s">
+        <v>195</v>
+      </c>
+      <c r="B118" t="s">
+        <v>27</v>
+      </c>
+      <c r="C118" t="s">
+        <v>28</v>
+      </c>
+      <c r="D118" t="s">
+        <v>29</v>
+      </c>
+      <c r="E118" t="s">
+        <v>30</v>
+      </c>
+      <c r="F118" t="s">
+        <v>31</v>
+      </c>
+      <c r="G118" t="s">
+        <v>178</v>
+      </c>
+      <c r="H118" t="s">
+        <v>33</v>
+      </c>
+      <c r="I118" t="s">
+        <v>34</v>
+      </c>
+      <c r="J118" t="s">
+        <v>194</v>
+      </c>
+      <c r="K118" t="s">
+        <v>36</v>
+      </c>
+      <c r="L118" t="s">
+        <v>30</v>
+      </c>
+      <c r="M118" t="s">
+        <v>160</v>
+      </c>
+      <c r="S118" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:25">
+      <c r="A119" t="s">
+        <v>196</v>
+      </c>
+      <c r="B119" t="s">
+        <v>27</v>
+      </c>
+      <c r="C119" t="s">
+        <v>28</v>
+      </c>
+      <c r="D119" t="s">
+        <v>29</v>
+      </c>
+      <c r="E119" t="s">
+        <v>30</v>
+      </c>
+      <c r="F119" t="s">
+        <v>31</v>
+      </c>
+      <c r="G119" t="s">
+        <v>178</v>
+      </c>
+      <c r="H119" t="s">
+        <v>33</v>
+      </c>
+      <c r="I119" t="s">
+        <v>34</v>
+      </c>
+      <c r="J119" t="s">
+        <v>197</v>
+      </c>
+      <c r="K119" t="s">
+        <v>36</v>
+      </c>
+      <c r="L119" t="s">
+        <v>30</v>
+      </c>
+      <c r="M119" t="s">
+        <v>160</v>
+      </c>
+      <c r="S119" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="120" spans="1:25">
+      <c r="A120" t="s">
+        <v>198</v>
+      </c>
+      <c r="B120" t="s">
+        <v>27</v>
+      </c>
+      <c r="C120" t="s">
+        <v>28</v>
+      </c>
+      <c r="D120" t="s">
+        <v>29</v>
+      </c>
+      <c r="E120" t="s">
+        <v>30</v>
+      </c>
+      <c r="F120" t="s">
+        <v>31</v>
+      </c>
+      <c r="G120" t="s">
+        <v>178</v>
+      </c>
+      <c r="H120" t="s">
+        <v>33</v>
+      </c>
+      <c r="I120" t="s">
+        <v>34</v>
+      </c>
+      <c r="J120" t="s">
+        <v>197</v>
+      </c>
+      <c r="K120" t="s">
+        <v>36</v>
+      </c>
+      <c r="L120" t="s">
+        <v>30</v>
+      </c>
+      <c r="M120" t="s">
+        <v>160</v>
+      </c>
+      <c r="S120" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="121" spans="1:25">
+      <c r="A121" t="s">
+        <v>199</v>
+      </c>
+      <c r="B121" t="s">
+        <v>27</v>
+      </c>
+      <c r="C121" t="s">
+        <v>28</v>
+      </c>
+      <c r="D121" t="s">
+        <v>29</v>
+      </c>
+      <c r="E121" t="s">
+        <v>30</v>
+      </c>
+      <c r="F121" t="s">
+        <v>31</v>
+      </c>
+      <c r="G121" t="s">
+        <v>178</v>
+      </c>
+      <c r="H121" t="s">
+        <v>33</v>
+      </c>
+      <c r="I121" t="s">
+        <v>34</v>
+      </c>
+      <c r="J121" t="s">
+        <v>197</v>
+      </c>
+      <c r="K121" t="s">
+        <v>36</v>
+      </c>
+      <c r="L121" t="s">
+        <v>30</v>
+      </c>
+      <c r="M121" t="s">
+        <v>160</v>
+      </c>
+      <c r="S121" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="122" spans="1:25">
+      <c r="A122" t="s">
+        <v>200</v>
+      </c>
+      <c r="B122" t="s">
+        <v>27</v>
+      </c>
+      <c r="C122" t="s">
+        <v>28</v>
+      </c>
+      <c r="D122" t="s">
+        <v>29</v>
+      </c>
+      <c r="E122" t="s">
+        <v>30</v>
+      </c>
+      <c r="F122" t="s">
+        <v>31</v>
+      </c>
+      <c r="G122" t="s">
+        <v>178</v>
+      </c>
+      <c r="H122" t="s">
+        <v>33</v>
+      </c>
+      <c r="I122" t="s">
+        <v>34</v>
+      </c>
+      <c r="J122" t="s">
+        <v>201</v>
+      </c>
+      <c r="K122" t="s">
+        <v>36</v>
+      </c>
+      <c r="L122" t="s">
+        <v>30</v>
+      </c>
+      <c r="M122" t="s">
+        <v>160</v>
+      </c>
+      <c r="S122" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="123" spans="1:25">
+      <c r="A123" t="s">
+        <v>202</v>
+      </c>
+      <c r="B123" t="s">
+        <v>27</v>
+      </c>
+      <c r="C123" t="s">
+        <v>28</v>
+      </c>
+      <c r="D123" t="s">
+        <v>29</v>
+      </c>
+      <c r="E123" t="s">
+        <v>30</v>
+      </c>
+      <c r="F123" t="s">
+        <v>31</v>
+      </c>
+      <c r="G123" t="s">
+        <v>178</v>
+      </c>
+      <c r="H123" t="s">
+        <v>33</v>
+      </c>
+      <c r="I123" t="s">
+        <v>34</v>
+      </c>
+      <c r="J123" t="s">
+        <v>203</v>
+      </c>
+      <c r="K123" t="s">
+        <v>36</v>
+      </c>
+      <c r="L123" t="s">
+        <v>30</v>
+      </c>
+      <c r="M123" t="s">
+        <v>160</v>
+      </c>
+      <c r="N123" t="n">
+        <v>6</v>
+      </c>
+      <c r="O123" t="n">
+        <v>0.00121326309654557</v>
+      </c>
+      <c r="P123" t="n">
+        <v>0.001203183844685555</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>0.5053425936442943</v>
+      </c>
+      <c r="R123" t="n">
+        <v>0.503</v>
+      </c>
+      <c r="S123" t="n">
+        <v>0.9370445903807563</v>
+      </c>
+      <c r="T123" t="n">
+        <v>0.8933084573650918</v>
+      </c>
+      <c r="U123" t="n">
+        <v>6</v>
+      </c>
+      <c r="V123" t="n">
+        <v>0.5053425936442943</v>
+      </c>
+      <c r="W123" t="n">
+        <v>0.503</v>
+      </c>
+      <c r="X123" t="n">
+        <v>0.9370445903807563</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>0.8933084573650918</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>

--- a/logs.xlsx
+++ b/logs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="117">
   <si>
     <t>Date</t>
   </si>
@@ -215,6 +215,156 @@
   </si>
   <si>
     <t>0.5xsingle + 0.5Xmulti</t>
+  </si>
+  <si>
+    <t>October31  14:51:35</t>
+  </si>
+  <si>
+    <t>&lt;function exp_lr_scheduler at 0x7fbb563eeae8&gt;</t>
+  </si>
+  <si>
+    <t>October31  14:52:41</t>
+  </si>
+  <si>
+    <t>October31  14:54:58</t>
+  </si>
+  <si>
+    <t>resnet18</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>&lt;function exp_lr_scheduler at 0x7fbb563ee9d8&gt;</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>October31  14:55:19</t>
+  </si>
+  <si>
+    <t>October31  15:00:45</t>
+  </si>
+  <si>
+    <t>October31  15:01:05</t>
+  </si>
+  <si>
+    <t>October31  15:12:03</t>
+  </si>
+  <si>
+    <t>October31  15:22:59</t>
+  </si>
+  <si>
+    <t>October31  15:34:11</t>
+  </si>
+  <si>
+    <t>October31  15:45:13</t>
+  </si>
+  <si>
+    <t>October31  20:22:48</t>
+  </si>
+  <si>
+    <t>&lt;function exp_lr_scheduler at 0x7f5d5d4a0ae8&gt;</t>
+  </si>
+  <si>
+    <t>October31  20:31:59</t>
+  </si>
+  <si>
+    <t>October31  20:41:18</t>
+  </si>
+  <si>
+    <t>October31  20:50:24</t>
+  </si>
+  <si>
+    <t>October31  20:59:21</t>
+  </si>
+  <si>
+    <t>October31  22:13:05</t>
+  </si>
+  <si>
+    <t>October31  22:21:50</t>
+  </si>
+  <si>
+    <t>October31  22:30:46</t>
+  </si>
+  <si>
+    <t>October31  22:39:47</t>
+  </si>
+  <si>
+    <t>October31  22:48:44</t>
+  </si>
+  <si>
+    <t>November01  17:42:51</t>
+  </si>
+  <si>
+    <t>&lt;function exp_lr_scheduler at 0x7f432662aae8&gt;</t>
+  </si>
+  <si>
+    <t>November01  17:51:37</t>
+  </si>
+  <si>
+    <t>November01  18:00:01</t>
+  </si>
+  <si>
+    <t>0.3xsingle + 0.7Xmulti</t>
+  </si>
+  <si>
+    <t>November01  18:08:25</t>
+  </si>
+  <si>
+    <t>0.1xsingle + 0.9Xmulti</t>
+  </si>
+  <si>
+    <t>November01  18:16:51</t>
+  </si>
+  <si>
+    <t>November01  19:38:00</t>
+  </si>
+  <si>
+    <t>November01  19:46:14</t>
+  </si>
+  <si>
+    <t>November01  19:54:43</t>
+  </si>
+  <si>
+    <t>November01  20:03:15</t>
+  </si>
+  <si>
+    <t>November01  20:11:37</t>
+  </si>
+  <si>
+    <t>November01  20:20:04</t>
+  </si>
+  <si>
+    <t>November01  20:28:31</t>
+  </si>
+  <si>
+    <t>November01  20:37:07</t>
+  </si>
+  <si>
+    <t>November01  20:45:43</t>
+  </si>
+  <si>
+    <t>November01  20:54:12</t>
+  </si>
+  <si>
+    <t>November01  21:02:46</t>
+  </si>
+  <si>
+    <t>November01  21:08:52</t>
+  </si>
+  <si>
+    <t>November01  21:17:26</t>
+  </si>
+  <si>
+    <t>November01  21:26:05</t>
+  </si>
+  <si>
+    <t>November01  21:34:33</t>
+  </si>
+  <si>
+    <t>November01  21:43:05</t>
   </si>
 </sst>
 </file>
@@ -592,7 +742,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:Y18"/>
+  <dimension ref="A1:Y59"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A182" activeCellId="0" pane="topLeft" sqref="2:182"/>
@@ -1829,6 +1979,3031 @@
         <v>0.8692197847668754</v>
       </c>
     </row>
+    <row r="19" spans="1:25">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" t="s">
+        <v>68</v>
+      </c>
+      <c r="K19" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" t="s">
+        <v>29</v>
+      </c>
+      <c r="M19" t="s">
+        <v>36</v>
+      </c>
+      <c r="S19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="A20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20" t="s">
+        <v>29</v>
+      </c>
+      <c r="M20" t="s">
+        <v>36</v>
+      </c>
+      <c r="S20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" t="s">
+        <v>73</v>
+      </c>
+      <c r="K21" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21" t="s">
+        <v>29</v>
+      </c>
+      <c r="M21" t="s">
+        <v>74</v>
+      </c>
+      <c r="S21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
+      <c r="A22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" t="s">
+        <v>73</v>
+      </c>
+      <c r="K22" t="s">
+        <v>35</v>
+      </c>
+      <c r="L22" t="s">
+        <v>29</v>
+      </c>
+      <c r="M22" t="s">
+        <v>74</v>
+      </c>
+      <c r="N22" t="n">
+        <v>17</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.005454851099162753</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.0791793954372406</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.9522445081184336</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.3708582163292478</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.48492424049175</v>
+      </c>
+      <c r="U22" t="n">
+        <v>17</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.9522445081184336</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.3708582163292478</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>1.48492424049175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="A23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" t="s">
+        <v>73</v>
+      </c>
+      <c r="K23" t="s">
+        <v>35</v>
+      </c>
+      <c r="L23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M23" t="s">
+        <v>74</v>
+      </c>
+      <c r="S23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" t="s">
+        <v>73</v>
+      </c>
+      <c r="K24" t="s">
+        <v>35</v>
+      </c>
+      <c r="L24" t="s">
+        <v>29</v>
+      </c>
+      <c r="M24" t="s">
+        <v>74</v>
+      </c>
+      <c r="N24" t="n">
+        <v>30</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.002733449945306368</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.07747403383255005</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.9761222540592168</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.2529671107501901</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.473091986265624</v>
+      </c>
+      <c r="U24" t="n">
+        <v>30</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.9761222540592168</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.2529671107501901</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1.473091986265624</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="A25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" t="s">
+        <v>73</v>
+      </c>
+      <c r="K25" t="s">
+        <v>35</v>
+      </c>
+      <c r="L25" t="s">
+        <v>29</v>
+      </c>
+      <c r="M25" t="s">
+        <v>74</v>
+      </c>
+      <c r="N25" t="n">
+        <v>57</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.003669285230559173</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.01426821559667587</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.612225405921681</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.6599470326926892</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.262933094031509</v>
+      </c>
+      <c r="U25" t="n">
+        <v>57</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.612225405921681</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.6599470326926892</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>1.262933094031509</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
+      <c r="A26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" t="s">
+        <v>60</v>
+      </c>
+      <c r="H26" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J26" t="s">
+        <v>73</v>
+      </c>
+      <c r="K26" t="s">
+        <v>35</v>
+      </c>
+      <c r="L26" t="s">
+        <v>29</v>
+      </c>
+      <c r="M26" t="s">
+        <v>74</v>
+      </c>
+      <c r="N26" t="n">
+        <v>7</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.009149082666823379</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.0180771204829216</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.6657115568290354</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.7963623121338689</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.274754878398196</v>
+      </c>
+      <c r="U26" t="n">
+        <v>7</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.6657115568290354</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.7963623121338689</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>1.274754878398196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
+      <c r="A27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27" t="s">
+        <v>73</v>
+      </c>
+      <c r="K27" t="s">
+        <v>35</v>
+      </c>
+      <c r="L27" t="s">
+        <v>29</v>
+      </c>
+      <c r="M27" t="s">
+        <v>74</v>
+      </c>
+      <c r="N27" t="n">
+        <v>35</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.003205093991904454</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.03028415113687515</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.9694364851957975</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.2433450429598727</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.244989959798873</v>
+      </c>
+      <c r="U27" t="n">
+        <v>35</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.9694364851957975</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.2433450429598727</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>1.244989959798873</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
+      <c r="A28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28" t="s">
+        <v>73</v>
+      </c>
+      <c r="K28" t="s">
+        <v>35</v>
+      </c>
+      <c r="L28" t="s">
+        <v>29</v>
+      </c>
+      <c r="M28" t="s">
+        <v>74</v>
+      </c>
+      <c r="N28" t="n">
+        <v>41</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.003188726076822454</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.03957727819681168</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.9799426934097422</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.2002863279919919</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.380217374184226</v>
+      </c>
+      <c r="U28" t="n">
+        <v>41</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.9799426934097422</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.2002863279919919</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>1.380217374184226</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
+      <c r="A29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" t="s">
+        <v>83</v>
+      </c>
+      <c r="K29" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" t="s">
+        <v>29</v>
+      </c>
+      <c r="M29" t="s">
+        <v>74</v>
+      </c>
+      <c r="N29" t="n">
+        <v>29</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.006794408827150661</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.07604332500033908</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.9189627228525121</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.4222222222222222</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.4105575921436294</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.334998959633386</v>
+      </c>
+      <c r="U29" t="n">
+        <v>29</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.9189627228525121</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.4222222222222222</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.4105575921436294</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1.334998959633386</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
+      <c r="A30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" t="s">
+        <v>32</v>
+      </c>
+      <c r="I30" t="s">
+        <v>33</v>
+      </c>
+      <c r="J30" t="s">
+        <v>83</v>
+      </c>
+      <c r="K30" t="s">
+        <v>35</v>
+      </c>
+      <c r="L30" t="s">
+        <v>29</v>
+      </c>
+      <c r="M30" t="s">
+        <v>74</v>
+      </c>
+      <c r="N30" t="n">
+        <v>24</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.003739707455691101</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.012810653862026</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.600486223662885</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.3733333333333334</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.6485240692491389</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.271918935222594</v>
+      </c>
+      <c r="U30" t="n">
+        <v>24</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.600486223662885</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.3733333333333334</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.6485240692491389</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>1.271918935222594</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
+      <c r="A31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" t="s">
+        <v>60</v>
+      </c>
+      <c r="H31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I31" t="s">
+        <v>33</v>
+      </c>
+      <c r="J31" t="s">
+        <v>83</v>
+      </c>
+      <c r="K31" t="s">
+        <v>35</v>
+      </c>
+      <c r="L31" t="s">
+        <v>29</v>
+      </c>
+      <c r="M31" t="s">
+        <v>74</v>
+      </c>
+      <c r="N31" t="n">
+        <v>33</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.004333783695821438</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.01839789297845628</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.8606158833063209</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.4488888888888889</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.4473947636643672</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.24186240067981</v>
+      </c>
+      <c r="U31" t="n">
+        <v>33</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.8606158833063209</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.4488888888888889</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0.4473947636643672</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>1.24186240067981</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25">
+      <c r="A32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" t="s">
+        <v>62</v>
+      </c>
+      <c r="H32" t="s">
+        <v>32</v>
+      </c>
+      <c r="I32" t="s">
+        <v>33</v>
+      </c>
+      <c r="J32" t="s">
+        <v>83</v>
+      </c>
+      <c r="K32" t="s">
+        <v>35</v>
+      </c>
+      <c r="L32" t="s">
+        <v>29</v>
+      </c>
+      <c r="M32" t="s">
+        <v>74</v>
+      </c>
+      <c r="N32" t="n">
+        <v>46</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.004933890245094098</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.03018448339568244</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.9124797406807131</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.3871937018119646</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.308094458023239</v>
+      </c>
+      <c r="U32" t="n">
+        <v>46</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.9124797406807131</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.3871937018119646</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>1.308094458023239</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25">
+      <c r="A33" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" t="s">
+        <v>66</v>
+      </c>
+      <c r="H33" t="s">
+        <v>32</v>
+      </c>
+      <c r="I33" t="s">
+        <v>33</v>
+      </c>
+      <c r="J33" t="s">
+        <v>83</v>
+      </c>
+      <c r="K33" t="s">
+        <v>35</v>
+      </c>
+      <c r="L33" t="s">
+        <v>29</v>
+      </c>
+      <c r="M33" t="s">
+        <v>74</v>
+      </c>
+      <c r="N33" t="n">
+        <v>20</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.005610140454102567</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.03918958465258281</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.9278768233387358</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.4311111111111111</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.4464881877304483</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.359738536958076</v>
+      </c>
+      <c r="U33" t="n">
+        <v>20</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.9278768233387358</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.4311111111111111</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.4464881877304483</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>1.359738536958076</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25">
+      <c r="A34" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H34" t="s">
+        <v>32</v>
+      </c>
+      <c r="I34" t="s">
+        <v>33</v>
+      </c>
+      <c r="J34" t="s">
+        <v>83</v>
+      </c>
+      <c r="K34" t="s">
+        <v>35</v>
+      </c>
+      <c r="L34" t="s">
+        <v>29</v>
+      </c>
+      <c r="M34" t="s">
+        <v>74</v>
+      </c>
+      <c r="N34" t="n">
+        <v>15</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.009099722125928252</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.07260268873638577</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.906807131280389</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.4527961033215108</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.331665623695879</v>
+      </c>
+      <c r="U34" t="n">
+        <v>15</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0.906807131280389</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0.4527961033215108</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>1.331665623695879</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25">
+      <c r="A35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" t="s">
+        <v>30</v>
+      </c>
+      <c r="G35" t="s">
+        <v>31</v>
+      </c>
+      <c r="H35" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" t="s">
+        <v>33</v>
+      </c>
+      <c r="J35" t="s">
+        <v>83</v>
+      </c>
+      <c r="K35" t="s">
+        <v>35</v>
+      </c>
+      <c r="L35" t="s">
+        <v>29</v>
+      </c>
+      <c r="M35" t="s">
+        <v>74</v>
+      </c>
+      <c r="N35" t="n">
+        <v>46</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.003828151697954057</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.01311924801932441</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.6247974068071313</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.3688888888888889</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.6553606403207973</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.277149604044534</v>
+      </c>
+      <c r="U35" t="n">
+        <v>46</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.6247974068071313</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.3688888888888889</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.6553606403207973</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>1.277149604044534</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25">
+      <c r="A36" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" t="s">
+        <v>60</v>
+      </c>
+      <c r="H36" t="s">
+        <v>32</v>
+      </c>
+      <c r="I36" t="s">
+        <v>33</v>
+      </c>
+      <c r="J36" t="s">
+        <v>83</v>
+      </c>
+      <c r="K36" t="s">
+        <v>35</v>
+      </c>
+      <c r="L36" t="s">
+        <v>29</v>
+      </c>
+      <c r="M36" t="s">
+        <v>74</v>
+      </c>
+      <c r="N36" t="n">
+        <v>6</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.009886540726092878</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.01649441050158607</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.6280388978930308</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.4488888888888889</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.8648549404792186</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.21472447721924</v>
+      </c>
+      <c r="U36" t="n">
+        <v>6</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.6280388978930308</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0.4488888888888889</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.8648549404792186</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>1.21472447721924</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25">
+      <c r="A37" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" t="s">
+        <v>30</v>
+      </c>
+      <c r="G37" t="s">
+        <v>62</v>
+      </c>
+      <c r="H37" t="s">
+        <v>32</v>
+      </c>
+      <c r="I37" t="s">
+        <v>33</v>
+      </c>
+      <c r="J37" t="s">
+        <v>83</v>
+      </c>
+      <c r="K37" t="s">
+        <v>35</v>
+      </c>
+      <c r="L37" t="s">
+        <v>29</v>
+      </c>
+      <c r="M37" t="s">
+        <v>74</v>
+      </c>
+      <c r="N37" t="n">
+        <v>42</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.004720399147156185</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.02778150081634521</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.9246353322528363</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.3144288124837404</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.257864150940881</v>
+      </c>
+      <c r="U37" t="n">
+        <v>42</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.9246353322528363</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0.3144288124837404</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>1.257864150940881</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25">
+      <c r="A38" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" t="s">
+        <v>30</v>
+      </c>
+      <c r="G38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H38" t="s">
+        <v>32</v>
+      </c>
+      <c r="I38" t="s">
+        <v>33</v>
+      </c>
+      <c r="J38" t="s">
+        <v>83</v>
+      </c>
+      <c r="K38" t="s">
+        <v>35</v>
+      </c>
+      <c r="L38" t="s">
+        <v>29</v>
+      </c>
+      <c r="M38" t="s">
+        <v>74</v>
+      </c>
+      <c r="N38" t="n">
+        <v>29</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.005081898612807984</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.04848555697335137</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.9440842787682334</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.4133333333333333</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.3208073284345443</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.344949400122134</v>
+      </c>
+      <c r="U38" t="n">
+        <v>29</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.9440842787682334</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.4133333333333333</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.3208073284345443</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>1.344949400122134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25">
+      <c r="A39" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" t="s">
+        <v>30</v>
+      </c>
+      <c r="G39" t="s">
+        <v>39</v>
+      </c>
+      <c r="H39" t="s">
+        <v>32</v>
+      </c>
+      <c r="I39" t="s">
+        <v>33</v>
+      </c>
+      <c r="J39" t="s">
+        <v>94</v>
+      </c>
+      <c r="K39" t="s">
+        <v>35</v>
+      </c>
+      <c r="L39" t="s">
+        <v>29</v>
+      </c>
+      <c r="M39" t="s">
+        <v>74</v>
+      </c>
+      <c r="N39" t="n">
+        <v>48</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.003604024330834074</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.08685855600568983</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.9652777777777778</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.3866666666666667</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.3753305421532011</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.61245154965971</v>
+      </c>
+      <c r="U39" t="n">
+        <v>48</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.9652777777777778</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.3866666666666667</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.3753305421532011</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>1.61245154965971</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25">
+      <c r="A40" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" t="s">
+        <v>66</v>
+      </c>
+      <c r="H40" t="s">
+        <v>32</v>
+      </c>
+      <c r="I40" t="s">
+        <v>33</v>
+      </c>
+      <c r="J40" t="s">
+        <v>94</v>
+      </c>
+      <c r="K40" t="s">
+        <v>35</v>
+      </c>
+      <c r="L40" t="s">
+        <v>29</v>
+      </c>
+      <c r="M40" t="s">
+        <v>74</v>
+      </c>
+      <c r="N40" t="n">
+        <v>16</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.003954248905684504</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.0564760246541765</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.9692460317460317</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.3644444444444445</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.263523138347365</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.477234653744023</v>
+      </c>
+      <c r="U40" t="n">
+        <v>16</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.9692460317460317</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0.3644444444444445</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.263523138347365</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>1.477234653744023</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25">
+      <c r="A41" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" t="s">
+        <v>30</v>
+      </c>
+      <c r="G41" t="s">
+        <v>97</v>
+      </c>
+      <c r="H41" t="s">
+        <v>32</v>
+      </c>
+      <c r="I41" t="s">
+        <v>33</v>
+      </c>
+      <c r="J41" t="s">
+        <v>94</v>
+      </c>
+      <c r="K41" t="s">
+        <v>35</v>
+      </c>
+      <c r="L41" t="s">
+        <v>29</v>
+      </c>
+      <c r="M41" t="s">
+        <v>74</v>
+      </c>
+      <c r="N41" t="n">
+        <v>12</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.005497866709317479</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.03996873829099867</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.9305555555555556</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.3733333333333334</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.4106711502538176</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.319932658214889</v>
+      </c>
+      <c r="U41" t="n">
+        <v>12</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.9305555555555556</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0.3733333333333334</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.4106711502538176</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>1.319932658214889</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25">
+      <c r="A42" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" t="s">
+        <v>30</v>
+      </c>
+      <c r="G42" t="s">
+        <v>99</v>
+      </c>
+      <c r="H42" t="s">
+        <v>32</v>
+      </c>
+      <c r="I42" t="s">
+        <v>33</v>
+      </c>
+      <c r="J42" t="s">
+        <v>94</v>
+      </c>
+      <c r="K42" t="s">
+        <v>35</v>
+      </c>
+      <c r="L42" t="s">
+        <v>29</v>
+      </c>
+      <c r="M42" t="s">
+        <v>74</v>
+      </c>
+      <c r="N42" t="n">
+        <v>30</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.003841723603684278</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.02492503596676721</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.8849206349206349</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.3713446181067196</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.449904211395436</v>
+      </c>
+      <c r="U42" t="n">
+        <v>30</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.8849206349206349</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.3713446181067196</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>1.449904211395436</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25">
+      <c r="A43" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" t="s">
+        <v>72</v>
+      </c>
+      <c r="D43" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" t="s">
+        <v>30</v>
+      </c>
+      <c r="G43" t="s">
+        <v>31</v>
+      </c>
+      <c r="H43" t="s">
+        <v>32</v>
+      </c>
+      <c r="I43" t="s">
+        <v>33</v>
+      </c>
+      <c r="J43" t="s">
+        <v>94</v>
+      </c>
+      <c r="K43" t="s">
+        <v>35</v>
+      </c>
+      <c r="L43" t="s">
+        <v>29</v>
+      </c>
+      <c r="M43" t="s">
+        <v>74</v>
+      </c>
+      <c r="N43" t="n">
+        <v>21</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.003657553507576859</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.01714543965127733</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.5952380952380952</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.2844444444444444</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.7064049380546094</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.361371857110809</v>
+      </c>
+      <c r="U43" t="n">
+        <v>21</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.5952380952380952</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0.2844444444444444</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.7064049380546094</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>1.361371857110809</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25">
+      <c r="A44" t="s">
+        <v>101</v>
+      </c>
+      <c r="B44" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" t="s">
+        <v>30</v>
+      </c>
+      <c r="G44" t="s">
+        <v>39</v>
+      </c>
+      <c r="H44" t="s">
+        <v>32</v>
+      </c>
+      <c r="I44" t="s">
+        <v>33</v>
+      </c>
+      <c r="J44" t="s">
+        <v>94</v>
+      </c>
+      <c r="K44" t="s">
+        <v>35</v>
+      </c>
+      <c r="L44" t="s">
+        <v>29</v>
+      </c>
+      <c r="M44" t="s">
+        <v>74</v>
+      </c>
+      <c r="N44" t="n">
+        <v>17</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.005419946216519863</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.1076946510208978</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.9553571428571429</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.3822222222222222</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.4070314523161609</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.581841402360623</v>
+      </c>
+      <c r="U44" t="n">
+        <v>17</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.9553571428571429</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.3822222222222222</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.4070314523161609</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>1.581841402360623</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25">
+      <c r="A45" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" t="s">
+        <v>30</v>
+      </c>
+      <c r="G45" t="s">
+        <v>66</v>
+      </c>
+      <c r="H45" t="s">
+        <v>32</v>
+      </c>
+      <c r="I45" t="s">
+        <v>33</v>
+      </c>
+      <c r="J45" t="s">
+        <v>94</v>
+      </c>
+      <c r="K45" t="s">
+        <v>35</v>
+      </c>
+      <c r="L45" t="s">
+        <v>29</v>
+      </c>
+      <c r="M45" t="s">
+        <v>74</v>
+      </c>
+      <c r="N45" t="n">
+        <v>18</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.00385495253084671</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.04872551434569888</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.9732142857142857</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.3911111111111111</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.2653987715429518</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1.406334873981932</v>
+      </c>
+      <c r="U45" t="n">
+        <v>18</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.9732142857142857</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.3911111111111111</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.2653987715429518</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>1.406334873981932</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25">
+      <c r="A46" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" t="s">
+        <v>72</v>
+      </c>
+      <c r="D46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" t="s">
+        <v>30</v>
+      </c>
+      <c r="G46" t="s">
+        <v>97</v>
+      </c>
+      <c r="H46" t="s">
+        <v>32</v>
+      </c>
+      <c r="I46" t="s">
+        <v>33</v>
+      </c>
+      <c r="J46" t="s">
+        <v>94</v>
+      </c>
+      <c r="K46" t="s">
+        <v>35</v>
+      </c>
+      <c r="L46" t="s">
+        <v>29</v>
+      </c>
+      <c r="M46" t="s">
+        <v>74</v>
+      </c>
+      <c r="N46" t="n">
+        <v>3</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.01887778390849394</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.03131733218828837</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.5396825396825397</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.3822222222222222</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1.15298095360031</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1.41578403877302</v>
+      </c>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0.5396825396825397</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0.3822222222222222</v>
+      </c>
+      <c r="X46" t="n">
+        <v>1.15298095360031</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>1.41578403877302</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25">
+      <c r="A47" t="s">
+        <v>104</v>
+      </c>
+      <c r="B47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47" t="s">
+        <v>28</v>
+      </c>
+      <c r="E47" t="s">
+        <v>29</v>
+      </c>
+      <c r="F47" t="s">
+        <v>30</v>
+      </c>
+      <c r="G47" t="s">
+        <v>99</v>
+      </c>
+      <c r="H47" t="s">
+        <v>32</v>
+      </c>
+      <c r="I47" t="s">
+        <v>33</v>
+      </c>
+      <c r="J47" t="s">
+        <v>94</v>
+      </c>
+      <c r="K47" t="s">
+        <v>35</v>
+      </c>
+      <c r="L47" t="s">
+        <v>29</v>
+      </c>
+      <c r="M47" t="s">
+        <v>74</v>
+      </c>
+      <c r="N47" t="n">
+        <v>44</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.003940228616730088</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.02305696805318197</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.9007936507936508</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.4355555555555555</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.4021272798584414</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1.309792180292567</v>
+      </c>
+      <c r="U47" t="n">
+        <v>44</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0.9007936507936508</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0.4355555555555555</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0.4021272798584414</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>1.309792180292567</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25">
+      <c r="A48" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" t="s">
+        <v>28</v>
+      </c>
+      <c r="E48" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48" t="s">
+        <v>30</v>
+      </c>
+      <c r="G48" t="s">
+        <v>31</v>
+      </c>
+      <c r="H48" t="s">
+        <v>32</v>
+      </c>
+      <c r="I48" t="s">
+        <v>33</v>
+      </c>
+      <c r="J48" t="s">
+        <v>94</v>
+      </c>
+      <c r="K48" t="s">
+        <v>35</v>
+      </c>
+      <c r="L48" t="s">
+        <v>29</v>
+      </c>
+      <c r="M48" t="s">
+        <v>74</v>
+      </c>
+      <c r="N48" t="n">
+        <v>5</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.009201027585991792</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.01485018369224336</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.3938492063492063</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1.055973183882699</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1.417352775031287</v>
+      </c>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0.3938492063492063</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="X48" t="n">
+        <v>1.055973183882699</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>1.417352775031287</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25">
+      <c r="A49" t="s">
+        <v>106</v>
+      </c>
+      <c r="B49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" t="s">
+        <v>72</v>
+      </c>
+      <c r="D49" t="s">
+        <v>28</v>
+      </c>
+      <c r="E49" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49" t="s">
+        <v>30</v>
+      </c>
+      <c r="G49" t="s">
+        <v>39</v>
+      </c>
+      <c r="H49" t="s">
+        <v>32</v>
+      </c>
+      <c r="I49" t="s">
+        <v>33</v>
+      </c>
+      <c r="J49" t="s">
+        <v>94</v>
+      </c>
+      <c r="K49" t="s">
+        <v>35</v>
+      </c>
+      <c r="L49" t="s">
+        <v>29</v>
+      </c>
+      <c r="M49" t="s">
+        <v>74</v>
+      </c>
+      <c r="N49" t="n">
+        <v>19</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.004169532637451849</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.09957129769855075</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.3866666666666667</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.3779644730092272</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1.577621275493231</v>
+      </c>
+      <c r="U49" t="n">
+        <v>19</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0.3866666666666667</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0.3779644730092272</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>1.577621275493231</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25">
+      <c r="A50" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" t="s">
+        <v>72</v>
+      </c>
+      <c r="D50" t="s">
+        <v>28</v>
+      </c>
+      <c r="E50" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H50" t="s">
+        <v>32</v>
+      </c>
+      <c r="I50" t="s">
+        <v>33</v>
+      </c>
+      <c r="J50" t="s">
+        <v>94</v>
+      </c>
+      <c r="K50" t="s">
+        <v>35</v>
+      </c>
+      <c r="L50" t="s">
+        <v>29</v>
+      </c>
+      <c r="M50" t="s">
+        <v>74</v>
+      </c>
+      <c r="N50" t="n">
+        <v>45</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.003177450452413824</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.05874054167005751</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.9831349206349206</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.3644444444444445</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.1915890111837034</v>
+      </c>
+      <c r="T50" t="n">
+        <v>1.440678852331621</v>
+      </c>
+      <c r="U50" t="n">
+        <v>45</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0.9831349206349206</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0.3644444444444445</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0.1915890111837034</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>1.440678852331621</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25">
+      <c r="A51" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51" t="s">
+        <v>28</v>
+      </c>
+      <c r="E51" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" t="s">
+        <v>30</v>
+      </c>
+      <c r="G51" t="s">
+        <v>97</v>
+      </c>
+      <c r="H51" t="s">
+        <v>32</v>
+      </c>
+      <c r="I51" t="s">
+        <v>33</v>
+      </c>
+      <c r="J51" t="s">
+        <v>94</v>
+      </c>
+      <c r="K51" t="s">
+        <v>35</v>
+      </c>
+      <c r="L51" t="s">
+        <v>29</v>
+      </c>
+      <c r="M51" t="s">
+        <v>74</v>
+      </c>
+      <c r="N51" t="n">
+        <v>8</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.009517232044821694</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.04081181963284811</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.8035714285714286</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.4177777777777778</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.7154752000627009</v>
+      </c>
+      <c r="T51" t="n">
+        <v>1.469693845669907</v>
+      </c>
+      <c r="U51" t="n">
+        <v>8</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0.8035714285714286</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0.4177777777777778</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0.7154752000627009</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>1.469693845669907</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25">
+      <c r="A52" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" t="s">
+        <v>72</v>
+      </c>
+      <c r="D52" t="s">
+        <v>28</v>
+      </c>
+      <c r="E52" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" t="s">
+        <v>30</v>
+      </c>
+      <c r="G52" t="s">
+        <v>99</v>
+      </c>
+      <c r="H52" t="s">
+        <v>32</v>
+      </c>
+      <c r="I52" t="s">
+        <v>33</v>
+      </c>
+      <c r="J52" t="s">
+        <v>94</v>
+      </c>
+      <c r="K52" t="s">
+        <v>35</v>
+      </c>
+      <c r="L52" t="s">
+        <v>29</v>
+      </c>
+      <c r="M52" t="s">
+        <v>74</v>
+      </c>
+      <c r="N52" t="n">
+        <v>35</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.00378944772842621</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.02213342454698351</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.8988095238095238</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.3911111111111111</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0.3659625273557</v>
+      </c>
+      <c r="T52" t="n">
+        <v>1.299572579307862</v>
+      </c>
+      <c r="U52" t="n">
+        <v>35</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0.8988095238095238</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0.3911111111111111</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0.3659625273557</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>1.299572579307862</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25">
+      <c r="A53" t="s">
+        <v>110</v>
+      </c>
+      <c r="B53" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" t="s">
+        <v>72</v>
+      </c>
+      <c r="D53" t="s">
+        <v>28</v>
+      </c>
+      <c r="E53" t="s">
+        <v>29</v>
+      </c>
+      <c r="F53" t="s">
+        <v>30</v>
+      </c>
+      <c r="G53" t="s">
+        <v>31</v>
+      </c>
+      <c r="H53" t="s">
+        <v>32</v>
+      </c>
+      <c r="I53" t="s">
+        <v>33</v>
+      </c>
+      <c r="J53" t="s">
+        <v>94</v>
+      </c>
+      <c r="K53" t="s">
+        <v>35</v>
+      </c>
+      <c r="L53" t="s">
+        <v>29</v>
+      </c>
+      <c r="M53" t="s">
+        <v>74</v>
+      </c>
+      <c r="N53" t="n">
+        <v>5</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.009437856279195302</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.01571711430946986</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.376984126984127</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.2888888888888889</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1.142174895567002</v>
+      </c>
+      <c r="T53" t="n">
+        <v>1.411067365901115</v>
+      </c>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0.376984126984127</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0.2888888888888889</v>
+      </c>
+      <c r="X53" t="n">
+        <v>1.142174895567002</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>1.411067365901115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25">
+      <c r="A54" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" t="s">
+        <v>72</v>
+      </c>
+      <c r="D54" t="s">
+        <v>28</v>
+      </c>
+      <c r="E54" t="s">
+        <v>29</v>
+      </c>
+      <c r="F54" t="s">
+        <v>30</v>
+      </c>
+      <c r="G54" t="s">
+        <v>39</v>
+      </c>
+      <c r="H54" t="s">
+        <v>32</v>
+      </c>
+      <c r="I54" t="s">
+        <v>33</v>
+      </c>
+      <c r="J54" t="s">
+        <v>94</v>
+      </c>
+      <c r="K54" t="s">
+        <v>35</v>
+      </c>
+      <c r="L54" t="s">
+        <v>29</v>
+      </c>
+      <c r="M54" t="s">
+        <v>74</v>
+      </c>
+      <c r="N54" t="n">
+        <v>29</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.003525404747398127</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.1155569903055827</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.9692460317460317</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.3866666666666667</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.3406925719346234</v>
+      </c>
+      <c r="T54" t="n">
+        <v>1.501110699893027</v>
+      </c>
+      <c r="U54" t="n">
+        <v>29</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0.9692460317460317</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0.3866666666666667</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0.3406925719346234</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>1.501110699893027</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25">
+      <c r="A55" t="s">
+        <v>112</v>
+      </c>
+      <c r="B55" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55" t="s">
+        <v>72</v>
+      </c>
+      <c r="D55" t="s">
+        <v>28</v>
+      </c>
+      <c r="E55" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55" t="s">
+        <v>30</v>
+      </c>
+      <c r="G55" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" t="s">
+        <v>32</v>
+      </c>
+      <c r="I55" t="s">
+        <v>33</v>
+      </c>
+      <c r="J55" t="s">
+        <v>94</v>
+      </c>
+      <c r="K55" t="s">
+        <v>35</v>
+      </c>
+      <c r="L55" t="s">
+        <v>29</v>
+      </c>
+      <c r="M55" t="s">
+        <v>74</v>
+      </c>
+      <c r="N55" t="n">
+        <v>9</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0.005777510806977275</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.01561967942449782</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.5188492063492064</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.3155555555555555</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0.8061027151061999</v>
+      </c>
+      <c r="T55" t="n">
+        <v>1.358103252497558</v>
+      </c>
+      <c r="U55" t="n">
+        <v>9</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0.5188492063492064</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0.3155555555555555</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0.8061027151061999</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>1.358103252497558</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25">
+      <c r="A56" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" t="s">
+        <v>71</v>
+      </c>
+      <c r="C56" t="s">
+        <v>72</v>
+      </c>
+      <c r="D56" t="s">
+        <v>28</v>
+      </c>
+      <c r="E56" t="s">
+        <v>29</v>
+      </c>
+      <c r="F56" t="s">
+        <v>30</v>
+      </c>
+      <c r="G56" t="s">
+        <v>31</v>
+      </c>
+      <c r="H56" t="s">
+        <v>32</v>
+      </c>
+      <c r="I56" t="s">
+        <v>33</v>
+      </c>
+      <c r="J56" t="s">
+        <v>94</v>
+      </c>
+      <c r="K56" t="s">
+        <v>35</v>
+      </c>
+      <c r="L56" t="s">
+        <v>29</v>
+      </c>
+      <c r="M56" t="s">
+        <v>74</v>
+      </c>
+      <c r="N56" t="n">
+        <v>17</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.004033327206141419</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.0173887801501486</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.6001984126984127</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.3066666666666666</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.6508541396588878</v>
+      </c>
+      <c r="T56" t="n">
+        <v>1.425170555095463</v>
+      </c>
+      <c r="U56" t="n">
+        <v>17</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0.6001984126984127</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0.3066666666666666</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0.6508541396588878</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>1.425170555095463</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25">
+      <c r="A57" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" t="s">
+        <v>72</v>
+      </c>
+      <c r="D57" t="s">
+        <v>28</v>
+      </c>
+      <c r="E57" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57" t="s">
+        <v>30</v>
+      </c>
+      <c r="G57" t="s">
+        <v>31</v>
+      </c>
+      <c r="H57" t="s">
+        <v>32</v>
+      </c>
+      <c r="I57" t="s">
+        <v>33</v>
+      </c>
+      <c r="J57" t="s">
+        <v>94</v>
+      </c>
+      <c r="K57" t="s">
+        <v>35</v>
+      </c>
+      <c r="L57" t="s">
+        <v>29</v>
+      </c>
+      <c r="M57" t="s">
+        <v>74</v>
+      </c>
+      <c r="N57" t="n">
+        <v>36</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.003618776820422638</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.01685757438341777</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.6140873015873016</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.2977777777777778</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.6651769068904282</v>
+      </c>
+      <c r="T57" t="n">
+        <v>1.39522996909709</v>
+      </c>
+      <c r="U57" t="n">
+        <v>36</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0.6140873015873016</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0.2977777777777778</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0.6651769068904282</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>1.39522996909709</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25">
+      <c r="A58" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" t="s">
+        <v>72</v>
+      </c>
+      <c r="D58" t="s">
+        <v>28</v>
+      </c>
+      <c r="E58" t="s">
+        <v>29</v>
+      </c>
+      <c r="F58" t="s">
+        <v>30</v>
+      </c>
+      <c r="G58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H58" t="s">
+        <v>32</v>
+      </c>
+      <c r="I58" t="s">
+        <v>33</v>
+      </c>
+      <c r="J58" t="s">
+        <v>94</v>
+      </c>
+      <c r="K58" t="s">
+        <v>35</v>
+      </c>
+      <c r="L58" t="s">
+        <v>29</v>
+      </c>
+      <c r="M58" t="s">
+        <v>74</v>
+      </c>
+      <c r="N58" t="n">
+        <v>9</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.006184594676135078</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.01724316471152836</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0.4880952380952381</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.2622222222222222</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.8643053913541263</v>
+      </c>
+      <c r="T58" t="n">
+        <v>1.448370732160029</v>
+      </c>
+      <c r="U58" t="n">
+        <v>9</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0.4880952380952381</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0.2622222222222222</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0.8643053913541263</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>1.448370732160029</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25">
+      <c r="A59" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" t="s">
+        <v>72</v>
+      </c>
+      <c r="D59" t="s">
+        <v>28</v>
+      </c>
+      <c r="E59" t="s">
+        <v>29</v>
+      </c>
+      <c r="F59" t="s">
+        <v>30</v>
+      </c>
+      <c r="G59" t="s">
+        <v>31</v>
+      </c>
+      <c r="H59" t="s">
+        <v>32</v>
+      </c>
+      <c r="I59" t="s">
+        <v>33</v>
+      </c>
+      <c r="J59" t="s">
+        <v>94</v>
+      </c>
+      <c r="K59" t="s">
+        <v>35</v>
+      </c>
+      <c r="L59" t="s">
+        <v>29</v>
+      </c>
+      <c r="M59" t="s">
+        <v>74</v>
+      </c>
+      <c r="N59" t="n">
+        <v>5</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0.009176860903463667</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.01418255117204454</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.3998015873015873</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.2711111111111111</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1.087902452443116</v>
+      </c>
+      <c r="T59" t="n">
+        <v>1.372750685464933</v>
+      </c>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0.3998015873015873</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0.2711111111111111</v>
+      </c>
+      <c r="X59" t="n">
+        <v>1.087902452443116</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>1.372750685464933</v>
+      </c>
+    </row>
     <row customHeight="1" ht="12.8" r="1048576" s="3" spans="1:25"/>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>

--- a/logs.xlsx
+++ b/logs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="141">
   <si>
     <t>Date</t>
   </si>
@@ -365,6 +365,78 @@
   </si>
   <si>
     <t>November01  21:43:05</t>
+  </si>
+  <si>
+    <t>November08  12:34:04</t>
+  </si>
+  <si>
+    <t>&lt;function exp_lr_scheduler at 0x7f02f072fae8&gt;</t>
+  </si>
+  <si>
+    <t>November08  12:58:37</t>
+  </si>
+  <si>
+    <t>November08  13:00:09</t>
+  </si>
+  <si>
+    <t>November08  13:02:49</t>
+  </si>
+  <si>
+    <t>November08  13:03:49</t>
+  </si>
+  <si>
+    <t>November08  13:04:11</t>
+  </si>
+  <si>
+    <t>November08  13:04:51</t>
+  </si>
+  <si>
+    <t>November08  16:35:36</t>
+  </si>
+  <si>
+    <t>November08  16:36:05</t>
+  </si>
+  <si>
+    <t>November08  16:36:43</t>
+  </si>
+  <si>
+    <t>November08  18:07:07</t>
+  </si>
+  <si>
+    <t>November08  18:16:02</t>
+  </si>
+  <si>
+    <t>November08  18:45:25</t>
+  </si>
+  <si>
+    <t>November08  18:47:10</t>
+  </si>
+  <si>
+    <t>November08  18:48:33</t>
+  </si>
+  <si>
+    <t>November08  18:50:35</t>
+  </si>
+  <si>
+    <t>November08  18:51:13</t>
+  </si>
+  <si>
+    <t>November08  19:15:17</t>
+  </si>
+  <si>
+    <t>&lt;function exp_lr_scheduler at 0x7f974642ca60&gt;</t>
+  </si>
+  <si>
+    <t>November08  19:15:47</t>
+  </si>
+  <si>
+    <t>November08  19:16:08</t>
+  </si>
+  <si>
+    <t>November08  19:16:29</t>
+  </si>
+  <si>
+    <t>November08  19:16:50</t>
   </si>
 </sst>
 </file>
@@ -742,7 +814,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:Y59"/>
+  <dimension ref="A1:Y81"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A182" activeCellId="0" pane="topLeft" sqref="2:182"/>
@@ -5004,6 +5076,1535 @@
         <v>1.372750685464933</v>
       </c>
     </row>
+    <row r="60" spans="1:25">
+      <c r="A60" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" t="s">
+        <v>72</v>
+      </c>
+      <c r="D60" t="s">
+        <v>28</v>
+      </c>
+      <c r="E60" t="s">
+        <v>29</v>
+      </c>
+      <c r="F60" t="s">
+        <v>30</v>
+      </c>
+      <c r="G60" t="s">
+        <v>39</v>
+      </c>
+      <c r="H60" t="s">
+        <v>32</v>
+      </c>
+      <c r="I60" t="s">
+        <v>33</v>
+      </c>
+      <c r="J60" t="s">
+        <v>118</v>
+      </c>
+      <c r="K60" t="s">
+        <v>35</v>
+      </c>
+      <c r="L60" t="s">
+        <v>29</v>
+      </c>
+      <c r="M60" t="s">
+        <v>74</v>
+      </c>
+      <c r="N60" t="n">
+        <v>1</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.06318670014540355</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.08333185275395712</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.2380952380952381</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="S60" t="n">
+        <v>2.167353371031276</v>
+      </c>
+      <c r="T60" t="n">
+        <v>1.70749979664876</v>
+      </c>
+      <c r="U60" t="n">
+        <v>1</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0.2380952380952381</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="X60" t="n">
+        <v>2.167353371031276</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>1.70749979664876</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25">
+      <c r="A61" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" t="s">
+        <v>72</v>
+      </c>
+      <c r="D61" t="s">
+        <v>28</v>
+      </c>
+      <c r="E61" t="s">
+        <v>29</v>
+      </c>
+      <c r="F61" t="s">
+        <v>30</v>
+      </c>
+      <c r="G61" t="s">
+        <v>39</v>
+      </c>
+      <c r="H61" t="s">
+        <v>32</v>
+      </c>
+      <c r="I61" t="s">
+        <v>33</v>
+      </c>
+      <c r="J61" t="s">
+        <v>118</v>
+      </c>
+      <c r="K61" t="s">
+        <v>35</v>
+      </c>
+      <c r="L61" t="s">
+        <v>29</v>
+      </c>
+      <c r="M61" t="s">
+        <v>74</v>
+      </c>
+      <c r="N61" t="n">
+        <v>1</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.06463994381446687</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.07156804349687364</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.248015873015873</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.2844444444444444</v>
+      </c>
+      <c r="S61" t="n">
+        <v>2.188760974426994</v>
+      </c>
+      <c r="T61" t="n">
+        <v>1.742284579382931</v>
+      </c>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0.248015873015873</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0.2844444444444444</v>
+      </c>
+      <c r="X61" t="n">
+        <v>2.188760974426994</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>1.742284579382931</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25">
+      <c r="A62" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D62" t="s">
+        <v>28</v>
+      </c>
+      <c r="E62" t="s">
+        <v>29</v>
+      </c>
+      <c r="F62" t="s">
+        <v>30</v>
+      </c>
+      <c r="G62" t="s">
+        <v>39</v>
+      </c>
+      <c r="H62" t="s">
+        <v>32</v>
+      </c>
+      <c r="I62" t="s">
+        <v>33</v>
+      </c>
+      <c r="J62" t="s">
+        <v>118</v>
+      </c>
+      <c r="K62" t="s">
+        <v>35</v>
+      </c>
+      <c r="L62" t="s">
+        <v>29</v>
+      </c>
+      <c r="M62" t="s">
+        <v>74</v>
+      </c>
+      <c r="N62" t="n">
+        <v>3</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0.05018508398816699</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.07594142463472155</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.4474206349206349</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.3377777777777778</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1.569172261831564</v>
+      </c>
+      <c r="T62" t="n">
+        <v>2.092313976863362</v>
+      </c>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0.4474206349206349</v>
+      </c>
+      <c r="W62" t="n">
+        <v>0.3377777777777778</v>
+      </c>
+      <c r="X62" t="n">
+        <v>1.569172261831564</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>2.092313976863362</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25">
+      <c r="A63" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63" t="s">
+        <v>72</v>
+      </c>
+      <c r="D63" t="s">
+        <v>28</v>
+      </c>
+      <c r="E63" t="s">
+        <v>29</v>
+      </c>
+      <c r="F63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G63" t="s">
+        <v>39</v>
+      </c>
+      <c r="H63" t="s">
+        <v>32</v>
+      </c>
+      <c r="I63" t="s">
+        <v>33</v>
+      </c>
+      <c r="J63" t="s">
+        <v>118</v>
+      </c>
+      <c r="K63" t="s">
+        <v>35</v>
+      </c>
+      <c r="L63" t="s">
+        <v>29</v>
+      </c>
+      <c r="M63" t="s">
+        <v>74</v>
+      </c>
+      <c r="N63" t="n">
+        <v>1</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0.06712434795640763</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0.1484774870342679</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0.2361111111111111</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.2088888888888889</v>
+      </c>
+      <c r="S63" t="n">
+        <v>2.342033101307291</v>
+      </c>
+      <c r="T63" t="n">
+        <v>2.318045153428494</v>
+      </c>
+      <c r="U63" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0.2361111111111111</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0.2088888888888889</v>
+      </c>
+      <c r="X63" t="n">
+        <v>2.342033101307291</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>2.318045153428494</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25">
+      <c r="A64" t="s">
+        <v>122</v>
+      </c>
+      <c r="B64" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64" t="s">
+        <v>72</v>
+      </c>
+      <c r="D64" t="s">
+        <v>28</v>
+      </c>
+      <c r="E64" t="s">
+        <v>29</v>
+      </c>
+      <c r="F64" t="s">
+        <v>30</v>
+      </c>
+      <c r="G64" t="s">
+        <v>39</v>
+      </c>
+      <c r="H64" t="s">
+        <v>32</v>
+      </c>
+      <c r="I64" t="s">
+        <v>33</v>
+      </c>
+      <c r="J64" t="s">
+        <v>118</v>
+      </c>
+      <c r="K64" t="s">
+        <v>35</v>
+      </c>
+      <c r="L64" t="s">
+        <v>29</v>
+      </c>
+      <c r="M64" t="s">
+        <v>74</v>
+      </c>
+      <c r="S64" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25">
+      <c r="A65" t="s">
+        <v>123</v>
+      </c>
+      <c r="B65" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" t="s">
+        <v>72</v>
+      </c>
+      <c r="D65" t="s">
+        <v>28</v>
+      </c>
+      <c r="E65" t="s">
+        <v>29</v>
+      </c>
+      <c r="F65" t="s">
+        <v>30</v>
+      </c>
+      <c r="G65" t="s">
+        <v>39</v>
+      </c>
+      <c r="H65" t="s">
+        <v>32</v>
+      </c>
+      <c r="I65" t="s">
+        <v>33</v>
+      </c>
+      <c r="J65" t="s">
+        <v>118</v>
+      </c>
+      <c r="K65" t="s">
+        <v>35</v>
+      </c>
+      <c r="L65" t="s">
+        <v>29</v>
+      </c>
+      <c r="M65" t="s">
+        <v>74</v>
+      </c>
+      <c r="N65" t="n">
+        <v>1</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0.06717570610935726</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.08469244215223524</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0.244047619047619</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.2888888888888889</v>
+      </c>
+      <c r="S65" t="n">
+        <v>2.251542681017716</v>
+      </c>
+      <c r="T65" t="n">
+        <v>1.967513941783161</v>
+      </c>
+      <c r="U65" t="n">
+        <v>1</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0.244047619047619</v>
+      </c>
+      <c r="W65" t="n">
+        <v>0.2888888888888889</v>
+      </c>
+      <c r="X65" t="n">
+        <v>2.251542681017716</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>1.967513941783161</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25">
+      <c r="A66" t="s">
+        <v>124</v>
+      </c>
+      <c r="B66" t="s">
+        <v>71</v>
+      </c>
+      <c r="C66" t="s">
+        <v>72</v>
+      </c>
+      <c r="D66" t="s">
+        <v>28</v>
+      </c>
+      <c r="E66" t="s">
+        <v>29</v>
+      </c>
+      <c r="F66" t="s">
+        <v>30</v>
+      </c>
+      <c r="G66" t="s">
+        <v>39</v>
+      </c>
+      <c r="H66" t="s">
+        <v>32</v>
+      </c>
+      <c r="I66" t="s">
+        <v>33</v>
+      </c>
+      <c r="J66" t="s">
+        <v>118</v>
+      </c>
+      <c r="K66" t="s">
+        <v>35</v>
+      </c>
+      <c r="L66" t="s">
+        <v>29</v>
+      </c>
+      <c r="M66" t="s">
+        <v>74</v>
+      </c>
+      <c r="N66" t="n">
+        <v>2</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0.06184496233860651</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0.1136452208624946</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.2844444444444444</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1.827914068349451</v>
+      </c>
+      <c r="T66" t="n">
+        <v>2.077391526784384</v>
+      </c>
+      <c r="U66" t="n">
+        <v>2</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0.2844444444444444</v>
+      </c>
+      <c r="X66" t="n">
+        <v>1.827914068349451</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>2.077391526784384</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25">
+      <c r="A67" t="s">
+        <v>125</v>
+      </c>
+      <c r="B67" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67" t="s">
+        <v>72</v>
+      </c>
+      <c r="D67" t="s">
+        <v>28</v>
+      </c>
+      <c r="E67" t="s">
+        <v>29</v>
+      </c>
+      <c r="F67" t="s">
+        <v>30</v>
+      </c>
+      <c r="G67" t="s">
+        <v>39</v>
+      </c>
+      <c r="H67" t="s">
+        <v>32</v>
+      </c>
+      <c r="I67" t="s">
+        <v>33</v>
+      </c>
+      <c r="J67" t="s">
+        <v>118</v>
+      </c>
+      <c r="K67" t="s">
+        <v>35</v>
+      </c>
+      <c r="L67" t="s">
+        <v>29</v>
+      </c>
+      <c r="M67" t="s">
+        <v>74</v>
+      </c>
+      <c r="S67" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25">
+      <c r="A68" t="s">
+        <v>126</v>
+      </c>
+      <c r="B68" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68" t="s">
+        <v>72</v>
+      </c>
+      <c r="D68" t="s">
+        <v>28</v>
+      </c>
+      <c r="E68" t="s">
+        <v>29</v>
+      </c>
+      <c r="F68" t="s">
+        <v>30</v>
+      </c>
+      <c r="G68" t="s">
+        <v>39</v>
+      </c>
+      <c r="H68" t="s">
+        <v>32</v>
+      </c>
+      <c r="I68" t="s">
+        <v>33</v>
+      </c>
+      <c r="J68" t="s">
+        <v>118</v>
+      </c>
+      <c r="K68" t="s">
+        <v>35</v>
+      </c>
+      <c r="L68" t="s">
+        <v>29</v>
+      </c>
+      <c r="M68" t="s">
+        <v>74</v>
+      </c>
+      <c r="S68" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25">
+      <c r="A69" t="s">
+        <v>127</v>
+      </c>
+      <c r="B69" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" t="s">
+        <v>72</v>
+      </c>
+      <c r="D69" t="s">
+        <v>28</v>
+      </c>
+      <c r="E69" t="s">
+        <v>29</v>
+      </c>
+      <c r="F69" t="s">
+        <v>30</v>
+      </c>
+      <c r="G69" t="s">
+        <v>39</v>
+      </c>
+      <c r="H69" t="s">
+        <v>32</v>
+      </c>
+      <c r="I69" t="s">
+        <v>33</v>
+      </c>
+      <c r="J69" t="s">
+        <v>118</v>
+      </c>
+      <c r="K69" t="s">
+        <v>35</v>
+      </c>
+      <c r="L69" t="s">
+        <v>29</v>
+      </c>
+      <c r="M69" t="s">
+        <v>74</v>
+      </c>
+      <c r="S69" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25">
+      <c r="A70" t="s">
+        <v>128</v>
+      </c>
+      <c r="B70" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70" t="s">
+        <v>72</v>
+      </c>
+      <c r="D70" t="s">
+        <v>28</v>
+      </c>
+      <c r="E70" t="s">
+        <v>29</v>
+      </c>
+      <c r="F70" t="s">
+        <v>30</v>
+      </c>
+      <c r="G70" t="s">
+        <v>39</v>
+      </c>
+      <c r="H70" t="s">
+        <v>32</v>
+      </c>
+      <c r="I70" t="s">
+        <v>33</v>
+      </c>
+      <c r="J70" t="s">
+        <v>118</v>
+      </c>
+      <c r="K70" t="s">
+        <v>35</v>
+      </c>
+      <c r="L70" t="s">
+        <v>29</v>
+      </c>
+      <c r="M70" t="s">
+        <v>74</v>
+      </c>
+      <c r="N70" t="n">
+        <v>2</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0.05952280298584983</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0.1204833539326986</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0.3690476190476191</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0.2755555555555556</v>
+      </c>
+      <c r="S70" t="n">
+        <v>1.716516405813988</v>
+      </c>
+      <c r="T70" t="n">
+        <v>1.956186766816161</v>
+      </c>
+      <c r="U70" t="n">
+        <v>2</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0.3690476190476191</v>
+      </c>
+      <c r="W70" t="n">
+        <v>0.2755555555555556</v>
+      </c>
+      <c r="X70" t="n">
+        <v>1.716516405813988</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>1.956186766816161</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25">
+      <c r="A71" t="s">
+        <v>129</v>
+      </c>
+      <c r="B71" t="s">
+        <v>71</v>
+      </c>
+      <c r="C71" t="s">
+        <v>72</v>
+      </c>
+      <c r="D71" t="s">
+        <v>28</v>
+      </c>
+      <c r="E71" t="s">
+        <v>29</v>
+      </c>
+      <c r="F71" t="s">
+        <v>30</v>
+      </c>
+      <c r="G71" t="s">
+        <v>39</v>
+      </c>
+      <c r="H71" t="s">
+        <v>32</v>
+      </c>
+      <c r="I71" t="s">
+        <v>33</v>
+      </c>
+      <c r="J71" t="s">
+        <v>118</v>
+      </c>
+      <c r="K71" t="s">
+        <v>35</v>
+      </c>
+      <c r="L71" t="s">
+        <v>29</v>
+      </c>
+      <c r="M71" t="s">
+        <v>74</v>
+      </c>
+      <c r="N71" t="n">
+        <v>38</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0.003310799798262971</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0.1120523161358303</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0.9742063492063492</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.3866666666666667</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0.3362963545672746</v>
+      </c>
+      <c r="T71" t="n">
+        <v>1.50406855635713</v>
+      </c>
+      <c r="U71" t="n">
+        <v>38</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0.9742063492063492</v>
+      </c>
+      <c r="W71" t="n">
+        <v>0.3866666666666667</v>
+      </c>
+      <c r="X71" t="n">
+        <v>0.3362963545672746</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>1.50406855635713</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25">
+      <c r="A72" t="s">
+        <v>130</v>
+      </c>
+      <c r="B72" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" t="s">
+        <v>72</v>
+      </c>
+      <c r="D72" t="s">
+        <v>28</v>
+      </c>
+      <c r="E72" t="s">
+        <v>29</v>
+      </c>
+      <c r="F72" t="s">
+        <v>30</v>
+      </c>
+      <c r="G72" t="s">
+        <v>39</v>
+      </c>
+      <c r="H72" t="s">
+        <v>32</v>
+      </c>
+      <c r="I72" t="s">
+        <v>33</v>
+      </c>
+      <c r="J72" t="s">
+        <v>118</v>
+      </c>
+      <c r="K72" t="s">
+        <v>35</v>
+      </c>
+      <c r="L72" t="s">
+        <v>29</v>
+      </c>
+      <c r="M72" t="s">
+        <v>74</v>
+      </c>
+      <c r="N72" t="n">
+        <v>2</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0.05038585904098693</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0.08023414505852593</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0.3928571428571428</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.2933333333333333</v>
+      </c>
+      <c r="S72" t="n">
+        <v>1.56378915072861</v>
+      </c>
+      <c r="T72" t="n">
+        <v>1.717879830230017</v>
+      </c>
+      <c r="U72" t="n">
+        <v>2</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0.3928571428571428</v>
+      </c>
+      <c r="W72" t="n">
+        <v>0.2933333333333333</v>
+      </c>
+      <c r="X72" t="n">
+        <v>1.56378915072861</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>1.717879830230017</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25">
+      <c r="A73" t="s">
+        <v>131</v>
+      </c>
+      <c r="B73" t="s">
+        <v>71</v>
+      </c>
+      <c r="C73" t="s">
+        <v>72</v>
+      </c>
+      <c r="D73" t="s">
+        <v>28</v>
+      </c>
+      <c r="E73" t="s">
+        <v>29</v>
+      </c>
+      <c r="F73" t="s">
+        <v>30</v>
+      </c>
+      <c r="G73" t="s">
+        <v>39</v>
+      </c>
+      <c r="H73" t="s">
+        <v>32</v>
+      </c>
+      <c r="I73" t="s">
+        <v>33</v>
+      </c>
+      <c r="J73" t="s">
+        <v>118</v>
+      </c>
+      <c r="K73" t="s">
+        <v>35</v>
+      </c>
+      <c r="L73" t="s">
+        <v>29</v>
+      </c>
+      <c r="M73" t="s">
+        <v>74</v>
+      </c>
+      <c r="N73" t="n">
+        <v>2</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0.05471803957507724</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0.09047404792573717</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0.3849206349206349</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="S73" t="n">
+        <v>1.786190412715338</v>
+      </c>
+      <c r="T73" t="n">
+        <v>1.907878402833891</v>
+      </c>
+      <c r="U73" t="n">
+        <v>2</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0.3849206349206349</v>
+      </c>
+      <c r="W73" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="X73" t="n">
+        <v>1.786190412715338</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>1.907878402833891</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25">
+      <c r="A74" t="s">
+        <v>132</v>
+      </c>
+      <c r="B74" t="s">
+        <v>71</v>
+      </c>
+      <c r="C74" t="s">
+        <v>72</v>
+      </c>
+      <c r="D74" t="s">
+        <v>28</v>
+      </c>
+      <c r="E74" t="s">
+        <v>29</v>
+      </c>
+      <c r="F74" t="s">
+        <v>30</v>
+      </c>
+      <c r="G74" t="s">
+        <v>39</v>
+      </c>
+      <c r="H74" t="s">
+        <v>32</v>
+      </c>
+      <c r="I74" t="s">
+        <v>33</v>
+      </c>
+      <c r="J74" t="s">
+        <v>118</v>
+      </c>
+      <c r="K74" t="s">
+        <v>35</v>
+      </c>
+      <c r="L74" t="s">
+        <v>29</v>
+      </c>
+      <c r="M74" t="s">
+        <v>74</v>
+      </c>
+      <c r="N74" t="n">
+        <v>2</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0.05069899298841991</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0.0839737515979343</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0.3377777777777778</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1.567274451507842</v>
+      </c>
+      <c r="T74" t="n">
+        <v>1.952775802116908</v>
+      </c>
+      <c r="U74" t="n">
+        <v>2</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="W74" t="n">
+        <v>0.3377777777777778</v>
+      </c>
+      <c r="X74" t="n">
+        <v>1.567274451507842</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>1.952775802116908</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25">
+      <c r="A75" t="s">
+        <v>133</v>
+      </c>
+      <c r="B75" t="s">
+        <v>71</v>
+      </c>
+      <c r="C75" t="s">
+        <v>72</v>
+      </c>
+      <c r="D75" t="s">
+        <v>28</v>
+      </c>
+      <c r="E75" t="s">
+        <v>29</v>
+      </c>
+      <c r="F75" t="s">
+        <v>30</v>
+      </c>
+      <c r="G75" t="s">
+        <v>39</v>
+      </c>
+      <c r="H75" t="s">
+        <v>32</v>
+      </c>
+      <c r="I75" t="s">
+        <v>33</v>
+      </c>
+      <c r="J75" t="s">
+        <v>118</v>
+      </c>
+      <c r="K75" t="s">
+        <v>35</v>
+      </c>
+      <c r="L75" t="s">
+        <v>29</v>
+      </c>
+      <c r="M75" t="s">
+        <v>74</v>
+      </c>
+      <c r="N75" t="n">
+        <v>2</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0.05583590564746705</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0.08431223842832777</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0.3998015873015873</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0.2977777777777778</v>
+      </c>
+      <c r="S75" t="n">
+        <v>1.654119436773267</v>
+      </c>
+      <c r="T75" t="n">
+        <v>1.916014381759989</v>
+      </c>
+      <c r="U75" t="n">
+        <v>2</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0.3998015873015873</v>
+      </c>
+      <c r="W75" t="n">
+        <v>0.2977777777777778</v>
+      </c>
+      <c r="X75" t="n">
+        <v>1.654119436773267</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>1.916014381759989</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25">
+      <c r="A76" t="s">
+        <v>134</v>
+      </c>
+      <c r="B76" t="s">
+        <v>71</v>
+      </c>
+      <c r="C76" t="s">
+        <v>72</v>
+      </c>
+      <c r="D76" t="s">
+        <v>28</v>
+      </c>
+      <c r="E76" t="s">
+        <v>29</v>
+      </c>
+      <c r="F76" t="s">
+        <v>30</v>
+      </c>
+      <c r="G76" t="s">
+        <v>39</v>
+      </c>
+      <c r="H76" t="s">
+        <v>32</v>
+      </c>
+      <c r="I76" t="s">
+        <v>33</v>
+      </c>
+      <c r="J76" t="s">
+        <v>118</v>
+      </c>
+      <c r="K76" t="s">
+        <v>35</v>
+      </c>
+      <c r="L76" t="s">
+        <v>29</v>
+      </c>
+      <c r="M76" t="s">
+        <v>74</v>
+      </c>
+      <c r="N76" t="n">
+        <v>2</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0.0602247439443119</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0.09726434787114462</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0.3809523809523809</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0.2711111111111111</v>
+      </c>
+      <c r="S76" t="n">
+        <v>1.630257064158317</v>
+      </c>
+      <c r="T76" t="n">
+        <v>2.211083193570267</v>
+      </c>
+      <c r="U76" t="n">
+        <v>2</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0.3809523809523809</v>
+      </c>
+      <c r="W76" t="n">
+        <v>0.2711111111111111</v>
+      </c>
+      <c r="X76" t="n">
+        <v>1.630257064158317</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>2.211083193570267</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25">
+      <c r="A77" t="s">
+        <v>135</v>
+      </c>
+      <c r="B77" t="s">
+        <v>71</v>
+      </c>
+      <c r="C77" t="s">
+        <v>72</v>
+      </c>
+      <c r="D77" t="s">
+        <v>28</v>
+      </c>
+      <c r="E77" t="s">
+        <v>29</v>
+      </c>
+      <c r="F77" t="s">
+        <v>30</v>
+      </c>
+      <c r="G77" t="s">
+        <v>39</v>
+      </c>
+      <c r="H77" t="s">
+        <v>32</v>
+      </c>
+      <c r="I77" t="s">
+        <v>33</v>
+      </c>
+      <c r="J77" t="s">
+        <v>136</v>
+      </c>
+      <c r="K77" t="s">
+        <v>35</v>
+      </c>
+      <c r="L77" t="s">
+        <v>29</v>
+      </c>
+      <c r="M77" t="s">
+        <v>74</v>
+      </c>
+      <c r="S77" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25">
+      <c r="A78" t="s">
+        <v>137</v>
+      </c>
+      <c r="B78" t="s">
+        <v>71</v>
+      </c>
+      <c r="C78" t="s">
+        <v>72</v>
+      </c>
+      <c r="D78" t="s">
+        <v>28</v>
+      </c>
+      <c r="E78" t="s">
+        <v>29</v>
+      </c>
+      <c r="F78" t="s">
+        <v>30</v>
+      </c>
+      <c r="G78" t="s">
+        <v>39</v>
+      </c>
+      <c r="H78" t="s">
+        <v>32</v>
+      </c>
+      <c r="I78" t="s">
+        <v>33</v>
+      </c>
+      <c r="J78" t="s">
+        <v>136</v>
+      </c>
+      <c r="K78" t="s">
+        <v>35</v>
+      </c>
+      <c r="L78" t="s">
+        <v>29</v>
+      </c>
+      <c r="M78" t="s">
+        <v>74</v>
+      </c>
+      <c r="N78" t="n">
+        <v>2</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0.03837354020770739</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0.01966428215292925</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0.300081103000811</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0.08110300081103</v>
+      </c>
+      <c r="S78" t="n">
+        <v>1.362217551845654</v>
+      </c>
+      <c r="T78" t="n">
+        <v>0.9285068112950217</v>
+      </c>
+      <c r="U78" t="n">
+        <v>2</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0.300081103000811</v>
+      </c>
+      <c r="W78" t="n">
+        <v>0.08110300081103</v>
+      </c>
+      <c r="X78" t="n">
+        <v>1.362217551845654</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>0.9285068112950217</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25">
+      <c r="A79" t="s">
+        <v>138</v>
+      </c>
+      <c r="B79" t="s">
+        <v>71</v>
+      </c>
+      <c r="C79" t="s">
+        <v>72</v>
+      </c>
+      <c r="D79" t="s">
+        <v>28</v>
+      </c>
+      <c r="E79" t="s">
+        <v>29</v>
+      </c>
+      <c r="F79" t="s">
+        <v>30</v>
+      </c>
+      <c r="G79" t="s">
+        <v>39</v>
+      </c>
+      <c r="H79" t="s">
+        <v>32</v>
+      </c>
+      <c r="I79" t="s">
+        <v>33</v>
+      </c>
+      <c r="J79" t="s">
+        <v>136</v>
+      </c>
+      <c r="K79" t="s">
+        <v>35</v>
+      </c>
+      <c r="L79" t="s">
+        <v>29</v>
+      </c>
+      <c r="M79" t="s">
+        <v>74</v>
+      </c>
+      <c r="N79" t="n">
+        <v>1</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0.04628054416962784</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0.01478456822431677</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0.2165450121654501</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0.08921330089213302</v>
+      </c>
+      <c r="S79" t="n">
+        <v>1.799792724841541</v>
+      </c>
+      <c r="T79" t="n">
+        <v>0.8075073538492893</v>
+      </c>
+      <c r="U79" t="n">
+        <v>1</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0.2165450121654501</v>
+      </c>
+      <c r="W79" t="n">
+        <v>0.08921330089213302</v>
+      </c>
+      <c r="X79" t="n">
+        <v>1.799792724841541</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>0.8075073538492893</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25">
+      <c r="A80" t="s">
+        <v>139</v>
+      </c>
+      <c r="B80" t="s">
+        <v>71</v>
+      </c>
+      <c r="C80" t="s">
+        <v>72</v>
+      </c>
+      <c r="D80" t="s">
+        <v>28</v>
+      </c>
+      <c r="E80" t="s">
+        <v>29</v>
+      </c>
+      <c r="F80" t="s">
+        <v>30</v>
+      </c>
+      <c r="G80" t="s">
+        <v>39</v>
+      </c>
+      <c r="H80" t="s">
+        <v>32</v>
+      </c>
+      <c r="I80" t="s">
+        <v>33</v>
+      </c>
+      <c r="J80" t="s">
+        <v>136</v>
+      </c>
+      <c r="K80" t="s">
+        <v>35</v>
+      </c>
+      <c r="L80" t="s">
+        <v>29</v>
+      </c>
+      <c r="M80" t="s">
+        <v>74</v>
+      </c>
+      <c r="N80" t="n">
+        <v>2</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0.03909223029406594</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0.01627698277228263</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0.2984590429845904</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0.06974858069748581</v>
+      </c>
+      <c r="S80" t="n">
+        <v>1.364596972963537</v>
+      </c>
+      <c r="T80" t="n">
+        <v>0.9509460862966862</v>
+      </c>
+      <c r="U80" t="n">
+        <v>2</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0.2984590429845904</v>
+      </c>
+      <c r="W80" t="n">
+        <v>0.06974858069748581</v>
+      </c>
+      <c r="X80" t="n">
+        <v>1.364596972963537</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>0.9509460862966862</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25">
+      <c r="A81" t="s">
+        <v>140</v>
+      </c>
+      <c r="B81" t="s">
+        <v>71</v>
+      </c>
+      <c r="C81" t="s">
+        <v>72</v>
+      </c>
+      <c r="D81" t="s">
+        <v>28</v>
+      </c>
+      <c r="E81" t="s">
+        <v>29</v>
+      </c>
+      <c r="F81" t="s">
+        <v>30</v>
+      </c>
+      <c r="G81" t="s">
+        <v>39</v>
+      </c>
+      <c r="H81" t="s">
+        <v>32</v>
+      </c>
+      <c r="I81" t="s">
+        <v>33</v>
+      </c>
+      <c r="J81" t="s">
+        <v>136</v>
+      </c>
+      <c r="K81" t="s">
+        <v>35</v>
+      </c>
+      <c r="L81" t="s">
+        <v>29</v>
+      </c>
+      <c r="M81" t="s">
+        <v>74</v>
+      </c>
+      <c r="N81" t="n">
+        <v>1</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0.048717105959067</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0.01589492405708109</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0.1857258718572587</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0.064882400648824</v>
+      </c>
+      <c r="S81" t="n">
+        <v>1.912735310121493</v>
+      </c>
+      <c r="T81" t="n">
+        <v>0.8717425753049757</v>
+      </c>
+      <c r="U81" t="n">
+        <v>1</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0.1857258718572587</v>
+      </c>
+      <c r="W81" t="n">
+        <v>0.064882400648824</v>
+      </c>
+      <c r="X81" t="n">
+        <v>1.912735310121493</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>0.8717425753049757</v>
+      </c>
+    </row>
     <row customHeight="1" ht="12.8" r="1048576" s="3" spans="1:25"/>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>

--- a/logs.xlsx
+++ b/logs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="157">
   <si>
     <t>Date</t>
   </si>
@@ -437,6 +437,54 @@
   </si>
   <si>
     <t>November08  19:16:50</t>
+  </si>
+  <si>
+    <t>November08  19:23:17</t>
+  </si>
+  <si>
+    <t>&lt;function exp_lr_scheduler at 0x7f07ec316ae8&gt;</t>
+  </si>
+  <si>
+    <t>November08  19:23:19</t>
+  </si>
+  <si>
+    <t>November08  19:26:51</t>
+  </si>
+  <si>
+    <t>November08  19:29:56</t>
+  </si>
+  <si>
+    <t>November08  19:35:46</t>
+  </si>
+  <si>
+    <t>November08  19:41:39</t>
+  </si>
+  <si>
+    <t>November08  19:47:31</t>
+  </si>
+  <si>
+    <t>November08  19:53:23</t>
+  </si>
+  <si>
+    <t>November08  19:59:12</t>
+  </si>
+  <si>
+    <t>November08  20:05:03</t>
+  </si>
+  <si>
+    <t>November08  20:10:56</t>
+  </si>
+  <si>
+    <t>November08  20:16:48</t>
+  </si>
+  <si>
+    <t>November08  20:22:45</t>
+  </si>
+  <si>
+    <t>November08  20:28:38</t>
+  </si>
+  <si>
+    <t>November08  20:34:32</t>
   </si>
 </sst>
 </file>
@@ -814,7 +862,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:Y81"/>
+  <dimension ref="A1:Y96"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A182" activeCellId="0" pane="topLeft" sqref="2:182"/>
@@ -6605,6 +6653,1128 @@
         <v>0.8717425753049757</v>
       </c>
     </row>
+    <row r="82" spans="1:25">
+      <c r="A82" t="s">
+        <v>141</v>
+      </c>
+      <c r="B82" t="s">
+        <v>71</v>
+      </c>
+      <c r="C82" t="s">
+        <v>72</v>
+      </c>
+      <c r="D82" t="s">
+        <v>28</v>
+      </c>
+      <c r="E82" t="s">
+        <v>29</v>
+      </c>
+      <c r="F82" t="s">
+        <v>30</v>
+      </c>
+      <c r="G82" t="s">
+        <v>39</v>
+      </c>
+      <c r="H82" t="s">
+        <v>32</v>
+      </c>
+      <c r="I82" t="s">
+        <v>33</v>
+      </c>
+      <c r="J82" t="s">
+        <v>142</v>
+      </c>
+      <c r="K82" t="s">
+        <v>35</v>
+      </c>
+      <c r="L82" t="s">
+        <v>29</v>
+      </c>
+      <c r="M82" t="s">
+        <v>74</v>
+      </c>
+      <c r="S82" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25">
+      <c r="A83" t="s">
+        <v>143</v>
+      </c>
+      <c r="B83" t="s">
+        <v>71</v>
+      </c>
+      <c r="C83" t="s">
+        <v>72</v>
+      </c>
+      <c r="D83" t="s">
+        <v>28</v>
+      </c>
+      <c r="E83" t="s">
+        <v>29</v>
+      </c>
+      <c r="F83" t="s">
+        <v>30</v>
+      </c>
+      <c r="G83" t="s">
+        <v>39</v>
+      </c>
+      <c r="H83" t="s">
+        <v>32</v>
+      </c>
+      <c r="I83" t="s">
+        <v>33</v>
+      </c>
+      <c r="J83" t="s">
+        <v>142</v>
+      </c>
+      <c r="K83" t="s">
+        <v>35</v>
+      </c>
+      <c r="L83" t="s">
+        <v>29</v>
+      </c>
+      <c r="M83" t="s">
+        <v>74</v>
+      </c>
+      <c r="N83" t="n">
+        <v>5</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0.04334113671348429</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0.0281702742790267</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0.5352798053527981</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0.6747769667477697</v>
+      </c>
+      <c r="S83" t="n">
+        <v>1.388751006943395</v>
+      </c>
+      <c r="T83" t="n">
+        <v>1.111030005150121</v>
+      </c>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0.5352798053527981</v>
+      </c>
+      <c r="W83" t="n">
+        <v>0.6747769667477697</v>
+      </c>
+      <c r="X83" t="n">
+        <v>1.388751006943395</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>1.111030005150121</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25">
+      <c r="A84" t="s">
+        <v>144</v>
+      </c>
+      <c r="B84" t="s">
+        <v>71</v>
+      </c>
+      <c r="C84" t="s">
+        <v>72</v>
+      </c>
+      <c r="D84" t="s">
+        <v>28</v>
+      </c>
+      <c r="E84" t="s">
+        <v>29</v>
+      </c>
+      <c r="F84" t="s">
+        <v>30</v>
+      </c>
+      <c r="G84" t="s">
+        <v>39</v>
+      </c>
+      <c r="H84" t="s">
+        <v>32</v>
+      </c>
+      <c r="I84" t="s">
+        <v>33</v>
+      </c>
+      <c r="J84" t="s">
+        <v>142</v>
+      </c>
+      <c r="K84" t="s">
+        <v>35</v>
+      </c>
+      <c r="L84" t="s">
+        <v>29</v>
+      </c>
+      <c r="M84" t="s">
+        <v>74</v>
+      </c>
+      <c r="N84" t="n">
+        <v>2</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0.0419952683785246</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0.01750046590045518</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0.3098134630981346</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0.07137064071370641</v>
+      </c>
+      <c r="S84" t="n">
+        <v>1.379081349673997</v>
+      </c>
+      <c r="T84" t="n">
+        <v>0.8054961244402359</v>
+      </c>
+      <c r="U84" t="n">
+        <v>2</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0.3098134630981346</v>
+      </c>
+      <c r="W84" t="n">
+        <v>0.07137064071370641</v>
+      </c>
+      <c r="X84" t="n">
+        <v>1.379081349673997</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>0.8054961244402359</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25">
+      <c r="A85" t="s">
+        <v>145</v>
+      </c>
+      <c r="B85" t="s">
+        <v>71</v>
+      </c>
+      <c r="C85" t="s">
+        <v>72</v>
+      </c>
+      <c r="D85" t="s">
+        <v>28</v>
+      </c>
+      <c r="E85" t="s">
+        <v>29</v>
+      </c>
+      <c r="F85" t="s">
+        <v>30</v>
+      </c>
+      <c r="G85" t="s">
+        <v>39</v>
+      </c>
+      <c r="H85" t="s">
+        <v>32</v>
+      </c>
+      <c r="I85" t="s">
+        <v>33</v>
+      </c>
+      <c r="J85" t="s">
+        <v>142</v>
+      </c>
+      <c r="K85" t="s">
+        <v>35</v>
+      </c>
+      <c r="L85" t="s">
+        <v>29</v>
+      </c>
+      <c r="M85" t="s">
+        <v>74</v>
+      </c>
+      <c r="N85" t="n">
+        <v>20</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0.002690032043885359</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0.07745679709818457</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0.9816017316017316</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0.4090909090909091</v>
+      </c>
+      <c r="S85" t="n">
+        <v>0.2326210525996177</v>
+      </c>
+      <c r="T85" t="n">
+        <v>1.421084275995101</v>
+      </c>
+      <c r="U85" t="n">
+        <v>20</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0.9816017316017316</v>
+      </c>
+      <c r="W85" t="n">
+        <v>0.4090909090909091</v>
+      </c>
+      <c r="X85" t="n">
+        <v>0.2326210525996177</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>1.421084275995101</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25">
+      <c r="A86" t="s">
+        <v>146</v>
+      </c>
+      <c r="B86" t="s">
+        <v>71</v>
+      </c>
+      <c r="C86" t="s">
+        <v>72</v>
+      </c>
+      <c r="D86" t="s">
+        <v>28</v>
+      </c>
+      <c r="E86" t="s">
+        <v>29</v>
+      </c>
+      <c r="F86" t="s">
+        <v>30</v>
+      </c>
+      <c r="G86" t="s">
+        <v>39</v>
+      </c>
+      <c r="H86" t="s">
+        <v>32</v>
+      </c>
+      <c r="I86" t="s">
+        <v>33</v>
+      </c>
+      <c r="J86" t="s">
+        <v>142</v>
+      </c>
+      <c r="K86" t="s">
+        <v>35</v>
+      </c>
+      <c r="L86" t="s">
+        <v>29</v>
+      </c>
+      <c r="M86" t="s">
+        <v>74</v>
+      </c>
+      <c r="N86" t="n">
+        <v>26</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0.00232736115622056</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0.07711041399410792</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0.9816017316017316</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0.3863636363636364</v>
+      </c>
+      <c r="S86" t="n">
+        <v>0.3068482428756015</v>
+      </c>
+      <c r="T86" t="n">
+        <v>1.403844443226963</v>
+      </c>
+      <c r="U86" t="n">
+        <v>26</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0.9816017316017316</v>
+      </c>
+      <c r="W86" t="n">
+        <v>0.3863636363636364</v>
+      </c>
+      <c r="X86" t="n">
+        <v>0.3068482428756015</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>1.403844443226963</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25">
+      <c r="A87" t="s">
+        <v>147</v>
+      </c>
+      <c r="B87" t="s">
+        <v>71</v>
+      </c>
+      <c r="C87" t="s">
+        <v>72</v>
+      </c>
+      <c r="D87" t="s">
+        <v>28</v>
+      </c>
+      <c r="E87" t="s">
+        <v>29</v>
+      </c>
+      <c r="F87" t="s">
+        <v>30</v>
+      </c>
+      <c r="G87" t="s">
+        <v>39</v>
+      </c>
+      <c r="H87" t="s">
+        <v>32</v>
+      </c>
+      <c r="I87" t="s">
+        <v>33</v>
+      </c>
+      <c r="J87" t="s">
+        <v>142</v>
+      </c>
+      <c r="K87" t="s">
+        <v>35</v>
+      </c>
+      <c r="L87" t="s">
+        <v>29</v>
+      </c>
+      <c r="M87" t="s">
+        <v>74</v>
+      </c>
+      <c r="N87" t="n">
+        <v>24</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0.003207404706707764</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0.08552800796248695</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0.9761904761904762</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0.3766233766233766</v>
+      </c>
+      <c r="S87" t="n">
+        <v>0.3512500866571044</v>
+      </c>
+      <c r="T87" t="n">
+        <v>1.536355951721349</v>
+      </c>
+      <c r="U87" t="n">
+        <v>24</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0.9761904761904762</v>
+      </c>
+      <c r="W87" t="n">
+        <v>0.3766233766233766</v>
+      </c>
+      <c r="X87" t="n">
+        <v>0.3512500866571044</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>1.536355951721349</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25">
+      <c r="A88" t="s">
+        <v>148</v>
+      </c>
+      <c r="B88" t="s">
+        <v>71</v>
+      </c>
+      <c r="C88" t="s">
+        <v>72</v>
+      </c>
+      <c r="D88" t="s">
+        <v>28</v>
+      </c>
+      <c r="E88" t="s">
+        <v>29</v>
+      </c>
+      <c r="F88" t="s">
+        <v>30</v>
+      </c>
+      <c r="G88" t="s">
+        <v>39</v>
+      </c>
+      <c r="H88" t="s">
+        <v>32</v>
+      </c>
+      <c r="I88" t="s">
+        <v>33</v>
+      </c>
+      <c r="J88" t="s">
+        <v>142</v>
+      </c>
+      <c r="K88" t="s">
+        <v>35</v>
+      </c>
+      <c r="L88" t="s">
+        <v>29</v>
+      </c>
+      <c r="M88" t="s">
+        <v>74</v>
+      </c>
+      <c r="N88" t="n">
+        <v>22</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0.002484592242222844</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0.07642197802469328</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0.974025974025974</v>
+      </c>
+      <c r="R88" t="n">
+        <v>0.3993506493506493</v>
+      </c>
+      <c r="S88" t="n">
+        <v>0.3434608681718603</v>
+      </c>
+      <c r="T88" t="n">
+        <v>1.456066574758816</v>
+      </c>
+      <c r="U88" t="n">
+        <v>22</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0.974025974025974</v>
+      </c>
+      <c r="W88" t="n">
+        <v>0.3993506493506493</v>
+      </c>
+      <c r="X88" t="n">
+        <v>0.3434608681718603</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>1.456066574758816</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25">
+      <c r="A89" t="s">
+        <v>149</v>
+      </c>
+      <c r="B89" t="s">
+        <v>71</v>
+      </c>
+      <c r="C89" t="s">
+        <v>72</v>
+      </c>
+      <c r="D89" t="s">
+        <v>28</v>
+      </c>
+      <c r="E89" t="s">
+        <v>29</v>
+      </c>
+      <c r="F89" t="s">
+        <v>30</v>
+      </c>
+      <c r="G89" t="s">
+        <v>31</v>
+      </c>
+      <c r="H89" t="s">
+        <v>32</v>
+      </c>
+      <c r="I89" t="s">
+        <v>33</v>
+      </c>
+      <c r="J89" t="s">
+        <v>142</v>
+      </c>
+      <c r="K89" t="s">
+        <v>35</v>
+      </c>
+      <c r="L89" t="s">
+        <v>29</v>
+      </c>
+      <c r="M89" t="s">
+        <v>74</v>
+      </c>
+      <c r="N89" t="n">
+        <v>14</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0.00454240246349341</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0.01250092022411235</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0.5757575757575758</v>
+      </c>
+      <c r="R89" t="n">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="S89" t="n">
+        <v>0.719246840323972</v>
+      </c>
+      <c r="T89" t="n">
+        <v>1.237928726731686</v>
+      </c>
+      <c r="U89" t="n">
+        <v>14</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0.5757575757575758</v>
+      </c>
+      <c r="W89" t="n">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="X89" t="n">
+        <v>0.719246840323972</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>1.237928726731686</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25">
+      <c r="A90" t="s">
+        <v>150</v>
+      </c>
+      <c r="B90" t="s">
+        <v>71</v>
+      </c>
+      <c r="C90" t="s">
+        <v>72</v>
+      </c>
+      <c r="D90" t="s">
+        <v>28</v>
+      </c>
+      <c r="E90" t="s">
+        <v>29</v>
+      </c>
+      <c r="F90" t="s">
+        <v>30</v>
+      </c>
+      <c r="G90" t="s">
+        <v>31</v>
+      </c>
+      <c r="H90" t="s">
+        <v>32</v>
+      </c>
+      <c r="I90" t="s">
+        <v>33</v>
+      </c>
+      <c r="J90" t="s">
+        <v>142</v>
+      </c>
+      <c r="K90" t="s">
+        <v>35</v>
+      </c>
+      <c r="L90" t="s">
+        <v>29</v>
+      </c>
+      <c r="M90" t="s">
+        <v>74</v>
+      </c>
+      <c r="N90" t="n">
+        <v>7</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0.007189551182897576</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0.01224703931963289</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0.4675324675324675</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0.3311688311688312</v>
+      </c>
+      <c r="S90" t="n">
+        <v>0.8765832923335172</v>
+      </c>
+      <c r="T90" t="n">
+        <v>1.289316742440608</v>
+      </c>
+      <c r="U90" t="n">
+        <v>7</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0.4675324675324675</v>
+      </c>
+      <c r="W90" t="n">
+        <v>0.3311688311688312</v>
+      </c>
+      <c r="X90" t="n">
+        <v>0.8765832923335172</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>1.289316742440608</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25">
+      <c r="A91" t="s">
+        <v>151</v>
+      </c>
+      <c r="B91" t="s">
+        <v>71</v>
+      </c>
+      <c r="C91" t="s">
+        <v>72</v>
+      </c>
+      <c r="D91" t="s">
+        <v>28</v>
+      </c>
+      <c r="E91" t="s">
+        <v>29</v>
+      </c>
+      <c r="F91" t="s">
+        <v>30</v>
+      </c>
+      <c r="G91" t="s">
+        <v>31</v>
+      </c>
+      <c r="H91" t="s">
+        <v>32</v>
+      </c>
+      <c r="I91" t="s">
+        <v>33</v>
+      </c>
+      <c r="J91" t="s">
+        <v>142</v>
+      </c>
+      <c r="K91" t="s">
+        <v>35</v>
+      </c>
+      <c r="L91" t="s">
+        <v>29</v>
+      </c>
+      <c r="M91" t="s">
+        <v>74</v>
+      </c>
+      <c r="N91" t="n">
+        <v>19</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0.003655296125453272</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0.01348998949125216</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0.6006493506493507</v>
+      </c>
+      <c r="R91" t="n">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="S91" t="n">
+        <v>0.6546536707079771</v>
+      </c>
+      <c r="T91" t="n">
+        <v>1.310546629285836</v>
+      </c>
+      <c r="U91" t="n">
+        <v>19</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0.6006493506493507</v>
+      </c>
+      <c r="W91" t="n">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="X91" t="n">
+        <v>0.6546536707079771</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>1.310546629285836</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25">
+      <c r="A92" t="s">
+        <v>152</v>
+      </c>
+      <c r="B92" t="s">
+        <v>71</v>
+      </c>
+      <c r="C92" t="s">
+        <v>72</v>
+      </c>
+      <c r="D92" t="s">
+        <v>28</v>
+      </c>
+      <c r="E92" t="s">
+        <v>29</v>
+      </c>
+      <c r="F92" t="s">
+        <v>30</v>
+      </c>
+      <c r="G92" t="s">
+        <v>31</v>
+      </c>
+      <c r="H92" t="s">
+        <v>32</v>
+      </c>
+      <c r="I92" t="s">
+        <v>33</v>
+      </c>
+      <c r="J92" t="s">
+        <v>142</v>
+      </c>
+      <c r="K92" t="s">
+        <v>35</v>
+      </c>
+      <c r="L92" t="s">
+        <v>29</v>
+      </c>
+      <c r="M92" t="s">
+        <v>74</v>
+      </c>
+      <c r="N92" t="n">
+        <v>16</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0.00432416656381124</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0.01360972293398597</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0.5573593073593074</v>
+      </c>
+      <c r="R92" t="n">
+        <v>0.3733766233766234</v>
+      </c>
+      <c r="S92" t="n">
+        <v>0.7222499717168716</v>
+      </c>
+      <c r="T92" t="n">
+        <v>1.258735708723473</v>
+      </c>
+      <c r="U92" t="n">
+        <v>16</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0.5573593073593074</v>
+      </c>
+      <c r="W92" t="n">
+        <v>0.3733766233766234</v>
+      </c>
+      <c r="X92" t="n">
+        <v>0.7222499717168716</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>1.258735708723473</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25">
+      <c r="A93" t="s">
+        <v>153</v>
+      </c>
+      <c r="B93" t="s">
+        <v>71</v>
+      </c>
+      <c r="C93" t="s">
+        <v>72</v>
+      </c>
+      <c r="D93" t="s">
+        <v>28</v>
+      </c>
+      <c r="E93" t="s">
+        <v>29</v>
+      </c>
+      <c r="F93" t="s">
+        <v>30</v>
+      </c>
+      <c r="G93" t="s">
+        <v>99</v>
+      </c>
+      <c r="H93" t="s">
+        <v>32</v>
+      </c>
+      <c r="I93" t="s">
+        <v>33</v>
+      </c>
+      <c r="J93" t="s">
+        <v>142</v>
+      </c>
+      <c r="K93" t="s">
+        <v>35</v>
+      </c>
+      <c r="L93" t="s">
+        <v>29</v>
+      </c>
+      <c r="M93" t="s">
+        <v>74</v>
+      </c>
+      <c r="N93" t="n">
+        <v>19</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0.004559562214976782</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0.01790383312996332</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0.8885281385281385</v>
+      </c>
+      <c r="R93" t="n">
+        <v>0.4318181818181818</v>
+      </c>
+      <c r="S93" t="n">
+        <v>0.5243012253388074</v>
+      </c>
+      <c r="T93" t="n">
+        <v>1.306825239958353</v>
+      </c>
+      <c r="U93" t="n">
+        <v>19</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0.8885281385281385</v>
+      </c>
+      <c r="W93" t="n">
+        <v>0.4318181818181818</v>
+      </c>
+      <c r="X93" t="n">
+        <v>0.5243012253388074</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>1.306825239958353</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25">
+      <c r="A94" t="s">
+        <v>154</v>
+      </c>
+      <c r="B94" t="s">
+        <v>71</v>
+      </c>
+      <c r="C94" t="s">
+        <v>72</v>
+      </c>
+      <c r="D94" t="s">
+        <v>28</v>
+      </c>
+      <c r="E94" t="s">
+        <v>29</v>
+      </c>
+      <c r="F94" t="s">
+        <v>30</v>
+      </c>
+      <c r="G94" t="s">
+        <v>99</v>
+      </c>
+      <c r="H94" t="s">
+        <v>32</v>
+      </c>
+      <c r="I94" t="s">
+        <v>33</v>
+      </c>
+      <c r="J94" t="s">
+        <v>142</v>
+      </c>
+      <c r="K94" t="s">
+        <v>35</v>
+      </c>
+      <c r="L94" t="s">
+        <v>29</v>
+      </c>
+      <c r="M94" t="s">
+        <v>74</v>
+      </c>
+      <c r="N94" t="n">
+        <v>30</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0.0036955579341232</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0.01761063381836012</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0.908008658008658</v>
+      </c>
+      <c r="R94" t="n">
+        <v>0.4448051948051948</v>
+      </c>
+      <c r="S94" t="n">
+        <v>0.3678061789603123</v>
+      </c>
+      <c r="T94" t="n">
+        <v>1.1870513506546</v>
+      </c>
+      <c r="U94" t="n">
+        <v>30</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0.908008658008658</v>
+      </c>
+      <c r="W94" t="n">
+        <v>0.4448051948051948</v>
+      </c>
+      <c r="X94" t="n">
+        <v>0.3678061789603123</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>1.1870513506546</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25">
+      <c r="A95" t="s">
+        <v>155</v>
+      </c>
+      <c r="B95" t="s">
+        <v>71</v>
+      </c>
+      <c r="C95" t="s">
+        <v>72</v>
+      </c>
+      <c r="D95" t="s">
+        <v>28</v>
+      </c>
+      <c r="E95" t="s">
+        <v>29</v>
+      </c>
+      <c r="F95" t="s">
+        <v>30</v>
+      </c>
+      <c r="G95" t="s">
+        <v>99</v>
+      </c>
+      <c r="H95" t="s">
+        <v>32</v>
+      </c>
+      <c r="I95" t="s">
+        <v>33</v>
+      </c>
+      <c r="J95" t="s">
+        <v>142</v>
+      </c>
+      <c r="K95" t="s">
+        <v>35</v>
+      </c>
+      <c r="L95" t="s">
+        <v>29</v>
+      </c>
+      <c r="M95" t="s">
+        <v>74</v>
+      </c>
+      <c r="N95" t="n">
+        <v>14</v>
+      </c>
+      <c r="O95" t="n">
+        <v>0.004371386480989394</v>
+      </c>
+      <c r="P95" t="n">
+        <v>0.01904632364000593</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0.8766233766233766</v>
+      </c>
+      <c r="R95" t="n">
+        <v>0.4318181818181818</v>
+      </c>
+      <c r="S95" t="n">
+        <v>0.4912657034049816</v>
+      </c>
+      <c r="T95" t="n">
+        <v>1.28427047359606</v>
+      </c>
+      <c r="U95" t="n">
+        <v>14</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0.8766233766233766</v>
+      </c>
+      <c r="W95" t="n">
+        <v>0.4318181818181818</v>
+      </c>
+      <c r="X95" t="n">
+        <v>0.4912657034049816</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>1.28427047359606</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25">
+      <c r="A96" t="s">
+        <v>156</v>
+      </c>
+      <c r="B96" t="s">
+        <v>71</v>
+      </c>
+      <c r="C96" t="s">
+        <v>72</v>
+      </c>
+      <c r="D96" t="s">
+        <v>28</v>
+      </c>
+      <c r="E96" t="s">
+        <v>29</v>
+      </c>
+      <c r="F96" t="s">
+        <v>30</v>
+      </c>
+      <c r="G96" t="s">
+        <v>99</v>
+      </c>
+      <c r="H96" t="s">
+        <v>32</v>
+      </c>
+      <c r="I96" t="s">
+        <v>33</v>
+      </c>
+      <c r="J96" t="s">
+        <v>142</v>
+      </c>
+      <c r="K96" t="s">
+        <v>35</v>
+      </c>
+      <c r="L96" t="s">
+        <v>29</v>
+      </c>
+      <c r="M96" t="s">
+        <v>74</v>
+      </c>
+      <c r="N96" t="n">
+        <v>25</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0.003952494100768329</v>
+      </c>
+      <c r="P96" t="n">
+        <v>0.02005540086077405</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0.8852813852813853</v>
+      </c>
+      <c r="R96" t="n">
+        <v>0.3863636363636364</v>
+      </c>
+      <c r="S96" t="n">
+        <v>0.4301917422091399</v>
+      </c>
+      <c r="T96" t="n">
+        <v>1.245772070624499</v>
+      </c>
+      <c r="U96" t="n">
+        <v>25</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0.8852813852813853</v>
+      </c>
+      <c r="W96" t="n">
+        <v>0.3863636363636364</v>
+      </c>
+      <c r="X96" t="n">
+        <v>0.4301917422091399</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>1.245772070624499</v>
+      </c>
+    </row>
     <row customHeight="1" ht="12.8" r="1048576" s="3" spans="1:25"/>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>

--- a/logs.xlsx
+++ b/logs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
   <si>
     <t>Date</t>
   </si>
@@ -106,6 +106,9 @@
     <t>mae_test_last</t>
   </si>
   <si>
+    <t>6 CLASSES</t>
+  </si>
+  <si>
     <t>December18  14:37:35</t>
   </si>
   <si>
@@ -167,6 +170,148 @@
   </si>
   <si>
     <t>December18  17:33:05</t>
+  </si>
+  <si>
+    <t>December18  20:59:42</t>
+  </si>
+  <si>
+    <t>[ 0.36  0.64  0.84  0.96  1.    0.96  0.84  0.64  0.36]</t>
+  </si>
+  <si>
+    <t>December18  23:27:30</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>December18  23:41:01</t>
+  </si>
+  <si>
+    <t>December19  02:08:18</t>
+  </si>
+  <si>
+    <t>1.0xsingle + 0.0Xmulti</t>
+  </si>
+  <si>
+    <t>December19  04:29:38</t>
+  </si>
+  <si>
+    <t>0.1xsingle + 0.9Xmulti</t>
+  </si>
+  <si>
+    <t>December19  09:42:58</t>
+  </si>
+  <si>
+    <t>December19  12:15:05</t>
+  </si>
+  <si>
+    <t>[ 0.5  1.   0.5]</t>
+  </si>
+  <si>
+    <t>December21  12:17:14</t>
+  </si>
+  <si>
+    <t>&lt;function exp_lr_scheduler at 0x7f1ea2b82378&gt;</t>
+  </si>
+  <si>
+    <t>10 CLASSES</t>
+  </si>
+  <si>
+    <t>December21  12:52:44</t>
+  </si>
+  <si>
+    <t>&lt;function exp_lr_scheduler at 0x7f50bc6e9400&gt;</t>
+  </si>
+  <si>
+    <t>December21  13:36:05</t>
+  </si>
+  <si>
+    <t>December21  13:53:32</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>December21  13:54:31</t>
+  </si>
+  <si>
+    <t>December21  13:56:19</t>
+  </si>
+  <si>
+    <t>December21  14:14:55</t>
+  </si>
+  <si>
+    <t>December21  14:17:51</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>December21  14:26:27</t>
+  </si>
+  <si>
+    <t>December21  16:33:21</t>
+  </si>
+  <si>
+    <t>December21  18:39:10</t>
+  </si>
+  <si>
+    <t>[ 0.11111111  0.22222222  0.33333333  0.44444444  0.55555556  0.66666667
+  0.77777778  0.88888889  1.          0.88888889  0.77777778  0.66666667
+  0.55555556  0.44444444  0.33333333  0.22222222  0.11111111]</t>
+  </si>
+  <si>
+    <t>December21  20:43:43</t>
+  </si>
+  <si>
+    <t>[ 0.20987654  0.39506173  0.55555556  0.69135802  0.80246914  0.88888889
+  0.95061728  0.98765432  1.          0.98765432  0.95061728  0.88888889
+  0.80246914  0.69135802  0.55555556  0.39506173  0.20987654]</t>
+  </si>
+  <si>
+    <t>December21  22:48:05</t>
+  </si>
+  <si>
+    <t>0.8xsingle + 0.2Xmulti</t>
+  </si>
+  <si>
+    <t>December22  00:52:11</t>
+  </si>
+  <si>
+    <t>0.6xsingle + 0.4Xmulti</t>
+  </si>
+  <si>
+    <t>December22  02:56:05</t>
+  </si>
+  <si>
+    <t>0.4xsingle + 0.6Xmulti</t>
+  </si>
+  <si>
+    <t>December22  04:59:43</t>
+  </si>
+  <si>
+    <t>0.2xsingle + 0.8Xmulti</t>
+  </si>
+  <si>
+    <t>December22  07:03:32</t>
+  </si>
+  <si>
+    <t>December22  09:08:04</t>
+  </si>
+  <si>
+    <t>December22  11:12:25</t>
+  </si>
+  <si>
+    <t>December22  13:16:39</t>
+  </si>
+  <si>
+    <t>December22  15:20:40</t>
+  </si>
+  <si>
+    <t>December22  17:24:50</t>
+  </si>
+  <si>
+    <t>December22  19:29:24</t>
   </si>
 </sst>
 </file>
@@ -176,7 +321,7 @@
   <numFmts count="1">
     <numFmt formatCode="General" numFmtId="164"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -205,6 +350,13 @@
       <color rgb="FF000000"/>
       <sz val="11"/>
     </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <b val="1"/>
+      <sz val="10"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -231,7 +383,7 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -239,6 +391,9 @@
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -544,34 +699,34 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AD7"/>
+  <dimension ref="A1:AMJ39"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="H1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="Q14" activeCellId="0" pane="topLeft" sqref="Q14"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A21" activeCellId="0" pane="topLeft" sqref="18:21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="22.2755102040816"/>
-    <col customWidth="1" max="2" min="2" style="1" width="15.1173469387755"/>
-    <col customWidth="1" max="3" min="3" style="1" width="12.8265306122449"/>
-    <col customWidth="1" max="4" min="4" style="1" width="9.178571428571431"/>
-    <col customWidth="1" max="5" min="5" style="1" width="12.9591836734694"/>
-    <col customWidth="1" max="6" min="6" style="1" width="10.1224489795918"/>
-    <col customWidth="1" max="7" min="7" style="1" width="23.219387755102"/>
-    <col customWidth="1" max="8" min="8" style="1" width="22.2755102040816"/>
-    <col customWidth="1" max="14" min="9" style="1" width="9.178571428571431"/>
-    <col customWidth="1" max="15" min="15" style="1" width="14.8673469387755"/>
-    <col customWidth="1" max="25" min="16" style="1" width="9.178571428571431"/>
-    <col customWidth="1" max="26" min="26" style="1" width="12.219387755102"/>
-    <col customWidth="1" max="27" min="27" style="1" width="10.6938775510204"/>
-    <col customWidth="1" max="28" min="28" style="1" width="13.1938775510204"/>
-    <col customWidth="1" max="29" min="29" style="1" width="12.219387755102"/>
-    <col customWidth="1" max="30" min="30" style="1" width="13.1938775510204"/>
-    <col customWidth="1" max="1025" min="31" style="1" width="9.178571428571431"/>
+    <col customWidth="1" max="1" min="1" style="1" width="21.734693877551"/>
+    <col customWidth="1" max="2" min="2" style="1" width="14.5816326530612"/>
+    <col customWidth="1" max="3" min="3" style="1" width="12.5561224489796"/>
+    <col customWidth="1" max="4" min="4" style="1" width="8.77551020408163"/>
+    <col customWidth="1" max="5" min="5" style="1" width="12.6887755102041"/>
+    <col customWidth="1" max="6" min="6" style="1" width="9.852040816326531"/>
+    <col customWidth="1" max="7" min="7" style="1" width="22.6785714285714"/>
+    <col customWidth="1" max="8" min="8" style="1" width="21.734693877551"/>
+    <col customWidth="1" max="14" min="9" style="1" width="8.77551020408163"/>
+    <col customWidth="1" max="15" min="15" style="1" width="14.3112244897959"/>
+    <col customWidth="1" max="25" min="16" style="1" width="8.77551020408163"/>
+    <col customWidth="1" max="26" min="26" style="1" width="11.8775510204082"/>
+    <col customWidth="1" max="27" min="27" style="1" width="10.3928571428571"/>
+    <col customWidth="1" max="28" min="28" style="1" width="12.8265306122449"/>
+    <col customWidth="1" max="29" min="29" style="1" width="11.8775510204082"/>
+    <col customWidth="1" max="30" min="30" style="1" width="12.8265306122449"/>
+    <col customWidth="1" max="1025" min="31" style="1" width="8.77551020408163"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="13.8" r="1" s="3" spans="1:30">
+    <row customHeight="1" ht="13.8" r="1" s="4" spans="1:1024">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -662,422 +817,3885 @@
       <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="AE1" s="1" t="n"/>
+      <c r="AF1" s="1" t="n"/>
+      <c r="AG1" s="1" t="n"/>
+      <c r="AH1" s="1" t="n"/>
+      <c r="AI1" s="1" t="n"/>
+      <c r="AJ1" s="1" t="n"/>
+      <c r="AK1" s="1" t="n"/>
+      <c r="AL1" s="1" t="n"/>
+      <c r="AM1" s="1" t="n"/>
+      <c r="AN1" s="1" t="n"/>
+      <c r="AO1" s="1" t="n"/>
+      <c r="AP1" s="1" t="n"/>
+      <c r="AQ1" s="1" t="n"/>
+      <c r="AR1" s="1" t="n"/>
+      <c r="AS1" s="1" t="n"/>
+      <c r="AT1" s="1" t="n"/>
+      <c r="AU1" s="1" t="n"/>
+      <c r="AV1" s="1" t="n"/>
+      <c r="AW1" s="1" t="n"/>
+      <c r="AX1" s="1" t="n"/>
+      <c r="AY1" s="1" t="n"/>
+      <c r="AZ1" s="1" t="n"/>
+      <c r="BA1" s="1" t="n"/>
+      <c r="BB1" s="1" t="n"/>
+      <c r="BC1" s="1" t="n"/>
+      <c r="BD1" s="1" t="n"/>
+      <c r="BE1" s="1" t="n"/>
+      <c r="BF1" s="1" t="n"/>
+      <c r="BG1" s="1" t="n"/>
+      <c r="BH1" s="1" t="n"/>
+      <c r="BI1" s="1" t="n"/>
+      <c r="BJ1" s="1" t="n"/>
+      <c r="BK1" s="1" t="n"/>
+      <c r="BL1" s="1" t="n"/>
+      <c r="BM1" s="1" t="n"/>
+      <c r="BN1" s="1" t="n"/>
+      <c r="BO1" s="1" t="n"/>
+      <c r="BP1" s="1" t="n"/>
+      <c r="BQ1" s="1" t="n"/>
+      <c r="BR1" s="1" t="n"/>
+      <c r="BS1" s="1" t="n"/>
+      <c r="BT1" s="1" t="n"/>
+      <c r="BU1" s="1" t="n"/>
+      <c r="BV1" s="1" t="n"/>
+      <c r="BW1" s="1" t="n"/>
+      <c r="BX1" s="1" t="n"/>
+      <c r="BY1" s="1" t="n"/>
+      <c r="BZ1" s="1" t="n"/>
+      <c r="CA1" s="1" t="n"/>
+      <c r="CB1" s="1" t="n"/>
+      <c r="CC1" s="1" t="n"/>
+      <c r="CD1" s="1" t="n"/>
+      <c r="CE1" s="1" t="n"/>
+      <c r="CF1" s="1" t="n"/>
+      <c r="CG1" s="1" t="n"/>
+      <c r="CH1" s="1" t="n"/>
+      <c r="CI1" s="1" t="n"/>
+      <c r="CJ1" s="1" t="n"/>
+      <c r="CK1" s="1" t="n"/>
+      <c r="CL1" s="1" t="n"/>
+      <c r="CM1" s="1" t="n"/>
+      <c r="CN1" s="1" t="n"/>
+      <c r="CO1" s="1" t="n"/>
+      <c r="CP1" s="1" t="n"/>
+      <c r="CQ1" s="1" t="n"/>
+      <c r="CR1" s="1" t="n"/>
+      <c r="CS1" s="1" t="n"/>
+      <c r="CT1" s="1" t="n"/>
+      <c r="CU1" s="1" t="n"/>
+      <c r="CV1" s="1" t="n"/>
+      <c r="CW1" s="1" t="n"/>
+      <c r="CX1" s="1" t="n"/>
+      <c r="CY1" s="1" t="n"/>
+      <c r="CZ1" s="1" t="n"/>
+      <c r="DA1" s="1" t="n"/>
+      <c r="DB1" s="1" t="n"/>
+      <c r="DC1" s="1" t="n"/>
+      <c r="DD1" s="1" t="n"/>
+      <c r="DE1" s="1" t="n"/>
+      <c r="DF1" s="1" t="n"/>
+      <c r="DG1" s="1" t="n"/>
+      <c r="DH1" s="1" t="n"/>
+      <c r="DI1" s="1" t="n"/>
+      <c r="DJ1" s="1" t="n"/>
+      <c r="DK1" s="1" t="n"/>
+      <c r="DL1" s="1" t="n"/>
+      <c r="DM1" s="1" t="n"/>
+      <c r="DN1" s="1" t="n"/>
+      <c r="DO1" s="1" t="n"/>
+      <c r="DP1" s="1" t="n"/>
+      <c r="DQ1" s="1" t="n"/>
+      <c r="DR1" s="1" t="n"/>
+      <c r="DS1" s="1" t="n"/>
+      <c r="DT1" s="1" t="n"/>
+      <c r="DU1" s="1" t="n"/>
+      <c r="DV1" s="1" t="n"/>
+      <c r="DW1" s="1" t="n"/>
+      <c r="DX1" s="1" t="n"/>
+      <c r="DY1" s="1" t="n"/>
+      <c r="DZ1" s="1" t="n"/>
+      <c r="EA1" s="1" t="n"/>
+      <c r="EB1" s="1" t="n"/>
+      <c r="EC1" s="1" t="n"/>
+      <c r="ED1" s="1" t="n"/>
+      <c r="EE1" s="1" t="n"/>
+      <c r="EF1" s="1" t="n"/>
+      <c r="EG1" s="1" t="n"/>
+      <c r="EH1" s="1" t="n"/>
+      <c r="EI1" s="1" t="n"/>
+      <c r="EJ1" s="1" t="n"/>
+      <c r="EK1" s="1" t="n"/>
+      <c r="EL1" s="1" t="n"/>
+      <c r="EM1" s="1" t="n"/>
+      <c r="EN1" s="1" t="n"/>
+      <c r="EO1" s="1" t="n"/>
+      <c r="EP1" s="1" t="n"/>
+      <c r="EQ1" s="1" t="n"/>
+      <c r="ER1" s="1" t="n"/>
+      <c r="ES1" s="1" t="n"/>
+      <c r="ET1" s="1" t="n"/>
+      <c r="EU1" s="1" t="n"/>
+      <c r="EV1" s="1" t="n"/>
+      <c r="EW1" s="1" t="n"/>
+      <c r="EX1" s="1" t="n"/>
+      <c r="EY1" s="1" t="n"/>
+      <c r="EZ1" s="1" t="n"/>
+      <c r="FA1" s="1" t="n"/>
+      <c r="FB1" s="1" t="n"/>
+      <c r="FC1" s="1" t="n"/>
+      <c r="FD1" s="1" t="n"/>
+      <c r="FE1" s="1" t="n"/>
+      <c r="FF1" s="1" t="n"/>
+      <c r="FG1" s="1" t="n"/>
+      <c r="FH1" s="1" t="n"/>
+      <c r="FI1" s="1" t="n"/>
+      <c r="FJ1" s="1" t="n"/>
+      <c r="FK1" s="1" t="n"/>
+      <c r="FL1" s="1" t="n"/>
+      <c r="FM1" s="1" t="n"/>
+      <c r="FN1" s="1" t="n"/>
+      <c r="FO1" s="1" t="n"/>
+      <c r="FP1" s="1" t="n"/>
+      <c r="FQ1" s="1" t="n"/>
+      <c r="FR1" s="1" t="n"/>
+      <c r="FS1" s="1" t="n"/>
+      <c r="FT1" s="1" t="n"/>
+      <c r="FU1" s="1" t="n"/>
+      <c r="FV1" s="1" t="n"/>
+      <c r="FW1" s="1" t="n"/>
+      <c r="FX1" s="1" t="n"/>
+      <c r="FY1" s="1" t="n"/>
+      <c r="FZ1" s="1" t="n"/>
+      <c r="GA1" s="1" t="n"/>
+      <c r="GB1" s="1" t="n"/>
+      <c r="GC1" s="1" t="n"/>
+      <c r="GD1" s="1" t="n"/>
+      <c r="GE1" s="1" t="n"/>
+      <c r="GF1" s="1" t="n"/>
+      <c r="GG1" s="1" t="n"/>
+      <c r="GH1" s="1" t="n"/>
+      <c r="GI1" s="1" t="n"/>
+      <c r="GJ1" s="1" t="n"/>
+      <c r="GK1" s="1" t="n"/>
+      <c r="GL1" s="1" t="n"/>
+      <c r="GM1" s="1" t="n"/>
+      <c r="GN1" s="1" t="n"/>
+      <c r="GO1" s="1" t="n"/>
+      <c r="GP1" s="1" t="n"/>
+      <c r="GQ1" s="1" t="n"/>
+      <c r="GR1" s="1" t="n"/>
+      <c r="GS1" s="1" t="n"/>
+      <c r="GT1" s="1" t="n"/>
+      <c r="GU1" s="1" t="n"/>
+      <c r="GV1" s="1" t="n"/>
+      <c r="GW1" s="1" t="n"/>
+      <c r="GX1" s="1" t="n"/>
+      <c r="GY1" s="1" t="n"/>
+      <c r="GZ1" s="1" t="n"/>
+      <c r="HA1" s="1" t="n"/>
+      <c r="HB1" s="1" t="n"/>
+      <c r="HC1" s="1" t="n"/>
+      <c r="HD1" s="1" t="n"/>
+      <c r="HE1" s="1" t="n"/>
+      <c r="HF1" s="1" t="n"/>
+      <c r="HG1" s="1" t="n"/>
+      <c r="HH1" s="1" t="n"/>
+      <c r="HI1" s="1" t="n"/>
+      <c r="HJ1" s="1" t="n"/>
+      <c r="HK1" s="1" t="n"/>
+      <c r="HL1" s="1" t="n"/>
+      <c r="HM1" s="1" t="n"/>
+      <c r="HN1" s="1" t="n"/>
+      <c r="HO1" s="1" t="n"/>
+      <c r="HP1" s="1" t="n"/>
+      <c r="HQ1" s="1" t="n"/>
+      <c r="HR1" s="1" t="n"/>
+      <c r="HS1" s="1" t="n"/>
+      <c r="HT1" s="1" t="n"/>
+      <c r="HU1" s="1" t="n"/>
+      <c r="HV1" s="1" t="n"/>
+      <c r="HW1" s="1" t="n"/>
+      <c r="HX1" s="1" t="n"/>
+      <c r="HY1" s="1" t="n"/>
+      <c r="HZ1" s="1" t="n"/>
+      <c r="IA1" s="1" t="n"/>
+      <c r="IB1" s="1" t="n"/>
+      <c r="IC1" s="1" t="n"/>
+      <c r="ID1" s="1" t="n"/>
+      <c r="IE1" s="1" t="n"/>
+      <c r="IF1" s="1" t="n"/>
+      <c r="IG1" s="1" t="n"/>
+      <c r="IH1" s="1" t="n"/>
+      <c r="II1" s="1" t="n"/>
+      <c r="IJ1" s="1" t="n"/>
+      <c r="IK1" s="1" t="n"/>
+      <c r="IL1" s="1" t="n"/>
+      <c r="IM1" s="1" t="n"/>
+      <c r="IN1" s="1" t="n"/>
+      <c r="IO1" s="1" t="n"/>
+      <c r="IP1" s="1" t="n"/>
+      <c r="IQ1" s="1" t="n"/>
+      <c r="IR1" s="1" t="n"/>
+      <c r="IS1" s="1" t="n"/>
+      <c r="IT1" s="1" t="n"/>
+      <c r="IU1" s="1" t="n"/>
+      <c r="IV1" s="1" t="n"/>
+      <c r="IW1" s="1" t="n"/>
+      <c r="IX1" s="1" t="n"/>
+      <c r="IY1" s="1" t="n"/>
+      <c r="IZ1" s="1" t="n"/>
+      <c r="JA1" s="1" t="n"/>
+      <c r="JB1" s="1" t="n"/>
+      <c r="JC1" s="1" t="n"/>
+      <c r="JD1" s="1" t="n"/>
+      <c r="JE1" s="1" t="n"/>
+      <c r="JF1" s="1" t="n"/>
+      <c r="JG1" s="1" t="n"/>
+      <c r="JH1" s="1" t="n"/>
+      <c r="JI1" s="1" t="n"/>
+      <c r="JJ1" s="1" t="n"/>
+      <c r="JK1" s="1" t="n"/>
+      <c r="JL1" s="1" t="n"/>
+      <c r="JM1" s="1" t="n"/>
+      <c r="JN1" s="1" t="n"/>
+      <c r="JO1" s="1" t="n"/>
+      <c r="JP1" s="1" t="n"/>
+      <c r="JQ1" s="1" t="n"/>
+      <c r="JR1" s="1" t="n"/>
+      <c r="JS1" s="1" t="n"/>
+      <c r="JT1" s="1" t="n"/>
+      <c r="JU1" s="1" t="n"/>
+      <c r="JV1" s="1" t="n"/>
+      <c r="JW1" s="1" t="n"/>
+      <c r="JX1" s="1" t="n"/>
+      <c r="JY1" s="1" t="n"/>
+      <c r="JZ1" s="1" t="n"/>
+      <c r="KA1" s="1" t="n"/>
+      <c r="KB1" s="1" t="n"/>
+      <c r="KC1" s="1" t="n"/>
+      <c r="KD1" s="1" t="n"/>
+      <c r="KE1" s="1" t="n"/>
+      <c r="KF1" s="1" t="n"/>
+      <c r="KG1" s="1" t="n"/>
+      <c r="KH1" s="1" t="n"/>
+      <c r="KI1" s="1" t="n"/>
+      <c r="KJ1" s="1" t="n"/>
+      <c r="KK1" s="1" t="n"/>
+      <c r="KL1" s="1" t="n"/>
+      <c r="KM1" s="1" t="n"/>
+      <c r="KN1" s="1" t="n"/>
+      <c r="KO1" s="1" t="n"/>
+      <c r="KP1" s="1" t="n"/>
+      <c r="KQ1" s="1" t="n"/>
+      <c r="KR1" s="1" t="n"/>
+      <c r="KS1" s="1" t="n"/>
+      <c r="KT1" s="1" t="n"/>
+      <c r="KU1" s="1" t="n"/>
+      <c r="KV1" s="1" t="n"/>
+      <c r="KW1" s="1" t="n"/>
+      <c r="KX1" s="1" t="n"/>
+      <c r="KY1" s="1" t="n"/>
+      <c r="KZ1" s="1" t="n"/>
+      <c r="LA1" s="1" t="n"/>
+      <c r="LB1" s="1" t="n"/>
+      <c r="LC1" s="1" t="n"/>
+      <c r="LD1" s="1" t="n"/>
+      <c r="LE1" s="1" t="n"/>
+      <c r="LF1" s="1" t="n"/>
+      <c r="LG1" s="1" t="n"/>
+      <c r="LH1" s="1" t="n"/>
+      <c r="LI1" s="1" t="n"/>
+      <c r="LJ1" s="1" t="n"/>
+      <c r="LK1" s="1" t="n"/>
+      <c r="LL1" s="1" t="n"/>
+      <c r="LM1" s="1" t="n"/>
+      <c r="LN1" s="1" t="n"/>
+      <c r="LO1" s="1" t="n"/>
+      <c r="LP1" s="1" t="n"/>
+      <c r="LQ1" s="1" t="n"/>
+      <c r="LR1" s="1" t="n"/>
+      <c r="LS1" s="1" t="n"/>
+      <c r="LT1" s="1" t="n"/>
+      <c r="LU1" s="1" t="n"/>
+      <c r="LV1" s="1" t="n"/>
+      <c r="LW1" s="1" t="n"/>
+      <c r="LX1" s="1" t="n"/>
+      <c r="LY1" s="1" t="n"/>
+      <c r="LZ1" s="1" t="n"/>
+      <c r="MA1" s="1" t="n"/>
+      <c r="MB1" s="1" t="n"/>
+      <c r="MC1" s="1" t="n"/>
+      <c r="MD1" s="1" t="n"/>
+      <c r="ME1" s="1" t="n"/>
+      <c r="MF1" s="1" t="n"/>
+      <c r="MG1" s="1" t="n"/>
+      <c r="MH1" s="1" t="n"/>
+      <c r="MI1" s="1" t="n"/>
+      <c r="MJ1" s="1" t="n"/>
+      <c r="MK1" s="1" t="n"/>
+      <c r="ML1" s="1" t="n"/>
+      <c r="MM1" s="1" t="n"/>
+      <c r="MN1" s="1" t="n"/>
+      <c r="MO1" s="1" t="n"/>
+      <c r="MP1" s="1" t="n"/>
+      <c r="MQ1" s="1" t="n"/>
+      <c r="MR1" s="1" t="n"/>
+      <c r="MS1" s="1" t="n"/>
+      <c r="MT1" s="1" t="n"/>
+      <c r="MU1" s="1" t="n"/>
+      <c r="MV1" s="1" t="n"/>
+      <c r="MW1" s="1" t="n"/>
+      <c r="MX1" s="1" t="n"/>
+      <c r="MY1" s="1" t="n"/>
+      <c r="MZ1" s="1" t="n"/>
+      <c r="NA1" s="1" t="n"/>
+      <c r="NB1" s="1" t="n"/>
+      <c r="NC1" s="1" t="n"/>
+      <c r="ND1" s="1" t="n"/>
+      <c r="NE1" s="1" t="n"/>
+      <c r="NF1" s="1" t="n"/>
+      <c r="NG1" s="1" t="n"/>
+      <c r="NH1" s="1" t="n"/>
+      <c r="NI1" s="1" t="n"/>
+      <c r="NJ1" s="1" t="n"/>
+      <c r="NK1" s="1" t="n"/>
+      <c r="NL1" s="1" t="n"/>
+      <c r="NM1" s="1" t="n"/>
+      <c r="NN1" s="1" t="n"/>
+      <c r="NO1" s="1" t="n"/>
+      <c r="NP1" s="1" t="n"/>
+      <c r="NQ1" s="1" t="n"/>
+      <c r="NR1" s="1" t="n"/>
+      <c r="NS1" s="1" t="n"/>
+      <c r="NT1" s="1" t="n"/>
+      <c r="NU1" s="1" t="n"/>
+      <c r="NV1" s="1" t="n"/>
+      <c r="NW1" s="1" t="n"/>
+      <c r="NX1" s="1" t="n"/>
+      <c r="NY1" s="1" t="n"/>
+      <c r="NZ1" s="1" t="n"/>
+      <c r="OA1" s="1" t="n"/>
+      <c r="OB1" s="1" t="n"/>
+      <c r="OC1" s="1" t="n"/>
+      <c r="OD1" s="1" t="n"/>
+      <c r="OE1" s="1" t="n"/>
+      <c r="OF1" s="1" t="n"/>
+      <c r="OG1" s="1" t="n"/>
+      <c r="OH1" s="1" t="n"/>
+      <c r="OI1" s="1" t="n"/>
+      <c r="OJ1" s="1" t="n"/>
+      <c r="OK1" s="1" t="n"/>
+      <c r="OL1" s="1" t="n"/>
+      <c r="OM1" s="1" t="n"/>
+      <c r="ON1" s="1" t="n"/>
+      <c r="OO1" s="1" t="n"/>
+      <c r="OP1" s="1" t="n"/>
+      <c r="OQ1" s="1" t="n"/>
+      <c r="OR1" s="1" t="n"/>
+      <c r="OS1" s="1" t="n"/>
+      <c r="OT1" s="1" t="n"/>
+      <c r="OU1" s="1" t="n"/>
+      <c r="OV1" s="1" t="n"/>
+      <c r="OW1" s="1" t="n"/>
+      <c r="OX1" s="1" t="n"/>
+      <c r="OY1" s="1" t="n"/>
+      <c r="OZ1" s="1" t="n"/>
+      <c r="PA1" s="1" t="n"/>
+      <c r="PB1" s="1" t="n"/>
+      <c r="PC1" s="1" t="n"/>
+      <c r="PD1" s="1" t="n"/>
+      <c r="PE1" s="1" t="n"/>
+      <c r="PF1" s="1" t="n"/>
+      <c r="PG1" s="1" t="n"/>
+      <c r="PH1" s="1" t="n"/>
+      <c r="PI1" s="1" t="n"/>
+      <c r="PJ1" s="1" t="n"/>
+      <c r="PK1" s="1" t="n"/>
+      <c r="PL1" s="1" t="n"/>
+      <c r="PM1" s="1" t="n"/>
+      <c r="PN1" s="1" t="n"/>
+      <c r="PO1" s="1" t="n"/>
+      <c r="PP1" s="1" t="n"/>
+      <c r="PQ1" s="1" t="n"/>
+      <c r="PR1" s="1" t="n"/>
+      <c r="PS1" s="1" t="n"/>
+      <c r="PT1" s="1" t="n"/>
+      <c r="PU1" s="1" t="n"/>
+      <c r="PV1" s="1" t="n"/>
+      <c r="PW1" s="1" t="n"/>
+      <c r="PX1" s="1" t="n"/>
+      <c r="PY1" s="1" t="n"/>
+      <c r="PZ1" s="1" t="n"/>
+      <c r="QA1" s="1" t="n"/>
+      <c r="QB1" s="1" t="n"/>
+      <c r="QC1" s="1" t="n"/>
+      <c r="QD1" s="1" t="n"/>
+      <c r="QE1" s="1" t="n"/>
+      <c r="QF1" s="1" t="n"/>
+      <c r="QG1" s="1" t="n"/>
+      <c r="QH1" s="1" t="n"/>
+      <c r="QI1" s="1" t="n"/>
+      <c r="QJ1" s="1" t="n"/>
+      <c r="QK1" s="1" t="n"/>
+      <c r="QL1" s="1" t="n"/>
+      <c r="QM1" s="1" t="n"/>
+      <c r="QN1" s="1" t="n"/>
+      <c r="QO1" s="1" t="n"/>
+      <c r="QP1" s="1" t="n"/>
+      <c r="QQ1" s="1" t="n"/>
+      <c r="QR1" s="1" t="n"/>
+      <c r="QS1" s="1" t="n"/>
+      <c r="QT1" s="1" t="n"/>
+      <c r="QU1" s="1" t="n"/>
+      <c r="QV1" s="1" t="n"/>
+      <c r="QW1" s="1" t="n"/>
+      <c r="QX1" s="1" t="n"/>
+      <c r="QY1" s="1" t="n"/>
+      <c r="QZ1" s="1" t="n"/>
+      <c r="RA1" s="1" t="n"/>
+      <c r="RB1" s="1" t="n"/>
+      <c r="RC1" s="1" t="n"/>
+      <c r="RD1" s="1" t="n"/>
+      <c r="RE1" s="1" t="n"/>
+      <c r="RF1" s="1" t="n"/>
+      <c r="RG1" s="1" t="n"/>
+      <c r="RH1" s="1" t="n"/>
+      <c r="RI1" s="1" t="n"/>
+      <c r="RJ1" s="1" t="n"/>
+      <c r="RK1" s="1" t="n"/>
+      <c r="RL1" s="1" t="n"/>
+      <c r="RM1" s="1" t="n"/>
+      <c r="RN1" s="1" t="n"/>
+      <c r="RO1" s="1" t="n"/>
+      <c r="RP1" s="1" t="n"/>
+      <c r="RQ1" s="1" t="n"/>
+      <c r="RR1" s="1" t="n"/>
+      <c r="RS1" s="1" t="n"/>
+      <c r="RT1" s="1" t="n"/>
+      <c r="RU1" s="1" t="n"/>
+      <c r="RV1" s="1" t="n"/>
+      <c r="RW1" s="1" t="n"/>
+      <c r="RX1" s="1" t="n"/>
+      <c r="RY1" s="1" t="n"/>
+      <c r="RZ1" s="1" t="n"/>
+      <c r="SA1" s="1" t="n"/>
+      <c r="SB1" s="1" t="n"/>
+      <c r="SC1" s="1" t="n"/>
+      <c r="SD1" s="1" t="n"/>
+      <c r="SE1" s="1" t="n"/>
+      <c r="SF1" s="1" t="n"/>
+      <c r="SG1" s="1" t="n"/>
+      <c r="SH1" s="1" t="n"/>
+      <c r="SI1" s="1" t="n"/>
+      <c r="SJ1" s="1" t="n"/>
+      <c r="SK1" s="1" t="n"/>
+      <c r="SL1" s="1" t="n"/>
+      <c r="SM1" s="1" t="n"/>
+      <c r="SN1" s="1" t="n"/>
+      <c r="SO1" s="1" t="n"/>
+      <c r="SP1" s="1" t="n"/>
+      <c r="SQ1" s="1" t="n"/>
+      <c r="SR1" s="1" t="n"/>
+      <c r="SS1" s="1" t="n"/>
+      <c r="ST1" s="1" t="n"/>
+      <c r="SU1" s="1" t="n"/>
+      <c r="SV1" s="1" t="n"/>
+      <c r="SW1" s="1" t="n"/>
+      <c r="SX1" s="1" t="n"/>
+      <c r="SY1" s="1" t="n"/>
+      <c r="SZ1" s="1" t="n"/>
+      <c r="TA1" s="1" t="n"/>
+      <c r="TB1" s="1" t="n"/>
+      <c r="TC1" s="1" t="n"/>
+      <c r="TD1" s="1" t="n"/>
+      <c r="TE1" s="1" t="n"/>
+      <c r="TF1" s="1" t="n"/>
+      <c r="TG1" s="1" t="n"/>
+      <c r="TH1" s="1" t="n"/>
+      <c r="TI1" s="1" t="n"/>
+      <c r="TJ1" s="1" t="n"/>
+      <c r="TK1" s="1" t="n"/>
+      <c r="TL1" s="1" t="n"/>
+      <c r="TM1" s="1" t="n"/>
+      <c r="TN1" s="1" t="n"/>
+      <c r="TO1" s="1" t="n"/>
+      <c r="TP1" s="1" t="n"/>
+      <c r="TQ1" s="1" t="n"/>
+      <c r="TR1" s="1" t="n"/>
+      <c r="TS1" s="1" t="n"/>
+      <c r="TT1" s="1" t="n"/>
+      <c r="TU1" s="1" t="n"/>
+      <c r="TV1" s="1" t="n"/>
+      <c r="TW1" s="1" t="n"/>
+      <c r="TX1" s="1" t="n"/>
+      <c r="TY1" s="1" t="n"/>
+      <c r="TZ1" s="1" t="n"/>
+      <c r="UA1" s="1" t="n"/>
+      <c r="UB1" s="1" t="n"/>
+      <c r="UC1" s="1" t="n"/>
+      <c r="UD1" s="1" t="n"/>
+      <c r="UE1" s="1" t="n"/>
+      <c r="UF1" s="1" t="n"/>
+      <c r="UG1" s="1" t="n"/>
+      <c r="UH1" s="1" t="n"/>
+      <c r="UI1" s="1" t="n"/>
+      <c r="UJ1" s="1" t="n"/>
+      <c r="UK1" s="1" t="n"/>
+      <c r="UL1" s="1" t="n"/>
+      <c r="UM1" s="1" t="n"/>
+      <c r="UN1" s="1" t="n"/>
+      <c r="UO1" s="1" t="n"/>
+      <c r="UP1" s="1" t="n"/>
+      <c r="UQ1" s="1" t="n"/>
+      <c r="UR1" s="1" t="n"/>
+      <c r="US1" s="1" t="n"/>
+      <c r="UT1" s="1" t="n"/>
+      <c r="UU1" s="1" t="n"/>
+      <c r="UV1" s="1" t="n"/>
+      <c r="UW1" s="1" t="n"/>
+      <c r="UX1" s="1" t="n"/>
+      <c r="UY1" s="1" t="n"/>
+      <c r="UZ1" s="1" t="n"/>
+      <c r="VA1" s="1" t="n"/>
+      <c r="VB1" s="1" t="n"/>
+      <c r="VC1" s="1" t="n"/>
+      <c r="VD1" s="1" t="n"/>
+      <c r="VE1" s="1" t="n"/>
+      <c r="VF1" s="1" t="n"/>
+      <c r="VG1" s="1" t="n"/>
+      <c r="VH1" s="1" t="n"/>
+      <c r="VI1" s="1" t="n"/>
+      <c r="VJ1" s="1" t="n"/>
+      <c r="VK1" s="1" t="n"/>
+      <c r="VL1" s="1" t="n"/>
+      <c r="VM1" s="1" t="n"/>
+      <c r="VN1" s="1" t="n"/>
+      <c r="VO1" s="1" t="n"/>
+      <c r="VP1" s="1" t="n"/>
+      <c r="VQ1" s="1" t="n"/>
+      <c r="VR1" s="1" t="n"/>
+      <c r="VS1" s="1" t="n"/>
+      <c r="VT1" s="1" t="n"/>
+      <c r="VU1" s="1" t="n"/>
+      <c r="VV1" s="1" t="n"/>
+      <c r="VW1" s="1" t="n"/>
+      <c r="VX1" s="1" t="n"/>
+      <c r="VY1" s="1" t="n"/>
+      <c r="VZ1" s="1" t="n"/>
+      <c r="WA1" s="1" t="n"/>
+      <c r="WB1" s="1" t="n"/>
+      <c r="WC1" s="1" t="n"/>
+      <c r="WD1" s="1" t="n"/>
+      <c r="WE1" s="1" t="n"/>
+      <c r="WF1" s="1" t="n"/>
+      <c r="WG1" s="1" t="n"/>
+      <c r="WH1" s="1" t="n"/>
+      <c r="WI1" s="1" t="n"/>
+      <c r="WJ1" s="1" t="n"/>
+      <c r="WK1" s="1" t="n"/>
+      <c r="WL1" s="1" t="n"/>
+      <c r="WM1" s="1" t="n"/>
+      <c r="WN1" s="1" t="n"/>
+      <c r="WO1" s="1" t="n"/>
+      <c r="WP1" s="1" t="n"/>
+      <c r="WQ1" s="1" t="n"/>
+      <c r="WR1" s="1" t="n"/>
+      <c r="WS1" s="1" t="n"/>
+      <c r="WT1" s="1" t="n"/>
+      <c r="WU1" s="1" t="n"/>
+      <c r="WV1" s="1" t="n"/>
+      <c r="WW1" s="1" t="n"/>
+      <c r="WX1" s="1" t="n"/>
+      <c r="WY1" s="1" t="n"/>
+      <c r="WZ1" s="1" t="n"/>
+      <c r="XA1" s="1" t="n"/>
+      <c r="XB1" s="1" t="n"/>
+      <c r="XC1" s="1" t="n"/>
+      <c r="XD1" s="1" t="n"/>
+      <c r="XE1" s="1" t="n"/>
+      <c r="XF1" s="1" t="n"/>
+      <c r="XG1" s="1" t="n"/>
+      <c r="XH1" s="1" t="n"/>
+      <c r="XI1" s="1" t="n"/>
+      <c r="XJ1" s="1" t="n"/>
+      <c r="XK1" s="1" t="n"/>
+      <c r="XL1" s="1" t="n"/>
+      <c r="XM1" s="1" t="n"/>
+      <c r="XN1" s="1" t="n"/>
+      <c r="XO1" s="1" t="n"/>
+      <c r="XP1" s="1" t="n"/>
+      <c r="XQ1" s="1" t="n"/>
+      <c r="XR1" s="1" t="n"/>
+      <c r="XS1" s="1" t="n"/>
+      <c r="XT1" s="1" t="n"/>
+      <c r="XU1" s="1" t="n"/>
+      <c r="XV1" s="1" t="n"/>
+      <c r="XW1" s="1" t="n"/>
+      <c r="XX1" s="1" t="n"/>
+      <c r="XY1" s="1" t="n"/>
+      <c r="XZ1" s="1" t="n"/>
+      <c r="YA1" s="1" t="n"/>
+      <c r="YB1" s="1" t="n"/>
+      <c r="YC1" s="1" t="n"/>
+      <c r="YD1" s="1" t="n"/>
+      <c r="YE1" s="1" t="n"/>
+      <c r="YF1" s="1" t="n"/>
+      <c r="YG1" s="1" t="n"/>
+      <c r="YH1" s="1" t="n"/>
+      <c r="YI1" s="1" t="n"/>
+      <c r="YJ1" s="1" t="n"/>
+      <c r="YK1" s="1" t="n"/>
+      <c r="YL1" s="1" t="n"/>
+      <c r="YM1" s="1" t="n"/>
+      <c r="YN1" s="1" t="n"/>
+      <c r="YO1" s="1" t="n"/>
+      <c r="YP1" s="1" t="n"/>
+      <c r="YQ1" s="1" t="n"/>
+      <c r="YR1" s="1" t="n"/>
+      <c r="YS1" s="1" t="n"/>
+      <c r="YT1" s="1" t="n"/>
+      <c r="YU1" s="1" t="n"/>
+      <c r="YV1" s="1" t="n"/>
+      <c r="YW1" s="1" t="n"/>
+      <c r="YX1" s="1" t="n"/>
+      <c r="YY1" s="1" t="n"/>
+      <c r="YZ1" s="1" t="n"/>
+      <c r="ZA1" s="1" t="n"/>
+      <c r="ZB1" s="1" t="n"/>
+      <c r="ZC1" s="1" t="n"/>
+      <c r="ZD1" s="1" t="n"/>
+      <c r="ZE1" s="1" t="n"/>
+      <c r="ZF1" s="1" t="n"/>
+      <c r="ZG1" s="1" t="n"/>
+      <c r="ZH1" s="1" t="n"/>
+      <c r="ZI1" s="1" t="n"/>
+      <c r="ZJ1" s="1" t="n"/>
+      <c r="ZK1" s="1" t="n"/>
+      <c r="ZL1" s="1" t="n"/>
+      <c r="ZM1" s="1" t="n"/>
+      <c r="ZN1" s="1" t="n"/>
+      <c r="ZO1" s="1" t="n"/>
+      <c r="ZP1" s="1" t="n"/>
+      <c r="ZQ1" s="1" t="n"/>
+      <c r="ZR1" s="1" t="n"/>
+      <c r="ZS1" s="1" t="n"/>
+      <c r="ZT1" s="1" t="n"/>
+      <c r="ZU1" s="1" t="n"/>
+      <c r="ZV1" s="1" t="n"/>
+      <c r="ZW1" s="1" t="n"/>
+      <c r="ZX1" s="1" t="n"/>
+      <c r="ZY1" s="1" t="n"/>
+      <c r="ZZ1" s="1" t="n"/>
+      <c r="AAA1" s="1" t="n"/>
+      <c r="AAB1" s="1" t="n"/>
+      <c r="AAC1" s="1" t="n"/>
+      <c r="AAD1" s="1" t="n"/>
+      <c r="AAE1" s="1" t="n"/>
+      <c r="AAF1" s="1" t="n"/>
+      <c r="AAG1" s="1" t="n"/>
+      <c r="AAH1" s="1" t="n"/>
+      <c r="AAI1" s="1" t="n"/>
+      <c r="AAJ1" s="1" t="n"/>
+      <c r="AAK1" s="1" t="n"/>
+      <c r="AAL1" s="1" t="n"/>
+      <c r="AAM1" s="1" t="n"/>
+      <c r="AAN1" s="1" t="n"/>
+      <c r="AAO1" s="1" t="n"/>
+      <c r="AAP1" s="1" t="n"/>
+      <c r="AAQ1" s="1" t="n"/>
+      <c r="AAR1" s="1" t="n"/>
+      <c r="AAS1" s="1" t="n"/>
+      <c r="AAT1" s="1" t="n"/>
+      <c r="AAU1" s="1" t="n"/>
+      <c r="AAV1" s="1" t="n"/>
+      <c r="AAW1" s="1" t="n"/>
+      <c r="AAX1" s="1" t="n"/>
+      <c r="AAY1" s="1" t="n"/>
+      <c r="AAZ1" s="1" t="n"/>
+      <c r="ABA1" s="1" t="n"/>
+      <c r="ABB1" s="1" t="n"/>
+      <c r="ABC1" s="1" t="n"/>
+      <c r="ABD1" s="1" t="n"/>
+      <c r="ABE1" s="1" t="n"/>
+      <c r="ABF1" s="1" t="n"/>
+      <c r="ABG1" s="1" t="n"/>
+      <c r="ABH1" s="1" t="n"/>
+      <c r="ABI1" s="1" t="n"/>
+      <c r="ABJ1" s="1" t="n"/>
+      <c r="ABK1" s="1" t="n"/>
+      <c r="ABL1" s="1" t="n"/>
+      <c r="ABM1" s="1" t="n"/>
+      <c r="ABN1" s="1" t="n"/>
+      <c r="ABO1" s="1" t="n"/>
+      <c r="ABP1" s="1" t="n"/>
+      <c r="ABQ1" s="1" t="n"/>
+      <c r="ABR1" s="1" t="n"/>
+      <c r="ABS1" s="1" t="n"/>
+      <c r="ABT1" s="1" t="n"/>
+      <c r="ABU1" s="1" t="n"/>
+      <c r="ABV1" s="1" t="n"/>
+      <c r="ABW1" s="1" t="n"/>
+      <c r="ABX1" s="1" t="n"/>
+      <c r="ABY1" s="1" t="n"/>
+      <c r="ABZ1" s="1" t="n"/>
+      <c r="ACA1" s="1" t="n"/>
+      <c r="ACB1" s="1" t="n"/>
+      <c r="ACC1" s="1" t="n"/>
+      <c r="ACD1" s="1" t="n"/>
+      <c r="ACE1" s="1" t="n"/>
+      <c r="ACF1" s="1" t="n"/>
+      <c r="ACG1" s="1" t="n"/>
+      <c r="ACH1" s="1" t="n"/>
+      <c r="ACI1" s="1" t="n"/>
+      <c r="ACJ1" s="1" t="n"/>
+      <c r="ACK1" s="1" t="n"/>
+      <c r="ACL1" s="1" t="n"/>
+      <c r="ACM1" s="1" t="n"/>
+      <c r="ACN1" s="1" t="n"/>
+      <c r="ACO1" s="1" t="n"/>
+      <c r="ACP1" s="1" t="n"/>
+      <c r="ACQ1" s="1" t="n"/>
+      <c r="ACR1" s="1" t="n"/>
+      <c r="ACS1" s="1" t="n"/>
+      <c r="ACT1" s="1" t="n"/>
+      <c r="ACU1" s="1" t="n"/>
+      <c r="ACV1" s="1" t="n"/>
+      <c r="ACW1" s="1" t="n"/>
+      <c r="ACX1" s="1" t="n"/>
+      <c r="ACY1" s="1" t="n"/>
+      <c r="ACZ1" s="1" t="n"/>
+      <c r="ADA1" s="1" t="n"/>
+      <c r="ADB1" s="1" t="n"/>
+      <c r="ADC1" s="1" t="n"/>
+      <c r="ADD1" s="1" t="n"/>
+      <c r="ADE1" s="1" t="n"/>
+      <c r="ADF1" s="1" t="n"/>
+      <c r="ADG1" s="1" t="n"/>
+      <c r="ADH1" s="1" t="n"/>
+      <c r="ADI1" s="1" t="n"/>
+      <c r="ADJ1" s="1" t="n"/>
+      <c r="ADK1" s="1" t="n"/>
+      <c r="ADL1" s="1" t="n"/>
+      <c r="ADM1" s="1" t="n"/>
+      <c r="ADN1" s="1" t="n"/>
+      <c r="ADO1" s="1" t="n"/>
+      <c r="ADP1" s="1" t="n"/>
+      <c r="ADQ1" s="1" t="n"/>
+      <c r="ADR1" s="1" t="n"/>
+      <c r="ADS1" s="1" t="n"/>
+      <c r="ADT1" s="1" t="n"/>
+      <c r="ADU1" s="1" t="n"/>
+      <c r="ADV1" s="1" t="n"/>
+      <c r="ADW1" s="1" t="n"/>
+      <c r="ADX1" s="1" t="n"/>
+      <c r="ADY1" s="1" t="n"/>
+      <c r="ADZ1" s="1" t="n"/>
+      <c r="AEA1" s="1" t="n"/>
+      <c r="AEB1" s="1" t="n"/>
+      <c r="AEC1" s="1" t="n"/>
+      <c r="AED1" s="1" t="n"/>
+      <c r="AEE1" s="1" t="n"/>
+      <c r="AEF1" s="1" t="n"/>
+      <c r="AEG1" s="1" t="n"/>
+      <c r="AEH1" s="1" t="n"/>
+      <c r="AEI1" s="1" t="n"/>
+      <c r="AEJ1" s="1" t="n"/>
+      <c r="AEK1" s="1" t="n"/>
+      <c r="AEL1" s="1" t="n"/>
+      <c r="AEM1" s="1" t="n"/>
+      <c r="AEN1" s="1" t="n"/>
+      <c r="AEO1" s="1" t="n"/>
+      <c r="AEP1" s="1" t="n"/>
+      <c r="AEQ1" s="1" t="n"/>
+      <c r="AER1" s="1" t="n"/>
+      <c r="AES1" s="1" t="n"/>
+      <c r="AET1" s="1" t="n"/>
+      <c r="AEU1" s="1" t="n"/>
+      <c r="AEV1" s="1" t="n"/>
+      <c r="AEW1" s="1" t="n"/>
+      <c r="AEX1" s="1" t="n"/>
+      <c r="AEY1" s="1" t="n"/>
+      <c r="AEZ1" s="1" t="n"/>
+      <c r="AFA1" s="1" t="n"/>
+      <c r="AFB1" s="1" t="n"/>
+      <c r="AFC1" s="1" t="n"/>
+      <c r="AFD1" s="1" t="n"/>
+      <c r="AFE1" s="1" t="n"/>
+      <c r="AFF1" s="1" t="n"/>
+      <c r="AFG1" s="1" t="n"/>
+      <c r="AFH1" s="1" t="n"/>
+      <c r="AFI1" s="1" t="n"/>
+      <c r="AFJ1" s="1" t="n"/>
+      <c r="AFK1" s="1" t="n"/>
+      <c r="AFL1" s="1" t="n"/>
+      <c r="AFM1" s="1" t="n"/>
+      <c r="AFN1" s="1" t="n"/>
+      <c r="AFO1" s="1" t="n"/>
+      <c r="AFP1" s="1" t="n"/>
+      <c r="AFQ1" s="1" t="n"/>
+      <c r="AFR1" s="1" t="n"/>
+      <c r="AFS1" s="1" t="n"/>
+      <c r="AFT1" s="1" t="n"/>
+      <c r="AFU1" s="1" t="n"/>
+      <c r="AFV1" s="1" t="n"/>
+      <c r="AFW1" s="1" t="n"/>
+      <c r="AFX1" s="1" t="n"/>
+      <c r="AFY1" s="1" t="n"/>
+      <c r="AFZ1" s="1" t="n"/>
+      <c r="AGA1" s="1" t="n"/>
+      <c r="AGB1" s="1" t="n"/>
+      <c r="AGC1" s="1" t="n"/>
+      <c r="AGD1" s="1" t="n"/>
+      <c r="AGE1" s="1" t="n"/>
+      <c r="AGF1" s="1" t="n"/>
+      <c r="AGG1" s="1" t="n"/>
+      <c r="AGH1" s="1" t="n"/>
+      <c r="AGI1" s="1" t="n"/>
+      <c r="AGJ1" s="1" t="n"/>
+      <c r="AGK1" s="1" t="n"/>
+      <c r="AGL1" s="1" t="n"/>
+      <c r="AGM1" s="1" t="n"/>
+      <c r="AGN1" s="1" t="n"/>
+      <c r="AGO1" s="1" t="n"/>
+      <c r="AGP1" s="1" t="n"/>
+      <c r="AGQ1" s="1" t="n"/>
+      <c r="AGR1" s="1" t="n"/>
+      <c r="AGS1" s="1" t="n"/>
+      <c r="AGT1" s="1" t="n"/>
+      <c r="AGU1" s="1" t="n"/>
+      <c r="AGV1" s="1" t="n"/>
+      <c r="AGW1" s="1" t="n"/>
+      <c r="AGX1" s="1" t="n"/>
+      <c r="AGY1" s="1" t="n"/>
+      <c r="AGZ1" s="1" t="n"/>
+      <c r="AHA1" s="1" t="n"/>
+      <c r="AHB1" s="1" t="n"/>
+      <c r="AHC1" s="1" t="n"/>
+      <c r="AHD1" s="1" t="n"/>
+      <c r="AHE1" s="1" t="n"/>
+      <c r="AHF1" s="1" t="n"/>
+      <c r="AHG1" s="1" t="n"/>
+      <c r="AHH1" s="1" t="n"/>
+      <c r="AHI1" s="1" t="n"/>
+      <c r="AHJ1" s="1" t="n"/>
+      <c r="AHK1" s="1" t="n"/>
+      <c r="AHL1" s="1" t="n"/>
+      <c r="AHM1" s="1" t="n"/>
+      <c r="AHN1" s="1" t="n"/>
+      <c r="AHO1" s="1" t="n"/>
+      <c r="AHP1" s="1" t="n"/>
+      <c r="AHQ1" s="1" t="n"/>
+      <c r="AHR1" s="1" t="n"/>
+      <c r="AHS1" s="1" t="n"/>
+      <c r="AHT1" s="1" t="n"/>
+      <c r="AHU1" s="1" t="n"/>
+      <c r="AHV1" s="1" t="n"/>
+      <c r="AHW1" s="1" t="n"/>
+      <c r="AHX1" s="1" t="n"/>
+      <c r="AHY1" s="1" t="n"/>
+      <c r="AHZ1" s="1" t="n"/>
+      <c r="AIA1" s="1" t="n"/>
+      <c r="AIB1" s="1" t="n"/>
+      <c r="AIC1" s="1" t="n"/>
+      <c r="AID1" s="1" t="n"/>
+      <c r="AIE1" s="1" t="n"/>
+      <c r="AIF1" s="1" t="n"/>
+      <c r="AIG1" s="1" t="n"/>
+      <c r="AIH1" s="1" t="n"/>
+      <c r="AII1" s="1" t="n"/>
+      <c r="AIJ1" s="1" t="n"/>
+      <c r="AIK1" s="1" t="n"/>
+      <c r="AIL1" s="1" t="n"/>
+      <c r="AIM1" s="1" t="n"/>
+      <c r="AIN1" s="1" t="n"/>
+      <c r="AIO1" s="1" t="n"/>
+      <c r="AIP1" s="1" t="n"/>
+      <c r="AIQ1" s="1" t="n"/>
+      <c r="AIR1" s="1" t="n"/>
+      <c r="AIS1" s="1" t="n"/>
+      <c r="AIT1" s="1" t="n"/>
+      <c r="AIU1" s="1" t="n"/>
+      <c r="AIV1" s="1" t="n"/>
+      <c r="AIW1" s="1" t="n"/>
+      <c r="AIX1" s="1" t="n"/>
+      <c r="AIY1" s="1" t="n"/>
+      <c r="AIZ1" s="1" t="n"/>
+      <c r="AJA1" s="1" t="n"/>
+      <c r="AJB1" s="1" t="n"/>
+      <c r="AJC1" s="1" t="n"/>
+      <c r="AJD1" s="1" t="n"/>
+      <c r="AJE1" s="1" t="n"/>
+      <c r="AJF1" s="1" t="n"/>
+      <c r="AJG1" s="1" t="n"/>
+      <c r="AJH1" s="1" t="n"/>
+      <c r="AJI1" s="1" t="n"/>
+      <c r="AJJ1" s="1" t="n"/>
+      <c r="AJK1" s="1" t="n"/>
+      <c r="AJL1" s="1" t="n"/>
+      <c r="AJM1" s="1" t="n"/>
+      <c r="AJN1" s="1" t="n"/>
+      <c r="AJO1" s="1" t="n"/>
+      <c r="AJP1" s="1" t="n"/>
+      <c r="AJQ1" s="1" t="n"/>
+      <c r="AJR1" s="1" t="n"/>
+      <c r="AJS1" s="1" t="n"/>
+      <c r="AJT1" s="1" t="n"/>
+      <c r="AJU1" s="1" t="n"/>
+      <c r="AJV1" s="1" t="n"/>
+      <c r="AJW1" s="1" t="n"/>
+      <c r="AJX1" s="1" t="n"/>
+      <c r="AJY1" s="1" t="n"/>
+      <c r="AJZ1" s="1" t="n"/>
+      <c r="AKA1" s="1" t="n"/>
+      <c r="AKB1" s="1" t="n"/>
+      <c r="AKC1" s="1" t="n"/>
+      <c r="AKD1" s="1" t="n"/>
+      <c r="AKE1" s="1" t="n"/>
+      <c r="AKF1" s="1" t="n"/>
+      <c r="AKG1" s="1" t="n"/>
+      <c r="AKH1" s="1" t="n"/>
+      <c r="AKI1" s="1" t="n"/>
+      <c r="AKJ1" s="1" t="n"/>
+      <c r="AKK1" s="1" t="n"/>
+      <c r="AKL1" s="1" t="n"/>
+      <c r="AKM1" s="1" t="n"/>
+      <c r="AKN1" s="1" t="n"/>
+      <c r="AKO1" s="1" t="n"/>
+      <c r="AKP1" s="1" t="n"/>
+      <c r="AKQ1" s="1" t="n"/>
+      <c r="AKR1" s="1" t="n"/>
+      <c r="AKS1" s="1" t="n"/>
+      <c r="AKT1" s="1" t="n"/>
+      <c r="AKU1" s="1" t="n"/>
+      <c r="AKV1" s="1" t="n"/>
+      <c r="AKW1" s="1" t="n"/>
+      <c r="AKX1" s="1" t="n"/>
+      <c r="AKY1" s="1" t="n"/>
+      <c r="AKZ1" s="1" t="n"/>
+      <c r="ALA1" s="1" t="n"/>
+      <c r="ALB1" s="1" t="n"/>
+      <c r="ALC1" s="1" t="n"/>
+      <c r="ALD1" s="1" t="n"/>
+      <c r="ALE1" s="1" t="n"/>
+      <c r="ALF1" s="1" t="n"/>
+      <c r="ALG1" s="1" t="n"/>
+      <c r="ALH1" s="1" t="n"/>
+      <c r="ALI1" s="1" t="n"/>
+      <c r="ALJ1" s="1" t="n"/>
+      <c r="ALK1" s="1" t="n"/>
+      <c r="ALL1" s="1" t="n"/>
+      <c r="ALM1" s="1" t="n"/>
+      <c r="ALN1" s="1" t="n"/>
+      <c r="ALO1" s="1" t="n"/>
+      <c r="ALP1" s="1" t="n"/>
+      <c r="ALQ1" s="1" t="n"/>
+      <c r="ALR1" s="1" t="n"/>
+      <c r="ALS1" s="1" t="n"/>
+      <c r="ALT1" s="1" t="n"/>
+      <c r="ALU1" s="1" t="n"/>
+      <c r="ALV1" s="1" t="n"/>
+      <c r="ALW1" s="1" t="n"/>
+      <c r="ALX1" s="1" t="n"/>
+      <c r="ALY1" s="1" t="n"/>
+      <c r="ALZ1" s="1" t="n"/>
+      <c r="AMA1" s="1" t="n"/>
+      <c r="AMB1" s="1" t="n"/>
+      <c r="AMC1" s="1" t="n"/>
+      <c r="AMD1" s="1" t="n"/>
+      <c r="AME1" s="1" t="n"/>
+      <c r="AMF1" s="1" t="n"/>
+      <c r="AMG1" s="1" t="n"/>
+      <c r="AMH1" s="1" t="n"/>
+      <c r="AMI1" s="1" t="n"/>
+      <c r="AMJ1" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="12.8" r="2" s="3" spans="1:30">
-      <c r="A2" s="1" t="s">
+    <row customHeight="1" ht="12.8" r="2" s="4" spans="1:1024">
+      <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row customHeight="1" ht="12.8" r="3" s="4" spans="1:1024">
+      <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="L3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="1" t="n"/>
+      <c r="P3" s="1" t="n"/>
+      <c r="Q3" s="1" t="n"/>
+      <c r="R3" s="1" t="n"/>
+      <c r="S3" s="1" t="n"/>
+      <c r="T3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U3" s="1" t="n"/>
+      <c r="V3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W3" s="1" t="n"/>
+      <c r="X3" s="1" t="n"/>
+      <c r="Y3" s="1" t="n"/>
+      <c r="Z3" s="1" t="n"/>
+      <c r="AA3" s="1" t="n"/>
+      <c r="AB3" s="1" t="n"/>
+      <c r="AC3" s="1" t="n"/>
+      <c r="AD3" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12.8" r="4" s="4" spans="1:1024">
+      <c r="A4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="M4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="O4" s="1" t="n"/>
+      <c r="P4" s="1" t="n"/>
+      <c r="Q4" s="1" t="n"/>
+      <c r="R4" s="1" t="n"/>
+      <c r="S4" s="1" t="n"/>
+      <c r="T4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U4" s="1" t="n"/>
+      <c r="V4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W4" s="1" t="n"/>
+      <c r="X4" s="1" t="n"/>
+      <c r="Y4" s="1" t="n"/>
+      <c r="Z4" s="1" t="n"/>
+      <c r="AA4" s="1" t="n"/>
+      <c r="AB4" s="1" t="n"/>
+      <c r="AC4" s="1" t="n"/>
+      <c r="AD4" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12.8" r="5" s="4" spans="1:1024">
+      <c r="A5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O5" s="1" t="n">
+        <v>0.0147569162288249</v>
+      </c>
+      <c r="P5" s="1" t="n">
+        <v>0.0143547312508319</v>
+      </c>
+      <c r="Q5" s="1" t="n">
+        <v>0.320664559288392</v>
+      </c>
+      <c r="R5" s="1" t="n">
+        <v>0.327398225102127</v>
+      </c>
+      <c r="S5" s="1" t="n">
+        <v>1.08109570290582</v>
+      </c>
+      <c r="T5" s="1" t="n">
+        <v>1.05043944010418</v>
+      </c>
+      <c r="U5" s="1" t="n">
+        <v>0.832040726310373</v>
+      </c>
+      <c r="V5" s="1" t="n">
+        <v>0.808789970418369</v>
+      </c>
+      <c r="W5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="X5" s="1" t="n">
+        <v>0.320664559288392</v>
+      </c>
+      <c r="Y5" s="1" t="n">
+        <v>0.327398225102127</v>
+      </c>
+      <c r="Z5" s="1" t="n">
+        <v>1.08109570290582</v>
+      </c>
+      <c r="AA5" s="1" t="n">
+        <v>1.05043944010418</v>
+      </c>
+      <c r="AB5" s="1" t="n">
+        <v>0.832040726310373</v>
+      </c>
+      <c r="AC5" s="1" t="n">
+        <v>0.808789970418369</v>
+      </c>
+      <c r="AD5" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12.8" r="6" s="4" spans="1:1024">
+      <c r="A6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="O6" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="P6" s="1" t="n">
+        <v>0.0120888109556917</v>
+      </c>
+      <c r="Q6" s="1" t="n">
+        <v>0.0127230114882999</v>
+      </c>
+      <c r="R6" s="1" t="n">
+        <v>0.336188095763189</v>
+      </c>
+      <c r="S6" s="1" t="n">
+        <v>0.338075785321876</v>
+      </c>
+      <c r="T6" s="1" t="n">
+        <v>0.968330456592806</v>
+      </c>
+      <c r="U6" s="1" t="n">
+        <v>0.990161490582946</v>
+      </c>
+      <c r="V6" s="1" t="n">
+        <v>0.750493151020608</v>
+      </c>
+      <c r="W6" s="1" t="n">
+        <v>0.762529933793492</v>
+      </c>
+      <c r="X6" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y6" s="1" t="n">
+        <v>0.336188095763189</v>
+      </c>
+      <c r="Z6" s="1" t="n">
+        <v>0.338075785321876</v>
+      </c>
+      <c r="AA6" s="1" t="n">
+        <v>0.968330456592806</v>
+      </c>
+      <c r="AB6" s="1" t="n">
+        <v>0.990161490582946</v>
+      </c>
+      <c r="AC6" s="1" t="n">
+        <v>0.750493151020608</v>
+      </c>
+      <c r="AD6" s="1" t="n">
+        <v>0.762529933793492</v>
+      </c>
     </row>
-    <row customHeight="1" ht="12.8" r="3" s="3" spans="1:30">
-      <c r="A3" s="1" t="s">
+    <row customHeight="1" ht="12.8" r="7" s="4" spans="1:1024">
+      <c r="A7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="1" t="n"/>
+      <c r="P7" s="1" t="n"/>
+      <c r="Q7" s="1" t="n"/>
+      <c r="R7" s="1" t="n"/>
+      <c r="S7" s="1" t="n"/>
+      <c r="T7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="U7" s="1" t="n"/>
+      <c r="V7" s="1" t="n"/>
+      <c r="W7" s="1" t="n"/>
+      <c r="X7" s="1" t="n"/>
+      <c r="Y7" s="1" t="n"/>
+      <c r="Z7" s="1" t="n"/>
+      <c r="AA7" s="1" t="n"/>
+      <c r="AB7" s="1" t="n"/>
+      <c r="AC7" s="1" t="n"/>
+      <c r="AD7" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12.8" r="8" s="4" spans="1:1024">
+      <c r="A8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="K8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="P8" s="1" t="n">
+        <v>0.0174312383433439</v>
+      </c>
+      <c r="Q8" s="1" t="n">
+        <v>0.0175195837158572</v>
+      </c>
+      <c r="R8" s="1" t="n">
+        <v>0.437467837976917</v>
+      </c>
+      <c r="S8" s="1" t="n">
+        <v>0.426285392308776</v>
+      </c>
+      <c r="T8" s="1" t="n">
+        <v>0.963453129076231</v>
+      </c>
+      <c r="U8" s="1" t="n">
+        <v>0.9901330372577321</v>
+      </c>
+      <c r="V8" s="1" t="n">
+        <v>0.676790046313313</v>
+      </c>
+      <c r="W8" s="1" t="n">
+        <v>0.700154951401606</v>
+      </c>
+      <c r="X8" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y8" s="1" t="n">
+        <v>0.437467837976917</v>
+      </c>
+      <c r="Z8" s="1" t="n">
+        <v>0.426285392308776</v>
+      </c>
+      <c r="AA8" s="1" t="n">
+        <v>0.963453129076231</v>
+      </c>
+      <c r="AB8" s="1" t="n">
+        <v>0.9901330372577321</v>
+      </c>
+      <c r="AC8" s="1" t="n">
+        <v>0.676790046313313</v>
+      </c>
+      <c r="AD8" s="1" t="n">
+        <v>0.700154951401606</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="9" s="4" spans="1:1024">
+      <c r="A9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="M9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="O9" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="P9" s="1" t="n">
+        <v>0.0124097696751434</v>
+      </c>
+      <c r="Q9" s="1" t="n">
+        <v>0.0125256826800685</v>
+      </c>
+      <c r="R9" s="1" t="n">
+        <v>0.40163321816266</v>
+      </c>
+      <c r="S9" s="1" t="n">
+        <v>0.404592196083955</v>
+      </c>
+      <c r="T9" s="1" t="n">
+        <v>0.9590142205073851</v>
+      </c>
+      <c r="U9" s="1" t="n">
+        <v>0.975224861288236</v>
+      </c>
+      <c r="V9" s="1" t="n">
+        <v>0.701282192653581</v>
+      </c>
+      <c r="W9" s="1" t="n">
+        <v>0.7087758839273141</v>
+      </c>
+      <c r="X9" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y9" s="1" t="n">
+        <v>0.40163321816266</v>
+      </c>
+      <c r="Z9" s="1" t="n">
+        <v>0.404592196083955</v>
+      </c>
+      <c r="AA9" s="1" t="n">
+        <v>0.9590142205073851</v>
+      </c>
+      <c r="AB9" s="1" t="n">
+        <v>0.975224861288236</v>
+      </c>
+      <c r="AC9" s="1" t="n">
+        <v>0.701282192653581</v>
+      </c>
+      <c r="AD9" s="1" t="n">
+        <v>0.7087758839273141</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="10" s="4" spans="1:1024">
+      <c r="A10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="O10" s="1" t="n"/>
+      <c r="P10" s="1" t="n"/>
+      <c r="Q10" s="1" t="n"/>
+      <c r="R10" s="1" t="n"/>
+      <c r="S10" s="1" t="n"/>
+      <c r="T10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U10" s="1" t="n"/>
+      <c r="V10" s="1" t="n"/>
+      <c r="W10" s="1" t="n"/>
+      <c r="X10" s="1" t="n"/>
+      <c r="Y10" s="1" t="n"/>
+      <c r="Z10" s="1" t="n"/>
+      <c r="AA10" s="1" t="n"/>
+      <c r="AB10" s="1" t="n"/>
+      <c r="AC10" s="1" t="n"/>
+      <c r="AD10" s="1" t="n"/>
     </row>
-    <row r="4" spans="1:30">
-      <c r="A4" t="s">
+    <row customHeight="1" ht="12.8" r="11" s="4" spans="1:1024">
+      <c r="A11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O11" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="P11" s="1" t="n">
+        <v>0.0102032577022996</v>
+      </c>
+      <c r="Q11" s="1" t="n">
+        <v>0.0102749466249287</v>
+      </c>
+      <c r="R11" s="1" t="n">
+        <v>0.456740547428263</v>
+      </c>
+      <c r="S11" s="1" t="n">
+        <v>0.451415692351035</v>
+      </c>
+      <c r="T11" s="1" t="n">
+        <v>1.06522042445318</v>
+      </c>
+      <c r="U11" s="1" t="n">
+        <v>1.05337215665144</v>
+      </c>
+      <c r="V11" s="1" t="n">
+        <v>0.719663554608052</v>
+      </c>
+      <c r="W11" s="1" t="n">
+        <v>0.715790956472743</v>
+      </c>
+      <c r="X11" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y11" s="1" t="n">
+        <v>0.456740547428263</v>
+      </c>
+      <c r="Z11" s="1" t="n">
+        <v>0.451415692351035</v>
+      </c>
+      <c r="AA11" s="1" t="n">
+        <v>1.06522042445318</v>
+      </c>
+      <c r="AB11" s="1" t="n">
+        <v>1.05337215665144</v>
+      </c>
+      <c r="AC11" s="1" t="n">
+        <v>0.719663554608052</v>
+      </c>
+      <c r="AD11" s="1" t="n">
+        <v>0.715790956472743</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="12" s="4" spans="1:1024">
+      <c r="A12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O12" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="P12" s="1" t="n">
+        <v>0.0345207817226093</v>
+      </c>
+      <c r="Q12" s="1" t="n">
+        <v>0.0365746740334167</v>
+      </c>
+      <c r="R12" s="1" t="n">
+        <v>0.498554240486167</v>
+      </c>
+      <c r="S12" s="1" t="n">
+        <v>0.467389773207494</v>
+      </c>
+      <c r="T12" s="1" t="n">
+        <v>1.0001225144878</v>
+      </c>
+      <c r="U12" s="1" t="n">
+        <v>1.05327854318492</v>
+      </c>
+      <c r="V12" s="1" t="n">
+        <v>0.650836825210125</v>
+      </c>
+      <c r="W12" s="1" t="n">
+        <v>0.703535709254825</v>
+      </c>
+      <c r="X12" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y12" s="1" t="n">
+        <v>0.498554240486167</v>
+      </c>
+      <c r="Z12" s="1" t="n">
+        <v>0.467389773207494</v>
+      </c>
+      <c r="AA12" s="1" t="n">
+        <v>1.0001225144878</v>
+      </c>
+      <c r="AB12" s="1" t="n">
+        <v>1.05327854318492</v>
+      </c>
+      <c r="AC12" s="1" t="n">
+        <v>0.650836825210125</v>
+      </c>
+      <c r="AD12" s="1" t="n">
+        <v>0.703535709254825</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="13" s="4" spans="1:1024">
+      <c r="A13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="I13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="P13" s="1" t="n">
+        <v>0.015138821623382</v>
+      </c>
+      <c r="Q13" s="1" t="n">
+        <v>0.0154135530958838</v>
+      </c>
+      <c r="R13" s="1" t="n">
+        <v>0.452887230757921</v>
+      </c>
+      <c r="S13" s="1" t="n">
+        <v>0.445302155233131</v>
+      </c>
+      <c r="T13" s="1" t="n">
+        <v>0.952162663186192</v>
+      </c>
+      <c r="U13" s="1" t="n">
+        <v>0.97093991954706</v>
+      </c>
+      <c r="V13" s="1" t="n">
+        <v>0.658182018672352</v>
+      </c>
+      <c r="W13" s="1" t="n">
+        <v>0.674630229609804</v>
+      </c>
+      <c r="X13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y13" s="1" t="n">
+        <v>0.452887230757921</v>
+      </c>
+      <c r="Z13" s="1" t="n">
+        <v>0.445302155233131</v>
+      </c>
+      <c r="AA13" s="1" t="n">
+        <v>0.952162663186192</v>
+      </c>
+      <c r="AB13" s="1" t="n">
+        <v>0.97093991954706</v>
+      </c>
+      <c r="AC13" s="1" t="n">
+        <v>0.658182018672352</v>
+      </c>
+      <c r="AD13" s="1" t="n">
+        <v>0.674630229609804</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="14" s="4" spans="1:1024">
+      <c r="A14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="E14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="G14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O14" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="P14" s="1" t="n">
+        <v>0.0194734276568283</v>
+      </c>
+      <c r="Q14" s="1" t="n">
+        <v>0.0196764142635188</v>
+      </c>
+      <c r="R14" s="1" t="n">
+        <v>0.467528608885295</v>
+      </c>
+      <c r="S14" s="1" t="n">
+        <v>0.450936751655163</v>
+      </c>
+      <c r="T14" s="1" t="n">
+        <v>0.983649005226511</v>
+      </c>
+      <c r="U14" s="1" t="n">
+        <v>1.00581490076137</v>
+      </c>
+      <c r="V14" s="1" t="n">
+        <v>0.665567031782205</v>
+      </c>
+      <c r="W14" s="1" t="n">
+        <v>0.6902662346809409</v>
+      </c>
+      <c r="X14" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y14" s="1" t="n">
+        <v>0.467528608885295</v>
+      </c>
+      <c r="Z14" s="1" t="n">
+        <v>0.450936751655163</v>
+      </c>
+      <c r="AA14" s="1" t="n">
+        <v>0.983649005226511</v>
+      </c>
+      <c r="AB14" s="1" t="n">
+        <v>1.00581490076137</v>
+      </c>
+      <c r="AC14" s="1" t="n">
+        <v>0.665567031782205</v>
+      </c>
+      <c r="AD14" s="1" t="n">
+        <v>0.6902662346809409</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="15" s="4" spans="1:1024">
+      <c r="A15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J4" t="s">
+      <c r="H15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K4" t="s">
+      <c r="J15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="K15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O15" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="P15" s="1" t="n">
+        <v>0.0140373317059278</v>
+      </c>
+      <c r="Q15" s="1" t="n">
+        <v>0.0142725928196824</v>
+      </c>
+      <c r="R15" s="1" t="n">
+        <v>0.46063674679605</v>
+      </c>
+      <c r="S15" s="1" t="n">
+        <v>0.443921679109734</v>
+      </c>
+      <c r="T15" s="1" t="n">
+        <v>0.957707001323849</v>
+      </c>
+      <c r="U15" s="1" t="n">
+        <v>0.983151485386334</v>
+      </c>
+      <c r="V15" s="1" t="n">
+        <v>0.6553854541890271</v>
+      </c>
+      <c r="W15" s="1" t="n">
+        <v>0.682546837582758</v>
+      </c>
+      <c r="X15" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y15" s="1" t="n">
+        <v>0.46063674679605</v>
+      </c>
+      <c r="Z15" s="1" t="n">
+        <v>0.443921679109734</v>
+      </c>
+      <c r="AA15" s="1" t="n">
+        <v>0.957707001323849</v>
+      </c>
+      <c r="AB15" s="1" t="n">
+        <v>0.983151485386334</v>
+      </c>
+      <c r="AC15" s="1" t="n">
+        <v>0.6553854541890271</v>
+      </c>
+      <c r="AD15" s="1" t="n">
+        <v>0.682546837582758</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="16" s="4" spans="1:1024">
+      <c r="A16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N4" t="n">
-        <v>2</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.01475691622882485</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.01435473125083192</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.3206645592883923</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.3273982251021271</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.081095702905821</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.05043944010418</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.8320407263103727</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.8087899704183688</v>
-      </c>
-      <c r="W4" t="n">
-        <v>2</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.3206645592883923</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.3273982251021271</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1.081095702905821</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1.05043944010418</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.8320407263103727</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0.8087899704183688</v>
+      <c r="E16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
-      <c r="A5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
+    <row customHeight="1" ht="12.8" r="17" s="4" spans="1:1024">
+      <c r="A17" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1024">
+      <c r="A18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" t="s">
         <v>32</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C18" t="s">
         <v>33</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D18" t="s">
         <v>34</v>
       </c>
-      <c r="F5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s">
         <v>36</v>
       </c>
-      <c r="H5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="G18" t="s">
         <v>37</v>
       </c>
-      <c r="J5" t="s">
+      <c r="H18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18" t="s">
         <v>38</v>
       </c>
-      <c r="K5" t="s">
-        <v>47</v>
-      </c>
-      <c r="L5" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="J18" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" t="s">
+        <v>68</v>
+      </c>
+      <c r="L18" t="s">
+        <v>41</v>
+      </c>
+      <c r="M18" t="s">
+        <v>35</v>
+      </c>
+      <c r="N18" t="s">
+        <v>42</v>
+      </c>
+      <c r="T18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1024">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s">
         <v>34</v>
       </c>
-      <c r="N5" t="s">
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" t="s">
+        <v>68</v>
+      </c>
+      <c r="L19" t="s">
         <v>41</v>
       </c>
-      <c r="O5" t="n">
+      <c r="M19" t="s">
+        <v>35</v>
+      </c>
+      <c r="N19" t="s">
+        <v>42</v>
+      </c>
+      <c r="T19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1024">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20" t="s">
+        <v>68</v>
+      </c>
+      <c r="L20" t="s">
+        <v>41</v>
+      </c>
+      <c r="M20" t="s">
+        <v>35</v>
+      </c>
+      <c r="N20" t="s">
+        <v>71</v>
+      </c>
+      <c r="T20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1024">
+      <c r="A21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21" t="s">
+        <v>68</v>
+      </c>
+      <c r="L21" t="s">
+        <v>41</v>
+      </c>
+      <c r="M21" t="s">
+        <v>35</v>
+      </c>
+      <c r="N21" t="s">
+        <v>71</v>
+      </c>
+      <c r="T21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1024">
+      <c r="A22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22" t="s">
+        <v>68</v>
+      </c>
+      <c r="L22" t="s">
+        <v>41</v>
+      </c>
+      <c r="M22" t="s">
+        <v>35</v>
+      </c>
+      <c r="N22" t="s">
+        <v>42</v>
+      </c>
+      <c r="T22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1024">
+      <c r="A23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" t="s">
+        <v>55</v>
+      </c>
+      <c r="I23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" t="s">
+        <v>39</v>
+      </c>
+      <c r="K23" t="s">
+        <v>68</v>
+      </c>
+      <c r="L23" t="s">
+        <v>41</v>
+      </c>
+      <c r="M23" t="s">
+        <v>35</v>
+      </c>
+      <c r="N23" t="s">
+        <v>71</v>
+      </c>
+      <c r="T23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1024">
+      <c r="A24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" t="s">
+        <v>55</v>
+      </c>
+      <c r="I24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J24" t="s">
+        <v>39</v>
+      </c>
+      <c r="K24" t="s">
+        <v>68</v>
+      </c>
+      <c r="L24" t="s">
+        <v>41</v>
+      </c>
+      <c r="M24" t="s">
+        <v>35</v>
+      </c>
+      <c r="N24" t="s">
+        <v>76</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.0008971383653420662</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.0008671508220647956</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.3321418069543483</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.3532046767150303</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.299506661122764</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.21815398892096</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.9601099022274499</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.8940132413015918</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.3321418069543483</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.3532046767150303</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1.299506661122764</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1.21815398892096</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0.9601099022274499</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0.8940132413015918</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1024">
+      <c r="A25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" t="s">
+        <v>55</v>
+      </c>
+      <c r="I25" t="s">
+        <v>38</v>
+      </c>
+      <c r="J25" t="s">
+        <v>39</v>
+      </c>
+      <c r="K25" t="s">
+        <v>68</v>
+      </c>
+      <c r="L25" t="s">
+        <v>41</v>
+      </c>
+      <c r="M25" t="s">
+        <v>35</v>
+      </c>
+      <c r="N25" t="s">
+        <v>76</v>
+      </c>
+      <c r="O25" t="n">
+        <v>14</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.001005514456556952</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.001009656586520905</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.3214432454889971</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.3139019109083647</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.85727627468417</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.841321367404762</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.289298691401722</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.287876558262734</v>
+      </c>
+      <c r="X25" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.3214432454889971</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.3139019109083647</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>1.85727627468417</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1.841321367404762</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>1.289298691401722</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>1.287876558262734</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1024">
+      <c r="A26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" t="s">
+        <v>45</v>
+      </c>
+      <c r="I26" t="s">
+        <v>38</v>
+      </c>
+      <c r="J26" t="s">
+        <v>39</v>
+      </c>
+      <c r="K26" t="s">
+        <v>68</v>
+      </c>
+      <c r="L26" t="s">
+        <v>41</v>
+      </c>
+      <c r="M26" t="s">
+        <v>35</v>
+      </c>
+      <c r="N26" t="s">
+        <v>76</v>
+      </c>
+      <c r="O26" t="n">
+        <v>20</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.001622601827183239</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.001649940233311824</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.2767085115124972</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.2672538838319073</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.686539828699053</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.703468754598565</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.210837883931625</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.233660577266707</v>
+      </c>
+      <c r="X26" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.2767085115124972</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.2672538838319073</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>1.686539828699053</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>1.703468754598565</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>1.210837883931625</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>1.233660577266707</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1024">
+      <c r="A27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" t="s">
+        <v>80</v>
+      </c>
+      <c r="I27" t="s">
+        <v>38</v>
+      </c>
+      <c r="J27" t="s">
+        <v>39</v>
+      </c>
+      <c r="K27" t="s">
+        <v>68</v>
+      </c>
+      <c r="L27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M27" t="s">
+        <v>35</v>
+      </c>
+      <c r="N27" t="s">
+        <v>76</v>
+      </c>
+      <c r="O27" t="n">
+        <v>27</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.002214226243600233</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.002218018095569851</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.2925351824944853</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.2907355630767937</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.686226088600743</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.691586355786614</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.220512926453609</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.227879501355925</v>
+      </c>
+      <c r="X27" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.2925351824944853</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.2907355630767937</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>1.686226088600743</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>1.691586355786614</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>1.220512926453609</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>1.227879501355925</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1024">
+      <c r="A28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" t="s">
+        <v>37</v>
+      </c>
+      <c r="H28" t="s">
+        <v>82</v>
+      </c>
+      <c r="I28" t="s">
+        <v>38</v>
+      </c>
+      <c r="J28" t="s">
+        <v>39</v>
+      </c>
+      <c r="K28" t="s">
+        <v>68</v>
+      </c>
+      <c r="L28" t="s">
+        <v>41</v>
+      </c>
+      <c r="M28" t="s">
+        <v>35</v>
+      </c>
+      <c r="N28" t="s">
+        <v>76</v>
+      </c>
+      <c r="O28" t="n">
+        <v>27</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.001466459937186783</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.001469973445216829</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.2544846060088556</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.2570371460404886</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.667201405297665</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.671118805652009</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.25717479576823</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.257184300700036</v>
+      </c>
+      <c r="X28" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.2544846060088556</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.2570371460404886</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>1.667201405297665</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>1.671118805652009</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>1.25717479576823</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>1.257184300700036</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1024">
+      <c r="A29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" t="s">
+        <v>84</v>
+      </c>
+      <c r="H29" t="s">
+        <v>45</v>
+      </c>
+      <c r="I29" t="s">
+        <v>38</v>
+      </c>
+      <c r="J29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K29" t="s">
+        <v>68</v>
+      </c>
+      <c r="L29" t="s">
+        <v>41</v>
+      </c>
+      <c r="M29" t="s">
+        <v>35</v>
+      </c>
+      <c r="N29" t="s">
+        <v>76</v>
+      </c>
+      <c r="O29" t="n">
+        <v>13</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.005388529783424152</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.00549659311010813</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.3583231762602231</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.3441316823982005</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.72293500733923</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.733063960081944</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.164090098403102</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.186823351342261</v>
+      </c>
+      <c r="X29" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0.3583231762602231</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0.3441316823982005</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>1.72293500733923</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1.733063960081944</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>1.164090098403102</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>1.186823351342261</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1024">
+      <c r="A30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" t="s">
+        <v>86</v>
+      </c>
+      <c r="H30" t="s">
+        <v>45</v>
+      </c>
+      <c r="I30" t="s">
+        <v>38</v>
+      </c>
+      <c r="J30" t="s">
+        <v>39</v>
+      </c>
+      <c r="K30" t="s">
+        <v>68</v>
+      </c>
+      <c r="L30" t="s">
+        <v>41</v>
+      </c>
+      <c r="M30" t="s">
+        <v>35</v>
+      </c>
+      <c r="N30" t="s">
+        <v>76</v>
+      </c>
+      <c r="O30" t="n">
+        <v>30</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.004404270969405641</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.004544841778075613</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.3639491618406223</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.3456032289936724</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.690492310043494</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.73425835511796</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.137222631565658</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1.18537282684101</v>
+      </c>
+      <c r="X30" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.3639491618406223</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0.3456032289936724</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>1.690492310043494</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>1.73425835511796</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>1.137222631565658</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>1.18537282684101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1024">
+      <c r="A31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" t="s">
+        <v>88</v>
+      </c>
+      <c r="H31" t="s">
+        <v>45</v>
+      </c>
+      <c r="I31" t="s">
+        <v>38</v>
+      </c>
+      <c r="J31" t="s">
+        <v>39</v>
+      </c>
+      <c r="K31" t="s">
+        <v>68</v>
+      </c>
+      <c r="L31" t="s">
+        <v>41</v>
+      </c>
+      <c r="M31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N31" t="s">
+        <v>76</v>
+      </c>
+      <c r="O31" t="n">
+        <v>13</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.003547955700148815</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.003600711041828505</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.3490085089875751</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.3382454960163132</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.710790695222816</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.711962700504483</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.165850657742215</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.180726944018163</v>
+      </c>
+      <c r="X31" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0.3490085089875751</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0.3382454960163132</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>1.710790695222816</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>1.711962700504483</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>1.165850657742215</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>1.180726944018163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1024">
+      <c r="A32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" t="s">
+        <v>90</v>
+      </c>
+      <c r="H32" t="s">
+        <v>45</v>
+      </c>
+      <c r="I32" t="s">
+        <v>38</v>
+      </c>
+      <c r="J32" t="s">
+        <v>39</v>
+      </c>
+      <c r="K32" t="s">
+        <v>68</v>
+      </c>
+      <c r="L32" t="s">
+        <v>41</v>
+      </c>
+      <c r="M32" t="s">
+        <v>35</v>
+      </c>
+      <c r="N32" t="s">
+        <v>76</v>
+      </c>
+      <c r="O32" t="n">
+        <v>30</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.002570309190840508</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.002627398509236737</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.3499725701641429</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.3369211040803885</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.679818055845315</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.704061007986159</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.144317662748447</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.17513506695537</v>
+      </c>
+      <c r="X32" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.3499725701641429</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0.3369211040803885</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>1.679818055845315</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>1.704061007986159</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>1.144317662748447</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>1.17513506695537</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1024">
+      <c r="A33" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" t="s">
+        <v>45</v>
+      </c>
+      <c r="I33" t="s">
+        <v>38</v>
+      </c>
+      <c r="J33" t="s">
+        <v>39</v>
+      </c>
+      <c r="K33" t="s">
+        <v>68</v>
+      </c>
+      <c r="L33" t="s">
+        <v>41</v>
+      </c>
+      <c r="M33" t="s">
+        <v>35</v>
+      </c>
+      <c r="N33" t="s">
+        <v>76</v>
+      </c>
+      <c r="O33" t="n">
+        <v>13</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.002128649445282128</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.002163431969092611</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.3347426989581253</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.3247282894321932</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.699343170569509</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.70282691430885</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.172022944656002</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.188715339822153</v>
+      </c>
+      <c r="X33" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.3347426989581253</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0.3247282894321932</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>1.699343170569509</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>1.70282691430885</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>1.172022944656002</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>1.188715339822153</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1024">
+      <c r="A34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" t="s">
+        <v>84</v>
+      </c>
+      <c r="H34" t="s">
+        <v>80</v>
+      </c>
+      <c r="I34" t="s">
+        <v>38</v>
+      </c>
+      <c r="J34" t="s">
+        <v>39</v>
+      </c>
+      <c r="K34" t="s">
+        <v>68</v>
+      </c>
+      <c r="L34" t="s">
+        <v>41</v>
+      </c>
+      <c r="M34" t="s">
+        <v>35</v>
+      </c>
+      <c r="N34" t="s">
+        <v>76</v>
+      </c>
+      <c r="O34" t="n">
         <v>19</v>
       </c>
-      <c r="P5" t="n">
-        <v>0.01208881095569174</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.01272301148829985</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.3361880957631895</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.3380757853218763</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.9683304565928065</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.9901614905829459</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.7504931510206082</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.762529933793492</v>
-      </c>
-      <c r="X5" t="n">
+      <c r="P34" t="n">
+        <v>0.005519314598529257</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.005657188358931186</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.3635635373699952</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.343732262608001</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.716016721045454</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.740387147660644</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.154612458883939</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.190481195736719</v>
+      </c>
+      <c r="X34" t="n">
         <v>19</v>
       </c>
-      <c r="Y5" t="n">
-        <v>0.3361880957631895</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0.3380757853218763</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.9683304565928065</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0.9901614905829459</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0.7504931510206082</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0.762529933793492</v>
+      <c r="Y34" t="n">
+        <v>0.3635635373699952</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0.343732262608001</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>1.716016721045454</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>1.740387147660644</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>1.154612458883939</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>1.190481195736719</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
-      <c r="A6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="35" spans="1:1024">
+      <c r="A35" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" t="s">
         <v>32</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C35" t="s">
         <v>33</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D35" t="s">
         <v>34</v>
       </c>
-      <c r="F6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="E35" t="s">
+        <v>35</v>
+      </c>
+      <c r="F35" t="s">
         <v>36</v>
       </c>
-      <c r="H6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="G35" t="s">
+        <v>86</v>
+      </c>
+      <c r="H35" t="s">
+        <v>80</v>
+      </c>
+      <c r="I35" t="s">
         <v>38</v>
       </c>
-      <c r="K6" t="s">
-        <v>47</v>
-      </c>
-      <c r="L6" t="s">
-        <v>40</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="J35" t="s">
+        <v>39</v>
+      </c>
+      <c r="K35" t="s">
+        <v>68</v>
+      </c>
+      <c r="L35" t="s">
+        <v>41</v>
+      </c>
+      <c r="M35" t="s">
+        <v>35</v>
+      </c>
+      <c r="N35" t="s">
+        <v>76</v>
+      </c>
+      <c r="O35" t="n">
+        <v>13</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.004774830095000008</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.00484297316717268</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.3525709445733685</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.3410834787361517</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.729928459967146</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.742487621916228</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.175415521844019</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.195736719291976</v>
+      </c>
+      <c r="X35" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.3525709445733685</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0.3410834787361517</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>1.729928459967146</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>1.742487621916228</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>1.175415521844019</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>1.195736719291976</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1024">
+      <c r="A36" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" t="s">
         <v>34</v>
       </c>
-      <c r="N6" t="s">
+      <c r="E36" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" t="s">
+        <v>88</v>
+      </c>
+      <c r="H36" t="s">
+        <v>80</v>
+      </c>
+      <c r="I36" t="s">
+        <v>38</v>
+      </c>
+      <c r="J36" t="s">
+        <v>39</v>
+      </c>
+      <c r="K36" t="s">
+        <v>68</v>
+      </c>
+      <c r="L36" t="s">
         <v>41</v>
       </c>
-      <c r="T6" t="s">
-        <v>42</v>
+      <c r="M36" t="s">
+        <v>35</v>
+      </c>
+      <c r="N36" t="s">
+        <v>76</v>
+      </c>
+      <c r="O36" t="n">
+        <v>16</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.003960653636892673</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.004007766281203431</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.3461874823542374</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.3354495574849167</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.73346889692799</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.740248233895173</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.184941364422011</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.202106413840947</v>
+      </c>
+      <c r="X36" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.3461874823542374</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0.3354495574849167</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>1.73346889692799</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>1.740248233895173</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>1.184941364422011</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>1.202106413840947</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
-      <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="37" spans="1:1024">
+      <c r="A37" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" t="s">
         <v>32</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C37" t="s">
         <v>33</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D37" t="s">
         <v>34</v>
       </c>
-      <c r="F7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="E37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F37" t="s">
         <v>36</v>
       </c>
-      <c r="H7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="G37" t="s">
+        <v>90</v>
+      </c>
+      <c r="H37" t="s">
+        <v>80</v>
+      </c>
+      <c r="I37" t="s">
         <v>38</v>
       </c>
-      <c r="K7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="J37" t="s">
+        <v>39</v>
+      </c>
+      <c r="K37" t="s">
+        <v>68</v>
+      </c>
+      <c r="L37" t="s">
+        <v>41</v>
+      </c>
+      <c r="M37" t="s">
+        <v>35</v>
+      </c>
+      <c r="N37" t="s">
+        <v>76</v>
+      </c>
+      <c r="O37" t="n">
+        <v>26</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.003110023482506943</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.003131484805669289</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.3376784947791496</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.3296054152914714</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.722743152357297</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.730472263719512</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.188265080097416</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.202568899913809</v>
+      </c>
+      <c r="X37" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.3376784947791496</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0.3296054152914714</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>1.722743152357297</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>1.730472263719512</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>1.188265080097416</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>1.202568899913809</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1024">
+      <c r="A38" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" t="s">
         <v>34</v>
       </c>
-      <c r="N7" t="s">
+      <c r="E38" t="s">
+        <v>35</v>
+      </c>
+      <c r="F38" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" t="s">
+        <v>60</v>
+      </c>
+      <c r="H38" t="s">
+        <v>80</v>
+      </c>
+      <c r="I38" t="s">
+        <v>38</v>
+      </c>
+      <c r="J38" t="s">
+        <v>39</v>
+      </c>
+      <c r="K38" t="s">
+        <v>68</v>
+      </c>
+      <c r="L38" t="s">
         <v>41</v>
       </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.01822846664272844</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.01828554407998464</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.3359001690803499</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.3377940555007747</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.137773068408704</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.121484034814455</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0.8598072729054865</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.8483730102831385</v>
-      </c>
-      <c r="X7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0.3359001690803499</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0.3377940555007747</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>1.137773068408704</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>1.121484034814455</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0.8598072729054865</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0.8483730102831385</v>
+      <c r="M38" t="s">
+        <v>35</v>
+      </c>
+      <c r="N38" t="s">
+        <v>76</v>
+      </c>
+      <c r="O38" t="n">
+        <v>12</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.002684247099523619</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.002689911888697702</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.321959706833587</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.3178750867161387</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.745828866539595</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.737836614869499</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1.220857234016669</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.221131409110976</v>
+      </c>
+      <c r="X38" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.321959706833587</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0.3178750867161387</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>1.745828866539595</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>1.737836614869499</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>1.220857234016669</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>1.221131409110976</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1024">
+      <c r="A39" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" t="s">
+        <v>35</v>
+      </c>
+      <c r="F39" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" t="s">
+        <v>58</v>
+      </c>
+      <c r="H39" t="s">
+        <v>80</v>
+      </c>
+      <c r="I39" t="s">
+        <v>38</v>
+      </c>
+      <c r="J39" t="s">
+        <v>39</v>
+      </c>
+      <c r="K39" t="s">
+        <v>68</v>
+      </c>
+      <c r="L39" t="s">
+        <v>41</v>
+      </c>
+      <c r="M39" t="s">
+        <v>35</v>
+      </c>
+      <c r="N39" t="s">
+        <v>76</v>
+      </c>
+      <c r="O39" t="n">
+        <v>30</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.006149960967607998</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.006425445129898985</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.3753847637017195</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.3491349408228048</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.698098000441406</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.750287903929442</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1.130979187755505</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.191490256259329</v>
+      </c>
+      <c r="X39" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.3753847637017195</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0.3491349408228048</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>1.698098000441406</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>1.750287903929442</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>1.130979187755505</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>1.191490256259329</v>
       </c>
     </row>
   </sheetData>

--- a/logs.xlsx
+++ b/logs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="198">
   <si>
     <t>Date</t>
   </si>
@@ -381,6 +381,254 @@
   </si>
   <si>
     <t>&lt;function exp_lr_scheduler at 0x7f5045f50730&gt;</t>
+  </si>
+  <si>
+    <t>December25  15:02:28</t>
+  </si>
+  <si>
+    <t>&lt;function exp_lr_scheduler at 0x7f5045f507b8&gt;</t>
+  </si>
+  <si>
+    <t>December25  15:07:18</t>
+  </si>
+  <si>
+    <t>December25  17:11:25</t>
+  </si>
+  <si>
+    <t>December25  19:18:19</t>
+  </si>
+  <si>
+    <t>December25  21:24:21</t>
+  </si>
+  <si>
+    <t>December27  10:00:03</t>
+  </si>
+  <si>
+    <t>resnet34</t>
+  </si>
+  <si>
+    <t>&lt;function exp_lr_scheduler at 0x7fbd735a4378&gt;</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>December30  06:05:13</t>
+  </si>
+  <si>
+    <t>January02  02:20:49</t>
+  </si>
+  <si>
+    <t>January05  06:45:08</t>
+  </si>
+  <si>
+    <t>January08  14:28:05</t>
+  </si>
+  <si>
+    <t>January11  23:04:13</t>
+  </si>
+  <si>
+    <t>January15  08:39:23</t>
+  </si>
+  <si>
+    <t>KL Divergence Check</t>
+  </si>
+  <si>
+    <t>Softmax Cross Entropy</t>
+  </si>
+  <si>
+    <t>January16  15:55:34</t>
+  </si>
+  <si>
+    <t>&lt;function exp_lr_scheduler at 0x7f6cacf15598&gt;</t>
+  </si>
+  <si>
+    <t>January16  18:41:26</t>
+  </si>
+  <si>
+    <t>January16  20:37:28</t>
+  </si>
+  <si>
+    <t>January16  22:33:11</t>
+  </si>
+  <si>
+    <t>January17  00:28:47</t>
+  </si>
+  <si>
+    <t>KL Divergence</t>
+  </si>
+  <si>
+    <t>January17  02:24:08</t>
+  </si>
+  <si>
+    <t>January17  04:22:33</t>
+  </si>
+  <si>
+    <t>January17  06:20:58</t>
+  </si>
+  <si>
+    <t>January17  08:19:58</t>
+  </si>
+  <si>
+    <t>January17  10:19:00</t>
+  </si>
+  <si>
+    <t>KL Divergence weighted</t>
+  </si>
+  <si>
+    <t>January17  11:23:10</t>
+  </si>
+  <si>
+    <t>January17  13:24:05</t>
+  </si>
+  <si>
+    <t>January17  15:27:39</t>
+  </si>
+  <si>
+    <t>January17  17:30:55</t>
+  </si>
+  <si>
+    <t>January17  19:33:26</t>
+  </si>
+  <si>
+    <t>January17  21:38:27</t>
+  </si>
+  <si>
+    <t>January17  23:43:14</t>
+  </si>
+  <si>
+    <t>January18  01:47:47</t>
+  </si>
+  <si>
+    <t>January18  03:52:03</t>
+  </si>
+  <si>
+    <t>January18  05:56:04</t>
+  </si>
+  <si>
+    <t>January18  08:00:01</t>
+  </si>
+  <si>
+    <t>January18  10:04:25</t>
+  </si>
+  <si>
+    <t>January18  12:08:49</t>
+  </si>
+  <si>
+    <t>January18  14:13:22</t>
+  </si>
+  <si>
+    <t>Sigmoid MAE + CCR</t>
+  </si>
+  <si>
+    <t>January19  10:45:43</t>
+  </si>
+  <si>
+    <t>[ 0.01111111  0.02222222  0.03333333  0.04444444  0.05555556  0.06666667
+  0.07777778  0.08888889  1.          0.08888889  0.07777778  0.06666667
+  0.05555556  0.04444444  0.03333333  0.02222222  0.01111111]</t>
+  </si>
+  <si>
+    <t>&lt;function exp_lr_scheduler at 0x7f9e94ccf598&gt;</t>
+  </si>
+  <si>
+    <t>January19  12:46:15</t>
+  </si>
+  <si>
+    <t>[ 0.02222222  0.04444444  0.06666667  0.08888889  0.11111111  0.13333333
+  0.15555556  0.17777778  1.          0.17777778  0.15555556  0.13333333
+  0.11111111  0.08888889  0.06666667  0.04444444  0.02222222]</t>
+  </si>
+  <si>
+    <t>January19  14:46:54</t>
+  </si>
+  <si>
+    <t>[ 0.03333333  0.06666667  0.1         0.13333333  0.16666667  0.2
+  0.23333333  0.26666667  1.          0.26666667  0.23333333  0.2
+  0.16666667  0.13333333  0.1         0.06666667  0.03333333]</t>
+  </si>
+  <si>
+    <t>January19  16:48:05</t>
+  </si>
+  <si>
+    <t>[ 0.04444444  0.08888889  0.13333333  0.17777778  0.22222222  0.26666667
+  0.31111111  0.35555556  1.          0.35555556  0.31111111  0.26666667
+  0.22222222  0.17777778  0.13333333  0.08888889  0.04444444]</t>
+  </si>
+  <si>
+    <t>January19  18:49:32</t>
+  </si>
+  <si>
+    <t>[ 0.05555556  0.11111111  0.16666667  0.22222222  0.27777778  0.33333333
+  0.38888889  0.44444444  1.          0.44444444  0.38888889  0.33333333
+  0.27777778  0.22222222  0.16666667  0.11111111  0.05555556]</t>
+  </si>
+  <si>
+    <t>January19  20:50:12</t>
+  </si>
+  <si>
+    <t>[ 0.06666667  0.13333333  0.2         0.26666667  0.33333333  0.4
+  0.46666667  0.53333333  1.          0.53333333  0.46666667  0.4
+  0.33333333  0.26666667  0.2         0.13333333  0.06666667]</t>
+  </si>
+  <si>
+    <t>January19  22:50:08</t>
+  </si>
+  <si>
+    <t>[ 0.07777778  0.15555556  0.23333333  0.31111111  0.38888889  0.46666667
+  0.54444444  0.62222222  1.          0.62222222  0.54444444  0.46666667
+  0.38888889  0.31111111  0.23333333  0.15555556  0.07777778]</t>
+  </si>
+  <si>
+    <t>January20  00:49:46</t>
+  </si>
+  <si>
+    <t>[ 0.08888889  0.17777778  0.26666667  0.35555556  0.44444444  0.53333333
+  0.62222222  0.71111111  1.          0.71111111  0.62222222  0.53333333
+  0.44444444  0.35555556  0.26666667  0.17777778  0.08888889]</t>
+  </si>
+  <si>
+    <t>January20  02:49:21</t>
+  </si>
+  <si>
+    <t>[ 0.1  0.2  0.3  0.4  0.5  0.6  0.7  0.8  1.   0.8  0.7  0.6  0.5  0.4  0.3
+  0.2  0.1]</t>
+  </si>
+  <si>
+    <t>January20  16:08:48</t>
+  </si>
+  <si>
+    <t>[ 0.  0.  0.  0.  0.  0.  0.  0.  1.  0.  0.  0.  0.  0.  0.  0.  0.]</t>
+  </si>
+  <si>
+    <t>January20  18:08:16</t>
+  </si>
+  <si>
+    <t>January20  20:07:52</t>
+  </si>
+  <si>
+    <t>January20  22:07:21</t>
+  </si>
+  <si>
+    <t>January21  00:06:48</t>
+  </si>
+  <si>
+    <t>January21  02:06:14</t>
+  </si>
+  <si>
+    <t>January21  04:05:35</t>
+  </si>
+  <si>
+    <t>January21  06:04:54</t>
+  </si>
+  <si>
+    <t>January21  08:04:08</t>
+  </si>
+  <si>
+    <t>January21  10:03:25</t>
+  </si>
+  <si>
+    <t>January21  12:02:50</t>
   </si>
 </sst>
 </file>
@@ -771,34 +1019,31 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AH54"/>
+  <dimension ref="A1:AH115"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="S1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="AH1" activeCellId="0" pane="topLeft" sqref="AG:AH"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A66" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A95" activeCellId="0" pane="topLeft" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="21.4642857142857"/>
-    <col customWidth="1" max="2" min="2" style="1" width="14.3112244897959"/>
-    <col customWidth="1" max="3" min="3" style="1" width="12.4183673469388"/>
-    <col customWidth="1" max="4" min="4" style="1" width="8.505102040816331"/>
-    <col customWidth="1" max="5" min="5" style="1" width="12.5561224489796"/>
-    <col customWidth="1" max="6" min="6" style="1" width="9.719387755102041"/>
-    <col customWidth="1" max="7" min="7" style="1" width="22.4081632653061"/>
-    <col customWidth="1" max="8" min="8" style="1" width="21.4642857142857"/>
-    <col customWidth="1" max="14" min="9" style="1" width="8.505102040816331"/>
-    <col customWidth="1" max="15" min="15" style="1" width="14.0408163265306"/>
-    <col customWidth="1" max="23" min="16" style="1" width="8.505102040816331"/>
-    <col customWidth="1" max="25" min="24" style="1" width="8.505102040816331"/>
-    <col customWidth="1" max="27" min="26" style="1" width="8.505102040816331"/>
-    <col customWidth="1" max="28" min="28" style="1" width="11.6071428571429"/>
-    <col customWidth="1" max="29" min="29" style="1" width="10.2602040816327"/>
-    <col customWidth="1" max="30" min="30" style="1" width="12.6887755102041"/>
-    <col customWidth="1" max="31" min="31" style="1" width="11.6071428571429"/>
-    <col customWidth="1" max="32" min="32" style="1" width="12.6887755102041"/>
-    <col customWidth="1" max="34" min="33" style="1" width="8.505102040816331"/>
-    <col customWidth="1" max="1025" min="35" style="1" width="8.505102040816331"/>
+    <col customWidth="1" max="1" min="1" style="1" width="20.7908163265306"/>
+    <col customWidth="1" max="2" min="2" style="1" width="13.7704081632653"/>
+    <col customWidth="1" max="3" min="3" style="1" width="12.1479591836735"/>
+    <col customWidth="1" max="4" min="4" style="1" width="8.23469387755102"/>
+    <col customWidth="1" max="5" min="5" style="1" width="12.2857142857143"/>
+    <col customWidth="1" max="6" min="6" style="1" width="9.44897959183673"/>
+    <col customWidth="1" max="7" min="7" style="1" width="21.8673469387755"/>
+    <col customWidth="1" max="8" min="8" style="1" width="20.7908163265306"/>
+    <col customWidth="1" max="14" min="9" style="1" width="8.23469387755102"/>
+    <col customWidth="1" max="15" min="15" style="1" width="13.5"/>
+    <col customWidth="1" max="27" min="16" style="1" width="8.23469387755102"/>
+    <col customWidth="1" max="28" min="28" style="1" width="11.0714285714286"/>
+    <col customWidth="1" max="29" min="29" style="1" width="9.989795918367349"/>
+    <col customWidth="1" max="30" min="30" style="1" width="12.4183673469388"/>
+    <col customWidth="1" max="31" min="31" style="1" width="11.0714285714286"/>
+    <col customWidth="1" max="32" min="32" style="1" width="12.4183673469388"/>
+    <col customWidth="1" max="1025" min="33" style="1" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="13.8" r="1" s="5" spans="1:34">
@@ -931,6 +1176,8 @@
       <c r="U2" s="1" t="n"/>
       <c r="V2" s="1" t="n"/>
       <c r="W2" s="1" t="n"/>
+      <c r="X2" s="1" t="n"/>
+      <c r="Y2" s="1" t="n"/>
       <c r="Z2" s="1" t="n"/>
       <c r="AA2" s="1" t="n"/>
       <c r="AB2" s="1" t="n"/>
@@ -938,6 +1185,8 @@
       <c r="AD2" s="1" t="n"/>
       <c r="AE2" s="1" t="n"/>
       <c r="AF2" s="1" t="n"/>
+      <c r="AG2" s="1" t="n"/>
+      <c r="AH2" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="3" s="5" spans="1:34">
       <c r="A3" s="1" t="s">
@@ -986,6 +1235,10 @@
       <c r="V3" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="X3" s="1" t="n"/>
+      <c r="Y3" s="1" t="n"/>
+      <c r="AG3" s="1" t="n"/>
+      <c r="AH3" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="4" s="5" spans="1:34">
       <c r="A4" s="1" t="s">
@@ -1036,6 +1289,10 @@
       <c r="V4" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="X4" s="1" t="n"/>
+      <c r="Y4" s="1" t="n"/>
+      <c r="AG4" s="1" t="n"/>
+      <c r="AH4" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="5" s="5" spans="1:34">
       <c r="A5" s="1" t="s">
@@ -1107,6 +1364,8 @@
       <c r="W5" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="X5" s="1" t="n"/>
+      <c r="Y5" s="1" t="n"/>
       <c r="Z5" s="1" t="n">
         <v>0.320664559288392</v>
       </c>
@@ -1125,6 +1384,8 @@
       <c r="AE5" s="1" t="n">
         <v>0.808789970418369</v>
       </c>
+      <c r="AG5" s="1" t="n"/>
+      <c r="AH5" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="6" s="5" spans="1:34">
       <c r="A6" s="1" t="s">
@@ -1196,6 +1457,8 @@
       <c r="W6" s="1" t="n">
         <v>0.762529933793492</v>
       </c>
+      <c r="X6" s="1" t="n"/>
+      <c r="Y6" s="1" t="n"/>
       <c r="Z6" s="1" t="n">
         <v>19</v>
       </c>
@@ -1217,6 +1480,8 @@
       <c r="AF6" s="1" t="n">
         <v>0.762529933793492</v>
       </c>
+      <c r="AG6" s="1" t="n"/>
+      <c r="AH6" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="7" s="5" spans="1:34">
       <c r="A7" s="1" t="s">
@@ -1264,6 +1529,10 @@
       <c r="T7" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="X7" s="1" t="n"/>
+      <c r="Y7" s="1" t="n"/>
+      <c r="AG7" s="1" t="n"/>
+      <c r="AH7" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="8" s="5" spans="1:34">
       <c r="A8" s="1" t="s">
@@ -1335,6 +1604,8 @@
       <c r="W8" s="1" t="n">
         <v>0.700154951401606</v>
       </c>
+      <c r="X8" s="1" t="n"/>
+      <c r="Y8" s="1" t="n"/>
       <c r="Z8" s="1" t="n">
         <v>27</v>
       </c>
@@ -1356,6 +1627,8 @@
       <c r="AF8" s="1" t="n">
         <v>0.700154951401606</v>
       </c>
+      <c r="AG8" s="1" t="n"/>
+      <c r="AH8" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="9" s="5" spans="1:34">
       <c r="A9" s="1" t="s">
@@ -1427,6 +1700,8 @@
       <c r="W9" s="1" t="n">
         <v>0.7087758839273141</v>
       </c>
+      <c r="X9" s="1" t="n"/>
+      <c r="Y9" s="1" t="n"/>
       <c r="Z9" s="1" t="n">
         <v>24</v>
       </c>
@@ -1448,6 +1723,8 @@
       <c r="AF9" s="1" t="n">
         <v>0.7087758839273141</v>
       </c>
+      <c r="AG9" s="1" t="n"/>
+      <c r="AH9" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="10" s="5" spans="1:34">
       <c r="A10" s="1" t="s">
@@ -1495,6 +1772,10 @@
       <c r="T10" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="X10" s="1" t="n"/>
+      <c r="Y10" s="1" t="n"/>
+      <c r="AG10" s="1" t="n"/>
+      <c r="AH10" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="11" s="5" spans="1:34">
       <c r="A11" s="1" t="s">
@@ -1566,6 +1847,8 @@
       <c r="W11" s="1" t="n">
         <v>0.715790956472743</v>
       </c>
+      <c r="X11" s="1" t="n"/>
+      <c r="Y11" s="1" t="n"/>
       <c r="Z11" s="1" t="n">
         <v>11</v>
       </c>
@@ -1587,6 +1870,8 @@
       <c r="AF11" s="1" t="n">
         <v>0.715790956472743</v>
       </c>
+      <c r="AG11" s="1" t="n"/>
+      <c r="AH11" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="12" s="5" spans="1:34">
       <c r="A12" s="1" t="s">
@@ -1658,6 +1943,8 @@
       <c r="W12" s="1" t="n">
         <v>0.703535709254825</v>
       </c>
+      <c r="X12" s="1" t="n"/>
+      <c r="Y12" s="1" t="n"/>
       <c r="Z12" s="1" t="n">
         <v>29</v>
       </c>
@@ -1679,6 +1966,8 @@
       <c r="AF12" s="1" t="n">
         <v>0.703535709254825</v>
       </c>
+      <c r="AG12" s="1" t="n"/>
+      <c r="AH12" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="13" s="5" spans="1:34">
       <c r="A13" s="1" t="s">
@@ -1750,6 +2039,8 @@
       <c r="W13" s="1" t="n">
         <v>0.674630229609804</v>
       </c>
+      <c r="X13" s="1" t="n"/>
+      <c r="Y13" s="1" t="n"/>
       <c r="Z13" s="1" t="n">
         <v>12</v>
       </c>
@@ -1771,6 +2062,8 @@
       <c r="AF13" s="1" t="n">
         <v>0.674630229609804</v>
       </c>
+      <c r="AG13" s="1" t="n"/>
+      <c r="AH13" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="14" s="5" spans="1:34">
       <c r="A14" s="1" t="s">
@@ -1842,6 +2135,8 @@
       <c r="W14" s="1" t="n">
         <v>0.6902662346809409</v>
       </c>
+      <c r="X14" s="1" t="n"/>
+      <c r="Y14" s="1" t="n"/>
       <c r="Z14" s="1" t="n">
         <v>28</v>
       </c>
@@ -1863,6 +2158,8 @@
       <c r="AF14" s="1" t="n">
         <v>0.6902662346809409</v>
       </c>
+      <c r="AG14" s="1" t="n"/>
+      <c r="AH14" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="15" s="5" spans="1:34">
       <c r="A15" s="1" t="s">
@@ -1934,6 +2231,8 @@
       <c r="W15" s="1" t="n">
         <v>0.682546837582758</v>
       </c>
+      <c r="X15" s="1" t="n"/>
+      <c r="Y15" s="1" t="n"/>
       <c r="Z15" s="1" t="n">
         <v>19</v>
       </c>
@@ -1955,6 +2254,8 @@
       <c r="AF15" s="1" t="n">
         <v>0.682546837582758</v>
       </c>
+      <c r="AG15" s="1" t="n"/>
+      <c r="AH15" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="16" s="5" spans="1:34">
       <c r="A16" s="1" t="s">
@@ -2002,11 +2303,19 @@
       <c r="T16" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="X16" s="1" t="n"/>
+      <c r="Y16" s="1" t="n"/>
+      <c r="AG16" s="1" t="n"/>
+      <c r="AH16" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="17" s="5" spans="1:34">
       <c r="A17" s="3" t="s">
         <v>68</v>
       </c>
+      <c r="X17" s="1" t="n"/>
+      <c r="Y17" s="1" t="n"/>
+      <c r="AG17" s="1" t="n"/>
+      <c r="AH17" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="18" s="5" spans="1:34">
       <c r="A18" s="1" t="s">
@@ -2054,6 +2363,10 @@
       <c r="T18" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="X18" s="1" t="n"/>
+      <c r="Y18" s="1" t="n"/>
+      <c r="AG18" s="1" t="n"/>
+      <c r="AH18" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="19" s="5" spans="1:34">
       <c r="A19" s="1" t="s">
@@ -2101,6 +2414,10 @@
       <c r="T19" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="X19" s="1" t="n"/>
+      <c r="Y19" s="1" t="n"/>
+      <c r="AG19" s="1" t="n"/>
+      <c r="AH19" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="20" s="5" spans="1:34">
       <c r="A20" s="1" t="s">
@@ -2148,6 +2465,10 @@
       <c r="T20" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="X20" s="1" t="n"/>
+      <c r="Y20" s="1" t="n"/>
+      <c r="AG20" s="1" t="n"/>
+      <c r="AH20" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="21" s="5" spans="1:34">
       <c r="A21" s="1" t="s">
@@ -2195,6 +2516,10 @@
       <c r="T21" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="X21" s="1" t="n"/>
+      <c r="Y21" s="1" t="n"/>
+      <c r="AG21" s="1" t="n"/>
+      <c r="AH21" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="22" s="5" spans="1:34">
       <c r="A22" s="1" t="s">
@@ -2242,6 +2567,10 @@
       <c r="T22" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="X22" s="1" t="n"/>
+      <c r="Y22" s="1" t="n"/>
+      <c r="AG22" s="1" t="n"/>
+      <c r="AH22" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="23" s="5" spans="1:34">
       <c r="A23" s="1" t="s">
@@ -2289,6 +2618,10 @@
       <c r="T23" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="X23" s="1" t="n"/>
+      <c r="Y23" s="1" t="n"/>
+      <c r="AG23" s="1" t="n"/>
+      <c r="AH23" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="24" s="5" spans="1:34">
       <c r="A24" s="1" t="s">
@@ -2360,6 +2693,8 @@
       <c r="W24" s="1" t="n">
         <v>0.894013241301592</v>
       </c>
+      <c r="X24" s="1" t="n"/>
+      <c r="Y24" s="1" t="n"/>
       <c r="Z24" s="1" t="n">
         <v>1</v>
       </c>
@@ -2381,6 +2716,8 @@
       <c r="AF24" s="1" t="n">
         <v>0.894013241301592</v>
       </c>
+      <c r="AG24" s="1" t="n"/>
+      <c r="AH24" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="25" s="5" spans="1:34">
       <c r="A25" s="1" t="s">
@@ -2452,6 +2789,8 @@
       <c r="W25" s="1" t="n">
         <v>1.28787655826273</v>
       </c>
+      <c r="X25" s="1" t="n"/>
+      <c r="Y25" s="1" t="n"/>
       <c r="Z25" s="1" t="n">
         <v>14</v>
       </c>
@@ -2473,6 +2812,8 @@
       <c r="AF25" s="1" t="n">
         <v>1.28787655826273</v>
       </c>
+      <c r="AG25" s="1" t="n"/>
+      <c r="AH25" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="26" s="5" spans="1:34">
       <c r="A26" s="1" t="s">
@@ -2544,6 +2885,8 @@
       <c r="W26" s="1" t="n">
         <v>1.23366057726671</v>
       </c>
+      <c r="X26" s="1" t="n"/>
+      <c r="Y26" s="1" t="n"/>
       <c r="Z26" s="1" t="n">
         <v>20</v>
       </c>
@@ -2565,6 +2908,8 @@
       <c r="AF26" s="1" t="n">
         <v>1.23366057726671</v>
       </c>
+      <c r="AG26" s="1" t="n"/>
+      <c r="AH26" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="35.2" r="27" s="5" spans="1:34">
       <c r="A27" s="1" t="s">
@@ -2636,6 +2981,8 @@
       <c r="W27" s="1" t="n">
         <v>1.22787950135593</v>
       </c>
+      <c r="X27" s="1" t="n"/>
+      <c r="Y27" s="1" t="n"/>
       <c r="Z27" s="1" t="n">
         <v>27</v>
       </c>
@@ -2657,6 +3004,8 @@
       <c r="AF27" s="1" t="n">
         <v>1.22787950135593</v>
       </c>
+      <c r="AG27" s="1" t="n"/>
+      <c r="AH27" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="35.2" r="28" s="5" spans="1:34">
       <c r="A28" s="1" t="s">
@@ -2728,6 +3077,8 @@
       <c r="W28" s="1" t="n">
         <v>1.25718430070004</v>
       </c>
+      <c r="X28" s="1" t="n"/>
+      <c r="Y28" s="1" t="n"/>
       <c r="Z28" s="1" t="n">
         <v>27</v>
       </c>
@@ -2749,6 +3100,8 @@
       <c r="AF28" s="1" t="n">
         <v>1.25718430070004</v>
       </c>
+      <c r="AG28" s="1" t="n"/>
+      <c r="AH28" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="29" s="5" spans="1:34">
       <c r="A29" s="1" t="s">
@@ -2820,6 +3173,8 @@
       <c r="W29" s="1" t="n">
         <v>1.18682335134226</v>
       </c>
+      <c r="X29" s="1" t="n"/>
+      <c r="Y29" s="1" t="n"/>
       <c r="Z29" s="1" t="n">
         <v>13</v>
       </c>
@@ -2841,6 +3196,8 @@
       <c r="AF29" s="1" t="n">
         <v>1.18682335134226</v>
       </c>
+      <c r="AG29" s="1" t="n"/>
+      <c r="AH29" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="30" s="5" spans="1:34">
       <c r="A30" s="1" t="s">
@@ -2912,6 +3269,8 @@
       <c r="W30" s="1" t="n">
         <v>1.18537282684101</v>
       </c>
+      <c r="X30" s="1" t="n"/>
+      <c r="Y30" s="1" t="n"/>
       <c r="Z30" s="1" t="n">
         <v>30</v>
       </c>
@@ -2933,6 +3292,8 @@
       <c r="AF30" s="1" t="n">
         <v>1.18537282684101</v>
       </c>
+      <c r="AG30" s="1" t="n"/>
+      <c r="AH30" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="31" s="5" spans="1:34">
       <c r="A31" s="1" t="s">
@@ -3004,6 +3365,8 @@
       <c r="W31" s="1" t="n">
         <v>1.18072694401816</v>
       </c>
+      <c r="X31" s="1" t="n"/>
+      <c r="Y31" s="1" t="n"/>
       <c r="Z31" s="1" t="n">
         <v>13</v>
       </c>
@@ -3025,6 +3388,8 @@
       <c r="AF31" s="1" t="n">
         <v>1.18072694401816</v>
       </c>
+      <c r="AG31" s="1" t="n"/>
+      <c r="AH31" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="32" s="5" spans="1:34">
       <c r="A32" s="1" t="s">
@@ -3096,6 +3461,8 @@
       <c r="W32" s="1" t="n">
         <v>1.17513506695537</v>
       </c>
+      <c r="X32" s="1" t="n"/>
+      <c r="Y32" s="1" t="n"/>
       <c r="Z32" s="1" t="n">
         <v>30</v>
       </c>
@@ -3117,6 +3484,8 @@
       <c r="AF32" s="1" t="n">
         <v>1.17513506695537</v>
       </c>
+      <c r="AG32" s="1" t="n"/>
+      <c r="AH32" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="33" s="5" spans="1:34">
       <c r="A33" s="1" t="s">
@@ -3188,6 +3557,8 @@
       <c r="W33" s="1" t="n">
         <v>1.18871533982215</v>
       </c>
+      <c r="X33" s="1" t="n"/>
+      <c r="Y33" s="1" t="n"/>
       <c r="Z33" s="1" t="n">
         <v>13</v>
       </c>
@@ -3209,6 +3580,8 @@
       <c r="AF33" s="1" t="n">
         <v>1.18871533982215</v>
       </c>
+      <c r="AG33" s="1" t="n"/>
+      <c r="AH33" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="35.2" r="34" s="5" spans="1:34">
       <c r="A34" s="1" t="s">
@@ -3280,6 +3653,8 @@
       <c r="W34" s="1" t="n">
         <v>1.19048119573672</v>
       </c>
+      <c r="X34" s="1" t="n"/>
+      <c r="Y34" s="1" t="n"/>
       <c r="Z34" s="1" t="n">
         <v>19</v>
       </c>
@@ -3301,6 +3676,8 @@
       <c r="AF34" s="1" t="n">
         <v>1.19048119573672</v>
       </c>
+      <c r="AG34" s="1" t="n"/>
+      <c r="AH34" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="35.2" r="35" s="5" spans="1:34">
       <c r="A35" s="1" t="s">
@@ -3372,6 +3749,8 @@
       <c r="W35" s="1" t="n">
         <v>1.19573671929198</v>
       </c>
+      <c r="X35" s="1" t="n"/>
+      <c r="Y35" s="1" t="n"/>
       <c r="Z35" s="1" t="n">
         <v>13</v>
       </c>
@@ -3393,6 +3772,8 @@
       <c r="AF35" s="1" t="n">
         <v>1.19573671929198</v>
       </c>
+      <c r="AG35" s="1" t="n"/>
+      <c r="AH35" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="35.2" r="36" s="5" spans="1:34">
       <c r="A36" s="1" t="s">
@@ -3464,6 +3845,8 @@
       <c r="W36" s="1" t="n">
         <v>1.20210641384095</v>
       </c>
+      <c r="X36" s="1" t="n"/>
+      <c r="Y36" s="1" t="n"/>
       <c r="Z36" s="1" t="n">
         <v>16</v>
       </c>
@@ -3485,6 +3868,8 @@
       <c r="AF36" s="1" t="n">
         <v>1.20210641384095</v>
       </c>
+      <c r="AG36" s="1" t="n"/>
+      <c r="AH36" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="35.2" r="37" s="5" spans="1:34">
       <c r="A37" s="1" t="s">
@@ -3556,6 +3941,8 @@
       <c r="W37" s="1" t="n">
         <v>1.20256889991381</v>
       </c>
+      <c r="X37" s="1" t="n"/>
+      <c r="Y37" s="1" t="n"/>
       <c r="Z37" s="1" t="n">
         <v>26</v>
       </c>
@@ -3577,6 +3964,8 @@
       <c r="AF37" s="1" t="n">
         <v>1.20256889991381</v>
       </c>
+      <c r="AG37" s="1" t="n"/>
+      <c r="AH37" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="35.2" r="38" s="5" spans="1:34">
       <c r="A38" s="1" t="s">
@@ -3648,6 +4037,8 @@
       <c r="W38" s="1" t="n">
         <v>1.22113140911098</v>
       </c>
+      <c r="X38" s="1" t="n"/>
+      <c r="Y38" s="1" t="n"/>
       <c r="Z38" s="1" t="n">
         <v>12</v>
       </c>
@@ -3669,6 +4060,8 @@
       <c r="AF38" s="1" t="n">
         <v>1.22113140911098</v>
       </c>
+      <c r="AG38" s="1" t="n"/>
+      <c r="AH38" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="35.2" r="39" s="5" spans="1:34">
       <c r="A39" s="1" t="s">
@@ -3740,6 +4133,8 @@
       <c r="W39" s="1" t="n">
         <v>1.19149025625933</v>
       </c>
+      <c r="X39" s="1" t="n"/>
+      <c r="Y39" s="1" t="n"/>
       <c r="Z39" s="1" t="n">
         <v>30</v>
       </c>
@@ -3761,6 +4156,8 @@
       <c r="AF39" s="1" t="n">
         <v>1.19149025625933</v>
       </c>
+      <c r="AG39" s="1" t="n"/>
+      <c r="AH39" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="35.2" r="40" s="5" spans="1:34">
       <c r="A40" s="1" t="s">
@@ -3805,9 +4202,28 @@
       <c r="N40" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="O40" s="1" t="n"/>
+      <c r="P40" s="1" t="n"/>
+      <c r="Q40" s="1" t="n"/>
+      <c r="R40" s="1" t="n"/>
+      <c r="S40" s="1" t="n"/>
       <c r="T40" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="U40" s="1" t="n"/>
+      <c r="V40" s="1" t="n"/>
+      <c r="W40" s="1" t="n"/>
+      <c r="X40" s="1" t="n"/>
+      <c r="Y40" s="1" t="n"/>
+      <c r="Z40" s="1" t="n"/>
+      <c r="AA40" s="1" t="n"/>
+      <c r="AB40" s="1" t="n"/>
+      <c r="AC40" s="1" t="n"/>
+      <c r="AD40" s="1" t="n"/>
+      <c r="AE40" s="1" t="n"/>
+      <c r="AF40" s="1" t="n"/>
+      <c r="AG40" s="1" t="n"/>
+      <c r="AH40" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="35.2" r="41" s="5" spans="1:34">
       <c r="A41" s="1" t="s">
@@ -3852,9 +4268,28 @@
       <c r="N41" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="O41" s="1" t="n"/>
+      <c r="P41" s="1" t="n"/>
+      <c r="Q41" s="1" t="n"/>
+      <c r="R41" s="1" t="n"/>
+      <c r="S41" s="1" t="n"/>
       <c r="T41" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="U41" s="1" t="n"/>
+      <c r="V41" s="1" t="n"/>
+      <c r="W41" s="1" t="n"/>
+      <c r="X41" s="1" t="n"/>
+      <c r="Y41" s="1" t="n"/>
+      <c r="Z41" s="1" t="n"/>
+      <c r="AA41" s="1" t="n"/>
+      <c r="AB41" s="1" t="n"/>
+      <c r="AC41" s="1" t="n"/>
+      <c r="AD41" s="1" t="n"/>
+      <c r="AE41" s="1" t="n"/>
+      <c r="AF41" s="1" t="n"/>
+      <c r="AG41" s="1" t="n"/>
+      <c r="AH41" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="35.2" r="42" s="5" spans="1:34">
       <c r="A42" s="1" t="s">
@@ -3899,800 +4334,6919 @@
       <c r="N42" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="O42" s="1" t="n"/>
+      <c r="P42" s="1" t="n"/>
+      <c r="Q42" s="1" t="n"/>
+      <c r="R42" s="1" t="n"/>
+      <c r="S42" s="1" t="n"/>
       <c r="T42" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="43" spans="1:34">
-      <c r="A43" t="s">
+      <c r="U42" s="1" t="n"/>
+      <c r="V42" s="1" t="n"/>
+      <c r="W42" s="1" t="n"/>
+      <c r="X42" s="1" t="n"/>
+      <c r="Y42" s="1" t="n"/>
+      <c r="Z42" s="1" t="n"/>
+      <c r="AA42" s="1" t="n"/>
+      <c r="AB42" s="1" t="n"/>
+      <c r="AC42" s="1" t="n"/>
+      <c r="AD42" s="1" t="n"/>
+      <c r="AE42" s="1" t="n"/>
+      <c r="AF42" s="1" t="n"/>
+      <c r="AG42" s="1" t="n"/>
+      <c r="AH42" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12.8" r="43" s="5" spans="1:34">
+      <c r="A43" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E43" t="s">
-        <v>37</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="E43" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J43" t="s">
+      <c r="J43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K43" t="s">
+      <c r="K43" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L43" t="s">
+      <c r="L43" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M43" t="s">
-        <v>37</v>
-      </c>
-      <c r="N43" t="s">
+      <c r="M43" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N43" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="O43" t="n">
+      <c r="O43" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P43" t="n">
-        <v>-44772.16459337108</v>
-      </c>
-      <c r="Q43" t="n">
+      <c r="P43" s="1" t="n">
+        <v>-44772.1645933711</v>
+      </c>
+      <c r="Q43" s="1" t="n">
         <v>-973117.502238853</v>
       </c>
-      <c r="R43" t="n">
-        <v>0.1863989331056313</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0.1848052302970422</v>
-      </c>
-      <c r="T43" t="n">
-        <v>2.425541628485819</v>
-      </c>
-      <c r="U43" t="n">
-        <v>2.435784191981308</v>
-      </c>
-      <c r="V43" t="n">
-        <v>1.849110653564616</v>
-      </c>
-      <c r="W43" t="n">
-        <v>1.859551388509323</v>
-      </c>
-      <c r="X43" t="n">
+      <c r="R43" s="1" t="n">
+        <v>0.186398933105631</v>
+      </c>
+      <c r="S43" s="1" t="n">
+        <v>0.184805230297042</v>
+      </c>
+      <c r="T43" s="1" t="n">
+        <v>2.42554162848582</v>
+      </c>
+      <c r="U43" s="1" t="n">
+        <v>2.43578419198131</v>
+      </c>
+      <c r="V43" s="1" t="n">
+        <v>1.84911065356462</v>
+      </c>
+      <c r="W43" s="1" t="n">
+        <v>1.85955138850932</v>
+      </c>
+      <c r="X43" s="1" t="n">
         <v>0.512777253665154</v>
       </c>
-      <c r="Y43" t="n">
-        <v>0.5090710336563729</v>
-      </c>
-      <c r="Z43" t="n">
+      <c r="Y43" s="1" t="n">
+        <v>0.509071033656373</v>
+      </c>
+      <c r="Z43" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AA43" t="n">
-        <v>0.1863989331056313</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>0.1848052302970422</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>2.425541628485819</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>2.435784191981308</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>1.849110653564616</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>1.859551388509323</v>
-      </c>
-      <c r="AG43" t="n">
+      <c r="AA43" s="1" t="n">
+        <v>0.186398933105631</v>
+      </c>
+      <c r="AB43" s="1" t="n">
+        <v>0.184805230297042</v>
+      </c>
+      <c r="AC43" s="1" t="n">
+        <v>2.42554162848582</v>
+      </c>
+      <c r="AD43" s="1" t="n">
+        <v>2.43578419198131</v>
+      </c>
+      <c r="AE43" s="1" t="n">
+        <v>1.84911065356462</v>
+      </c>
+      <c r="AF43" s="1" t="n">
+        <v>1.85955138850932</v>
+      </c>
+      <c r="AG43" s="1" t="n">
         <v>0.512777253665154</v>
       </c>
-      <c r="AH43" t="n">
-        <v>0.5090710336563729</v>
-      </c>
-    </row>
-    <row r="44" spans="1:34">
-      <c r="A44" t="s">
+      <c r="AH43" s="1" t="n">
+        <v>0.509071033656373</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="44" s="5" spans="1:34">
+      <c r="A44" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E44" t="s">
-        <v>37</v>
-      </c>
-      <c r="F44" t="s">
+      <c r="E44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J44" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K44" t="s">
+      <c r="K44" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L44" t="s">
+      <c r="L44" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M44" t="s">
-        <v>37</v>
-      </c>
-      <c r="N44" t="s">
+      <c r="M44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N44" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="T44" t="s">
+      <c r="O44" s="1" t="n"/>
+      <c r="P44" s="1" t="n"/>
+      <c r="Q44" s="1" t="n"/>
+      <c r="R44" s="1" t="n"/>
+      <c r="S44" s="1" t="n"/>
+      <c r="T44" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="45" spans="1:34">
-      <c r="A45" t="s">
+      <c r="U44" s="1" t="n"/>
+      <c r="V44" s="1" t="n"/>
+      <c r="W44" s="1" t="n"/>
+      <c r="X44" s="1" t="n"/>
+      <c r="Y44" s="1" t="n"/>
+      <c r="Z44" s="1" t="n"/>
+      <c r="AA44" s="1" t="n"/>
+      <c r="AB44" s="1" t="n"/>
+      <c r="AC44" s="1" t="n"/>
+      <c r="AD44" s="1" t="n"/>
+      <c r="AE44" s="1" t="n"/>
+      <c r="AF44" s="1" t="n"/>
+      <c r="AG44" s="1" t="n"/>
+      <c r="AH44" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12.8" r="45" s="5" spans="1:34">
+      <c r="A45" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E45" t="s">
-        <v>37</v>
-      </c>
-      <c r="F45" t="s">
+      <c r="E45" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J45" t="s">
+      <c r="J45" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K45" t="s">
+      <c r="K45" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L45" t="s">
+      <c r="L45" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M45" t="s">
-        <v>37</v>
-      </c>
-      <c r="N45" t="s">
+      <c r="M45" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N45" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="T45" t="s">
+      <c r="O45" s="1" t="n"/>
+      <c r="P45" s="1" t="n"/>
+      <c r="Q45" s="1" t="n"/>
+      <c r="R45" s="1" t="n"/>
+      <c r="S45" s="1" t="n"/>
+      <c r="T45" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="46" spans="1:34">
-      <c r="A46" t="s">
+      <c r="U45" s="1" t="n"/>
+      <c r="V45" s="1" t="n"/>
+      <c r="W45" s="1" t="n"/>
+      <c r="X45" s="1" t="n"/>
+      <c r="Y45" s="1" t="n"/>
+      <c r="Z45" s="1" t="n"/>
+      <c r="AA45" s="1" t="n"/>
+      <c r="AB45" s="1" t="n"/>
+      <c r="AC45" s="1" t="n"/>
+      <c r="AD45" s="1" t="n"/>
+      <c r="AE45" s="1" t="n"/>
+      <c r="AF45" s="1" t="n"/>
+      <c r="AG45" s="1" t="n"/>
+      <c r="AH45" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12.8" r="46" s="5" spans="1:34">
+      <c r="A46" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E46" t="s">
-        <v>37</v>
-      </c>
-      <c r="F46" t="s">
+      <c r="E46" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J46" t="s">
+      <c r="J46" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K46" t="s">
+      <c r="K46" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="L46" t="s">
+      <c r="L46" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M46" t="s">
-        <v>37</v>
-      </c>
-      <c r="N46" t="s">
+      <c r="M46" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N46" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="O46" t="n">
+      <c r="O46" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="P46" t="n">
-        <v>0.001006831364519059</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0.001009618247371855</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0.3187530557296221</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0.3129979608568605</v>
-      </c>
-      <c r="T46" t="n">
-        <v>1.866060578762557</v>
-      </c>
-      <c r="U46" t="n">
-        <v>1.857649281957806</v>
-      </c>
-      <c r="V46" t="n">
+      <c r="P46" s="1" t="n">
+        <v>0.00100683136451906</v>
+      </c>
+      <c r="Q46" s="1" t="n">
+        <v>0.00100961824737186</v>
+      </c>
+      <c r="R46" s="1" t="n">
+        <v>0.318753055729622</v>
+      </c>
+      <c r="S46" s="1" t="n">
+        <v>0.31299796085686</v>
+      </c>
+      <c r="T46" s="1" t="n">
+        <v>1.86606057876256</v>
+      </c>
+      <c r="U46" s="1" t="n">
+        <v>1.85764928195781</v>
+      </c>
+      <c r="V46" s="1" t="n">
         <v>1.29711906385069</v>
       </c>
-      <c r="W46" t="n">
-        <v>1.299333599613193</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0.6726323690426184</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>0.6700161870125502</v>
-      </c>
-      <c r="Z46" t="n">
+      <c r="W46" s="1" t="n">
+        <v>1.29933359961319</v>
+      </c>
+      <c r="X46" s="1" t="n">
+        <v>0.672632369042618</v>
+      </c>
+      <c r="Y46" s="1" t="n">
+        <v>0.6700161870125499</v>
+      </c>
+      <c r="Z46" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="AA46" t="n">
-        <v>0.3187530557296221</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>0.3129979608568605</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>1.866060578762557</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>1.857649281957806</v>
-      </c>
-      <c r="AE46" t="n">
+      <c r="AA46" s="1" t="n">
+        <v>0.318753055729622</v>
+      </c>
+      <c r="AB46" s="1" t="n">
+        <v>0.31299796085686</v>
+      </c>
+      <c r="AC46" s="1" t="n">
+        <v>1.86606057876256</v>
+      </c>
+      <c r="AD46" s="1" t="n">
+        <v>1.85764928195781</v>
+      </c>
+      <c r="AE46" s="1" t="n">
         <v>1.29711906385069</v>
       </c>
-      <c r="AF46" t="n">
-        <v>1.299333599613193</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>0.6726323690426184</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>0.6700161870125502</v>
-      </c>
-    </row>
-    <row r="47" spans="1:34">
-      <c r="A47" t="s">
+      <c r="AF46" s="1" t="n">
+        <v>1.29933359961319</v>
+      </c>
+      <c r="AG46" s="1" t="n">
+        <v>0.672632369042618</v>
+      </c>
+      <c r="AH46" s="1" t="n">
+        <v>0.6700161870125499</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="47" s="5" spans="1:34">
+      <c r="A47" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E47" t="s">
-        <v>37</v>
-      </c>
-      <c r="F47" t="s">
+      <c r="E47" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J47" t="s">
+      <c r="J47" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K47" t="s">
+      <c r="K47" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="L47" t="s">
+      <c r="L47" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M47" t="s">
-        <v>37</v>
-      </c>
-      <c r="N47" t="s">
+      <c r="M47" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N47" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="T47" t="s">
+      <c r="O47" s="1" t="n"/>
+      <c r="P47" s="1" t="n"/>
+      <c r="Q47" s="1" t="n"/>
+      <c r="R47" s="1" t="n"/>
+      <c r="S47" s="1" t="n"/>
+      <c r="T47" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:34">
-      <c r="A48" t="s">
+      <c r="U47" s="1" t="n"/>
+      <c r="V47" s="1" t="n"/>
+      <c r="W47" s="1" t="n"/>
+      <c r="X47" s="1" t="n"/>
+      <c r="Y47" s="1" t="n"/>
+      <c r="Z47" s="1" t="n"/>
+      <c r="AA47" s="1" t="n"/>
+      <c r="AB47" s="1" t="n"/>
+      <c r="AC47" s="1" t="n"/>
+      <c r="AD47" s="1" t="n"/>
+      <c r="AE47" s="1" t="n"/>
+      <c r="AF47" s="1" t="n"/>
+      <c r="AG47" s="1" t="n"/>
+      <c r="AH47" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12.8" r="48" s="5" spans="1:34">
+      <c r="A48" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E48" t="s">
-        <v>37</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="E48" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I48" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J48" t="s">
+      <c r="J48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K48" t="s">
+      <c r="K48" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="L48" t="s">
+      <c r="L48" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M48" t="s">
-        <v>37</v>
-      </c>
-      <c r="N48" t="s">
+      <c r="M48" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N48" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="T48" t="s">
+      <c r="O48" s="1" t="n"/>
+      <c r="P48" s="1" t="n"/>
+      <c r="Q48" s="1" t="n"/>
+      <c r="R48" s="1" t="n"/>
+      <c r="S48" s="1" t="n"/>
+      <c r="T48" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="49" spans="1:34">
-      <c r="A49" t="s">
+      <c r="U48" s="1" t="n"/>
+      <c r="V48" s="1" t="n"/>
+      <c r="W48" s="1" t="n"/>
+      <c r="X48" s="1" t="n"/>
+      <c r="Y48" s="1" t="n"/>
+      <c r="Z48" s="1" t="n"/>
+      <c r="AA48" s="1" t="n"/>
+      <c r="AB48" s="1" t="n"/>
+      <c r="AC48" s="1" t="n"/>
+      <c r="AD48" s="1" t="n"/>
+      <c r="AE48" s="1" t="n"/>
+      <c r="AF48" s="1" t="n"/>
+      <c r="AG48" s="1" t="n"/>
+      <c r="AH48" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12.8" r="49" s="5" spans="1:34">
+      <c r="A49" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E49" t="s">
-        <v>37</v>
-      </c>
-      <c r="F49" t="s">
+      <c r="E49" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I49" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J49" t="s">
+      <c r="J49" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K49" t="s">
+      <c r="K49" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="L49" t="s">
+      <c r="L49" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M49" t="s">
-        <v>37</v>
-      </c>
-      <c r="N49" t="s">
+      <c r="M49" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N49" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="T49" t="s">
+      <c r="O49" s="1" t="n"/>
+      <c r="P49" s="1" t="n"/>
+      <c r="Q49" s="1" t="n"/>
+      <c r="R49" s="1" t="n"/>
+      <c r="S49" s="1" t="n"/>
+      <c r="T49" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="50" spans="1:34">
-      <c r="A50" t="s">
+      <c r="U49" s="1" t="n"/>
+      <c r="V49" s="1" t="n"/>
+      <c r="W49" s="1" t="n"/>
+      <c r="X49" s="1" t="n"/>
+      <c r="Y49" s="1" t="n"/>
+      <c r="Z49" s="1" t="n"/>
+      <c r="AA49" s="1" t="n"/>
+      <c r="AB49" s="1" t="n"/>
+      <c r="AC49" s="1" t="n"/>
+      <c r="AD49" s="1" t="n"/>
+      <c r="AE49" s="1" t="n"/>
+      <c r="AF49" s="1" t="n"/>
+      <c r="AG49" s="1" t="n"/>
+      <c r="AH49" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12.8" r="50" s="5" spans="1:34">
+      <c r="A50" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E50" t="s">
-        <v>37</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="E50" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I50" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J50" t="s">
+      <c r="J50" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K50" t="s">
+      <c r="K50" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="L50" t="s">
+      <c r="L50" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M50" t="s">
-        <v>37</v>
-      </c>
-      <c r="N50" t="s">
+      <c r="M50" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N50" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="T50" t="s">
+      <c r="O50" s="1" t="n"/>
+      <c r="P50" s="1" t="n"/>
+      <c r="Q50" s="1" t="n"/>
+      <c r="R50" s="1" t="n"/>
+      <c r="S50" s="1" t="n"/>
+      <c r="T50" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="51" spans="1:34">
-      <c r="A51" t="s">
+      <c r="U50" s="1" t="n"/>
+      <c r="V50" s="1" t="n"/>
+      <c r="W50" s="1" t="n"/>
+      <c r="X50" s="1" t="n"/>
+      <c r="Y50" s="1" t="n"/>
+      <c r="Z50" s="1" t="n"/>
+      <c r="AA50" s="1" t="n"/>
+      <c r="AB50" s="1" t="n"/>
+      <c r="AC50" s="1" t="n"/>
+      <c r="AD50" s="1" t="n"/>
+      <c r="AE50" s="1" t="n"/>
+      <c r="AF50" s="1" t="n"/>
+      <c r="AG50" s="1" t="n"/>
+      <c r="AH50" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12.8" r="51" s="5" spans="1:34">
+      <c r="A51" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E51" t="s">
-        <v>37</v>
-      </c>
-      <c r="F51" t="s">
+      <c r="E51" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I51" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J51" t="s">
+      <c r="J51" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K51" t="s">
+      <c r="K51" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="L51" t="s">
+      <c r="L51" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M51" t="s">
-        <v>37</v>
-      </c>
-      <c r="N51" t="s">
+      <c r="M51" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N51" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="T51" t="s">
+      <c r="O51" s="1" t="n"/>
+      <c r="P51" s="1" t="n"/>
+      <c r="Q51" s="1" t="n"/>
+      <c r="R51" s="1" t="n"/>
+      <c r="S51" s="1" t="n"/>
+      <c r="T51" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="52" spans="1:34">
-      <c r="A52" t="s">
+      <c r="U51" s="1" t="n"/>
+      <c r="V51" s="1" t="n"/>
+      <c r="W51" s="1" t="n"/>
+      <c r="X51" s="1" t="n"/>
+      <c r="Y51" s="1" t="n"/>
+      <c r="Z51" s="1" t="n"/>
+      <c r="AA51" s="1" t="n"/>
+      <c r="AB51" s="1" t="n"/>
+      <c r="AC51" s="1" t="n"/>
+      <c r="AD51" s="1" t="n"/>
+      <c r="AE51" s="1" t="n"/>
+      <c r="AF51" s="1" t="n"/>
+      <c r="AG51" s="1" t="n"/>
+      <c r="AH51" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12.8" r="52" s="5" spans="1:34">
+      <c r="A52" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E52" t="s">
-        <v>37</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="E52" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I52" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J52" t="s">
+      <c r="J52" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K52" t="s">
+      <c r="K52" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="L52" t="s">
+      <c r="L52" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M52" t="s">
-        <v>37</v>
-      </c>
-      <c r="N52" t="s">
+      <c r="M52" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N52" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="T52" t="s">
+      <c r="O52" s="1" t="n"/>
+      <c r="P52" s="1" t="n"/>
+      <c r="Q52" s="1" t="n"/>
+      <c r="R52" s="1" t="n"/>
+      <c r="S52" s="1" t="n"/>
+      <c r="T52" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="53" spans="1:34">
-      <c r="A53" t="s">
+      <c r="U52" s="1" t="n"/>
+      <c r="V52" s="1" t="n"/>
+      <c r="W52" s="1" t="n"/>
+      <c r="X52" s="1" t="n"/>
+      <c r="Y52" s="1" t="n"/>
+      <c r="Z52" s="1" t="n"/>
+      <c r="AA52" s="1" t="n"/>
+      <c r="AB52" s="1" t="n"/>
+      <c r="AC52" s="1" t="n"/>
+      <c r="AD52" s="1" t="n"/>
+      <c r="AE52" s="1" t="n"/>
+      <c r="AF52" s="1" t="n"/>
+      <c r="AG52" s="1" t="n"/>
+      <c r="AH52" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12.8" r="53" s="5" spans="1:34">
+      <c r="A53" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E53" t="s">
-        <v>37</v>
-      </c>
-      <c r="F53" t="s">
+      <c r="E53" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H53" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I53" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J53" t="s">
+      <c r="J53" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K53" t="s">
+      <c r="K53" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="L53" t="s">
+      <c r="L53" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M53" t="s">
-        <v>37</v>
-      </c>
-      <c r="N53" t="s">
+      <c r="M53" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N53" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="O53" t="n">
+      <c r="O53" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P53" t="n">
+      <c r="P53" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q53" t="n">
+      <c r="Q53" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="R53" t="n">
-        <v>0.09641988995930284</v>
-      </c>
-      <c r="S53" t="n">
-        <v>0.09535621938657529</v>
-      </c>
-      <c r="T53" t="n">
-        <v>3.581493811716882</v>
-      </c>
-      <c r="U53" t="n">
-        <v>3.589748109876021</v>
-      </c>
-      <c r="V53" t="n">
-        <v>2.947403576666965</v>
-      </c>
-      <c r="W53" t="n">
+      <c r="R53" s="1" t="n">
+        <v>0.0964198899593028</v>
+      </c>
+      <c r="S53" s="1" t="n">
+        <v>0.09535621938657531</v>
+      </c>
+      <c r="T53" s="1" t="n">
+        <v>3.58149381171688</v>
+      </c>
+      <c r="U53" s="1" t="n">
+        <v>3.58974810987602</v>
+      </c>
+      <c r="V53" s="1" t="n">
+        <v>2.94740357666697</v>
+      </c>
+      <c r="W53" s="1" t="n">
         <v>2.94939981920999</v>
       </c>
-      <c r="X53" t="n">
-        <v>0.2864937324546604</v>
-      </c>
-      <c r="Y53" t="n">
+      <c r="X53" s="1" t="n">
+        <v>0.28649373245466</v>
+      </c>
+      <c r="Y53" s="1" t="n">
         <v>0.287750425697408</v>
       </c>
-      <c r="Z53" t="n">
+      <c r="Z53" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AA53" t="n">
-        <v>0.09641988995930284</v>
-      </c>
-      <c r="AB53" t="n">
-        <v>0.09535621938657529</v>
-      </c>
-      <c r="AC53" t="n">
-        <v>3.581493811716882</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>3.589748109876021</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>2.947403576666965</v>
-      </c>
-      <c r="AF53" t="n">
+      <c r="AA53" s="1" t="n">
+        <v>0.0964198899593028</v>
+      </c>
+      <c r="AB53" s="1" t="n">
+        <v>0.09535621938657531</v>
+      </c>
+      <c r="AC53" s="1" t="n">
+        <v>3.58149381171688</v>
+      </c>
+      <c r="AD53" s="1" t="n">
+        <v>3.58974810987602</v>
+      </c>
+      <c r="AE53" s="1" t="n">
+        <v>2.94740357666697</v>
+      </c>
+      <c r="AF53" s="1" t="n">
         <v>2.94939981920999</v>
       </c>
-      <c r="AG53" t="n">
-        <v>0.2864937324546604</v>
-      </c>
-      <c r="AH53" t="n">
+      <c r="AG53" s="1" t="n">
+        <v>0.28649373245466</v>
+      </c>
+      <c r="AH53" s="1" t="n">
         <v>0.287750425697408</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
-      <c r="A54" t="s">
+    <row customHeight="1" ht="12.8" r="54" s="5" spans="1:34">
+      <c r="A54" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E54" t="s">
-        <v>37</v>
-      </c>
-      <c r="F54" t="s">
+      <c r="E54" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I54" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J54" t="s">
+      <c r="J54" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K54" t="s">
+      <c r="K54" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="L54" t="s">
+      <c r="L54" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M54" t="s">
-        <v>37</v>
-      </c>
-      <c r="N54" t="s">
+      <c r="M54" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N54" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="O54" t="n">
+      <c r="O54" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P54" t="n">
+      <c r="P54" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q54" t="n">
+      <c r="Q54" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="R54" t="n">
-        <v>0.07760922009746199</v>
-      </c>
-      <c r="S54" t="n">
+      <c r="R54" s="1" t="n">
+        <v>0.077609220097462</v>
+      </c>
+      <c r="S54" s="1" t="n">
         <v>0.0760999810801152</v>
       </c>
-      <c r="T54" t="n">
-        <v>3.900928645846819</v>
-      </c>
-      <c r="U54" t="n">
-        <v>3.940159720927105</v>
-      </c>
-      <c r="V54" t="n">
-        <v>3.278609089260588</v>
-      </c>
-      <c r="W54" t="n">
-        <v>3.315562656351826</v>
-      </c>
-      <c r="X54" t="n">
-        <v>0.2407008265676897</v>
-      </c>
-      <c r="Y54" t="n">
-        <v>0.2395467636485947</v>
-      </c>
-      <c r="Z54" t="n">
+      <c r="T54" s="1" t="n">
+        <v>3.90092864584682</v>
+      </c>
+      <c r="U54" s="1" t="n">
+        <v>3.9401597209271</v>
+      </c>
+      <c r="V54" s="1" t="n">
+        <v>3.27860908926059</v>
+      </c>
+      <c r="W54" s="1" t="n">
+        <v>3.31556265635183</v>
+      </c>
+      <c r="X54" s="1" t="n">
+        <v>0.24070082656769</v>
+      </c>
+      <c r="Y54" s="1" t="n">
+        <v>0.239546763648595</v>
+      </c>
+      <c r="Z54" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AA54" t="n">
-        <v>0.07760922009746199</v>
-      </c>
-      <c r="AB54" t="n">
+      <c r="AA54" s="1" t="n">
+        <v>0.077609220097462</v>
+      </c>
+      <c r="AB54" s="1" t="n">
         <v>0.0760999810801152</v>
       </c>
-      <c r="AC54" t="n">
-        <v>3.900928645846819</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>3.940159720927105</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>3.278609089260588</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>3.315562656351826</v>
-      </c>
-      <c r="AG54" t="n">
-        <v>0.2407008265676897</v>
-      </c>
-      <c r="AH54" t="n">
-        <v>0.2395467636485947</v>
+      <c r="AC54" s="1" t="n">
+        <v>3.90092864584682</v>
+      </c>
+      <c r="AD54" s="1" t="n">
+        <v>3.9401597209271</v>
+      </c>
+      <c r="AE54" s="1" t="n">
+        <v>3.27860908926059</v>
+      </c>
+      <c r="AF54" s="1" t="n">
+        <v>3.31556265635183</v>
+      </c>
+      <c r="AG54" s="1" t="n">
+        <v>0.24070082656769</v>
+      </c>
+      <c r="AH54" s="1" t="n">
+        <v>0.239546763648595</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="55" s="5" spans="1:34">
+      <c r="A55" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O55" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P55" s="1" t="n">
+        <v>0.000745410231973238</v>
+      </c>
+      <c r="Q55" s="1" t="n">
+        <v>0.000724325583474246</v>
+      </c>
+      <c r="R55" s="1" t="n">
+        <v>0.250100423039226</v>
+      </c>
+      <c r="S55" s="1" t="n">
+        <v>0.266181757026635</v>
+      </c>
+      <c r="T55" s="1" t="n">
+        <v>2.12604825080936</v>
+      </c>
+      <c r="U55" s="1" t="n">
+        <v>2.08589641713582</v>
+      </c>
+      <c r="V55" s="1" t="n">
+        <v>1.55158989755702</v>
+      </c>
+      <c r="W55" s="1" t="n">
+        <v>1.50238600769409</v>
+      </c>
+      <c r="X55" s="1" t="n">
+        <v>0.596533511455113</v>
+      </c>
+      <c r="Y55" s="1" t="n">
+        <v>0.613824129159747</v>
+      </c>
+      <c r="Z55" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA55" s="1" t="n">
+        <v>0.250100423039226</v>
+      </c>
+      <c r="AB55" s="1" t="n">
+        <v>0.266181757026635</v>
+      </c>
+      <c r="AC55" s="1" t="n">
+        <v>2.12604825080936</v>
+      </c>
+      <c r="AD55" s="1" t="n">
+        <v>2.08589641713582</v>
+      </c>
+      <c r="AE55" s="1" t="n">
+        <v>1.55158989755702</v>
+      </c>
+      <c r="AF55" s="1" t="n">
+        <v>1.50238600769409</v>
+      </c>
+      <c r="AG55" s="1" t="n">
+        <v>0.596533511455113</v>
+      </c>
+      <c r="AH55" s="1" t="n">
+        <v>0.613824129159747</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="56" s="5" spans="1:34">
+      <c r="A56" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O56" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="P56" s="1" t="n">
+        <v>0.0006774874982627169</v>
+      </c>
+      <c r="Q56" s="1" t="n">
+        <v>0.000678166294676668</v>
+      </c>
+      <c r="R56" s="1" t="n">
+        <v>0.310790369487923</v>
+      </c>
+      <c r="S56" s="1" t="n">
+        <v>0.308982740860644</v>
+      </c>
+      <c r="T56" s="1" t="n">
+        <v>1.88270971295614</v>
+      </c>
+      <c r="U56" s="1" t="n">
+        <v>1.80393407341467</v>
+      </c>
+      <c r="V56" s="1" t="n">
+        <v>1.31697183793673</v>
+      </c>
+      <c r="W56" s="1" t="n">
+        <v>1.27196283293742</v>
+      </c>
+      <c r="X56" s="1" t="n">
+        <v>0.6661547960895839</v>
+      </c>
+      <c r="Y56" s="1" t="n">
+        <v>0.675208644285144</v>
+      </c>
+      <c r="Z56" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA56" s="1" t="n">
+        <v>0.324298702878641</v>
+      </c>
+      <c r="AB56" s="1" t="n">
+        <v>0.316823982005087</v>
+      </c>
+      <c r="AC56" s="1" t="n">
+        <v>1.84130046215063</v>
+      </c>
+      <c r="AD56" s="1" t="n">
+        <v>1.86249773465634</v>
+      </c>
+      <c r="AE56" s="1" t="n">
+        <v>1.2756365672995</v>
+      </c>
+      <c r="AF56" s="1" t="n">
+        <v>1.2974416111333</v>
+      </c>
+      <c r="AG56" s="1" t="n">
+        <v>0.678207856180436</v>
+      </c>
+      <c r="AH56" s="1" t="n">
+        <v>0.672286573188421</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="57" s="5" spans="1:34">
+      <c r="A57" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O57" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="P57" s="1" t="n">
+        <v>0.00032702013928368</v>
+      </c>
+      <c r="Q57" s="1" t="n">
+        <v>0.000329063806644295</v>
+      </c>
+      <c r="R57" s="1" t="n">
+        <v>0.278707790761998</v>
+      </c>
+      <c r="S57" s="1" t="n">
+        <v>0.270344131682398</v>
+      </c>
+      <c r="T57" s="1" t="n">
+        <v>1.78072351859133</v>
+      </c>
+      <c r="U57" s="1" t="n">
+        <v>1.76743320523347</v>
+      </c>
+      <c r="V57" s="1" t="n">
+        <v>1.27878583380963</v>
+      </c>
+      <c r="W57" s="1" t="n">
+        <v>1.28148584161954</v>
+      </c>
+      <c r="X57" s="1" t="n">
+        <v>0.688282295475569</v>
+      </c>
+      <c r="Y57" s="1" t="n">
+        <v>0.685046984380584</v>
+      </c>
+      <c r="Z57" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA57" s="1" t="n">
+        <v>0.279394110504365</v>
+      </c>
+      <c r="AB57" s="1" t="n">
+        <v>0.277575732094431</v>
+      </c>
+      <c r="AC57" s="1" t="n">
+        <v>1.7768038139762</v>
+      </c>
+      <c r="AD57" s="1" t="n">
+        <v>1.78135989583113</v>
+      </c>
+      <c r="AE57" s="1" t="n">
+        <v>1.27553327503059</v>
+      </c>
+      <c r="AF57" s="1" t="n">
+        <v>1.28180117303286</v>
+      </c>
+      <c r="AG57" s="1" t="n">
+        <v>0.689182085907032</v>
+      </c>
+      <c r="AH57" s="1" t="n">
+        <v>0.685530492547668</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="58" s="5" spans="1:34">
+      <c r="A58" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O58" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="P58" s="1" t="n">
+        <v>1.5129328348579e-05</v>
+      </c>
+      <c r="Q58" s="1" t="n">
+        <v>1.50954382345375e-05</v>
+      </c>
+      <c r="R58" s="1" t="n">
+        <v>0.241403213996332</v>
+      </c>
+      <c r="S58" s="1" t="n">
+        <v>0.244634110450083</v>
+      </c>
+      <c r="T58" s="1" t="n">
+        <v>1.86584899485472</v>
+      </c>
+      <c r="U58" s="1" t="n">
+        <v>1.85275410277548</v>
+      </c>
+      <c r="V58" s="1" t="n">
+        <v>1.40377177458413</v>
+      </c>
+      <c r="W58" s="1" t="n">
+        <v>1.39195694675104</v>
+      </c>
+      <c r="X58" s="1" t="n">
+        <v>0.617396254392791</v>
+      </c>
+      <c r="Y58" s="1" t="n">
+        <v>0.620593243498917</v>
+      </c>
+      <c r="Z58" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA58" s="1" t="n">
+        <v>0.242684038130915</v>
+      </c>
+      <c r="AB58" s="1" t="n">
+        <v>0.247514137358364</v>
+      </c>
+      <c r="AC58" s="1" t="n">
+        <v>1.86534207999157</v>
+      </c>
+      <c r="AD58" s="1" t="n">
+        <v>1.86817774383884</v>
+      </c>
+      <c r="AE58" s="1" t="n">
+        <v>1.40164165846067</v>
+      </c>
+      <c r="AF58" s="1" t="n">
+        <v>1.39620340978368</v>
+      </c>
+      <c r="AG58" s="1" t="n">
+        <v>0.618172094101552</v>
+      </c>
+      <c r="AH58" s="1" t="n">
+        <v>0.622190922659715</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="59" s="5" spans="1:34">
+      <c r="A59" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O59" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="P59" s="1" t="n">
+        <v>7.33286430981919e-06</v>
+      </c>
+      <c r="Q59" s="1" t="n">
+        <v>7.33239786883568e-06</v>
+      </c>
+      <c r="R59" s="1" t="n">
+        <v>0.206515676323346</v>
+      </c>
+      <c r="S59" s="1" t="n">
+        <v>0.211335113203977</v>
+      </c>
+      <c r="T59" s="1" t="n">
+        <v>1.94805752483281</v>
+      </c>
+      <c r="U59" s="1" t="n">
+        <v>1.92967991425122</v>
+      </c>
+      <c r="V59" s="1" t="n">
+        <v>1.51760903646676</v>
+      </c>
+      <c r="W59" s="1" t="n">
+        <v>1.49557484916647</v>
+      </c>
+      <c r="X59" s="1" t="n">
+        <v>0.563932176000845</v>
+      </c>
+      <c r="Y59" s="1" t="n">
+        <v>0.573629885009145</v>
+      </c>
+      <c r="Z59" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA59" s="1" t="n">
+        <v>0.205898218093592</v>
+      </c>
+      <c r="AB59" s="1" t="n">
+        <v>0.215728730896172</v>
+      </c>
+      <c r="AC59" s="1" t="n">
+        <v>1.94913359885253</v>
+      </c>
+      <c r="AD59" s="1" t="n">
+        <v>1.93586329388052</v>
+      </c>
+      <c r="AE59" s="1" t="n">
+        <v>1.51886002061255</v>
+      </c>
+      <c r="AF59" s="1" t="n">
+        <v>1.49286299901196</v>
+      </c>
+      <c r="AG59" s="1" t="n">
+        <v>0.563973492908412</v>
+      </c>
+      <c r="AH59" s="1" t="n">
+        <v>0.577182618932498</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="60" s="5" spans="1:34">
+      <c r="A60" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="O60" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="P60" s="1" t="n">
+        <v>0.00323974050207316</v>
+      </c>
+      <c r="Q60" s="1" t="n">
+        <v>0.00342285691201577</v>
+      </c>
+      <c r="R60" s="1" t="n">
+        <v>0.476087839745488</v>
+      </c>
+      <c r="S60" s="1" t="n">
+        <v>0.44674052429103</v>
+      </c>
+      <c r="T60" s="1" t="n">
+        <v>1.40481226474551</v>
+      </c>
+      <c r="U60" s="1" t="n">
+        <v>1.44709878506387</v>
+      </c>
+      <c r="V60" s="1" t="n">
+        <v>0.8625363531402001</v>
+      </c>
+      <c r="W60" s="1" t="n">
+        <v>0.913073640396056</v>
+      </c>
+      <c r="X60" s="1" t="n">
+        <v>0.799661201357949</v>
+      </c>
+      <c r="Y60" s="1" t="n">
+        <v>0.787571737896529</v>
+      </c>
+      <c r="Z60" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA60" s="1" t="n">
+        <v>0.476553802647496</v>
+      </c>
+      <c r="AB60" s="1" t="n">
+        <v>0.447287098740777</v>
+      </c>
+      <c r="AC60" s="1" t="n">
+        <v>1.40354702277075</v>
+      </c>
+      <c r="AD60" s="1" t="n">
+        <v>1.46084150230184</v>
+      </c>
+      <c r="AE60" s="1" t="n">
+        <v>0.861489658148497</v>
+      </c>
+      <c r="AF60" s="1" t="n">
+        <v>0.919275158191259</v>
+      </c>
+      <c r="AG60" s="1" t="n">
+        <v>0.800258001133919</v>
+      </c>
+      <c r="AH60" s="1" t="n">
+        <v>0.785784859887742</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="61" s="5" spans="1:34">
+      <c r="A61" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="O61" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="P61" s="1" t="n">
+        <v>0.00481280744964118</v>
+      </c>
+      <c r="Q61" s="1" t="n">
+        <v>0.00539858932011988</v>
+      </c>
+      <c r="R61" s="1" t="n">
+        <v>0.340159804616935</v>
+      </c>
+      <c r="S61" s="1" t="n">
+        <v>0.302886333536547</v>
+      </c>
+      <c r="T61" s="1" t="n">
+        <v>1.28047295104638</v>
+      </c>
+      <c r="U61" s="1" t="n">
+        <v>1.37528173886451</v>
+      </c>
+      <c r="V61" s="1" t="n">
+        <v>0.899216585524851</v>
+      </c>
+      <c r="W61" s="1" t="n">
+        <v>0.991107654144506</v>
+      </c>
+      <c r="X61" s="1" t="n">
+        <v>0.848256770808228</v>
+      </c>
+      <c r="Y61" s="1" t="n">
+        <v>0.812272698606235</v>
+      </c>
+      <c r="Z61" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA61" s="1" t="n">
+        <v>0.348611407598179</v>
+      </c>
+      <c r="AB61" s="1" t="n">
+        <v>0.305114675523976</v>
+      </c>
+      <c r="AC61" s="1" t="n">
+        <v>1.25555985143677</v>
+      </c>
+      <c r="AD61" s="1" t="n">
+        <v>1.37713769469501</v>
+      </c>
+      <c r="AE61" s="1" t="n">
+        <v>0.877922310441471</v>
+      </c>
+      <c r="AF61" s="1" t="n">
+        <v>0.9899514389623491</v>
+      </c>
+      <c r="AG61" s="1" t="n">
+        <v>0.855712177240352</v>
+      </c>
+      <c r="AH61" s="1" t="n">
+        <v>0.812419853265782</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="62" s="5" spans="1:34">
+      <c r="A62" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="O62" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="P62" s="1" t="n">
+        <v>0.0084858995807534</v>
+      </c>
+      <c r="Q62" s="1" t="n">
+        <v>0.00856488876564908</v>
+      </c>
+      <c r="R62" s="1" t="n">
+        <v>0.415498890181955</v>
+      </c>
+      <c r="S62" s="1" t="n">
+        <v>0.40147995543316</v>
+      </c>
+      <c r="T62" s="1" t="n">
+        <v>1.29606334492252</v>
+      </c>
+      <c r="U62" s="1" t="n">
+        <v>1.36906169355026</v>
+      </c>
+      <c r="V62" s="1" t="n">
+        <v>0.8632157867313049</v>
+      </c>
+      <c r="W62" s="1" t="n">
+        <v>0.915344026571927</v>
+      </c>
+      <c r="X62" s="1" t="n">
+        <v>0.812028729023062</v>
+      </c>
+      <c r="Y62" s="1" t="n">
+        <v>0.794466984801026</v>
+      </c>
+      <c r="Z62" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA62" s="1" t="n">
+        <v>0.416970231168098</v>
+      </c>
+      <c r="AB62" s="1" t="n">
+        <v>0.405705396371586</v>
+      </c>
+      <c r="AC62" s="1" t="n">
+        <v>1.29176498032001</v>
+      </c>
+      <c r="AD62" s="1" t="n">
+        <v>1.37517473505554</v>
+      </c>
+      <c r="AE62" s="1" t="n">
+        <v>0.859634988075481</v>
+      </c>
+      <c r="AF62" s="1" t="n">
+        <v>0.915386070760369</v>
+      </c>
+      <c r="AG62" s="1" t="n">
+        <v>0.813114445538577</v>
+      </c>
+      <c r="AH62" s="1" t="n">
+        <v>0.792343753284702</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="63" s="5" spans="1:34">
+      <c r="A63" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="O63" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="P63" s="1" t="n">
+        <v>0.00552484961793576</v>
+      </c>
+      <c r="Q63" s="1" t="n">
+        <v>0.00560383952855087</v>
+      </c>
+      <c r="R63" s="1" t="n">
+        <v>0.370720543914134</v>
+      </c>
+      <c r="S63" s="1" t="n">
+        <v>0.365994660388068</v>
+      </c>
+      <c r="T63" s="1" t="n">
+        <v>1.29095177611191</v>
+      </c>
+      <c r="U63" s="1" t="n">
+        <v>1.36632575003329</v>
+      </c>
+      <c r="V63" s="1" t="n">
+        <v>0.903267937850189</v>
+      </c>
+      <c r="W63" s="1" t="n">
+        <v>0.950577056486367</v>
+      </c>
+      <c r="X63" s="1" t="n">
+        <v>0.805271119252072</v>
+      </c>
+      <c r="Y63" s="1" t="n">
+        <v>0.784964998213122</v>
+      </c>
+      <c r="Z63" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA63" s="1" t="n">
+        <v>0.37058282088891</v>
+      </c>
+      <c r="AB63" s="1" t="n">
+        <v>0.374151232945826</v>
+      </c>
+      <c r="AC63" s="1" t="n">
+        <v>1.28731497529256</v>
+      </c>
+      <c r="AD63" s="1" t="n">
+        <v>1.37037392665597</v>
+      </c>
+      <c r="AE63" s="1" t="n">
+        <v>0.901360473950838</v>
+      </c>
+      <c r="AF63" s="1" t="n">
+        <v>0.942315373457504</v>
+      </c>
+      <c r="AG63" s="1" t="n">
+        <v>0.8064578326527519</v>
+      </c>
+      <c r="AH63" s="1" t="n">
+        <v>0.790283588051042</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="64" s="5" spans="1:34">
+      <c r="A64" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="O64" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="P64" s="1" t="n">
+        <v>0.0176634179762045</v>
+      </c>
+      <c r="Q64" s="1" t="n">
+        <v>0.0184871028443021</v>
+      </c>
+      <c r="R64" s="1" t="n">
+        <v>0.47324845004212</v>
+      </c>
+      <c r="S64" s="1" t="n">
+        <v>0.455128339885219</v>
+      </c>
+      <c r="T64" s="1" t="n">
+        <v>1.37683423585016</v>
+      </c>
+      <c r="U64" s="1" t="n">
+        <v>1.40451068184562</v>
+      </c>
+      <c r="V64" s="1" t="n">
+        <v>0.84993699171596</v>
+      </c>
+      <c r="W64" s="1" t="n">
+        <v>0.884000084088377</v>
+      </c>
+      <c r="X64" s="1" t="n">
+        <v>0.805955143610684</v>
+      </c>
+      <c r="Y64" s="1" t="n">
+        <v>0.794319830141479</v>
+      </c>
+      <c r="Z64" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA64" s="1" t="n">
+        <v>0.493991833024604</v>
+      </c>
+      <c r="AB64" s="1" t="n">
+        <v>0.460846349513338</v>
+      </c>
+      <c r="AC64" s="1" t="n">
+        <v>1.31091785149222</v>
+      </c>
+      <c r="AD64" s="1" t="n">
+        <v>1.40796394234673</v>
+      </c>
+      <c r="AE64" s="1" t="n">
+        <v>0.795458353704864</v>
+      </c>
+      <c r="AF64" s="1" t="n">
+        <v>0.880132018751708</v>
+      </c>
+      <c r="AG64" s="1" t="n">
+        <v>0.822750466536748</v>
+      </c>
+      <c r="AH64" s="1" t="n">
+        <v>0.795223780192983</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="65" s="5" spans="1:34">
+      <c r="A65" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="O65" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="P65" s="1" t="n">
+        <v>0.0140325224183918</v>
+      </c>
+      <c r="Q65" s="1" t="n">
+        <v>0.0155629249755871</v>
+      </c>
+      <c r="R65" s="1" t="n">
+        <v>0.489912936094221</v>
+      </c>
+      <c r="S65" s="1" t="n">
+        <v>0.457146460930438</v>
+      </c>
+      <c r="T65" s="1" t="n">
+        <v>1.30964515070564</v>
+      </c>
+      <c r="U65" s="1" t="n">
+        <v>1.39449158539146</v>
+      </c>
+      <c r="V65" s="1" t="n">
+        <v>0.798417103363426</v>
+      </c>
+      <c r="W65" s="1" t="n">
+        <v>0.876305997603481</v>
+      </c>
+      <c r="X65" s="1" t="n">
+        <v>0.822869826491942</v>
+      </c>
+      <c r="Y65" s="1" t="n">
+        <v>0.797178834955538</v>
+      </c>
+      <c r="Z65" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA65" s="1" t="n">
+        <v>0.495265771007926</v>
+      </c>
+      <c r="AB65" s="1" t="n">
+        <v>0.455864113182955</v>
+      </c>
+      <c r="AC65" s="1" t="n">
+        <v>1.29132511375837</v>
+      </c>
+      <c r="AD65" s="1" t="n">
+        <v>1.40218129502419</v>
+      </c>
+      <c r="AE65" s="1" t="n">
+        <v>0.783829939608453</v>
+      </c>
+      <c r="AF65" s="1" t="n">
+        <v>0.8803212175996969</v>
+      </c>
+      <c r="AG65" s="1" t="n">
+        <v>0.82764652008346</v>
+      </c>
+      <c r="AH65" s="1" t="n">
+        <v>0.797347011709306</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="66" s="5" spans="1:34">
+      <c r="A66" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="O66" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="P66" s="1" t="n">
+        <v>0.0124383853355092</v>
+      </c>
+      <c r="Q66" s="1" t="n">
+        <v>0.012518334794831</v>
+      </c>
+      <c r="R66" s="1" t="n">
+        <v>0.42636753225588</v>
+      </c>
+      <c r="S66" s="1" t="n">
+        <v>0.423532132271017</v>
+      </c>
+      <c r="T66" s="1" t="n">
+        <v>1.47958499474689</v>
+      </c>
+      <c r="U66" s="1" t="n">
+        <v>1.44352070417316</v>
+      </c>
+      <c r="V66" s="1" t="n">
+        <v>0.950568910863363</v>
+      </c>
+      <c r="W66" s="1" t="n">
+        <v>0.933717336921104</v>
+      </c>
+      <c r="X66" s="1" t="n">
+        <v>0.7780478679328</v>
+      </c>
+      <c r="Y66" s="1" t="n">
+        <v>0.784439445857596</v>
+      </c>
+      <c r="Z66" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA66" s="1" t="n">
+        <v>0.42636753225588</v>
+      </c>
+      <c r="AB66" s="1" t="n">
+        <v>0.423532132271017</v>
+      </c>
+      <c r="AC66" s="1" t="n">
+        <v>1.47958499474689</v>
+      </c>
+      <c r="AD66" s="1" t="n">
+        <v>1.44352070417316</v>
+      </c>
+      <c r="AE66" s="1" t="n">
+        <v>0.950568910863363</v>
+      </c>
+      <c r="AF66" s="1" t="n">
+        <v>0.933717336921104</v>
+      </c>
+      <c r="AG66" s="1" t="n">
+        <v>0.7780478679328</v>
+      </c>
+      <c r="AH66" s="1" t="n">
+        <v>0.784439445857596</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="67" s="5" spans="1:34">
+      <c r="A67" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B67" s="1" t="n"/>
+      <c r="C67" s="1" t="n"/>
+      <c r="D67" s="1" t="n"/>
+      <c r="E67" s="1" t="n"/>
+      <c r="F67" s="1" t="n"/>
+      <c r="G67" s="1" t="n"/>
+      <c r="H67" s="1" t="n"/>
+      <c r="I67" s="1" t="n"/>
+      <c r="J67" s="1" t="n"/>
+      <c r="K67" s="1" t="n"/>
+      <c r="L67" s="1" t="n"/>
+      <c r="M67" s="1" t="n"/>
+      <c r="N67" s="1" t="n"/>
+      <c r="O67" s="1" t="n"/>
+      <c r="P67" s="1" t="n"/>
+      <c r="Q67" s="1" t="n"/>
+      <c r="R67" s="1" t="n"/>
+      <c r="S67" s="1" t="n"/>
+      <c r="T67" s="1" t="n"/>
+      <c r="U67" s="1" t="n"/>
+      <c r="V67" s="1" t="n"/>
+      <c r="W67" s="1" t="n"/>
+      <c r="X67" s="1" t="n"/>
+      <c r="Y67" s="1" t="n"/>
+      <c r="Z67" s="1" t="n"/>
+      <c r="AA67" s="1" t="n"/>
+      <c r="AB67" s="1" t="n"/>
+      <c r="AC67" s="1" t="n"/>
+      <c r="AD67" s="1" t="n"/>
+      <c r="AE67" s="1" t="n"/>
+      <c r="AF67" s="1" t="n"/>
+      <c r="AG67" s="1" t="n"/>
+      <c r="AH67" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12.8" r="68" s="5" spans="1:34">
+      <c r="A68" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B68" s="1" t="n"/>
+      <c r="C68" s="1" t="n"/>
+      <c r="D68" s="1" t="n"/>
+      <c r="E68" s="1" t="n"/>
+      <c r="F68" s="1" t="n"/>
+      <c r="G68" s="1" t="n"/>
+      <c r="H68" s="1" t="n"/>
+      <c r="I68" s="1" t="n"/>
+      <c r="J68" s="1" t="n"/>
+      <c r="K68" s="1" t="n"/>
+      <c r="L68" s="1" t="n"/>
+      <c r="M68" s="1" t="n"/>
+      <c r="N68" s="1" t="n"/>
+      <c r="O68" s="1" t="n"/>
+      <c r="P68" s="1" t="n"/>
+      <c r="Q68" s="1" t="n"/>
+      <c r="R68" s="1" t="n"/>
+      <c r="S68" s="1" t="n"/>
+      <c r="T68" s="1" t="n"/>
+      <c r="U68" s="1" t="n"/>
+      <c r="V68" s="1" t="n"/>
+      <c r="W68" s="1" t="n"/>
+      <c r="X68" s="1" t="n"/>
+      <c r="Y68" s="1" t="n"/>
+      <c r="Z68" s="1" t="n"/>
+      <c r="AA68" s="1" t="n"/>
+      <c r="AB68" s="1" t="n"/>
+      <c r="AC68" s="1" t="n"/>
+      <c r="AD68" s="1" t="n"/>
+      <c r="AE68" s="1" t="n"/>
+      <c r="AF68" s="1" t="n"/>
+      <c r="AG68" s="1" t="n"/>
+      <c r="AH68" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12.8" r="69" s="5" spans="1:34">
+      <c r="A69" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O69" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="P69" s="1" t="n">
+        <v>0.00615954056933238</v>
+      </c>
+      <c r="Q69" s="1" t="n">
+        <v>0.00641154103679176</v>
+      </c>
+      <c r="R69" s="1" t="n">
+        <v>0.373961625774405</v>
+      </c>
+      <c r="S69" s="1" t="n">
+        <v>0.352372343332843</v>
+      </c>
+      <c r="T69" s="1" t="n">
+        <v>1.69961194809145</v>
+      </c>
+      <c r="U69" s="1" t="n">
+        <v>1.74653656126856</v>
+      </c>
+      <c r="V69" s="1" t="n">
+        <v>1.13304732851762</v>
+      </c>
+      <c r="W69" s="1" t="n">
+        <v>1.1860665559503</v>
+      </c>
+      <c r="X69" s="1" t="n">
+        <v>0.720523255680501</v>
+      </c>
+      <c r="Y69" s="1" t="n">
+        <v>0.70463957619458</v>
+      </c>
+      <c r="Z69" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA69" s="1" t="n">
+        <v>0.374675490121816</v>
+      </c>
+      <c r="AB69" s="1" t="n">
+        <v>0.351531459564002</v>
+      </c>
+      <c r="AC69" s="1" t="n">
+        <v>1.6968640911259</v>
+      </c>
+      <c r="AD69" s="1" t="n">
+        <v>1.74998160557088</v>
+      </c>
+      <c r="AE69" s="1" t="n">
+        <v>1.13122938458466</v>
+      </c>
+      <c r="AF69" s="1" t="n">
+        <v>1.18873636191637</v>
+      </c>
+      <c r="AG69" s="1" t="n">
+        <v>0.720573754123083</v>
+      </c>
+      <c r="AH69" s="1" t="n">
+        <v>0.704345266875486</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="70" s="5" spans="1:34">
+      <c r="A70" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O70" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="P70" s="1" t="n">
+        <v>0.00624567151399914</v>
+      </c>
+      <c r="Q70" s="1" t="n">
+        <v>0.00640370053187852</v>
+      </c>
+      <c r="R70" s="1" t="n">
+        <v>0.364956835308511</v>
+      </c>
+      <c r="S70" s="1" t="n">
+        <v>0.350312178099182</v>
+      </c>
+      <c r="T70" s="1" t="n">
+        <v>1.71692004774797</v>
+      </c>
+      <c r="U70" s="1" t="n">
+        <v>1.73950515894207</v>
+      </c>
+      <c r="V70" s="1" t="n">
+        <v>1.15399500065418</v>
+      </c>
+      <c r="W70" s="1" t="n">
+        <v>1.18459500935483</v>
+      </c>
+      <c r="X70" s="1" t="n">
+        <v>0.713749578223235</v>
+      </c>
+      <c r="Y70" s="1" t="n">
+        <v>0.704408333158149</v>
+      </c>
+      <c r="Z70" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA70" s="1" t="n">
+        <v>0.372779503141233</v>
+      </c>
+      <c r="AB70" s="1" t="n">
+        <v>0.349891736214762</v>
+      </c>
+      <c r="AC70" s="1" t="n">
+        <v>1.69782695532197</v>
+      </c>
+      <c r="AD70" s="1" t="n">
+        <v>1.76123142570128</v>
+      </c>
+      <c r="AE70" s="1" t="n">
+        <v>1.13312996233275</v>
+      </c>
+      <c r="AF70" s="1" t="n">
+        <v>1.19750257520654</v>
+      </c>
+      <c r="AG70" s="1" t="n">
+        <v>0.720585231041852</v>
+      </c>
+      <c r="AH70" s="1" t="n">
+        <v>0.701423195778763</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="71" s="5" spans="1:34">
+      <c r="A71" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O71" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="P71" s="1" t="n">
+        <v>0.0062370656319822</v>
+      </c>
+      <c r="Q71" s="1" t="n">
+        <v>0.00640270761001674</v>
+      </c>
+      <c r="R71" s="1" t="n">
+        <v>0.36529425672031</v>
+      </c>
+      <c r="S71" s="1" t="n">
+        <v>0.347873615169543</v>
+      </c>
+      <c r="T71" s="1" t="n">
+        <v>1.71601538342175</v>
+      </c>
+      <c r="U71" s="1" t="n">
+        <v>1.72175219371953</v>
+      </c>
+      <c r="V71" s="1" t="n">
+        <v>1.15297814565128</v>
+      </c>
+      <c r="W71" s="1" t="n">
+        <v>1.17738443103702</v>
+      </c>
+      <c r="X71" s="1" t="n">
+        <v>0.714291288789116</v>
+      </c>
+      <c r="Y71" s="1" t="n">
+        <v>0.705900901847842</v>
+      </c>
+      <c r="Z71" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA71" s="1" t="n">
+        <v>0.373851447354226</v>
+      </c>
+      <c r="AB71" s="1" t="n">
+        <v>0.351258172339128</v>
+      </c>
+      <c r="AC71" s="1" t="n">
+        <v>1.69369508837964</v>
+      </c>
+      <c r="AD71" s="1" t="n">
+        <v>1.75021583854994</v>
+      </c>
+      <c r="AE71" s="1" t="n">
+        <v>1.13039616028206</v>
+      </c>
+      <c r="AF71" s="1" t="n">
+        <v>1.18989257709853</v>
+      </c>
+      <c r="AG71" s="1" t="n">
+        <v>0.7210649662463821</v>
+      </c>
+      <c r="AH71" s="1" t="n">
+        <v>0.703273140070214</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="72" s="5" spans="1:34">
+      <c r="A72" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O72" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="P72" s="1" t="n">
+        <v>0.00615889359029243</v>
+      </c>
+      <c r="Q72" s="1" t="n">
+        <v>0.00641092432907535</v>
+      </c>
+      <c r="R72" s="1" t="n">
+        <v>0.373867515040502</v>
+      </c>
+      <c r="S72" s="1" t="n">
+        <v>0.35066955370094</v>
+      </c>
+      <c r="T72" s="1" t="n">
+        <v>1.70104830934432</v>
+      </c>
+      <c r="U72" s="1" t="n">
+        <v>1.74937485643304</v>
+      </c>
+      <c r="V72" s="1" t="n">
+        <v>1.13436946955977</v>
+      </c>
+      <c r="W72" s="1" t="n">
+        <v>1.19094368180958</v>
+      </c>
+      <c r="X72" s="1" t="n">
+        <v>0.720165175814919</v>
+      </c>
+      <c r="Y72" s="1" t="n">
+        <v>0.701780571380521</v>
+      </c>
+      <c r="Z72" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA72" s="1" t="n">
+        <v>0.375338856026645</v>
+      </c>
+      <c r="AB72" s="1" t="n">
+        <v>0.350711597889382</v>
+      </c>
+      <c r="AC72" s="1" t="n">
+        <v>1.69612263800659</v>
+      </c>
+      <c r="AD72" s="1" t="n">
+        <v>1.76339648266633</v>
+      </c>
+      <c r="AE72" s="1" t="n">
+        <v>1.12998528659014</v>
+      </c>
+      <c r="AF72" s="1" t="n">
+        <v>1.19878492295403</v>
+      </c>
+      <c r="AG72" s="1" t="n">
+        <v>0.721028240106322</v>
+      </c>
+      <c r="AH72" s="1" t="n">
+        <v>0.700182892219723</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="73" s="5" spans="1:34">
+      <c r="A73" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O73" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P73" s="1" t="n">
+        <v>0.00628646471715268</v>
+      </c>
+      <c r="Q73" s="1" t="n">
+        <v>0.00641247304899421</v>
+      </c>
+      <c r="R73" s="1" t="n">
+        <v>0.360166369414471</v>
+      </c>
+      <c r="S73" s="1" t="n">
+        <v>0.345750383653219</v>
+      </c>
+      <c r="T73" s="1" t="n">
+        <v>1.73019182287818</v>
+      </c>
+      <c r="U73" s="1" t="n">
+        <v>1.73978913561801</v>
+      </c>
+      <c r="V73" s="1" t="n">
+        <v>1.1666999497311</v>
+      </c>
+      <c r="W73" s="1" t="n">
+        <v>1.18894658285858</v>
+      </c>
+      <c r="X73" s="1" t="n">
+        <v>0.710822963937226</v>
+      </c>
+      <c r="Y73" s="1" t="n">
+        <v>0.703630515671971</v>
+      </c>
+      <c r="Z73" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA73" s="1" t="n">
+        <v>0.371813146580911</v>
+      </c>
+      <c r="AB73" s="1" t="n">
+        <v>0.346969665118039</v>
+      </c>
+      <c r="AC73" s="1" t="n">
+        <v>1.6996247781162</v>
+      </c>
+      <c r="AD73" s="1" t="n">
+        <v>1.76083749297292</v>
+      </c>
+      <c r="AE73" s="1" t="n">
+        <v>1.13598312433864</v>
+      </c>
+      <c r="AF73" s="1" t="n">
+        <v>1.19943660787488</v>
+      </c>
+      <c r="AG73" s="1" t="n">
+        <v>0.719426062246217</v>
+      </c>
+      <c r="AH73" s="1" t="n">
+        <v>0.700393113161933</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="74" s="5" spans="1:34">
+      <c r="A74" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" s="1" t="n"/>
+      <c r="C74" s="1" t="n"/>
+      <c r="D74" s="1" t="n"/>
+      <c r="E74" s="1" t="n"/>
+      <c r="F74" s="1" t="n"/>
+      <c r="G74" s="1" t="n"/>
+      <c r="H74" s="1" t="n"/>
+      <c r="I74" s="1" t="n"/>
+      <c r="J74" s="1" t="n"/>
+      <c r="K74" s="1" t="n"/>
+      <c r="L74" s="1" t="n"/>
+      <c r="M74" s="1" t="n"/>
+      <c r="N74" s="1" t="n"/>
+      <c r="O74" s="1" t="n"/>
+      <c r="P74" s="1" t="n"/>
+      <c r="Q74" s="1" t="n"/>
+      <c r="R74" s="1" t="n"/>
+      <c r="S74" s="1" t="n"/>
+      <c r="T74" s="1" t="n"/>
+      <c r="U74" s="1" t="n"/>
+      <c r="V74" s="1" t="n"/>
+      <c r="W74" s="1" t="n"/>
+      <c r="X74" s="1" t="n"/>
+      <c r="Y74" s="1" t="n"/>
+      <c r="Z74" s="1" t="n"/>
+      <c r="AA74" s="1" t="n"/>
+      <c r="AB74" s="1" t="n"/>
+      <c r="AC74" s="1" t="n"/>
+      <c r="AD74" s="1" t="n"/>
+      <c r="AE74" s="1" t="n"/>
+      <c r="AF74" s="1" t="n"/>
+      <c r="AG74" s="1" t="n"/>
+      <c r="AH74" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12.8" r="75" s="5" spans="1:34">
+      <c r="A75" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O75" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="P75" s="1" t="n">
+        <v>0.000667469174682729</v>
+      </c>
+      <c r="Q75" s="1" t="n">
+        <v>0.000672761025223422</v>
+      </c>
+      <c r="R75" s="1" t="n">
+        <v>0.321975774519863</v>
+      </c>
+      <c r="S75" s="1" t="n">
+        <v>0.314301330698564</v>
+      </c>
+      <c r="T75" s="1" t="n">
+        <v>1.84976481212834</v>
+      </c>
+      <c r="U75" s="1" t="n">
+        <v>1.84495974865967</v>
+      </c>
+      <c r="V75" s="1" t="n">
+        <v>1.28311263218541</v>
+      </c>
+      <c r="W75" s="1" t="n">
+        <v>1.28905379553911</v>
+      </c>
+      <c r="X75" s="1" t="n">
+        <v>0.676543702958979</v>
+      </c>
+      <c r="Y75" s="1" t="n">
+        <v>0.674157539574092</v>
+      </c>
+      <c r="Z75" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA75" s="1" t="n">
+        <v>0.322577165063341</v>
+      </c>
+      <c r="AB75" s="1" t="n">
+        <v>0.314091109756354</v>
+      </c>
+      <c r="AC75" s="1" t="n">
+        <v>1.84958487204551</v>
+      </c>
+      <c r="AD75" s="1" t="n">
+        <v>1.86144774357887</v>
+      </c>
+      <c r="AE75" s="1" t="n">
+        <v>1.2826719185047</v>
+      </c>
+      <c r="AF75" s="1" t="n">
+        <v>1.29866089259812</v>
+      </c>
+      <c r="AG75" s="1" t="n">
+        <v>0.676474841446367</v>
+      </c>
+      <c r="AH75" s="1" t="n">
+        <v>0.672244528999979</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="76" s="5" spans="1:34">
+      <c r="A76" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O76" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="P76" s="1" t="n">
+        <v>0.000668224531326464</v>
+      </c>
+      <c r="Q76" s="1" t="n">
+        <v>0.000672718032084998</v>
+      </c>
+      <c r="R76" s="1" t="n">
+        <v>0.320993350273265</v>
+      </c>
+      <c r="S76" s="1" t="n">
+        <v>0.31339738064706</v>
+      </c>
+      <c r="T76" s="1" t="n">
+        <v>1.85154031656756</v>
+      </c>
+      <c r="U76" s="1" t="n">
+        <v>1.8490742138422</v>
+      </c>
+      <c r="V76" s="1" t="n">
+        <v>1.28544244669545</v>
+      </c>
+      <c r="W76" s="1" t="n">
+        <v>1.29239630852026</v>
+      </c>
+      <c r="X76" s="1" t="n">
+        <v>0.676121352348292</v>
+      </c>
+      <c r="Y76" s="1" t="n">
+        <v>0.673316655805251</v>
+      </c>
+      <c r="Z76" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA76" s="1" t="n">
+        <v>0.322909995707632</v>
+      </c>
+      <c r="AB76" s="1" t="n">
+        <v>0.314238264415901</v>
+      </c>
+      <c r="AC76" s="1" t="n">
+        <v>1.844908978993</v>
+      </c>
+      <c r="AD76" s="1" t="n">
+        <v>1.86612862372301</v>
+      </c>
+      <c r="AE76" s="1" t="n">
+        <v>1.27909111984887</v>
+      </c>
+      <c r="AF76" s="1" t="n">
+        <v>1.30248691374635</v>
+      </c>
+      <c r="AG76" s="1" t="n">
+        <v>0.677608761020711</v>
+      </c>
+      <c r="AH76" s="1" t="n">
+        <v>0.670583783556518</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="77" s="5" spans="1:34">
+      <c r="A77" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O77" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="P77" s="1" t="n">
+        <v>0.000668564079911697</v>
+      </c>
+      <c r="Q77" s="1" t="n">
+        <v>0.000672965394152688</v>
+      </c>
+      <c r="R77" s="1" t="n">
+        <v>0.322168586755177</v>
+      </c>
+      <c r="S77" s="1" t="n">
+        <v>0.312535474783998</v>
+      </c>
+      <c r="T77" s="1" t="n">
+        <v>1.84878485747829</v>
+      </c>
+      <c r="U77" s="1" t="n">
+        <v>1.85768323115748</v>
+      </c>
+      <c r="V77" s="1" t="n">
+        <v>1.28275225693608</v>
+      </c>
+      <c r="W77" s="1" t="n">
+        <v>1.29899724610566</v>
+      </c>
+      <c r="X77" s="1" t="n">
+        <v>0.676334823037389</v>
+      </c>
+      <c r="Y77" s="1" t="n">
+        <v>0.672097374340432</v>
+      </c>
+      <c r="Z77" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA77" s="1" t="n">
+        <v>0.320876285701825</v>
+      </c>
+      <c r="AB77" s="1" t="n">
+        <v>0.312703651537766</v>
+      </c>
+      <c r="AC77" s="1" t="n">
+        <v>1.84969097676382</v>
+      </c>
+      <c r="AD77" s="1" t="n">
+        <v>1.85867879847664</v>
+      </c>
+      <c r="AE77" s="1" t="n">
+        <v>1.28463906238164</v>
+      </c>
+      <c r="AF77" s="1" t="n">
+        <v>1.29933359961319</v>
+      </c>
+      <c r="AG77" s="1" t="n">
+        <v>0.676075444673218</v>
+      </c>
+      <c r="AH77" s="1" t="n">
+        <v>0.672076352246211</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="78" s="5" spans="1:34">
+      <c r="A78" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O78" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="P78" s="1" t="n">
+        <v>0.0006695575811956329</v>
+      </c>
+      <c r="Q78" s="1" t="n">
+        <v>0.0006729576436317549</v>
+      </c>
+      <c r="R78" s="1" t="n">
+        <v>0.320396550497295</v>
+      </c>
+      <c r="S78" s="1" t="n">
+        <v>0.31236729803023</v>
+      </c>
+      <c r="T78" s="1" t="n">
+        <v>1.85602637226809</v>
+      </c>
+      <c r="U78" s="1" t="n">
+        <v>1.83605637965826</v>
+      </c>
+      <c r="V78" s="1" t="n">
+        <v>1.28887175002353</v>
+      </c>
+      <c r="W78" s="1" t="n">
+        <v>1.28672034308058</v>
+      </c>
+      <c r="X78" s="1" t="n">
+        <v>0.675090725042866</v>
+      </c>
+      <c r="Y78" s="1" t="n">
+        <v>0.673526876747462</v>
+      </c>
+      <c r="Z78" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA78" s="1" t="n">
+        <v>0.322274174407848</v>
+      </c>
+      <c r="AB78" s="1" t="n">
+        <v>0.314847905148311</v>
+      </c>
+      <c r="AC78" s="1" t="n">
+        <v>1.84826332725829</v>
+      </c>
+      <c r="AD78" s="1" t="n">
+        <v>1.86062879113832</v>
+      </c>
+      <c r="AE78" s="1" t="n">
+        <v>1.2822105463702</v>
+      </c>
+      <c r="AF78" s="1" t="n">
+        <v>1.29897622401144</v>
+      </c>
+      <c r="AG78" s="1" t="n">
+        <v>0.676490909132643</v>
+      </c>
+      <c r="AH78" s="1" t="n">
+        <v>0.671403645231138</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="79" s="5" spans="1:34">
+      <c r="A79" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O79" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P79" s="1" t="n">
+        <v>0.000671410921759873</v>
+      </c>
+      <c r="Q79" s="1" t="n">
+        <v>0.000674324674907448</v>
+      </c>
+      <c r="R79" s="1" t="n">
+        <v>0.31837661279401</v>
+      </c>
+      <c r="S79" s="1" t="n">
+        <v>0.309192961802855</v>
+      </c>
+      <c r="T79" s="1" t="n">
+        <v>1.86294590415765</v>
+      </c>
+      <c r="U79" s="1" t="n">
+        <v>1.86136868802389</v>
+      </c>
+      <c r="V79" s="1" t="n">
+        <v>1.29558115673569</v>
+      </c>
+      <c r="W79" s="1" t="n">
+        <v>1.30311757657298</v>
+      </c>
+      <c r="X79" s="1" t="n">
+        <v>0.672974381221924</v>
+      </c>
+      <c r="Y79" s="1" t="n">
+        <v>0.672643948790179</v>
+      </c>
+      <c r="Z79" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA79" s="1" t="n">
+        <v>0.31837661279401</v>
+      </c>
+      <c r="AB79" s="1" t="n">
+        <v>0.309192961802855</v>
+      </c>
+      <c r="AC79" s="1" t="n">
+        <v>1.86294590415765</v>
+      </c>
+      <c r="AD79" s="1" t="n">
+        <v>1.86136868802389</v>
+      </c>
+      <c r="AE79" s="1" t="n">
+        <v>1.29558115673569</v>
+      </c>
+      <c r="AF79" s="1" t="n">
+        <v>1.30311757657298</v>
+      </c>
+      <c r="AG79" s="1" t="n">
+        <v>0.672974381221924</v>
+      </c>
+      <c r="AH79" s="1" t="n">
+        <v>0.672643948790179</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="80" s="5" spans="1:34">
+      <c r="A80" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="81" s="5" spans="1:34">
+      <c r="A81" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O81" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="P81" s="1" t="n">
+        <v>0.000666998288966019</v>
+      </c>
+      <c r="Q81" s="1" t="n">
+        <v>0.000671961161388125</v>
+      </c>
+      <c r="R81" s="1" t="n">
+        <v>0.32344941088976</v>
+      </c>
+      <c r="S81" s="1" t="n">
+        <v>0.313628623683491</v>
+      </c>
+      <c r="T81" s="1" t="n">
+        <v>1.84906418815849</v>
+      </c>
+      <c r="U81" s="1" t="n">
+        <v>1.85357086374361</v>
+      </c>
+      <c r="V81" s="1" t="n">
+        <v>1.281476023569</v>
+      </c>
+      <c r="W81" s="1" t="n">
+        <v>1.29567575521874</v>
+      </c>
+      <c r="X81" s="1" t="n">
+        <v>0.676773241334352</v>
+      </c>
+      <c r="Y81" s="1" t="n">
+        <v>0.671592844079127</v>
+      </c>
+      <c r="Z81" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA81" s="1" t="n">
+        <v>0.322708001937304</v>
+      </c>
+      <c r="AB81" s="1" t="n">
+        <v>0.312766717820429</v>
+      </c>
+      <c r="AC81" s="1" t="n">
+        <v>1.84929010477442</v>
+      </c>
+      <c r="AD81" s="1" t="n">
+        <v>1.88957047258788</v>
+      </c>
+      <c r="AE81" s="1" t="n">
+        <v>1.28197641722731</v>
+      </c>
+      <c r="AF81" s="1" t="n">
+        <v>1.31901027980407</v>
+      </c>
+      <c r="AG81" s="1" t="n">
+        <v>0.6770119612447409</v>
+      </c>
+      <c r="AH81" s="1" t="n">
+        <v>0.665643591414577</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="82" s="5" spans="1:34">
+      <c r="A82" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N82" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O82" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="P82" s="1" t="n">
+        <v>0.000326251812407677</v>
+      </c>
+      <c r="Q82" s="1" t="n">
+        <v>0.000327594319489291</v>
+      </c>
+      <c r="R82" s="1" t="n">
+        <v>0.278648110784401</v>
+      </c>
+      <c r="S82" s="1" t="n">
+        <v>0.271374214299228</v>
+      </c>
+      <c r="T82" s="1" t="n">
+        <v>1.77766592212137</v>
+      </c>
+      <c r="U82" s="1" t="n">
+        <v>1.77704725589786</v>
+      </c>
+      <c r="V82" s="1" t="n">
+        <v>1.2764307700783</v>
+      </c>
+      <c r="W82" s="1" t="n">
+        <v>1.28369316151275</v>
+      </c>
+      <c r="X82" s="1" t="n">
+        <v>0.689402442747391</v>
+      </c>
+      <c r="Y82" s="1" t="n">
+        <v>0.68782190081776</v>
+      </c>
+      <c r="Z82" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA82" s="1" t="n">
+        <v>0.278519569294192</v>
+      </c>
+      <c r="AB82" s="1" t="n">
+        <v>0.273581534192436</v>
+      </c>
+      <c r="AC82" s="1" t="n">
+        <v>1.7778783175253</v>
+      </c>
+      <c r="AD82" s="1" t="n">
+        <v>1.78480250490091</v>
+      </c>
+      <c r="AE82" s="1" t="n">
+        <v>1.27612089327154</v>
+      </c>
+      <c r="AF82" s="1" t="n">
+        <v>1.2858374151233</v>
+      </c>
+      <c r="AG82" s="1" t="n">
+        <v>0.6901369655485849</v>
+      </c>
+      <c r="AH82" s="1" t="n">
+        <v>0.687275326368013</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="83" s="5" spans="1:34">
+      <c r="A83" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O83" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="P83" s="1" t="n">
+        <v>1.52989076491319e-05</v>
+      </c>
+      <c r="Q83" s="1" t="n">
+        <v>1.5270063192244e-05</v>
+      </c>
+      <c r="R83" s="1" t="n">
+        <v>0.239950236080219</v>
+      </c>
+      <c r="S83" s="1" t="n">
+        <v>0.244318779036768</v>
+      </c>
+      <c r="T83" s="1" t="n">
+        <v>1.88427511370361</v>
+      </c>
+      <c r="U83" s="1" t="n">
+        <v>1.87596527879898</v>
+      </c>
+      <c r="V83" s="1" t="n">
+        <v>1.41727322182359</v>
+      </c>
+      <c r="W83" s="1" t="n">
+        <v>1.40589459521958</v>
+      </c>
+      <c r="X83" s="1" t="n">
+        <v>0.61379250189943</v>
+      </c>
+      <c r="Y83" s="1" t="n">
+        <v>0.618049570098173</v>
+      </c>
+      <c r="Z83" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA83" s="1" t="n">
+        <v>0.241203515609757</v>
+      </c>
+      <c r="AB83" s="1" t="n">
+        <v>0.246189745422439</v>
+      </c>
+      <c r="AC83" s="1" t="n">
+        <v>1.88463200625545</v>
+      </c>
+      <c r="AD83" s="1" t="n">
+        <v>1.87984974416807</v>
+      </c>
+      <c r="AE83" s="1" t="n">
+        <v>1.41680037277032</v>
+      </c>
+      <c r="AF83" s="1" t="n">
+        <v>1.40480144632008</v>
+      </c>
+      <c r="AG83" s="1" t="n">
+        <v>0.613227837496012</v>
+      </c>
+      <c r="AH83" s="1" t="n">
+        <v>0.6201307574260549</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="84" s="5" spans="1:34">
+      <c r="A84" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O84" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="P84" s="1" t="n">
+        <v>7.40451461207188e-06</v>
+      </c>
+      <c r="Q84" s="1" t="n">
+        <v>7.43005974419711e-06</v>
+      </c>
+      <c r="R84" s="1" t="n">
+        <v>0.201004459930633</v>
+      </c>
+      <c r="S84" s="1" t="n">
+        <v>0.208286909541929</v>
+      </c>
+      <c r="T84" s="1" t="n">
+        <v>1.98459372590215</v>
+      </c>
+      <c r="U84" s="1" t="n">
+        <v>1.97048263750731</v>
+      </c>
+      <c r="V84" s="1" t="n">
+        <v>1.54941157837473</v>
+      </c>
+      <c r="W84" s="1" t="n">
+        <v>1.52942042086233</v>
+      </c>
+      <c r="X84" s="1" t="n">
+        <v>0.5545670102856149</v>
+      </c>
+      <c r="Y84" s="1" t="n">
+        <v>0.562004666904917</v>
+      </c>
+      <c r="Z84" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA84" s="1" t="n">
+        <v>0.201929499583388</v>
+      </c>
+      <c r="AB84" s="1" t="n">
+        <v>0.207067628077109</v>
+      </c>
+      <c r="AC84" s="1" t="n">
+        <v>1.9820788377601</v>
+      </c>
+      <c r="AD84" s="1" t="n">
+        <v>1.97285495073666</v>
+      </c>
+      <c r="AE84" s="1" t="n">
+        <v>1.54617049651446</v>
+      </c>
+      <c r="AF84" s="1" t="n">
+        <v>1.53427652462738</v>
+      </c>
+      <c r="AG84" s="1" t="n">
+        <v>0.555953422072869</v>
+      </c>
+      <c r="AH84" s="1" t="n">
+        <v>0.559082595808194</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="85" s="5" spans="1:34">
+      <c r="A85" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O85" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="P85" s="1" t="n">
+        <v>0.000598114763795051</v>
+      </c>
+      <c r="Q85" s="1" t="n">
+        <v>0.000603227459734399</v>
+      </c>
+      <c r="R85" s="1" t="n">
+        <v>0.283537278179852</v>
+      </c>
+      <c r="S85" s="1" t="n">
+        <v>0.276146229687401</v>
+      </c>
+      <c r="T85" s="1" t="n">
+        <v>1.72790911775633</v>
+      </c>
+      <c r="U85" s="1" t="n">
+        <v>1.73529444775469</v>
+      </c>
+      <c r="V85" s="1" t="n">
+        <v>1.23768010154778</v>
+      </c>
+      <c r="W85" s="1" t="n">
+        <v>1.25152935735458</v>
+      </c>
+      <c r="X85" s="1" t="n">
+        <v>0.703780726580773</v>
+      </c>
+      <c r="Y85" s="1" t="n">
+        <v>0.698038638609178</v>
+      </c>
+      <c r="Z85" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA85" s="1" t="n">
+        <v>0.283794361160271</v>
+      </c>
+      <c r="AB85" s="1" t="n">
+        <v>0.279909184552965</v>
+      </c>
+      <c r="AC85" s="1" t="n">
+        <v>1.72519635349906</v>
+      </c>
+      <c r="AD85" s="1" t="n">
+        <v>1.7357668460244</v>
+      </c>
+      <c r="AE85" s="1" t="n">
+        <v>1.23567623153077</v>
+      </c>
+      <c r="AF85" s="1" t="n">
+        <v>1.24854421997519</v>
+      </c>
+      <c r="AG85" s="1" t="n">
+        <v>0.70437523097299</v>
+      </c>
+      <c r="AH85" s="1" t="n">
+        <v>0.697996594420736</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="86" s="5" spans="1:34">
+      <c r="A86" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O86" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="P86" s="1" t="n">
+        <v>0.000860533755233745</v>
+      </c>
+      <c r="Q86" s="1" t="n">
+        <v>0.00086799519024834</v>
+      </c>
+      <c r="R86" s="1" t="n">
+        <v>0.289799085060036</v>
+      </c>
+      <c r="S86" s="1" t="n">
+        <v>0.280266560154723</v>
+      </c>
+      <c r="T86" s="1" t="n">
+        <v>1.70031138079591</v>
+      </c>
+      <c r="U86" s="1" t="n">
+        <v>1.7124722251</v>
+      </c>
+      <c r="V86" s="1" t="n">
+        <v>1.21295881852007</v>
+      </c>
+      <c r="W86" s="1" t="n">
+        <v>1.23044419685089</v>
+      </c>
+      <c r="X86" s="1" t="n">
+        <v>0.7124136648785629</v>
+      </c>
+      <c r="Y86" s="1" t="n">
+        <v>0.707372448443314</v>
+      </c>
+      <c r="Z86" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA86" s="1" t="n">
+        <v>0.289261965261662</v>
+      </c>
+      <c r="AB86" s="1" t="n">
+        <v>0.285437995333095</v>
+      </c>
+      <c r="AC86" s="1" t="n">
+        <v>1.69984962546001</v>
+      </c>
+      <c r="AD86" s="1" t="n">
+        <v>1.72566705973891</v>
+      </c>
+      <c r="AE86" s="1" t="n">
+        <v>1.21295422775257</v>
+      </c>
+      <c r="AF86" s="1" t="n">
+        <v>1.2338497761147</v>
+      </c>
+      <c r="AG86" s="1" t="n">
+        <v>0.712684520161503</v>
+      </c>
+      <c r="AH86" s="1" t="n">
+        <v>0.705480459963422</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="87" s="5" spans="1:34">
+      <c r="A87" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O87" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="P87" s="1" t="n">
+        <v>0.00112648466261447</v>
+      </c>
+      <c r="Q87" s="1" t="n">
+        <v>0.00113784351482592</v>
+      </c>
+      <c r="R87" s="1" t="n">
+        <v>0.289624635894752</v>
+      </c>
+      <c r="S87" s="1" t="n">
+        <v>0.284744266223801</v>
+      </c>
+      <c r="T87" s="1" t="n">
+        <v>1.69690670130359</v>
+      </c>
+      <c r="U87" s="1" t="n">
+        <v>1.68571039687687</v>
+      </c>
+      <c r="V87" s="1" t="n">
+        <v>1.21022042570187</v>
+      </c>
+      <c r="W87" s="1" t="n">
+        <v>1.21232315163237</v>
+      </c>
+      <c r="X87" s="1" t="n">
+        <v>0.7140387965762059</v>
+      </c>
+      <c r="Y87" s="1" t="n">
+        <v>0.709264436923206</v>
+      </c>
+      <c r="Z87" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA87" s="1" t="n">
+        <v>0.291745570483201</v>
+      </c>
+      <c r="AB87" s="1" t="n">
+        <v>0.288528243183586</v>
+      </c>
+      <c r="AC87" s="1" t="n">
+        <v>1.68490379150503</v>
+      </c>
+      <c r="AD87" s="1" t="n">
+        <v>1.71074659528021</v>
+      </c>
+      <c r="AE87" s="1" t="n">
+        <v>1.20036863863085</v>
+      </c>
+      <c r="AF87" s="1" t="n">
+        <v>1.21999621602304</v>
+      </c>
+      <c r="AG87" s="1" t="n">
+        <v>0.71728217382023</v>
+      </c>
+      <c r="AH87" s="1" t="n">
+        <v>0.710883138178225</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="88" s="5" spans="1:34">
+      <c r="A88" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O88" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="P88" s="1" t="n">
+        <v>0.00137315339137512</v>
+      </c>
+      <c r="Q88" s="1" t="n">
+        <v>0.0013920142278697</v>
+      </c>
+      <c r="R88" s="1" t="n">
+        <v>0.292656837833433</v>
+      </c>
+      <c r="S88" s="1" t="n">
+        <v>0.287435094284093</v>
+      </c>
+      <c r="T88" s="1" t="n">
+        <v>1.67286415705438</v>
+      </c>
+      <c r="U88" s="1" t="n">
+        <v>1.68267102615251</v>
+      </c>
+      <c r="V88" s="1" t="n">
+        <v>1.19091165756547</v>
+      </c>
+      <c r="W88" s="1" t="n">
+        <v>1.20654207572158</v>
+      </c>
+      <c r="X88" s="1" t="n">
+        <v>0.722006073585412</v>
+      </c>
+      <c r="Y88" s="1" t="n">
+        <v>0.712838192940781</v>
+      </c>
+      <c r="Z88" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA88" s="1" t="n">
+        <v>0.29407538499324</v>
+      </c>
+      <c r="AB88" s="1" t="n">
+        <v>0.286278879101936</v>
+      </c>
+      <c r="AC88" s="1" t="n">
+        <v>1.66559116190327</v>
+      </c>
+      <c r="AD88" s="1" t="n">
+        <v>1.69904501954225</v>
+      </c>
+      <c r="AE88" s="1" t="n">
+        <v>1.18510433666853</v>
+      </c>
+      <c r="AF88" s="1" t="n">
+        <v>1.21474069246778</v>
+      </c>
+      <c r="AG88" s="1" t="n">
+        <v>0.7237161344819431</v>
+      </c>
+      <c r="AH88" s="1" t="n">
+        <v>0.713552944144296</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="89" s="5" spans="1:34">
+      <c r="A89" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O89" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="P89" s="1" t="n">
+        <v>0.00153696246531082</v>
+      </c>
+      <c r="Q89" s="1" t="n">
+        <v>0.00156973551745552</v>
+      </c>
+      <c r="R89" s="1" t="n">
+        <v>0.284698742359241</v>
+      </c>
+      <c r="S89" s="1" t="n">
+        <v>0.272551451575606</v>
+      </c>
+      <c r="T89" s="1" t="n">
+        <v>1.71438739130549</v>
+      </c>
+      <c r="U89" s="1" t="n">
+        <v>1.67980762681324</v>
+      </c>
+      <c r="V89" s="1" t="n">
+        <v>1.22724528700331</v>
+      </c>
+      <c r="W89" s="1" t="n">
+        <v>1.22911980491497</v>
+      </c>
+      <c r="X89" s="1" t="n">
+        <v>0.70774485432347</v>
+      </c>
+      <c r="Y89" s="1" t="n">
+        <v>0.694864302381803</v>
+      </c>
+      <c r="Z89" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA89" s="1" t="n">
+        <v>0.298195598831191</v>
+      </c>
+      <c r="AB89" s="1" t="n">
+        <v>0.291597468939856</v>
+      </c>
+      <c r="AC89" s="1" t="n">
+        <v>1.65408130412191</v>
+      </c>
+      <c r="AD89" s="1" t="n">
+        <v>1.68398231048891</v>
+      </c>
+      <c r="AE89" s="1" t="n">
+        <v>1.17314538731158</v>
+      </c>
+      <c r="AF89" s="1" t="n">
+        <v>1.20170699405075</v>
+      </c>
+      <c r="AG89" s="1" t="n">
+        <v>0.727765191423528</v>
+      </c>
+      <c r="AH89" s="1" t="n">
+        <v>0.714919380268662</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="90" s="5" spans="1:34">
+      <c r="A90" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O90" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="P90" s="1" t="n">
+        <v>0.000469561545553276</v>
+      </c>
+      <c r="Q90" s="1" t="n">
+        <v>0.000469929298264631</v>
+      </c>
+      <c r="R90" s="1" t="n">
+        <v>0.26471972216675</v>
+      </c>
+      <c r="S90" s="1" t="n">
+        <v>0.267169795455023</v>
+      </c>
+      <c r="T90" s="1" t="n">
+        <v>1.77480741291699</v>
+      </c>
+      <c r="U90" s="1" t="n">
+        <v>1.76915701459366</v>
+      </c>
+      <c r="V90" s="1" t="n">
+        <v>1.31241779656932</v>
+      </c>
+      <c r="W90" s="1" t="n">
+        <v>1.30788959196115</v>
+      </c>
+      <c r="X90" s="1" t="n">
+        <v>0.651746672267403</v>
+      </c>
+      <c r="Y90" s="1" t="n">
+        <v>0.650570749858101</v>
+      </c>
+      <c r="Z90" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA90" s="1" t="n">
+        <v>0.264767925225579</v>
+      </c>
+      <c r="AB90" s="1" t="n">
+        <v>0.268452143202506</v>
+      </c>
+      <c r="AC90" s="1" t="n">
+        <v>1.77385851323559</v>
+      </c>
+      <c r="AD90" s="1" t="n">
+        <v>1.77396884434288</v>
+      </c>
+      <c r="AE90" s="1" t="n">
+        <v>1.31221809818275</v>
+      </c>
+      <c r="AF90" s="1" t="n">
+        <v>1.30875149782421</v>
+      </c>
+      <c r="AG90" s="1" t="n">
+        <v>0.651331207807977</v>
+      </c>
+      <c r="AH90" s="1" t="n">
+        <v>0.6513695894385</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="91" s="5" spans="1:34">
+      <c r="A91" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N91" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O91" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="P91" s="1" t="n">
+        <v>0.000914715097668358</v>
+      </c>
+      <c r="Q91" s="1" t="n">
+        <v>0.0009154103808021201</v>
+      </c>
+      <c r="R91" s="1" t="n">
+        <v>0.272062654794942</v>
+      </c>
+      <c r="S91" s="1" t="n">
+        <v>0.27120603754546</v>
+      </c>
+      <c r="T91" s="1" t="n">
+        <v>1.74192815343646</v>
+      </c>
+      <c r="U91" s="1" t="n">
+        <v>1.74015763198681</v>
+      </c>
+      <c r="V91" s="1" t="n">
+        <v>1.28170556194437</v>
+      </c>
+      <c r="W91" s="1" t="n">
+        <v>1.28142277533688</v>
+      </c>
+      <c r="X91" s="1" t="n">
+        <v>0.663085868010843</v>
+      </c>
+      <c r="Y91" s="1" t="n">
+        <v>0.663289116861822</v>
+      </c>
+      <c r="Z91" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA91" s="1" t="n">
+        <v>0.273093282100368</v>
+      </c>
+      <c r="AB91" s="1" t="n">
+        <v>0.276629737854485</v>
+      </c>
+      <c r="AC91" s="1" t="n">
+        <v>1.74269358398325</v>
+      </c>
+      <c r="AD91" s="1" t="n">
+        <v>1.74633192968699</v>
+      </c>
+      <c r="AE91" s="1" t="n">
+        <v>1.28133370977627</v>
+      </c>
+      <c r="AF91" s="1" t="n">
+        <v>1.27906830078412</v>
+      </c>
+      <c r="AG91" s="1" t="n">
+        <v>0.663175387977239</v>
+      </c>
+      <c r="AH91" s="1" t="n">
+        <v>0.6646555529861879</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="92" s="5" spans="1:34">
+      <c r="A92" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O92" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="P92" s="1" t="n">
+        <v>0.00135446329186017</v>
+      </c>
+      <c r="Q92" s="1" t="n">
+        <v>0.00135570456237419</v>
+      </c>
+      <c r="R92" s="1" t="n">
+        <v>0.279658079636044</v>
+      </c>
+      <c r="S92" s="1" t="n">
+        <v>0.276671782042927</v>
+      </c>
+      <c r="T92" s="1" t="n">
+        <v>1.71451592035419</v>
+      </c>
+      <c r="U92" s="1" t="n">
+        <v>1.71210390925483</v>
+      </c>
+      <c r="V92" s="1" t="n">
+        <v>1.25527651340389</v>
+      </c>
+      <c r="W92" s="1" t="n">
+        <v>1.25714225651159</v>
+      </c>
+      <c r="X92" s="1" t="n">
+        <v>0.67271959362526</v>
+      </c>
+      <c r="Y92" s="1" t="n">
+        <v>0.670920137064054</v>
+      </c>
+      <c r="Z92" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA92" s="1" t="n">
+        <v>0.280840202269216</v>
+      </c>
+      <c r="AB92" s="1" t="n">
+        <v>0.279909184552965</v>
+      </c>
+      <c r="AC92" s="1" t="n">
+        <v>1.71134540208145</v>
+      </c>
+      <c r="AD92" s="1" t="n">
+        <v>1.71894166661826</v>
+      </c>
+      <c r="AE92" s="1" t="n">
+        <v>1.25209052075371</v>
+      </c>
+      <c r="AF92" s="1" t="n">
+        <v>1.25667977043873</v>
+      </c>
+      <c r="AG92" s="1" t="n">
+        <v>0.6736193840567229</v>
+      </c>
+      <c r="AH92" s="1" t="n">
+        <v>0.672391683659526</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="93" s="5" spans="1:34">
+      <c r="A93" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O93" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="P93" s="1" t="n">
+        <v>0.00179177636414577</v>
+      </c>
+      <c r="Q93" s="1" t="n">
+        <v>0.00179399965805264</v>
+      </c>
+      <c r="R93" s="1" t="n">
+        <v>0.283498256656039</v>
+      </c>
+      <c r="S93" s="1" t="n">
+        <v>0.28451302318737</v>
+      </c>
+      <c r="T93" s="1" t="n">
+        <v>1.70108271853388</v>
+      </c>
+      <c r="U93" s="1" t="n">
+        <v>1.703616837248</v>
+      </c>
+      <c r="V93" s="1" t="n">
+        <v>1.24119892484225</v>
+      </c>
+      <c r="W93" s="1" t="n">
+        <v>1.24425571275411</v>
+      </c>
+      <c r="X93" s="1" t="n">
+        <v>0.678930902062861</v>
+      </c>
+      <c r="Y93" s="1" t="n">
+        <v>0.67430469423364</v>
+      </c>
+      <c r="Z93" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA93" s="1" t="n">
+        <v>0.28298868146271</v>
+      </c>
+      <c r="AB93" s="1" t="n">
+        <v>0.28676238726902</v>
+      </c>
+      <c r="AC93" s="1" t="n">
+        <v>1.70193058397605</v>
+      </c>
+      <c r="AD93" s="1" t="n">
+        <v>1.70592895909759</v>
+      </c>
+      <c r="AE93" s="1" t="n">
+        <v>1.24269321966593</v>
+      </c>
+      <c r="AF93" s="1" t="n">
+        <v>1.24259496731064</v>
+      </c>
+      <c r="AG93" s="1" t="n">
+        <v>0.6779943854913379</v>
+      </c>
+      <c r="AH93" s="1" t="n">
+        <v>0.675608064075343</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="94" s="5" spans="1:34">
+      <c r="A94" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O94" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="P94" s="1" t="n">
+        <v>0.00200955068920589</v>
+      </c>
+      <c r="Q94" s="1" t="n">
+        <v>0.00201314554282842</v>
+      </c>
+      <c r="R94" s="1" t="n">
+        <v>0.286048428006436</v>
+      </c>
+      <c r="S94" s="1" t="n">
+        <v>0.281317664865774</v>
+      </c>
+      <c r="T94" s="1" t="n">
+        <v>1.69365239740179</v>
+      </c>
+      <c r="U94" s="1" t="n">
+        <v>1.69577543108828</v>
+      </c>
+      <c r="V94" s="1" t="n">
+        <v>1.23405798598439</v>
+      </c>
+      <c r="W94" s="1" t="n">
+        <v>1.24223759170889</v>
+      </c>
+      <c r="X94" s="1" t="n">
+        <v>0.681150538152721</v>
+      </c>
+      <c r="Y94" s="1" t="n">
+        <v>0.676049528053985</v>
+      </c>
+      <c r="Z94" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA94" s="1" t="n">
+        <v>0.286112698751541</v>
+      </c>
+      <c r="AB94" s="1" t="n">
+        <v>0.285963547688621</v>
+      </c>
+      <c r="AC94" s="1" t="n">
+        <v>1.69031850018724</v>
+      </c>
+      <c r="AD94" s="1" t="n">
+        <v>1.70026949425292</v>
+      </c>
+      <c r="AE94" s="1" t="n">
+        <v>1.23174194377687</v>
+      </c>
+      <c r="AF94" s="1" t="n">
+        <v>1.23698206815363</v>
+      </c>
+      <c r="AG94" s="1" t="n">
+        <v>0.681816199441304</v>
+      </c>
+      <c r="AH94" s="1" t="n">
+        <v>0.680758477159495</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="95" s="5" spans="1:34">
+      <c r="A95" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="96" spans="1:34">
+      <c r="A96" t="s">
+        <v>167</v>
+      </c>
+      <c r="B96" t="s">
+        <v>34</v>
+      </c>
+      <c r="C96" t="s">
+        <v>35</v>
+      </c>
+      <c r="D96" t="s">
+        <v>36</v>
+      </c>
+      <c r="E96" t="s">
+        <v>37</v>
+      </c>
+      <c r="F96" t="s">
+        <v>38</v>
+      </c>
+      <c r="G96" t="s">
+        <v>39</v>
+      </c>
+      <c r="H96" t="s">
+        <v>168</v>
+      </c>
+      <c r="I96" t="s">
+        <v>40</v>
+      </c>
+      <c r="J96" t="s">
+        <v>41</v>
+      </c>
+      <c r="K96" t="s">
+        <v>169</v>
+      </c>
+      <c r="L96" t="s">
+        <v>43</v>
+      </c>
+      <c r="M96" t="s">
+        <v>37</v>
+      </c>
+      <c r="N96" t="s">
+        <v>78</v>
+      </c>
+      <c r="O96" t="n">
+        <v>20</v>
+      </c>
+      <c r="P96" t="n">
+        <v>0.00151918557219818</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0.001521904812388605</v>
+      </c>
+      <c r="R96" t="n">
+        <v>0.3145639803790597</v>
+      </c>
+      <c r="S96" t="n">
+        <v>0.3084992326935609</v>
+      </c>
+      <c r="T96" t="n">
+        <v>1.86230940243563</v>
+      </c>
+      <c r="U96" t="n">
+        <v>1.854200204772329</v>
+      </c>
+      <c r="V96" t="n">
+        <v>1.300509345654953</v>
+      </c>
+      <c r="W96" t="n">
+        <v>1.303432907986294</v>
+      </c>
+      <c r="X96" t="n">
+        <v>0.670479299081617</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>0.6673043368580378</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>0.3154063862166797</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>0.3088145641068764</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>1.857955270519197</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>1.865187752089162</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>1.296912479312854</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>1.308520254787782</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>0.6714663140957221</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>0.6679560217788896</v>
+      </c>
+    </row>
+    <row r="97" spans="1:34">
+      <c r="A97" t="s">
+        <v>170</v>
+      </c>
+      <c r="B97" t="s">
+        <v>34</v>
+      </c>
+      <c r="C97" t="s">
+        <v>35</v>
+      </c>
+      <c r="D97" t="s">
+        <v>36</v>
+      </c>
+      <c r="E97" t="s">
+        <v>37</v>
+      </c>
+      <c r="F97" t="s">
+        <v>38</v>
+      </c>
+      <c r="G97" t="s">
+        <v>39</v>
+      </c>
+      <c r="H97" t="s">
+        <v>171</v>
+      </c>
+      <c r="I97" t="s">
+        <v>40</v>
+      </c>
+      <c r="J97" t="s">
+        <v>41</v>
+      </c>
+      <c r="K97" t="s">
+        <v>169</v>
+      </c>
+      <c r="L97" t="s">
+        <v>43</v>
+      </c>
+      <c r="M97" t="s">
+        <v>37</v>
+      </c>
+      <c r="N97" t="s">
+        <v>78</v>
+      </c>
+      <c r="O97" t="n">
+        <v>28</v>
+      </c>
+      <c r="P97" t="n">
+        <v>0.00187407954183264</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0.001876041677506411</v>
+      </c>
+      <c r="R97" t="n">
+        <v>0.3125715872808195</v>
+      </c>
+      <c r="S97" t="n">
+        <v>0.3079106140553722</v>
+      </c>
+      <c r="T97" t="n">
+        <v>1.851918391281022</v>
+      </c>
+      <c r="U97" t="n">
+        <v>1.843757254167077</v>
+      </c>
+      <c r="V97" t="n">
+        <v>1.296161888825383</v>
+      </c>
+      <c r="W97" t="n">
+        <v>1.297189346002649</v>
+      </c>
+      <c r="X97" t="n">
+        <v>0.6716637170985431</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>0.6701423195778764</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>0.3126656980147226</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>0.3079736803380353</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>1.850318793581327</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>1.864505746073923</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>1.295505409071816</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>1.310138956042801</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>0.6712941603141921</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>0.6665265193718598</v>
+      </c>
+    </row>
+    <row r="98" spans="1:34">
+      <c r="A98" t="s">
+        <v>172</v>
+      </c>
+      <c r="B98" t="s">
+        <v>34</v>
+      </c>
+      <c r="C98" t="s">
+        <v>35</v>
+      </c>
+      <c r="D98" t="s">
+        <v>36</v>
+      </c>
+      <c r="E98" t="s">
+        <v>37</v>
+      </c>
+      <c r="F98" t="s">
+        <v>38</v>
+      </c>
+      <c r="G98" t="s">
+        <v>39</v>
+      </c>
+      <c r="H98" t="s">
+        <v>173</v>
+      </c>
+      <c r="I98" t="s">
+        <v>40</v>
+      </c>
+      <c r="J98" t="s">
+        <v>41</v>
+      </c>
+      <c r="K98" t="s">
+        <v>169</v>
+      </c>
+      <c r="L98" t="s">
+        <v>43</v>
+      </c>
+      <c r="M98" t="s">
+        <v>37</v>
+      </c>
+      <c r="N98" t="s">
+        <v>78</v>
+      </c>
+      <c r="O98" t="n">
+        <v>17</v>
+      </c>
+      <c r="P98" t="n">
+        <v>0.00214003707159823</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>0.002142214123392629</v>
+      </c>
+      <c r="R98" t="n">
+        <v>0.3067068817900321</v>
+      </c>
+      <c r="S98" t="n">
+        <v>0.3007210578317812</v>
+      </c>
+      <c r="T98" t="n">
+        <v>1.856975311795136</v>
+      </c>
+      <c r="U98" t="n">
+        <v>1.841327075822099</v>
+      </c>
+      <c r="V98" t="n">
+        <v>1.306677041801233</v>
+      </c>
+      <c r="W98" t="n">
+        <v>1.305303874371965</v>
+      </c>
+      <c r="X98" t="n">
+        <v>0.6678304262298093</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>0.6657276797914609</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>0.309027514765056</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>0.3019613613908217</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>1.848856245999864</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>1.859283797592026</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>1.299272133811691</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>1.313901910908365</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>0.6696667332327956</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>0.6653703041897033</v>
+      </c>
+    </row>
+    <row r="99" spans="1:34">
+      <c r="A99" t="s">
+        <v>174</v>
+      </c>
+      <c r="B99" t="s">
+        <v>34</v>
+      </c>
+      <c r="C99" t="s">
+        <v>35</v>
+      </c>
+      <c r="D99" t="s">
+        <v>36</v>
+      </c>
+      <c r="E99" t="s">
+        <v>37</v>
+      </c>
+      <c r="F99" t="s">
+        <v>38</v>
+      </c>
+      <c r="G99" t="s">
+        <v>39</v>
+      </c>
+      <c r="H99" t="s">
+        <v>175</v>
+      </c>
+      <c r="I99" t="s">
+        <v>40</v>
+      </c>
+      <c r="J99" t="s">
+        <v>41</v>
+      </c>
+      <c r="K99" t="s">
+        <v>169</v>
+      </c>
+      <c r="L99" t="s">
+        <v>43</v>
+      </c>
+      <c r="M99" t="s">
+        <v>37</v>
+      </c>
+      <c r="N99" t="s">
+        <v>78</v>
+      </c>
+      <c r="O99" t="n">
+        <v>19</v>
+      </c>
+      <c r="P99" t="n">
+        <v>0.002331232516984176</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>0.00233359257436971</v>
+      </c>
+      <c r="R99" t="n">
+        <v>0.3036953383051346</v>
+      </c>
+      <c r="S99" t="n">
+        <v>0.2979461413946057</v>
+      </c>
+      <c r="T99" t="n">
+        <v>1.83948138275615</v>
+      </c>
+      <c r="U99" t="n">
+        <v>1.828311571391865</v>
+      </c>
+      <c r="V99" t="n">
+        <v>1.300080108893005</v>
+      </c>
+      <c r="W99" t="n">
+        <v>1.299796085686056</v>
+      </c>
+      <c r="X99" t="n">
+        <v>0.6685580628797425</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>0.6675355798944691</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>0.3044436334088514</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>0.3010784334335386</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>1.834568928945129</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>1.842633837671549</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>1.295753310517219</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>1.304652189451113</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>0.670144173053572</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>0.666694696125628</v>
+      </c>
+    </row>
+    <row r="100" spans="1:34">
+      <c r="A100" t="s">
+        <v>176</v>
+      </c>
+      <c r="B100" t="s">
+        <v>34</v>
+      </c>
+      <c r="C100" t="s">
+        <v>35</v>
+      </c>
+      <c r="D100" t="s">
+        <v>36</v>
+      </c>
+      <c r="E100" t="s">
+        <v>37</v>
+      </c>
+      <c r="F100" t="s">
+        <v>38</v>
+      </c>
+      <c r="G100" t="s">
+        <v>39</v>
+      </c>
+      <c r="H100" t="s">
+        <v>177</v>
+      </c>
+      <c r="I100" t="s">
+        <v>40</v>
+      </c>
+      <c r="J100" t="s">
+        <v>41</v>
+      </c>
+      <c r="K100" t="s">
+        <v>169</v>
+      </c>
+      <c r="L100" t="s">
+        <v>43</v>
+      </c>
+      <c r="M100" t="s">
+        <v>37</v>
+      </c>
+      <c r="N100" t="s">
+        <v>78</v>
+      </c>
+      <c r="O100" t="n">
+        <v>20</v>
+      </c>
+      <c r="P100" t="n">
+        <v>0.002456652950862874</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>0.002458831320000621</v>
+      </c>
+      <c r="R100" t="n">
+        <v>0.305651005263315</v>
+      </c>
+      <c r="S100" t="n">
+        <v>0.2998381298744981</v>
+      </c>
+      <c r="T100" t="n">
+        <v>1.811771462522092</v>
+      </c>
+      <c r="U100" t="n">
+        <v>1.798618084361178</v>
+      </c>
+      <c r="V100" t="n">
+        <v>1.281225826739844</v>
+      </c>
+      <c r="W100" t="n">
+        <v>1.279846118270302</v>
+      </c>
+      <c r="X100" t="n">
+        <v>0.6725566213787452</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>0.6721604406230949</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>0.3064360265070916</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>0.3008471903971073</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>1.806957074675159</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>1.814200700505592</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>1.277190542100781</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>1.287203851247661</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>0.6735964302191862</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>0.6717399987386743</v>
+      </c>
+    </row>
+    <row r="101" spans="1:34">
+      <c r="A101" t="s">
+        <v>178</v>
+      </c>
+      <c r="B101" t="s">
+        <v>34</v>
+      </c>
+      <c r="C101" t="s">
+        <v>35</v>
+      </c>
+      <c r="D101" t="s">
+        <v>36</v>
+      </c>
+      <c r="E101" t="s">
+        <v>37</v>
+      </c>
+      <c r="F101" t="s">
+        <v>38</v>
+      </c>
+      <c r="G101" t="s">
+        <v>39</v>
+      </c>
+      <c r="H101" t="s">
+        <v>179</v>
+      </c>
+      <c r="I101" t="s">
+        <v>40</v>
+      </c>
+      <c r="J101" t="s">
+        <v>41</v>
+      </c>
+      <c r="K101" t="s">
+        <v>169</v>
+      </c>
+      <c r="L101" t="s">
+        <v>43</v>
+      </c>
+      <c r="M101" t="s">
+        <v>37</v>
+      </c>
+      <c r="N101" t="s">
+        <v>78</v>
+      </c>
+      <c r="O101" t="n">
+        <v>22</v>
+      </c>
+      <c r="P101" t="n">
+        <v>0.002525097054058948</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>0.002527217785524057</v>
+      </c>
+      <c r="R101" t="n">
+        <v>0.3034382553247165</v>
+      </c>
+      <c r="S101" t="n">
+        <v>0.3018772730139376</v>
+      </c>
+      <c r="T101" t="n">
+        <v>1.789852144443028</v>
+      </c>
+      <c r="U101" t="n">
+        <v>1.792588702503566</v>
+      </c>
+      <c r="V101" t="n">
+        <v>1.270774944509098</v>
+      </c>
+      <c r="W101" t="n">
+        <v>1.27509512497635</v>
+      </c>
+      <c r="X101" t="n">
+        <v>0.6745995129195674</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>0.672244528999979</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>0.3028391601649922</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>0.3042948138493557</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>1.786772272096571</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>1.801397660218388</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>1.269344920430522</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>1.27816435073262</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>0.6750631804378215</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>0.6711303580062646</v>
+      </c>
+    </row>
+    <row r="102" spans="1:34">
+      <c r="A102" t="s">
+        <v>180</v>
+      </c>
+      <c r="B102" t="s">
+        <v>34</v>
+      </c>
+      <c r="C102" t="s">
+        <v>35</v>
+      </c>
+      <c r="D102" t="s">
+        <v>36</v>
+      </c>
+      <c r="E102" t="s">
+        <v>37</v>
+      </c>
+      <c r="F102" t="s">
+        <v>38</v>
+      </c>
+      <c r="G102" t="s">
+        <v>39</v>
+      </c>
+      <c r="H102" t="s">
+        <v>181</v>
+      </c>
+      <c r="I102" t="s">
+        <v>40</v>
+      </c>
+      <c r="J102" t="s">
+        <v>41</v>
+      </c>
+      <c r="K102" t="s">
+        <v>169</v>
+      </c>
+      <c r="L102" t="s">
+        <v>43</v>
+      </c>
+      <c r="M102" t="s">
+        <v>37</v>
+      </c>
+      <c r="N102" t="s">
+        <v>78</v>
+      </c>
+      <c r="O102" t="n">
+        <v>25</v>
+      </c>
+      <c r="P102" t="n">
+        <v>0.002536529513388738</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>0.002538734907389123</v>
+      </c>
+      <c r="R102" t="n">
+        <v>0.3015376775766256</v>
+      </c>
+      <c r="S102" t="n">
+        <v>0.3001114170993714</v>
+      </c>
+      <c r="T102" t="n">
+        <v>1.767224030013996</v>
+      </c>
+      <c r="U102" t="n">
+        <v>1.768711362890894</v>
+      </c>
+      <c r="V102" t="n">
+        <v>1.259330161112986</v>
+      </c>
+      <c r="W102" t="n">
+        <v>1.261115432319368</v>
+      </c>
+      <c r="X102" t="n">
+        <v>0.6769178505108376</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>0.6767853013517207</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>0.3015789944841928</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>0.2998591519687192</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>1.767366899283997</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>1.77109281095091</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>1.258930764339836</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>1.261935293993988</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>0.677705167138368</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>0.6775631188378987</v>
+      </c>
+    </row>
+    <row r="103" spans="1:34">
+      <c r="A103" t="s">
+        <v>182</v>
+      </c>
+      <c r="B103" t="s">
+        <v>34</v>
+      </c>
+      <c r="C103" t="s">
+        <v>35</v>
+      </c>
+      <c r="D103" t="s">
+        <v>36</v>
+      </c>
+      <c r="E103" t="s">
+        <v>37</v>
+      </c>
+      <c r="F103" t="s">
+        <v>38</v>
+      </c>
+      <c r="G103" t="s">
+        <v>39</v>
+      </c>
+      <c r="H103" t="s">
+        <v>183</v>
+      </c>
+      <c r="I103" t="s">
+        <v>40</v>
+      </c>
+      <c r="J103" t="s">
+        <v>41</v>
+      </c>
+      <c r="K103" t="s">
+        <v>169</v>
+      </c>
+      <c r="L103" t="s">
+        <v>43</v>
+      </c>
+      <c r="M103" t="s">
+        <v>37</v>
+      </c>
+      <c r="N103" t="s">
+        <v>78</v>
+      </c>
+      <c r="O103" t="n">
+        <v>15</v>
+      </c>
+      <c r="P103" t="n">
+        <v>0.002491228033738092</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>0.002493702574548503</v>
+      </c>
+      <c r="R103" t="n">
+        <v>0.2996485767473035</v>
+      </c>
+      <c r="S103" t="n">
+        <v>0.2948138493556728</v>
+      </c>
+      <c r="T103" t="n">
+        <v>1.739367247373324</v>
+      </c>
+      <c r="U103" t="n">
+        <v>1.726202984981596</v>
+      </c>
+      <c r="V103" t="n">
+        <v>1.245094191072334</v>
+      </c>
+      <c r="W103" t="n">
+        <v>1.243688116210137</v>
+      </c>
+      <c r="X103" t="n">
+        <v>0.6800602308696979</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>0.6789926212449284</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>0.3019324835822677</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>0.2989131577287729</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>1.731820200382736</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>1.746247662654181</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>1.237677806164023</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>1.248712396728962</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>0.6827641929315953</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>0.6808846097248208</v>
+      </c>
+    </row>
+    <row r="104" spans="1:34">
+      <c r="A104" t="s">
+        <v>184</v>
+      </c>
+      <c r="B104" t="s">
+        <v>34</v>
+      </c>
+      <c r="C104" t="s">
+        <v>35</v>
+      </c>
+      <c r="D104" t="s">
+        <v>36</v>
+      </c>
+      <c r="E104" t="s">
+        <v>37</v>
+      </c>
+      <c r="F104" t="s">
+        <v>38</v>
+      </c>
+      <c r="G104" t="s">
+        <v>39</v>
+      </c>
+      <c r="H104" t="s">
+        <v>185</v>
+      </c>
+      <c r="I104" t="s">
+        <v>40</v>
+      </c>
+      <c r="J104" t="s">
+        <v>41</v>
+      </c>
+      <c r="K104" t="s">
+        <v>169</v>
+      </c>
+      <c r="L104" t="s">
+        <v>43</v>
+      </c>
+      <c r="M104" t="s">
+        <v>37</v>
+      </c>
+      <c r="N104" t="s">
+        <v>78</v>
+      </c>
+      <c r="O104" t="n">
+        <v>28</v>
+      </c>
+      <c r="P104" t="n">
+        <v>0.002386233758927158</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>0.002389152691461472</v>
+      </c>
+      <c r="R104" t="n">
+        <v>0.2972797407134512</v>
+      </c>
+      <c r="S104" t="n">
+        <v>0.2948138493556728</v>
+      </c>
+      <c r="T104" t="n">
+        <v>1.715579262503674</v>
+      </c>
+      <c r="U104" t="n">
+        <v>1.715777383731375</v>
+      </c>
+      <c r="V104" t="n">
+        <v>1.23373433687511</v>
+      </c>
+      <c r="W104" t="n">
+        <v>1.236982068153629</v>
+      </c>
+      <c r="X104" t="n">
+        <v>0.6831245681809314</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>0.6811999411381362</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>0.2969836362092196</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>0.2971683239084277</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>1.716389877342025</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>1.727061336676998</v>
+      </c>
+      <c r="AE104" t="n">
+        <v>1.234409179698708</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>1.240555824171204</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>0.6828743713517744</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>0.6809056318190418</v>
+      </c>
+    </row>
+    <row r="105" spans="1:34">
+      <c r="A105" t="s">
+        <v>186</v>
+      </c>
+      <c r="B105" t="s">
+        <v>34</v>
+      </c>
+      <c r="C105" t="s">
+        <v>35</v>
+      </c>
+      <c r="D105" t="s">
+        <v>36</v>
+      </c>
+      <c r="E105" t="s">
+        <v>37</v>
+      </c>
+      <c r="F105" t="s">
+        <v>38</v>
+      </c>
+      <c r="G105" t="s">
+        <v>39</v>
+      </c>
+      <c r="H105" t="s">
+        <v>187</v>
+      </c>
+      <c r="I105" t="s">
+        <v>40</v>
+      </c>
+      <c r="J105" t="s">
+        <v>41</v>
+      </c>
+      <c r="K105" t="s">
+        <v>169</v>
+      </c>
+      <c r="L105" t="s">
+        <v>43</v>
+      </c>
+      <c r="M105" t="s">
+        <v>37</v>
+      </c>
+      <c r="N105" t="s">
+        <v>78</v>
+      </c>
+      <c r="O105" t="n">
+        <v>11</v>
+      </c>
+      <c r="P105" t="n">
+        <v>0.001009113690700909</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>0.00101191657763025</v>
+      </c>
+      <c r="R105" t="n">
+        <v>0.3172013763120987</v>
+      </c>
+      <c r="S105" t="n">
+        <v>0.3104122432676743</v>
+      </c>
+      <c r="T105" t="n">
+        <v>1.87795373559902</v>
+      </c>
+      <c r="U105" t="n">
+        <v>1.856415373298273</v>
+      </c>
+      <c r="V105" t="n">
+        <v>1.306895103257838</v>
+      </c>
+      <c r="W105" t="n">
+        <v>1.301183543904644</v>
+      </c>
+      <c r="X105" t="n">
+        <v>0.6696139394064596</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>0.6704156068027497</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>0.3242688628898422</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>0.3143854190754483</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>1.855929287258899</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>1.871168575169103</v>
+      </c>
+      <c r="AE105" t="n">
+        <v>1.285426379009175</v>
+      </c>
+      <c r="AF105" t="n">
+        <v>1.305345918560407</v>
+      </c>
+      <c r="AG105" t="n">
+        <v>0.6752605834406425</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>0.6702474300489815</v>
+      </c>
+    </row>
+    <row r="106" spans="1:34">
+      <c r="A106" t="s">
+        <v>188</v>
+      </c>
+      <c r="B106" t="s">
+        <v>34</v>
+      </c>
+      <c r="C106" t="s">
+        <v>35</v>
+      </c>
+      <c r="D106" t="s">
+        <v>36</v>
+      </c>
+      <c r="E106" t="s">
+        <v>37</v>
+      </c>
+      <c r="F106" t="s">
+        <v>38</v>
+      </c>
+      <c r="G106" t="s">
+        <v>39</v>
+      </c>
+      <c r="H106" t="s">
+        <v>168</v>
+      </c>
+      <c r="I106" t="s">
+        <v>40</v>
+      </c>
+      <c r="J106" t="s">
+        <v>41</v>
+      </c>
+      <c r="K106" t="s">
+        <v>169</v>
+      </c>
+      <c r="L106" t="s">
+        <v>43</v>
+      </c>
+      <c r="M106" t="s">
+        <v>37</v>
+      </c>
+      <c r="N106" t="s">
+        <v>78</v>
+      </c>
+      <c r="O106" t="n">
+        <v>27</v>
+      </c>
+      <c r="P106" t="n">
+        <v>0.001518736351939445</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>0.001520966764728764</v>
+      </c>
+      <c r="R106" t="n">
+        <v>0.3146328418916717</v>
+      </c>
+      <c r="S106" t="n">
+        <v>0.3097815804410435</v>
+      </c>
+      <c r="T106" t="n">
+        <v>1.864182548034193</v>
+      </c>
+      <c r="U106" t="n">
+        <v>1.855611193337328</v>
+      </c>
+      <c r="V106" t="n">
+        <v>1.300901856276842</v>
+      </c>
+      <c r="W106" t="n">
+        <v>1.30109945552776</v>
+      </c>
+      <c r="X106" t="n">
+        <v>0.6713699079780653</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>0.6707099161218441</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>0.3154477031242468</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>0.3099497571948118</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>1.865144567373355</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>1.881744284059253</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>1.300532299492491</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>1.317328512266392</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>0.6714892679332595</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>0.665895856545229</v>
+      </c>
+    </row>
+    <row r="107" spans="1:34">
+      <c r="A107" t="s">
+        <v>189</v>
+      </c>
+      <c r="B107" t="s">
+        <v>34</v>
+      </c>
+      <c r="C107" t="s">
+        <v>35</v>
+      </c>
+      <c r="D107" t="s">
+        <v>36</v>
+      </c>
+      <c r="E107" t="s">
+        <v>37</v>
+      </c>
+      <c r="F107" t="s">
+        <v>38</v>
+      </c>
+      <c r="G107" t="s">
+        <v>39</v>
+      </c>
+      <c r="H107" t="s">
+        <v>171</v>
+      </c>
+      <c r="I107" t="s">
+        <v>40</v>
+      </c>
+      <c r="J107" t="s">
+        <v>41</v>
+      </c>
+      <c r="K107" t="s">
+        <v>169</v>
+      </c>
+      <c r="L107" t="s">
+        <v>43</v>
+      </c>
+      <c r="M107" t="s">
+        <v>37</v>
+      </c>
+      <c r="N107" t="s">
+        <v>78</v>
+      </c>
+      <c r="O107" t="n">
+        <v>10</v>
+      </c>
+      <c r="P107" t="n">
+        <v>0.001880810863059309</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>0.001881699596004386</v>
+      </c>
+      <c r="R107" t="n">
+        <v>0.3028965447588355</v>
+      </c>
+      <c r="S107" t="n">
+        <v>0.3007000357375602</v>
+      </c>
+      <c r="T107" t="n">
+        <v>1.889225380178505</v>
+      </c>
+      <c r="U107" t="n">
+        <v>1.831103476015709</v>
+      </c>
+      <c r="V107" t="n">
+        <v>1.331425869433981</v>
+      </c>
+      <c r="W107" t="n">
+        <v>1.301351720658412</v>
+      </c>
+      <c r="X107" t="n">
+        <v>0.6609557518873793</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>0.6632680947676007</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>0.3127758764349018</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>0.3067333767789947</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>1.854006328629631</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>1.862988656379104</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>1.297546005228884</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>1.309403182745065</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>0.6709567389023934</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>0.6677037566482373</v>
+      </c>
+    </row>
+    <row r="108" spans="1:34">
+      <c r="A108" t="s">
+        <v>190</v>
+      </c>
+      <c r="B108" t="s">
+        <v>34</v>
+      </c>
+      <c r="C108" t="s">
+        <v>35</v>
+      </c>
+      <c r="D108" t="s">
+        <v>36</v>
+      </c>
+      <c r="E108" t="s">
+        <v>37</v>
+      </c>
+      <c r="F108" t="s">
+        <v>38</v>
+      </c>
+      <c r="G108" t="s">
+        <v>39</v>
+      </c>
+      <c r="H108" t="s">
+        <v>173</v>
+      </c>
+      <c r="I108" t="s">
+        <v>40</v>
+      </c>
+      <c r="J108" t="s">
+        <v>41</v>
+      </c>
+      <c r="K108" t="s">
+        <v>169</v>
+      </c>
+      <c r="L108" t="s">
+        <v>43</v>
+      </c>
+      <c r="M108" t="s">
+        <v>37</v>
+      </c>
+      <c r="N108" t="s">
+        <v>78</v>
+      </c>
+      <c r="O108" t="n">
+        <v>8</v>
+      </c>
+      <c r="P108" t="n">
+        <v>0.002148734665855656</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>0.002149218461058876</v>
+      </c>
+      <c r="R108" t="n">
+        <v>0.2928335823824706</v>
+      </c>
+      <c r="S108" t="n">
+        <v>0.2896424141773004</v>
+      </c>
+      <c r="T108" t="n">
+        <v>1.915233574419261</v>
+      </c>
+      <c r="U108" t="n">
+        <v>1.848158784067693</v>
+      </c>
+      <c r="V108" t="n">
+        <v>1.360574947722635</v>
+      </c>
+      <c r="W108" t="n">
+        <v>1.325001576657067</v>
+      </c>
+      <c r="X108" t="n">
+        <v>0.6515676323346119</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>0.6555319640942631</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>0.3072003892970847</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>0.3041686812840295</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>1.858463582661598</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>1.871438189527771</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>1.307184321610809</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>1.318505749542769</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>0.6672473987563611</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>0.6646345308919674</v>
+      </c>
+    </row>
+    <row r="109" spans="1:34">
+      <c r="A109" t="s">
+        <v>191</v>
+      </c>
+      <c r="B109" t="s">
+        <v>34</v>
+      </c>
+      <c r="C109" t="s">
+        <v>35</v>
+      </c>
+      <c r="D109" t="s">
+        <v>36</v>
+      </c>
+      <c r="E109" t="s">
+        <v>37</v>
+      </c>
+      <c r="F109" t="s">
+        <v>38</v>
+      </c>
+      <c r="G109" t="s">
+        <v>39</v>
+      </c>
+      <c r="H109" t="s">
+        <v>175</v>
+      </c>
+      <c r="I109" t="s">
+        <v>40</v>
+      </c>
+      <c r="J109" t="s">
+        <v>41</v>
+      </c>
+      <c r="K109" t="s">
+        <v>169</v>
+      </c>
+      <c r="L109" t="s">
+        <v>43</v>
+      </c>
+      <c r="M109" t="s">
+        <v>37</v>
+      </c>
+      <c r="N109" t="s">
+        <v>78</v>
+      </c>
+      <c r="O109" t="n">
+        <v>20</v>
+      </c>
+      <c r="P109" t="n">
+        <v>0.002329954042728616</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>0.002331541154760968</v>
+      </c>
+      <c r="R109" t="n">
+        <v>0.3053916268991431</v>
+      </c>
+      <c r="S109" t="n">
+        <v>0.3017301183543905</v>
+      </c>
+      <c r="T109" t="n">
+        <v>1.831259689916315</v>
+      </c>
+      <c r="U109" t="n">
+        <v>1.809844354897678</v>
+      </c>
+      <c r="V109" t="n">
+        <v>1.292532887110732</v>
+      </c>
+      <c r="W109" t="n">
+        <v>1.284576089470033</v>
+      </c>
+      <c r="X109" t="n">
+        <v>0.6708075389584007</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>0.6711724021947066</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>0.3066494971961887</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>0.3024238474636843</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>1.828282217064266</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>1.835644148112554</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>1.289500685172051</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>1.299081334482541</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>0.6714227018044012</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>0.6681031764384368</v>
+      </c>
+    </row>
+    <row r="110" spans="1:34">
+      <c r="A110" t="s">
+        <v>192</v>
+      </c>
+      <c r="B110" t="s">
+        <v>34</v>
+      </c>
+      <c r="C110" t="s">
+        <v>35</v>
+      </c>
+      <c r="D110" t="s">
+        <v>36</v>
+      </c>
+      <c r="E110" t="s">
+        <v>37</v>
+      </c>
+      <c r="F110" t="s">
+        <v>38</v>
+      </c>
+      <c r="G110" t="s">
+        <v>39</v>
+      </c>
+      <c r="H110" t="s">
+        <v>177</v>
+      </c>
+      <c r="I110" t="s">
+        <v>40</v>
+      </c>
+      <c r="J110" t="s">
+        <v>41</v>
+      </c>
+      <c r="K110" t="s">
+        <v>169</v>
+      </c>
+      <c r="L110" t="s">
+        <v>43</v>
+      </c>
+      <c r="M110" t="s">
+        <v>37</v>
+      </c>
+      <c r="N110" t="s">
+        <v>78</v>
+      </c>
+      <c r="O110" t="n">
+        <v>9</v>
+      </c>
+      <c r="P110" t="n">
+        <v>0.002463380937758182</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>0.002467705487287749</v>
+      </c>
+      <c r="R110" t="n">
+        <v>0.2931870714805455</v>
+      </c>
+      <c r="S110" t="n">
+        <v>0.2851857302024428</v>
+      </c>
+      <c r="T110" t="n">
+        <v>1.855381929599206</v>
+      </c>
+      <c r="U110" t="n">
+        <v>1.799675529767819</v>
+      </c>
+      <c r="V110" t="n">
+        <v>1.32277915883367</v>
+      </c>
+      <c r="W110" t="n">
+        <v>1.305598183691059</v>
+      </c>
+      <c r="X110" t="n">
+        <v>0.6605930812542895</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>0.6537030418970338</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>0.3041613012071423</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>0.2994387100842986</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>1.815985431717254</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>1.823821802861505</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>1.285430969776682</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>1.295423490088083</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>0.6717004432386029</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>0.6680190880615527</v>
+      </c>
+    </row>
+    <row r="111" spans="1:34">
+      <c r="A111" t="s">
+        <v>193</v>
+      </c>
+      <c r="B111" t="s">
+        <v>34</v>
+      </c>
+      <c r="C111" t="s">
+        <v>35</v>
+      </c>
+      <c r="D111" t="s">
+        <v>36</v>
+      </c>
+      <c r="E111" t="s">
+        <v>37</v>
+      </c>
+      <c r="F111" t="s">
+        <v>38</v>
+      </c>
+      <c r="G111" t="s">
+        <v>39</v>
+      </c>
+      <c r="H111" t="s">
+        <v>179</v>
+      </c>
+      <c r="I111" t="s">
+        <v>40</v>
+      </c>
+      <c r="J111" t="s">
+        <v>41</v>
+      </c>
+      <c r="K111" t="s">
+        <v>169</v>
+      </c>
+      <c r="L111" t="s">
+        <v>43</v>
+      </c>
+      <c r="M111" t="s">
+        <v>37</v>
+      </c>
+      <c r="N111" t="s">
+        <v>78</v>
+      </c>
+      <c r="O111" t="n">
+        <v>10</v>
+      </c>
+      <c r="P111" t="n">
+        <v>0.002530177234808434</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>0.002536749088725848</v>
+      </c>
+      <c r="R111" t="n">
+        <v>0.2947112062930241</v>
+      </c>
+      <c r="S111" t="n">
+        <v>0.2812125543946688</v>
+      </c>
+      <c r="T111" t="n">
+        <v>1.825997687435858</v>
+      </c>
+      <c r="U111" t="n">
+        <v>1.759416215178934</v>
+      </c>
+      <c r="V111" t="n">
+        <v>1.303491049151052</v>
+      </c>
+      <c r="W111" t="n">
+        <v>1.28697260821123</v>
+      </c>
+      <c r="X111" t="n">
+        <v>0.6644332582742846</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>0.6558472955075785</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>0.3041016212295453</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>0.301330698564191</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>1.791212299894328</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>1.794294202677402</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>1.270784126044113</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>1.275074102882129</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>0.6748520051324781</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>0.673884252349219</v>
+      </c>
+    </row>
+    <row r="112" spans="1:34">
+      <c r="A112" t="s">
+        <v>194</v>
+      </c>
+      <c r="B112" t="s">
+        <v>34</v>
+      </c>
+      <c r="C112" t="s">
+        <v>35</v>
+      </c>
+      <c r="D112" t="s">
+        <v>36</v>
+      </c>
+      <c r="E112" t="s">
+        <v>37</v>
+      </c>
+      <c r="F112" t="s">
+        <v>38</v>
+      </c>
+      <c r="G112" t="s">
+        <v>39</v>
+      </c>
+      <c r="H112" t="s">
+        <v>181</v>
+      </c>
+      <c r="I112" t="s">
+        <v>40</v>
+      </c>
+      <c r="J112" t="s">
+        <v>41</v>
+      </c>
+      <c r="K112" t="s">
+        <v>169</v>
+      </c>
+      <c r="L112" t="s">
+        <v>43</v>
+      </c>
+      <c r="M112" t="s">
+        <v>37</v>
+      </c>
+      <c r="N112" t="s">
+        <v>78</v>
+      </c>
+      <c r="O112" t="n">
+        <v>9</v>
+      </c>
+      <c r="P112" t="n">
+        <v>0.002543206998523961</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>0.002552029313733197</v>
+      </c>
+      <c r="R112" t="n">
+        <v>0.2923308933404031</v>
+      </c>
+      <c r="S112" t="n">
+        <v>0.2759149866509702</v>
+      </c>
+      <c r="T112" t="n">
+        <v>1.80422894407766</v>
+      </c>
+      <c r="U112" t="n">
+        <v>1.750990385943218</v>
+      </c>
+      <c r="V112" t="n">
+        <v>1.293207729934329</v>
+      </c>
+      <c r="W112" t="n">
+        <v>1.289474237423532</v>
+      </c>
+      <c r="X112" t="n">
+        <v>0.6663499037086515</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>0.6539973512161281</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>0.3015789944841928</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>0.2978200088292796</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>1.767422095681674</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>1.767492674922319</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>1.259158007331456</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>1.26340684058946</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>0.6775628533456366</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>0.6755870419811222</v>
+      </c>
+    </row>
+    <row r="113" spans="1:34">
+      <c r="A113" t="s">
+        <v>195</v>
+      </c>
+      <c r="B113" t="s">
+        <v>34</v>
+      </c>
+      <c r="C113" t="s">
+        <v>35</v>
+      </c>
+      <c r="D113" t="s">
+        <v>36</v>
+      </c>
+      <c r="E113" t="s">
+        <v>37</v>
+      </c>
+      <c r="F113" t="s">
+        <v>38</v>
+      </c>
+      <c r="G113" t="s">
+        <v>39</v>
+      </c>
+      <c r="H113" t="s">
+        <v>183</v>
+      </c>
+      <c r="I113" t="s">
+        <v>40</v>
+      </c>
+      <c r="J113" t="s">
+        <v>41</v>
+      </c>
+      <c r="K113" t="s">
+        <v>169</v>
+      </c>
+      <c r="L113" t="s">
+        <v>43</v>
+      </c>
+      <c r="M113" t="s">
+        <v>37</v>
+      </c>
+      <c r="N113" t="s">
+        <v>78</v>
+      </c>
+      <c r="O113" t="n">
+        <v>30</v>
+      </c>
+      <c r="P113" t="n">
+        <v>0.002490032881920891</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>0.002493088437704505</v>
+      </c>
+      <c r="R113" t="n">
+        <v>0.3014458622264763</v>
+      </c>
+      <c r="S113" t="n">
+        <v>0.2967899262124493</v>
+      </c>
+      <c r="T113" t="n">
+        <v>1.73512197992924</v>
+      </c>
+      <c r="U113" t="n">
+        <v>1.730381149946224</v>
+      </c>
+      <c r="V113" t="n">
+        <v>1.23930523324542</v>
+      </c>
+      <c r="W113" t="n">
+        <v>1.243204608043053</v>
+      </c>
+      <c r="X113" t="n">
+        <v>0.6832003158448046</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>0.6797494166368854</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>0.3014458622264763</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>0.2967899262124493</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>1.73512197992924</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>1.730381149946224</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>1.23930523324542</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>1.243204608043053</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>0.6832003158448046</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>0.6797494166368854</v>
+      </c>
+    </row>
+    <row r="114" spans="1:34">
+      <c r="A114" t="s">
+        <v>196</v>
+      </c>
+      <c r="B114" t="s">
+        <v>34</v>
+      </c>
+      <c r="C114" t="s">
+        <v>35</v>
+      </c>
+      <c r="D114" t="s">
+        <v>36</v>
+      </c>
+      <c r="E114" t="s">
+        <v>37</v>
+      </c>
+      <c r="F114" t="s">
+        <v>38</v>
+      </c>
+      <c r="G114" t="s">
+        <v>39</v>
+      </c>
+      <c r="H114" t="s">
+        <v>185</v>
+      </c>
+      <c r="I114" t="s">
+        <v>40</v>
+      </c>
+      <c r="J114" t="s">
+        <v>41</v>
+      </c>
+      <c r="K114" t="s">
+        <v>169</v>
+      </c>
+      <c r="L114" t="s">
+        <v>43</v>
+      </c>
+      <c r="M114" t="s">
+        <v>37</v>
+      </c>
+      <c r="N114" t="s">
+        <v>78</v>
+      </c>
+      <c r="O114" t="n">
+        <v>26</v>
+      </c>
+      <c r="P114" t="n">
+        <v>0.002386610761517107</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>0.002389313649939765</v>
+      </c>
+      <c r="R114" t="n">
+        <v>0.2954640921642485</v>
+      </c>
+      <c r="S114" t="n">
+        <v>0.2937837667388425</v>
+      </c>
+      <c r="T114" t="n">
+        <v>1.718729283384673</v>
+      </c>
+      <c r="U114" t="n">
+        <v>1.715808014025808</v>
+      </c>
+      <c r="V114" t="n">
+        <v>1.237363338589762</v>
+      </c>
+      <c r="W114" t="n">
+        <v>1.238138283335786</v>
+      </c>
+      <c r="X114" t="n">
+        <v>0.6818414486625947</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>0.6807794992537156</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>0.29643044872457</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>0.2941411423406</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>1.717092501692133</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>1.724990825659484</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>1.235522440819268</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>1.242069414955118</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>0.6823670915421994</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>0.6811368748554731</v>
+      </c>
+    </row>
+    <row r="115" spans="1:34">
+      <c r="A115" t="s">
+        <v>197</v>
+      </c>
+      <c r="B115" t="s">
+        <v>34</v>
+      </c>
+      <c r="C115" t="s">
+        <v>35</v>
+      </c>
+      <c r="D115" t="s">
+        <v>36</v>
+      </c>
+      <c r="E115" t="s">
+        <v>37</v>
+      </c>
+      <c r="F115" t="s">
+        <v>38</v>
+      </c>
+      <c r="G115" t="s">
+        <v>39</v>
+      </c>
+      <c r="H115" t="s">
+        <v>82</v>
+      </c>
+      <c r="I115" t="s">
+        <v>40</v>
+      </c>
+      <c r="J115" t="s">
+        <v>41</v>
+      </c>
+      <c r="K115" t="s">
+        <v>169</v>
+      </c>
+      <c r="L115" t="s">
+        <v>43</v>
+      </c>
+      <c r="M115" t="s">
+        <v>37</v>
+      </c>
+      <c r="N115" t="s">
+        <v>78</v>
+      </c>
+      <c r="O115" t="n">
+        <v>24</v>
+      </c>
+      <c r="P115" t="n">
+        <v>0.002215294128924313</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>0.002219941834884795</v>
+      </c>
+      <c r="R115" t="n">
+        <v>0.2905864016875661</v>
+      </c>
+      <c r="S115" t="n">
+        <v>0.2895162816119742</v>
+      </c>
+      <c r="T115" t="n">
+        <v>1.690900285632533</v>
+      </c>
+      <c r="U115" t="n">
+        <v>1.694777199372544</v>
+      </c>
+      <c r="V115" t="n">
+        <v>1.225817558308486</v>
+      </c>
+      <c r="W115" t="n">
+        <v>1.230864638735311</v>
+      </c>
+      <c r="X115" t="n">
+        <v>0.685275342758179</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>0.6811999411381362</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>0.2908687338892753</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>0.2920179108242763</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>1.690583281515344</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>1.699669735550897</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>1.225181737008702</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>1.229309003762955</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>0.6856242410887464</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>0.684269166894406</v>
       </c>
     </row>
   </sheetData>
